--- a/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
+++ b/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/tps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C3D83F-00F2-0547-A200-285AED945A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24687699-AA8E-BD41-9C89-3AB04E7A76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1180" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PR Test Plan" sheetId="1" r:id="rId1"/>
@@ -367,8 +367,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -393,10 +393,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,10 +405,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,34 +423,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -471,17 +447,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -953,7 +926,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="103" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="28" customWidth="1"/>
     <col min="3" max="3" width="5" style="16" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="28" style="12" customWidth="1"/>
@@ -964,7 +937,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15"/>
@@ -990,7 +963,7 @@
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15"/>
@@ -1019,11 +992,11 @@
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="26"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="11"/>
@@ -1044,14 +1017,14 @@
       <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="D4" s="26" t="s">
+      <c r="B4" s="27"/>
+      <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="11"/>
@@ -1072,14 +1045,14 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="D5" s="22" t="s">
+      <c r="B5" s="27"/>
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11"/>
@@ -1100,14 +1073,14 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="D6" s="22" t="s">
+      <c r="B6" s="27"/>
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="11"/>
@@ -1128,12 +1101,12 @@
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1152,10 +1125,10 @@
       <c r="U7" s="11"/>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="27"/>
       <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
@@ -1178,10 +1151,10 @@
       <c r="U8" s="11"/>
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="9"/>
@@ -1206,8 +1179,8 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="26"/>
+      <c r="D10" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="10"/>
@@ -1229,11 +1202,11 @@
       <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="27"/>
+      <c r="D11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="13"/>
@@ -1255,12 +1228,12 @@
       <c r="U11" s="11"/>
     </row>
     <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="14"/>
@@ -1285,10 +1258,10 @@
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1307,10 +1280,10 @@
       <c r="U13" s="11"/>
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="17"/>
       <c r="D14" s="20" t="s">
         <v>29</v>
@@ -1334,15 +1307,15 @@
       <c r="U14" s="11"/>
     </row>
     <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1364,12 +1337,12 @@
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1388,10 +1361,9 @@
       <c r="U16" s="11"/>
     </row>
     <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="35"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="19"/>
@@ -1405,13 +1377,11 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="37"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1430,13 +1400,11 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="37"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1455,13 +1423,11 @@
       <c r="U19" s="11"/>
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="37"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1480,10 +1446,8 @@
       <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="37"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="11"/>
@@ -1508,7 +1472,7 @@
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="17"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1554,7 +1518,7 @@
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="17"/>
       <c r="D24" s="11"/>
       <c r="F24" s="11"/>
@@ -1576,7 +1540,7 @@
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="17"/>
       <c r="D25" s="11"/>
       <c r="F25" s="11"/>
@@ -1598,7 +1562,7 @@
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="38"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="17"/>
       <c r="D26" s="11"/>
       <c r="F26" s="11"/>
@@ -1620,7 +1584,7 @@
     </row>
     <row r="27" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
-      <c r="B27" s="38"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="17"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1643,7 +1607,7 @@
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-      <c r="B28" s="38"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="17"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1666,7 +1630,7 @@
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
-      <c r="B29" s="38"/>
+      <c r="B29" s="27"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1688,7 +1652,7 @@
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="B30" s="38"/>
+      <c r="B30" s="27"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -1710,7 +1674,7 @@
     </row>
     <row r="31" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="B31" s="38"/>
+      <c r="B31" s="27"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1732,7 +1696,7 @@
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="38"/>
+      <c r="B32" s="27"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -1754,7 +1718,7 @@
     </row>
     <row r="33" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="38"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="17"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1777,7 +1741,7 @@
     </row>
     <row r="34" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="38"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="17"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1800,7 +1764,7 @@
     </row>
     <row r="35" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="38"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="17"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1823,7 +1787,7 @@
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="38"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="17"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -1846,7 +1810,7 @@
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="B37" s="38"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="17"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -1869,7 +1833,7 @@
     </row>
     <row r="38" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="B38" s="38"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="17"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1892,7 +1856,7 @@
     </row>
     <row r="39" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="38"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="17"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -1915,7 +1879,7 @@
     </row>
     <row r="40" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="38"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="17"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -1938,7 +1902,7 @@
     </row>
     <row r="41" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="38"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="17"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -1961,7 +1925,7 @@
     </row>
     <row r="42" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="38"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="17"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -1984,7 +1948,7 @@
     </row>
     <row r="43" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="38"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="17"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2007,7 +1971,7 @@
     </row>
     <row r="44" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="38"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="17"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -2030,7 +1994,7 @@
     </row>
     <row r="45" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="38"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="17"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -2053,7 +2017,7 @@
     </row>
     <row r="46" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-      <c r="B46" s="38"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="17"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2076,7 +2040,7 @@
     </row>
     <row r="47" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="17"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2099,7 +2063,7 @@
     </row>
     <row r="48" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="17"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -2122,7 +2086,7 @@
     </row>
     <row r="49" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
-      <c r="B49" s="38"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="17"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -2145,7 +2109,7 @@
     </row>
     <row r="50" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
-      <c r="B50" s="38"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="17"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -2168,7 +2132,7 @@
     </row>
     <row r="51" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
-      <c r="B51" s="38"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="17"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -2191,7 +2155,7 @@
     </row>
     <row r="52" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
-      <c r="B52" s="38"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="17"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -2214,7 +2178,7 @@
     </row>
     <row r="53" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
-      <c r="B53" s="38"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="17"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -2237,7 +2201,7 @@
     </row>
     <row r="54" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="17"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -2260,7 +2224,7 @@
     </row>
     <row r="55" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
-      <c r="B55" s="38"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="17"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -2283,7 +2247,7 @@
     </row>
     <row r="56" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
-      <c r="B56" s="38"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="17"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -2306,7 +2270,7 @@
     </row>
     <row r="57" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
-      <c r="B57" s="38"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="17"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -2329,7 +2293,7 @@
     </row>
     <row r="58" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
-      <c r="B58" s="38"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="17"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -2352,7 +2316,7 @@
     </row>
     <row r="59" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
-      <c r="B59" s="38"/>
+      <c r="B59" s="27"/>
       <c r="C59" s="17"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -2375,7 +2339,7 @@
     </row>
     <row r="60" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
-      <c r="B60" s="38"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="17"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -2398,7 +2362,7 @@
     </row>
     <row r="61" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
-      <c r="B61" s="38"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="17"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -2421,7 +2385,7 @@
     </row>
     <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
-      <c r="B62" s="38"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="17"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -2444,7 +2408,7 @@
     </row>
     <row r="63" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
-      <c r="B63" s="38"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="17"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -2467,7 +2431,7 @@
     </row>
     <row r="64" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
-      <c r="B64" s="38"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="17"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -2490,7 +2454,7 @@
     </row>
     <row r="65" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
-      <c r="B65" s="38"/>
+      <c r="B65" s="27"/>
       <c r="C65" s="17"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -2513,7 +2477,7 @@
     </row>
     <row r="66" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
-      <c r="B66" s="38"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="17"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -2536,7 +2500,7 @@
     </row>
     <row r="67" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
-      <c r="B67" s="38"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="17"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -2559,7 +2523,7 @@
     </row>
     <row r="68" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
-      <c r="B68" s="38"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="17"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -2582,7 +2546,7 @@
     </row>
     <row r="69" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
-      <c r="B69" s="38"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="17"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -2605,7 +2569,7 @@
     </row>
     <row r="70" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
-      <c r="B70" s="38"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="17"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -2628,7 +2592,7 @@
     </row>
     <row r="71" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
-      <c r="B71" s="38"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="17"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -2651,7 +2615,7 @@
     </row>
     <row r="72" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
-      <c r="B72" s="38"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="17"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -2674,7 +2638,7 @@
     </row>
     <row r="73" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
-      <c r="B73" s="38"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="17"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -2697,7 +2661,7 @@
     </row>
     <row r="74" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
-      <c r="B74" s="38"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="17"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -2720,7 +2684,7 @@
     </row>
     <row r="75" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
-      <c r="B75" s="38"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="17"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -2743,7 +2707,7 @@
     </row>
     <row r="76" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
-      <c r="B76" s="38"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="17"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -2766,7 +2730,7 @@
     </row>
     <row r="77" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
-      <c r="B77" s="38"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="17"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -2789,7 +2753,7 @@
     </row>
     <row r="78" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
-      <c r="B78" s="38"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="17"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -2812,7 +2776,7 @@
     </row>
     <row r="79" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
-      <c r="B79" s="38"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="17"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -2835,7 +2799,7 @@
     </row>
     <row r="80" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
-      <c r="B80" s="38"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="17"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
@@ -2858,7 +2822,7 @@
     </row>
     <row r="81" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
-      <c r="B81" s="38"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="17"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -2881,7 +2845,7 @@
     </row>
     <row r="82" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
-      <c r="B82" s="38"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="17"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
@@ -2904,7 +2868,7 @@
     </row>
     <row r="83" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
-      <c r="B83" s="38"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="17"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -2927,7 +2891,7 @@
     </row>
     <row r="84" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
-      <c r="B84" s="38"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="17"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -2950,7 +2914,7 @@
     </row>
     <row r="85" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1"/>
-      <c r="B85" s="38"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="17"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -2973,7 +2937,7 @@
     </row>
     <row r="86" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1"/>
-      <c r="B86" s="38"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="17"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -2996,7 +2960,7 @@
     </row>
     <row r="87" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
-      <c r="B87" s="38"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="17"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
@@ -3019,7 +2983,7 @@
     </row>
     <row r="88" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
-      <c r="B88" s="38"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="17"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
@@ -3042,7 +3006,7 @@
     </row>
     <row r="89" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1"/>
-      <c r="B89" s="38"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="17"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -3065,7 +3029,7 @@
     </row>
     <row r="90" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
-      <c r="B90" s="38"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="17"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -3088,7 +3052,7 @@
     </row>
     <row r="91" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
-      <c r="B91" s="38"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="17"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
@@ -3111,7 +3075,7 @@
     </row>
     <row r="92" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
-      <c r="B92" s="38"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="17"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -3134,7 +3098,7 @@
     </row>
     <row r="93" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1"/>
-      <c r="B93" s="38"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="17"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -3157,7 +3121,7 @@
     </row>
     <row r="94" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1"/>
-      <c r="B94" s="38"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="17"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -3180,7 +3144,7 @@
     </row>
     <row r="95" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1"/>
-      <c r="B95" s="38"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="17"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -3203,7 +3167,7 @@
     </row>
     <row r="96" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1"/>
-      <c r="B96" s="38"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="17"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -3226,7 +3190,7 @@
     </row>
     <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
-      <c r="B97" s="38"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="17"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -3249,7 +3213,7 @@
     </row>
     <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1"/>
-      <c r="B98" s="38"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="17"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3272,7 +3236,7 @@
     </row>
     <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1"/>
-      <c r="B99" s="38"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="17"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3295,7 +3259,7 @@
     </row>
     <row r="100" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1"/>
-      <c r="B100" s="38"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="17"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -3318,7 +3282,7 @@
     </row>
     <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
-      <c r="B101" s="38"/>
+      <c r="B101" s="27"/>
       <c r="C101" s="17"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -3341,7 +3305,7 @@
     </row>
     <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1"/>
-      <c r="B102" s="38"/>
+      <c r="B102" s="27"/>
       <c r="C102" s="17"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3364,7 +3328,7 @@
     </row>
     <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1"/>
-      <c r="B103" s="38"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="17"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
@@ -3387,7 +3351,7 @@
     </row>
     <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1"/>
-      <c r="B104" s="38"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="17"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -3410,7 +3374,7 @@
     </row>
     <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1"/>
-      <c r="B105" s="38"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="17"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
@@ -3433,7 +3397,7 @@
     </row>
     <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1"/>
-      <c r="B106" s="38"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="17"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -3456,7 +3420,7 @@
     </row>
     <row r="107" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1"/>
-      <c r="B107" s="38"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="17"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
@@ -3479,7 +3443,7 @@
     </row>
     <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1"/>
-      <c r="B108" s="38"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="17"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -3502,7 +3466,7 @@
     </row>
     <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1"/>
-      <c r="B109" s="38"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="17"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -3525,7 +3489,7 @@
     </row>
     <row r="110" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1"/>
-      <c r="B110" s="38"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="17"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -3548,7 +3512,7 @@
     </row>
     <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
-      <c r="B111" s="38"/>
+      <c r="B111" s="27"/>
       <c r="C111" s="17"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
@@ -3571,7 +3535,7 @@
     </row>
     <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
-      <c r="B112" s="38"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="17"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -3594,7 +3558,7 @@
     </row>
     <row r="113" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1"/>
-      <c r="B113" s="38"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="17"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
@@ -3617,7 +3581,7 @@
     </row>
     <row r="114" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1"/>
-      <c r="B114" s="38"/>
+      <c r="B114" s="27"/>
       <c r="C114" s="17"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -3640,7 +3604,7 @@
     </row>
     <row r="115" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1"/>
-      <c r="B115" s="38"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="17"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
@@ -3663,7 +3627,7 @@
     </row>
     <row r="116" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1"/>
-      <c r="B116" s="38"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="17"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -3686,7 +3650,7 @@
     </row>
     <row r="117" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
-      <c r="B117" s="38"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="17"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
@@ -3709,7 +3673,7 @@
     </row>
     <row r="118" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
-      <c r="B118" s="38"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="17"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -3732,7 +3696,7 @@
     </row>
     <row r="119" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
-      <c r="B119" s="38"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="17"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
@@ -3755,7 +3719,7 @@
     </row>
     <row r="120" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
-      <c r="B120" s="38"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="17"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -3778,7 +3742,7 @@
     </row>
     <row r="121" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
-      <c r="B121" s="38"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="17"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -3801,7 +3765,7 @@
     </row>
     <row r="122" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
-      <c r="B122" s="38"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="17"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -3824,7 +3788,7 @@
     </row>
     <row r="123" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1"/>
-      <c r="B123" s="38"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="17"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
@@ -3847,7 +3811,7 @@
     </row>
     <row r="124" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1"/>
-      <c r="B124" s="38"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="17"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -3870,7 +3834,7 @@
     </row>
     <row r="125" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1"/>
-      <c r="B125" s="38"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="17"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
@@ -3893,7 +3857,7 @@
     </row>
     <row r="126" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1"/>
-      <c r="B126" s="38"/>
+      <c r="B126" s="27"/>
       <c r="C126" s="17"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
@@ -3916,7 +3880,7 @@
     </row>
     <row r="127" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1"/>
-      <c r="B127" s="38"/>
+      <c r="B127" s="27"/>
       <c r="C127" s="17"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
@@ -3939,7 +3903,7 @@
     </row>
     <row r="128" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1"/>
-      <c r="B128" s="38"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="17"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -3962,7 +3926,7 @@
     </row>
     <row r="129" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1"/>
-      <c r="B129" s="38"/>
+      <c r="B129" s="27"/>
       <c r="C129" s="17"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
@@ -3985,7 +3949,7 @@
     </row>
     <row r="130" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1"/>
-      <c r="B130" s="38"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="17"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
@@ -4008,7 +3972,7 @@
     </row>
     <row r="131" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1"/>
-      <c r="B131" s="38"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="17"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
@@ -4031,7 +3995,7 @@
     </row>
     <row r="132" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1"/>
-      <c r="B132" s="38"/>
+      <c r="B132" s="27"/>
       <c r="C132" s="17"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
@@ -4054,7 +4018,7 @@
     </row>
     <row r="133" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1"/>
-      <c r="B133" s="38"/>
+      <c r="B133" s="27"/>
       <c r="C133" s="17"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -4077,7 +4041,7 @@
     </row>
     <row r="134" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1"/>
-      <c r="B134" s="38"/>
+      <c r="B134" s="27"/>
       <c r="C134" s="17"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -4100,7 +4064,7 @@
     </row>
     <row r="135" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1"/>
-      <c r="B135" s="38"/>
+      <c r="B135" s="27"/>
       <c r="C135" s="17"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
@@ -4123,7 +4087,7 @@
     </row>
     <row r="136" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1"/>
-      <c r="B136" s="38"/>
+      <c r="B136" s="27"/>
       <c r="C136" s="17"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -4146,7 +4110,7 @@
     </row>
     <row r="137" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1"/>
-      <c r="B137" s="38"/>
+      <c r="B137" s="27"/>
       <c r="C137" s="17"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
@@ -4169,7 +4133,7 @@
     </row>
     <row r="138" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1"/>
-      <c r="B138" s="38"/>
+      <c r="B138" s="27"/>
       <c r="C138" s="17"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -4192,7 +4156,7 @@
     </row>
     <row r="139" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1"/>
-      <c r="B139" s="38"/>
+      <c r="B139" s="27"/>
       <c r="C139" s="17"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
@@ -4215,7 +4179,7 @@
     </row>
     <row r="140" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1"/>
-      <c r="B140" s="38"/>
+      <c r="B140" s="27"/>
       <c r="C140" s="17"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
@@ -4238,7 +4202,7 @@
     </row>
     <row r="141" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1"/>
-      <c r="B141" s="38"/>
+      <c r="B141" s="27"/>
       <c r="C141" s="17"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
@@ -4261,7 +4225,7 @@
     </row>
     <row r="142" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1"/>
-      <c r="B142" s="38"/>
+      <c r="B142" s="27"/>
       <c r="C142" s="17"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
@@ -4284,7 +4248,7 @@
     </row>
     <row r="143" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1"/>
-      <c r="B143" s="38"/>
+      <c r="B143" s="27"/>
       <c r="C143" s="17"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
@@ -4307,7 +4271,7 @@
     </row>
     <row r="144" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1"/>
-      <c r="B144" s="38"/>
+      <c r="B144" s="27"/>
       <c r="C144" s="17"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -4330,7 +4294,7 @@
     </row>
     <row r="145" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1"/>
-      <c r="B145" s="38"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="17"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -4353,7 +4317,7 @@
     </row>
     <row r="146" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1"/>
-      <c r="B146" s="38"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="17"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -4376,7 +4340,7 @@
     </row>
     <row r="147" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1"/>
-      <c r="B147" s="38"/>
+      <c r="B147" s="27"/>
       <c r="C147" s="17"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
@@ -4399,7 +4363,7 @@
     </row>
     <row r="148" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1"/>
-      <c r="B148" s="38"/>
+      <c r="B148" s="27"/>
       <c r="C148" s="17"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -4422,7 +4386,7 @@
     </row>
     <row r="149" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1"/>
-      <c r="B149" s="38"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="17"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -4445,7 +4409,7 @@
     </row>
     <row r="150" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1"/>
-      <c r="B150" s="38"/>
+      <c r="B150" s="27"/>
       <c r="C150" s="17"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -4468,7 +4432,7 @@
     </row>
     <row r="151" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1"/>
-      <c r="B151" s="38"/>
+      <c r="B151" s="27"/>
       <c r="C151" s="17"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
@@ -4491,7 +4455,7 @@
     </row>
     <row r="152" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1"/>
-      <c r="B152" s="38"/>
+      <c r="B152" s="27"/>
       <c r="C152" s="17"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
@@ -4514,7 +4478,7 @@
     </row>
     <row r="153" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1"/>
-      <c r="B153" s="38"/>
+      <c r="B153" s="27"/>
       <c r="C153" s="17"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
@@ -4537,7 +4501,7 @@
     </row>
     <row r="154" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1"/>
-      <c r="B154" s="38"/>
+      <c r="B154" s="27"/>
       <c r="C154" s="17"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
@@ -4560,7 +4524,7 @@
     </row>
     <row r="155" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1"/>
-      <c r="B155" s="38"/>
+      <c r="B155" s="27"/>
       <c r="C155" s="17"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
@@ -4583,7 +4547,7 @@
     </row>
     <row r="156" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1"/>
-      <c r="B156" s="38"/>
+      <c r="B156" s="27"/>
       <c r="C156" s="17"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
@@ -4606,7 +4570,7 @@
     </row>
     <row r="157" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1"/>
-      <c r="B157" s="38"/>
+      <c r="B157" s="27"/>
       <c r="C157" s="17"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
@@ -4629,7 +4593,7 @@
     </row>
     <row r="158" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1"/>
-      <c r="B158" s="38"/>
+      <c r="B158" s="27"/>
       <c r="C158" s="17"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
@@ -4652,7 +4616,7 @@
     </row>
     <row r="159" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1"/>
-      <c r="B159" s="38"/>
+      <c r="B159" s="27"/>
       <c r="C159" s="17"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
@@ -4675,7 +4639,7 @@
     </row>
     <row r="160" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1"/>
-      <c r="B160" s="38"/>
+      <c r="B160" s="27"/>
       <c r="C160" s="17"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
@@ -4698,7 +4662,7 @@
     </row>
     <row r="161" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1"/>
-      <c r="B161" s="38"/>
+      <c r="B161" s="27"/>
       <c r="C161" s="17"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
@@ -4721,7 +4685,7 @@
     </row>
     <row r="162" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1"/>
-      <c r="B162" s="38"/>
+      <c r="B162" s="27"/>
       <c r="C162" s="17"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -4744,7 +4708,7 @@
     </row>
     <row r="163" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1"/>
-      <c r="B163" s="38"/>
+      <c r="B163" s="27"/>
       <c r="C163" s="17"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
@@ -4767,7 +4731,7 @@
     </row>
     <row r="164" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1"/>
-      <c r="B164" s="38"/>
+      <c r="B164" s="27"/>
       <c r="C164" s="17"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -4790,7 +4754,7 @@
     </row>
     <row r="165" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1"/>
-      <c r="B165" s="38"/>
+      <c r="B165" s="27"/>
       <c r="C165" s="17"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
@@ -4813,7 +4777,7 @@
     </row>
     <row r="166" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1"/>
-      <c r="B166" s="38"/>
+      <c r="B166" s="27"/>
       <c r="C166" s="17"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
@@ -4836,7 +4800,7 @@
     </row>
     <row r="167" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1"/>
-      <c r="B167" s="38"/>
+      <c r="B167" s="27"/>
       <c r="C167" s="17"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
@@ -4859,7 +4823,7 @@
     </row>
     <row r="168" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1"/>
-      <c r="B168" s="38"/>
+      <c r="B168" s="27"/>
       <c r="C168" s="17"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
@@ -4882,7 +4846,7 @@
     </row>
     <row r="169" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1"/>
-      <c r="B169" s="38"/>
+      <c r="B169" s="27"/>
       <c r="C169" s="17"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
@@ -4905,7 +4869,7 @@
     </row>
     <row r="170" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1"/>
-      <c r="B170" s="38"/>
+      <c r="B170" s="27"/>
       <c r="C170" s="17"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -4928,7 +4892,7 @@
     </row>
     <row r="171" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1"/>
-      <c r="B171" s="38"/>
+      <c r="B171" s="27"/>
       <c r="C171" s="17"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
@@ -4951,7 +4915,7 @@
     </row>
     <row r="172" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1"/>
-      <c r="B172" s="38"/>
+      <c r="B172" s="27"/>
       <c r="C172" s="17"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
@@ -4974,7 +4938,7 @@
     </row>
     <row r="173" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1"/>
-      <c r="B173" s="38"/>
+      <c r="B173" s="27"/>
       <c r="C173" s="17"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
@@ -4997,7 +4961,7 @@
     </row>
     <row r="174" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1"/>
-      <c r="B174" s="38"/>
+      <c r="B174" s="27"/>
       <c r="C174" s="17"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
@@ -5020,7 +4984,7 @@
     </row>
     <row r="175" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1"/>
-      <c r="B175" s="38"/>
+      <c r="B175" s="27"/>
       <c r="C175" s="17"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -5043,7 +5007,7 @@
     </row>
     <row r="176" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1"/>
-      <c r="B176" s="38"/>
+      <c r="B176" s="27"/>
       <c r="C176" s="17"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
@@ -5066,7 +5030,7 @@
     </row>
     <row r="177" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
-      <c r="B177" s="38"/>
+      <c r="B177" s="27"/>
       <c r="C177" s="17"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
@@ -5089,7 +5053,7 @@
     </row>
     <row r="178" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1"/>
-      <c r="B178" s="38"/>
+      <c r="B178" s="27"/>
       <c r="C178" s="17"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
@@ -5112,7 +5076,7 @@
     </row>
     <row r="179" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1"/>
-      <c r="B179" s="38"/>
+      <c r="B179" s="27"/>
       <c r="C179" s="17"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
@@ -5135,7 +5099,7 @@
     </row>
     <row r="180" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1"/>
-      <c r="B180" s="38"/>
+      <c r="B180" s="27"/>
       <c r="C180" s="17"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
@@ -5158,7 +5122,7 @@
     </row>
     <row r="181" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
-      <c r="B181" s="38"/>
+      <c r="B181" s="27"/>
       <c r="C181" s="17"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -5181,7 +5145,7 @@
     </row>
     <row r="182" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
-      <c r="B182" s="38"/>
+      <c r="B182" s="27"/>
       <c r="C182" s="17"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -5204,7 +5168,7 @@
     </row>
     <row r="183" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1"/>
-      <c r="B183" s="38"/>
+      <c r="B183" s="27"/>
       <c r="C183" s="17"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
@@ -5227,7 +5191,7 @@
     </row>
     <row r="184" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
-      <c r="B184" s="38"/>
+      <c r="B184" s="27"/>
       <c r="C184" s="17"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
@@ -5250,7 +5214,7 @@
     </row>
     <row r="185" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1"/>
-      <c r="B185" s="38"/>
+      <c r="B185" s="27"/>
       <c r="C185" s="17"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -5273,7 +5237,7 @@
     </row>
     <row r="186" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1"/>
-      <c r="B186" s="38"/>
+      <c r="B186" s="27"/>
       <c r="C186" s="17"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -5296,7 +5260,7 @@
     </row>
     <row r="187" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1"/>
-      <c r="B187" s="38"/>
+      <c r="B187" s="27"/>
       <c r="C187" s="17"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -5319,7 +5283,7 @@
     </row>
     <row r="188" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
-      <c r="B188" s="38"/>
+      <c r="B188" s="27"/>
       <c r="C188" s="17"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
@@ -5342,7 +5306,7 @@
     </row>
     <row r="189" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
-      <c r="B189" s="38"/>
+      <c r="B189" s="27"/>
       <c r="C189" s="17"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
@@ -5365,7 +5329,7 @@
     </row>
     <row r="190" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1"/>
-      <c r="B190" s="38"/>
+      <c r="B190" s="27"/>
       <c r="C190" s="17"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
@@ -5388,7 +5352,7 @@
     </row>
     <row r="191" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1"/>
-      <c r="B191" s="38"/>
+      <c r="B191" s="27"/>
       <c r="C191" s="17"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
@@ -5411,7 +5375,7 @@
     </row>
     <row r="192" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
-      <c r="B192" s="38"/>
+      <c r="B192" s="27"/>
       <c r="C192" s="17"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -5434,7 +5398,7 @@
     </row>
     <row r="193" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
-      <c r="B193" s="38"/>
+      <c r="B193" s="27"/>
       <c r="C193" s="17"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -5457,7 +5421,7 @@
     </row>
     <row r="194" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1"/>
-      <c r="B194" s="38"/>
+      <c r="B194" s="27"/>
       <c r="C194" s="17"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -5480,7 +5444,7 @@
     </row>
     <row r="195" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1"/>
-      <c r="B195" s="38"/>
+      <c r="B195" s="27"/>
       <c r="C195" s="17"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
@@ -5503,7 +5467,7 @@
     </row>
     <row r="196" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1"/>
-      <c r="B196" s="38"/>
+      <c r="B196" s="27"/>
       <c r="C196" s="17"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
@@ -5526,7 +5490,7 @@
     </row>
     <row r="197" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
-      <c r="B197" s="38"/>
+      <c r="B197" s="27"/>
       <c r="C197" s="17"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
@@ -5549,7 +5513,7 @@
     </row>
     <row r="198" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1"/>
-      <c r="B198" s="38"/>
+      <c r="B198" s="27"/>
       <c r="C198" s="17"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -5572,7 +5536,7 @@
     </row>
     <row r="199" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1"/>
-      <c r="B199" s="38"/>
+      <c r="B199" s="27"/>
       <c r="C199" s="17"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -5595,7 +5559,7 @@
     </row>
     <row r="200" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1"/>
-      <c r="B200" s="38"/>
+      <c r="B200" s="27"/>
       <c r="C200" s="17"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
@@ -5618,7 +5582,7 @@
     </row>
     <row r="201" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1"/>
-      <c r="B201" s="38"/>
+      <c r="B201" s="27"/>
       <c r="C201" s="17"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
@@ -5641,7 +5605,7 @@
     </row>
     <row r="202" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
-      <c r="B202" s="38"/>
+      <c r="B202" s="27"/>
       <c r="C202" s="17"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
@@ -5664,7 +5628,7 @@
     </row>
     <row r="203" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1"/>
-      <c r="B203" s="38"/>
+      <c r="B203" s="27"/>
       <c r="C203" s="17"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
@@ -5687,7 +5651,7 @@
     </row>
     <row r="204" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1"/>
-      <c r="B204" s="38"/>
+      <c r="B204" s="27"/>
       <c r="C204" s="17"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
@@ -5710,7 +5674,7 @@
     </row>
     <row r="205" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1"/>
-      <c r="B205" s="38"/>
+      <c r="B205" s="27"/>
       <c r="C205" s="17"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -5733,7 +5697,7 @@
     </row>
     <row r="206" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1"/>
-      <c r="B206" s="38"/>
+      <c r="B206" s="27"/>
       <c r="C206" s="17"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
@@ -5756,7 +5720,7 @@
     </row>
     <row r="207" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1"/>
-      <c r="B207" s="38"/>
+      <c r="B207" s="27"/>
       <c r="C207" s="17"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
@@ -5779,7 +5743,7 @@
     </row>
     <row r="208" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1"/>
-      <c r="B208" s="38"/>
+      <c r="B208" s="27"/>
       <c r="C208" s="17"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
@@ -5802,7 +5766,7 @@
     </row>
     <row r="209" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1"/>
-      <c r="B209" s="38"/>
+      <c r="B209" s="27"/>
       <c r="C209" s="17"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
@@ -5825,7 +5789,7 @@
     </row>
     <row r="210" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1"/>
-      <c r="B210" s="38"/>
+      <c r="B210" s="27"/>
       <c r="C210" s="17"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -5848,7 +5812,7 @@
     </row>
     <row r="211" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1"/>
-      <c r="B211" s="38"/>
+      <c r="B211" s="27"/>
       <c r="C211" s="17"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
@@ -5871,7 +5835,7 @@
     </row>
     <row r="212" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1"/>
-      <c r="B212" s="38"/>
+      <c r="B212" s="27"/>
       <c r="C212" s="17"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
@@ -5894,7 +5858,7 @@
     </row>
     <row r="213" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1"/>
-      <c r="B213" s="38"/>
+      <c r="B213" s="27"/>
       <c r="C213" s="17"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
@@ -5917,7 +5881,7 @@
     </row>
     <row r="214" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1"/>
-      <c r="B214" s="38"/>
+      <c r="B214" s="27"/>
       <c r="C214" s="17"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
@@ -5940,7 +5904,7 @@
     </row>
     <row r="215" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1"/>
-      <c r="B215" s="38"/>
+      <c r="B215" s="27"/>
       <c r="C215" s="17"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
@@ -5963,7 +5927,7 @@
     </row>
     <row r="216" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1"/>
-      <c r="B216" s="38"/>
+      <c r="B216" s="27"/>
       <c r="C216" s="17"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
@@ -5986,7 +5950,7 @@
     </row>
     <row r="217" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1"/>
-      <c r="B217" s="38"/>
+      <c r="B217" s="27"/>
       <c r="C217" s="17"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
@@ -6009,7 +5973,7 @@
     </row>
     <row r="218" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1"/>
-      <c r="B218" s="38"/>
+      <c r="B218" s="27"/>
       <c r="C218" s="17"/>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
@@ -6032,7 +5996,7 @@
     </row>
     <row r="219" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1"/>
-      <c r="B219" s="38"/>
+      <c r="B219" s="27"/>
       <c r="C219" s="17"/>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
@@ -6055,7 +6019,7 @@
     </row>
     <row r="220" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1"/>
-      <c r="B220" s="38"/>
+      <c r="B220" s="27"/>
       <c r="C220" s="17"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
@@ -6078,7 +6042,7 @@
     </row>
     <row r="221" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1"/>
-      <c r="B221" s="38"/>
+      <c r="B221" s="27"/>
       <c r="C221" s="17"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
@@ -6101,7 +6065,7 @@
     </row>
     <row r="222" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1"/>
-      <c r="B222" s="38"/>
+      <c r="B222" s="27"/>
       <c r="C222" s="17"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -6124,7 +6088,7 @@
     </row>
     <row r="223" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1"/>
-      <c r="B223" s="38"/>
+      <c r="B223" s="27"/>
       <c r="C223" s="17"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
@@ -6147,7 +6111,7 @@
     </row>
     <row r="224" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1"/>
-      <c r="B224" s="38"/>
+      <c r="B224" s="27"/>
       <c r="C224" s="17"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
@@ -6170,7 +6134,7 @@
     </row>
     <row r="225" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1"/>
-      <c r="B225" s="38"/>
+      <c r="B225" s="27"/>
       <c r="C225" s="17"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
@@ -6193,7 +6157,7 @@
     </row>
     <row r="226" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1"/>
-      <c r="B226" s="38"/>
+      <c r="B226" s="27"/>
       <c r="C226" s="17"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
@@ -6216,7 +6180,7 @@
     </row>
     <row r="227" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1"/>
-      <c r="B227" s="38"/>
+      <c r="B227" s="27"/>
       <c r="C227" s="17"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -6239,7 +6203,7 @@
     </row>
     <row r="228" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1"/>
-      <c r="B228" s="38"/>
+      <c r="B228" s="27"/>
       <c r="C228" s="17"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
@@ -6262,7 +6226,7 @@
     </row>
     <row r="229" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1"/>
-      <c r="B229" s="38"/>
+      <c r="B229" s="27"/>
       <c r="C229" s="17"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
@@ -6285,7 +6249,7 @@
     </row>
     <row r="230" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1"/>
-      <c r="B230" s="38"/>
+      <c r="B230" s="27"/>
       <c r="C230" s="17"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
@@ -6308,7 +6272,7 @@
     </row>
     <row r="231" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1"/>
-      <c r="B231" s="38"/>
+      <c r="B231" s="27"/>
       <c r="C231" s="17"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
@@ -6331,7 +6295,7 @@
     </row>
     <row r="232" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1"/>
-      <c r="B232" s="38"/>
+      <c r="B232" s="27"/>
       <c r="C232" s="17"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -6354,7 +6318,7 @@
     </row>
     <row r="233" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1"/>
-      <c r="B233" s="38"/>
+      <c r="B233" s="27"/>
       <c r="C233" s="17"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
@@ -6377,7 +6341,7 @@
     </row>
     <row r="234" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1"/>
-      <c r="B234" s="38"/>
+      <c r="B234" s="27"/>
       <c r="C234" s="17"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
@@ -6400,7 +6364,7 @@
     </row>
     <row r="235" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1"/>
-      <c r="B235" s="38"/>
+      <c r="B235" s="27"/>
       <c r="C235" s="17"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
@@ -6423,7 +6387,7 @@
     </row>
     <row r="236" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1"/>
-      <c r="B236" s="38"/>
+      <c r="B236" s="27"/>
       <c r="C236" s="17"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
@@ -6446,7 +6410,7 @@
     </row>
     <row r="237" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1"/>
-      <c r="B237" s="38"/>
+      <c r="B237" s="27"/>
       <c r="C237" s="17"/>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
@@ -6469,7 +6433,7 @@
     </row>
     <row r="238" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="1"/>
-      <c r="B238" s="38"/>
+      <c r="B238" s="27"/>
       <c r="C238" s="17"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -6492,7 +6456,7 @@
     </row>
     <row r="239" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="1"/>
-      <c r="B239" s="38"/>
+      <c r="B239" s="27"/>
       <c r="C239" s="17"/>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
@@ -6515,7 +6479,7 @@
     </row>
     <row r="240" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="1"/>
-      <c r="B240" s="38"/>
+      <c r="B240" s="27"/>
       <c r="C240" s="17"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
@@ -6538,7 +6502,7 @@
     </row>
     <row r="241" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="1"/>
-      <c r="B241" s="38"/>
+      <c r="B241" s="27"/>
       <c r="C241" s="17"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
@@ -6561,7 +6525,7 @@
     </row>
     <row r="242" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="1"/>
-      <c r="B242" s="38"/>
+      <c r="B242" s="27"/>
       <c r="C242" s="17"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
@@ -6584,7 +6548,7 @@
     </row>
     <row r="243" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="1"/>
-      <c r="B243" s="38"/>
+      <c r="B243" s="27"/>
       <c r="C243" s="17"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -6607,7 +6571,7 @@
     </row>
     <row r="244" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="1"/>
-      <c r="B244" s="38"/>
+      <c r="B244" s="27"/>
       <c r="C244" s="17"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
@@ -6630,7 +6594,7 @@
     </row>
     <row r="245" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="1"/>
-      <c r="B245" s="38"/>
+      <c r="B245" s="27"/>
       <c r="C245" s="17"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
@@ -6653,7 +6617,7 @@
     </row>
     <row r="246" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="1"/>
-      <c r="B246" s="38"/>
+      <c r="B246" s="27"/>
       <c r="C246" s="17"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
@@ -6676,7 +6640,7 @@
     </row>
     <row r="247" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="1"/>
-      <c r="B247" s="38"/>
+      <c r="B247" s="27"/>
       <c r="C247" s="17"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
@@ -6699,7 +6663,7 @@
     </row>
     <row r="248" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="1"/>
-      <c r="B248" s="38"/>
+      <c r="B248" s="27"/>
       <c r="C248" s="17"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
@@ -6722,7 +6686,7 @@
     </row>
     <row r="249" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="1"/>
-      <c r="B249" s="38"/>
+      <c r="B249" s="27"/>
       <c r="C249" s="17"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
@@ -6745,7 +6709,7 @@
     </row>
     <row r="250" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="1"/>
-      <c r="B250" s="38"/>
+      <c r="B250" s="27"/>
       <c r="C250" s="17"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
@@ -6768,7 +6732,7 @@
     </row>
     <row r="251" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="1"/>
-      <c r="B251" s="38"/>
+      <c r="B251" s="27"/>
       <c r="C251" s="17"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
@@ -6791,7 +6755,7 @@
     </row>
     <row r="252" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="1"/>
-      <c r="B252" s="38"/>
+      <c r="B252" s="27"/>
       <c r="C252" s="17"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
@@ -6814,7 +6778,7 @@
     </row>
     <row r="253" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="1"/>
-      <c r="B253" s="38"/>
+      <c r="B253" s="27"/>
       <c r="C253" s="17"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
@@ -6837,7 +6801,7 @@
     </row>
     <row r="254" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="1"/>
-      <c r="B254" s="38"/>
+      <c r="B254" s="27"/>
       <c r="C254" s="17"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
@@ -6860,7 +6824,7 @@
     </row>
     <row r="255" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="1"/>
-      <c r="B255" s="38"/>
+      <c r="B255" s="27"/>
       <c r="C255" s="17"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
@@ -6883,7 +6847,7 @@
     </row>
     <row r="256" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="1"/>
-      <c r="B256" s="38"/>
+      <c r="B256" s="27"/>
       <c r="C256" s="17"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
@@ -6906,7 +6870,7 @@
     </row>
     <row r="257" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="1"/>
-      <c r="B257" s="38"/>
+      <c r="B257" s="27"/>
       <c r="C257" s="17"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
@@ -6929,7 +6893,7 @@
     </row>
     <row r="258" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="1"/>
-      <c r="B258" s="38"/>
+      <c r="B258" s="27"/>
       <c r="C258" s="17"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
@@ -6952,7 +6916,7 @@
     </row>
     <row r="259" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="1"/>
-      <c r="B259" s="38"/>
+      <c r="B259" s="27"/>
       <c r="C259" s="17"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
@@ -6975,7 +6939,7 @@
     </row>
     <row r="260" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="1"/>
-      <c r="B260" s="38"/>
+      <c r="B260" s="27"/>
       <c r="C260" s="17"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
@@ -6998,7 +6962,7 @@
     </row>
     <row r="261" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="1"/>
-      <c r="B261" s="38"/>
+      <c r="B261" s="27"/>
       <c r="C261" s="17"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
@@ -7021,7 +6985,7 @@
     </row>
     <row r="262" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="1"/>
-      <c r="B262" s="38"/>
+      <c r="B262" s="27"/>
       <c r="C262" s="17"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
@@ -7044,7 +7008,7 @@
     </row>
     <row r="263" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="1"/>
-      <c r="B263" s="38"/>
+      <c r="B263" s="27"/>
       <c r="C263" s="17"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
@@ -7067,7 +7031,7 @@
     </row>
     <row r="264" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="1"/>
-      <c r="B264" s="38"/>
+      <c r="B264" s="27"/>
       <c r="C264" s="17"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
@@ -7090,7 +7054,7 @@
     </row>
     <row r="265" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="1"/>
-      <c r="B265" s="38"/>
+      <c r="B265" s="27"/>
       <c r="C265" s="17"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
@@ -7113,7 +7077,7 @@
     </row>
     <row r="266" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="1"/>
-      <c r="B266" s="38"/>
+      <c r="B266" s="27"/>
       <c r="C266" s="17"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
@@ -7136,7 +7100,7 @@
     </row>
     <row r="267" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="1"/>
-      <c r="B267" s="38"/>
+      <c r="B267" s="27"/>
       <c r="C267" s="17"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
@@ -7159,7 +7123,7 @@
     </row>
     <row r="268" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="1"/>
-      <c r="B268" s="38"/>
+      <c r="B268" s="27"/>
       <c r="C268" s="17"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -7182,7 +7146,7 @@
     </row>
     <row r="269" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="1"/>
-      <c r="B269" s="38"/>
+      <c r="B269" s="27"/>
       <c r="C269" s="17"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
@@ -7205,7 +7169,7 @@
     </row>
     <row r="270" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1"/>
-      <c r="B270" s="38"/>
+      <c r="B270" s="27"/>
       <c r="C270" s="17"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
@@ -7228,7 +7192,7 @@
     </row>
     <row r="271" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="1"/>
-      <c r="B271" s="38"/>
+      <c r="B271" s="27"/>
       <c r="C271" s="17"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -7251,7 +7215,7 @@
     </row>
     <row r="272" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="1"/>
-      <c r="B272" s="38"/>
+      <c r="B272" s="27"/>
       <c r="C272" s="17"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
@@ -7274,7 +7238,7 @@
     </row>
     <row r="273" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="1"/>
-      <c r="B273" s="38"/>
+      <c r="B273" s="27"/>
       <c r="C273" s="17"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -7297,7 +7261,7 @@
     </row>
     <row r="274" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="1"/>
-      <c r="B274" s="38"/>
+      <c r="B274" s="27"/>
       <c r="C274" s="17"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
@@ -7320,7 +7284,7 @@
     </row>
     <row r="275" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="1"/>
-      <c r="B275" s="38"/>
+      <c r="B275" s="27"/>
       <c r="C275" s="17"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -7343,7 +7307,7 @@
     </row>
     <row r="276" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="1"/>
-      <c r="B276" s="38"/>
+      <c r="B276" s="27"/>
       <c r="C276" s="17"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
@@ -7366,7 +7330,7 @@
     </row>
     <row r="277" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="1"/>
-      <c r="B277" s="38"/>
+      <c r="B277" s="27"/>
       <c r="C277" s="17"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -7389,7 +7353,7 @@
     </row>
     <row r="278" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="1"/>
-      <c r="B278" s="38"/>
+      <c r="B278" s="27"/>
       <c r="C278" s="17"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
@@ -7412,7 +7376,7 @@
     </row>
     <row r="279" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="1"/>
-      <c r="B279" s="38"/>
+      <c r="B279" s="27"/>
       <c r="C279" s="17"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
@@ -7435,7 +7399,7 @@
     </row>
     <row r="280" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="1"/>
-      <c r="B280" s="38"/>
+      <c r="B280" s="27"/>
       <c r="C280" s="17"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
@@ -7458,7 +7422,7 @@
     </row>
     <row r="281" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="1"/>
-      <c r="B281" s="38"/>
+      <c r="B281" s="27"/>
       <c r="C281" s="17"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -7481,7 +7445,7 @@
     </row>
     <row r="282" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="1"/>
-      <c r="B282" s="38"/>
+      <c r="B282" s="27"/>
       <c r="C282" s="17"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
@@ -7504,7 +7468,7 @@
     </row>
     <row r="283" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="1"/>
-      <c r="B283" s="38"/>
+      <c r="B283" s="27"/>
       <c r="C283" s="17"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -7527,7 +7491,7 @@
     </row>
     <row r="284" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="1"/>
-      <c r="B284" s="38"/>
+      <c r="B284" s="27"/>
       <c r="C284" s="17"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
@@ -7550,7 +7514,7 @@
     </row>
     <row r="285" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="1"/>
-      <c r="B285" s="38"/>
+      <c r="B285" s="27"/>
       <c r="C285" s="17"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -7573,7 +7537,7 @@
     </row>
     <row r="286" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="1"/>
-      <c r="B286" s="38"/>
+      <c r="B286" s="27"/>
       <c r="C286" s="17"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
@@ -7596,7 +7560,7 @@
     </row>
     <row r="287" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="1"/>
-      <c r="B287" s="38"/>
+      <c r="B287" s="27"/>
       <c r="C287" s="17"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
@@ -7619,7 +7583,7 @@
     </row>
     <row r="288" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="1"/>
-      <c r="B288" s="38"/>
+      <c r="B288" s="27"/>
       <c r="C288" s="17"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
@@ -7642,7 +7606,7 @@
     </row>
     <row r="289" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="1"/>
-      <c r="B289" s="38"/>
+      <c r="B289" s="27"/>
       <c r="C289" s="17"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
@@ -7665,7 +7629,7 @@
     </row>
     <row r="290" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="1"/>
-      <c r="B290" s="38"/>
+      <c r="B290" s="27"/>
       <c r="C290" s="17"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
@@ -7688,7 +7652,7 @@
     </row>
     <row r="291" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="1"/>
-      <c r="B291" s="38"/>
+      <c r="B291" s="27"/>
       <c r="C291" s="17"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -7711,7 +7675,7 @@
     </row>
     <row r="292" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="1"/>
-      <c r="B292" s="38"/>
+      <c r="B292" s="27"/>
       <c r="C292" s="17"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -7734,7 +7698,7 @@
     </row>
     <row r="293" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="1"/>
-      <c r="B293" s="38"/>
+      <c r="B293" s="27"/>
       <c r="C293" s="17"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -7757,7 +7721,7 @@
     </row>
     <row r="294" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="1"/>
-      <c r="B294" s="38"/>
+      <c r="B294" s="27"/>
       <c r="C294" s="17"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
@@ -7780,7 +7744,7 @@
     </row>
     <row r="295" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="1"/>
-      <c r="B295" s="38"/>
+      <c r="B295" s="27"/>
       <c r="C295" s="17"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
@@ -7803,7 +7767,7 @@
     </row>
     <row r="296" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="1"/>
-      <c r="B296" s="38"/>
+      <c r="B296" s="27"/>
       <c r="C296" s="17"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
@@ -7826,7 +7790,7 @@
     </row>
     <row r="297" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="1"/>
-      <c r="B297" s="38"/>
+      <c r="B297" s="27"/>
       <c r="C297" s="17"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
@@ -7849,7 +7813,7 @@
     </row>
     <row r="298" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="1"/>
-      <c r="B298" s="38"/>
+      <c r="B298" s="27"/>
       <c r="C298" s="17"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
@@ -7872,7 +7836,7 @@
     </row>
     <row r="299" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="1"/>
-      <c r="B299" s="38"/>
+      <c r="B299" s="27"/>
       <c r="C299" s="17"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
@@ -7895,7 +7859,7 @@
     </row>
     <row r="300" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="1"/>
-      <c r="B300" s="38"/>
+      <c r="B300" s="27"/>
       <c r="C300" s="17"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
@@ -7918,7 +7882,7 @@
     </row>
     <row r="301" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="1"/>
-      <c r="B301" s="38"/>
+      <c r="B301" s="27"/>
       <c r="C301" s="17"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
@@ -7941,7 +7905,7 @@
     </row>
     <row r="302" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="1"/>
-      <c r="B302" s="38"/>
+      <c r="B302" s="27"/>
       <c r="C302" s="17"/>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
@@ -7964,7 +7928,7 @@
     </row>
     <row r="303" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="1"/>
-      <c r="B303" s="38"/>
+      <c r="B303" s="27"/>
       <c r="C303" s="17"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
@@ -7987,7 +7951,7 @@
     </row>
     <row r="304" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="1"/>
-      <c r="B304" s="38"/>
+      <c r="B304" s="27"/>
       <c r="C304" s="17"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
@@ -8010,7 +7974,7 @@
     </row>
     <row r="305" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="1"/>
-      <c r="B305" s="38"/>
+      <c r="B305" s="27"/>
       <c r="C305" s="17"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
@@ -8033,7 +7997,7 @@
     </row>
     <row r="306" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="1"/>
-      <c r="B306" s="38"/>
+      <c r="B306" s="27"/>
       <c r="C306" s="17"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
@@ -8056,7 +8020,7 @@
     </row>
     <row r="307" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="1"/>
-      <c r="B307" s="38"/>
+      <c r="B307" s="27"/>
       <c r="C307" s="17"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
@@ -8079,7 +8043,7 @@
     </row>
     <row r="308" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="1"/>
-      <c r="B308" s="38"/>
+      <c r="B308" s="27"/>
       <c r="C308" s="17"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
@@ -8102,7 +8066,7 @@
     </row>
     <row r="309" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="1"/>
-      <c r="B309" s="38"/>
+      <c r="B309" s="27"/>
       <c r="C309" s="17"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
@@ -8125,7 +8089,7 @@
     </row>
     <row r="310" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="1"/>
-      <c r="B310" s="38"/>
+      <c r="B310" s="27"/>
       <c r="C310" s="17"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
@@ -8148,7 +8112,7 @@
     </row>
     <row r="311" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="1"/>
-      <c r="B311" s="38"/>
+      <c r="B311" s="27"/>
       <c r="C311" s="17"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
@@ -8171,7 +8135,7 @@
     </row>
     <row r="312" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="1"/>
-      <c r="B312" s="38"/>
+      <c r="B312" s="27"/>
       <c r="C312" s="17"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
@@ -8194,7 +8158,7 @@
     </row>
     <row r="313" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="1"/>
-      <c r="B313" s="38"/>
+      <c r="B313" s="27"/>
       <c r="C313" s="17"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
@@ -8217,7 +8181,7 @@
     </row>
     <row r="314" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="1"/>
-      <c r="B314" s="38"/>
+      <c r="B314" s="27"/>
       <c r="C314" s="17"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
@@ -8240,7 +8204,7 @@
     </row>
     <row r="315" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="1"/>
-      <c r="B315" s="38"/>
+      <c r="B315" s="27"/>
       <c r="C315" s="17"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
@@ -8263,7 +8227,7 @@
     </row>
     <row r="316" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="1"/>
-      <c r="B316" s="38"/>
+      <c r="B316" s="27"/>
       <c r="C316" s="17"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
@@ -8286,7 +8250,7 @@
     </row>
     <row r="317" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="1"/>
-      <c r="B317" s="38"/>
+      <c r="B317" s="27"/>
       <c r="C317" s="17"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
@@ -8309,7 +8273,7 @@
     </row>
     <row r="318" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="1"/>
-      <c r="B318" s="38"/>
+      <c r="B318" s="27"/>
       <c r="C318" s="17"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
@@ -8332,7 +8296,7 @@
     </row>
     <row r="319" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="1"/>
-      <c r="B319" s="38"/>
+      <c r="B319" s="27"/>
       <c r="C319" s="17"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
@@ -8355,7 +8319,7 @@
     </row>
     <row r="320" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="1"/>
-      <c r="B320" s="38"/>
+      <c r="B320" s="27"/>
       <c r="C320" s="17"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
@@ -8378,7 +8342,7 @@
     </row>
     <row r="321" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="1"/>
-      <c r="B321" s="38"/>
+      <c r="B321" s="27"/>
       <c r="C321" s="17"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
@@ -8401,7 +8365,7 @@
     </row>
     <row r="322" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="1"/>
-      <c r="B322" s="38"/>
+      <c r="B322" s="27"/>
       <c r="C322" s="17"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
@@ -8424,7 +8388,7 @@
     </row>
     <row r="323" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="1"/>
-      <c r="B323" s="38"/>
+      <c r="B323" s="27"/>
       <c r="C323" s="17"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
@@ -8447,7 +8411,7 @@
     </row>
     <row r="324" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="1"/>
-      <c r="B324" s="38"/>
+      <c r="B324" s="27"/>
       <c r="C324" s="17"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
@@ -8470,7 +8434,7 @@
     </row>
     <row r="325" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="1"/>
-      <c r="B325" s="38"/>
+      <c r="B325" s="27"/>
       <c r="C325" s="17"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
@@ -8493,7 +8457,7 @@
     </row>
     <row r="326" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="1"/>
-      <c r="B326" s="38"/>
+      <c r="B326" s="27"/>
       <c r="C326" s="17"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
@@ -8516,7 +8480,7 @@
     </row>
     <row r="327" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="1"/>
-      <c r="B327" s="38"/>
+      <c r="B327" s="27"/>
       <c r="C327" s="17"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
@@ -8539,7 +8503,7 @@
     </row>
     <row r="328" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="1"/>
-      <c r="B328" s="38"/>
+      <c r="B328" s="27"/>
       <c r="C328" s="17"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
@@ -8562,7 +8526,7 @@
     </row>
     <row r="329" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="1"/>
-      <c r="B329" s="38"/>
+      <c r="B329" s="27"/>
       <c r="C329" s="17"/>
       <c r="D329" s="11"/>
       <c r="E329" s="11"/>
@@ -8585,7 +8549,7 @@
     </row>
     <row r="330" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="1"/>
-      <c r="B330" s="38"/>
+      <c r="B330" s="27"/>
       <c r="C330" s="17"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
@@ -8608,7 +8572,7 @@
     </row>
     <row r="331" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="1"/>
-      <c r="B331" s="38"/>
+      <c r="B331" s="27"/>
       <c r="C331" s="17"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
@@ -8631,7 +8595,7 @@
     </row>
     <row r="332" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="1"/>
-      <c r="B332" s="38"/>
+      <c r="B332" s="27"/>
       <c r="C332" s="17"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
@@ -8654,7 +8618,7 @@
     </row>
     <row r="333" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="1"/>
-      <c r="B333" s="38"/>
+      <c r="B333" s="27"/>
       <c r="C333" s="17"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
@@ -8677,7 +8641,7 @@
     </row>
     <row r="334" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="1"/>
-      <c r="B334" s="38"/>
+      <c r="B334" s="27"/>
       <c r="C334" s="17"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
@@ -8700,7 +8664,7 @@
     </row>
     <row r="335" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="1"/>
-      <c r="B335" s="38"/>
+      <c r="B335" s="27"/>
       <c r="C335" s="17"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
@@ -8723,7 +8687,7 @@
     </row>
     <row r="336" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="1"/>
-      <c r="B336" s="38"/>
+      <c r="B336" s="27"/>
       <c r="C336" s="17"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
@@ -8746,7 +8710,7 @@
     </row>
     <row r="337" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="1"/>
-      <c r="B337" s="38"/>
+      <c r="B337" s="27"/>
       <c r="C337" s="17"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
@@ -8769,7 +8733,7 @@
     </row>
     <row r="338" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="1"/>
-      <c r="B338" s="38"/>
+      <c r="B338" s="27"/>
       <c r="C338" s="17"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
@@ -8792,7 +8756,7 @@
     </row>
     <row r="339" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="1"/>
-      <c r="B339" s="38"/>
+      <c r="B339" s="27"/>
       <c r="C339" s="17"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
@@ -8815,7 +8779,7 @@
     </row>
     <row r="340" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="1"/>
-      <c r="B340" s="38"/>
+      <c r="B340" s="27"/>
       <c r="C340" s="17"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
@@ -8838,7 +8802,7 @@
     </row>
     <row r="341" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="1"/>
-      <c r="B341" s="38"/>
+      <c r="B341" s="27"/>
       <c r="C341" s="17"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
@@ -8861,7 +8825,7 @@
     </row>
     <row r="342" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="1"/>
-      <c r="B342" s="38"/>
+      <c r="B342" s="27"/>
       <c r="C342" s="17"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
@@ -8884,7 +8848,7 @@
     </row>
     <row r="343" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="1"/>
-      <c r="B343" s="38"/>
+      <c r="B343" s="27"/>
       <c r="C343" s="17"/>
       <c r="D343" s="11"/>
       <c r="E343" s="11"/>
@@ -8907,7 +8871,7 @@
     </row>
     <row r="344" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="1"/>
-      <c r="B344" s="38"/>
+      <c r="B344" s="27"/>
       <c r="C344" s="17"/>
       <c r="D344" s="11"/>
       <c r="E344" s="11"/>
@@ -8930,7 +8894,7 @@
     </row>
     <row r="345" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="1"/>
-      <c r="B345" s="38"/>
+      <c r="B345" s="27"/>
       <c r="C345" s="17"/>
       <c r="D345" s="11"/>
       <c r="E345" s="11"/>
@@ -8953,7 +8917,7 @@
     </row>
     <row r="346" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="1"/>
-      <c r="B346" s="38"/>
+      <c r="B346" s="27"/>
       <c r="C346" s="17"/>
       <c r="D346" s="11"/>
       <c r="E346" s="11"/>
@@ -8976,7 +8940,7 @@
     </row>
     <row r="347" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="1"/>
-      <c r="B347" s="38"/>
+      <c r="B347" s="27"/>
       <c r="C347" s="17"/>
       <c r="D347" s="11"/>
       <c r="E347" s="11"/>
@@ -8999,7 +8963,7 @@
     </row>
     <row r="348" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="1"/>
-      <c r="B348" s="38"/>
+      <c r="B348" s="27"/>
       <c r="C348" s="17"/>
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
@@ -9022,7 +8986,7 @@
     </row>
     <row r="349" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="1"/>
-      <c r="B349" s="38"/>
+      <c r="B349" s="27"/>
       <c r="C349" s="17"/>
       <c r="D349" s="11"/>
       <c r="E349" s="11"/>
@@ -9045,7 +9009,7 @@
     </row>
     <row r="350" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="1"/>
-      <c r="B350" s="38"/>
+      <c r="B350" s="27"/>
       <c r="C350" s="17"/>
       <c r="D350" s="11"/>
       <c r="E350" s="11"/>
@@ -9068,7 +9032,7 @@
     </row>
     <row r="351" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="1"/>
-      <c r="B351" s="38"/>
+      <c r="B351" s="27"/>
       <c r="C351" s="17"/>
       <c r="D351" s="11"/>
       <c r="E351" s="11"/>
@@ -9091,7 +9055,7 @@
     </row>
     <row r="352" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="1"/>
-      <c r="B352" s="38"/>
+      <c r="B352" s="27"/>
       <c r="C352" s="17"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
@@ -9114,7 +9078,7 @@
     </row>
     <row r="353" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="1"/>
-      <c r="B353" s="38"/>
+      <c r="B353" s="27"/>
       <c r="C353" s="17"/>
       <c r="D353" s="11"/>
       <c r="E353" s="11"/>
@@ -9137,7 +9101,7 @@
     </row>
     <row r="354" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="1"/>
-      <c r="B354" s="38"/>
+      <c r="B354" s="27"/>
       <c r="C354" s="17"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
@@ -9160,7 +9124,7 @@
     </row>
     <row r="355" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="1"/>
-      <c r="B355" s="38"/>
+      <c r="B355" s="27"/>
       <c r="C355" s="17"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
@@ -9183,7 +9147,7 @@
     </row>
     <row r="356" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="1"/>
-      <c r="B356" s="38"/>
+      <c r="B356" s="27"/>
       <c r="C356" s="17"/>
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
@@ -9206,7 +9170,7 @@
     </row>
     <row r="357" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="1"/>
-      <c r="B357" s="38"/>
+      <c r="B357" s="27"/>
       <c r="C357" s="17"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
@@ -9229,7 +9193,7 @@
     </row>
     <row r="358" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="1"/>
-      <c r="B358" s="38"/>
+      <c r="B358" s="27"/>
       <c r="C358" s="17"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
@@ -9252,7 +9216,7 @@
     </row>
     <row r="359" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="1"/>
-      <c r="B359" s="38"/>
+      <c r="B359" s="27"/>
       <c r="C359" s="17"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
@@ -9275,7 +9239,7 @@
     </row>
     <row r="360" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="1"/>
-      <c r="B360" s="38"/>
+      <c r="B360" s="27"/>
       <c r="C360" s="17"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
@@ -9298,7 +9262,7 @@
     </row>
     <row r="361" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="1"/>
-      <c r="B361" s="38"/>
+      <c r="B361" s="27"/>
       <c r="C361" s="17"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
@@ -9321,7 +9285,7 @@
     </row>
     <row r="362" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="1"/>
-      <c r="B362" s="38"/>
+      <c r="B362" s="27"/>
       <c r="C362" s="17"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
@@ -9344,7 +9308,7 @@
     </row>
     <row r="363" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="1"/>
-      <c r="B363" s="38"/>
+      <c r="B363" s="27"/>
       <c r="C363" s="17"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
@@ -9367,7 +9331,7 @@
     </row>
     <row r="364" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="1"/>
-      <c r="B364" s="38"/>
+      <c r="B364" s="27"/>
       <c r="C364" s="17"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
@@ -9390,7 +9354,7 @@
     </row>
     <row r="365" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="1"/>
-      <c r="B365" s="38"/>
+      <c r="B365" s="27"/>
       <c r="C365" s="17"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
@@ -9413,7 +9377,7 @@
     </row>
     <row r="366" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="1"/>
-      <c r="B366" s="38"/>
+      <c r="B366" s="27"/>
       <c r="C366" s="17"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
@@ -9436,7 +9400,7 @@
     </row>
     <row r="367" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="1"/>
-      <c r="B367" s="38"/>
+      <c r="B367" s="27"/>
       <c r="C367" s="17"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
@@ -9459,7 +9423,7 @@
     </row>
     <row r="368" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="1"/>
-      <c r="B368" s="38"/>
+      <c r="B368" s="27"/>
       <c r="C368" s="17"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
@@ -9482,7 +9446,7 @@
     </row>
     <row r="369" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="1"/>
-      <c r="B369" s="38"/>
+      <c r="B369" s="27"/>
       <c r="C369" s="17"/>
       <c r="D369" s="11"/>
       <c r="E369" s="11"/>
@@ -9505,7 +9469,7 @@
     </row>
     <row r="370" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="1"/>
-      <c r="B370" s="38"/>
+      <c r="B370" s="27"/>
       <c r="C370" s="17"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
@@ -9528,7 +9492,7 @@
     </row>
     <row r="371" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="1"/>
-      <c r="B371" s="38"/>
+      <c r="B371" s="27"/>
       <c r="C371" s="17"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
@@ -9551,7 +9515,7 @@
     </row>
     <row r="372" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="1"/>
-      <c r="B372" s="38"/>
+      <c r="B372" s="27"/>
       <c r="C372" s="17"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
@@ -9574,7 +9538,7 @@
     </row>
     <row r="373" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="1"/>
-      <c r="B373" s="38"/>
+      <c r="B373" s="27"/>
       <c r="C373" s="17"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
@@ -9597,7 +9561,7 @@
     </row>
     <row r="374" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="1"/>
-      <c r="B374" s="38"/>
+      <c r="B374" s="27"/>
       <c r="C374" s="17"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
@@ -9620,7 +9584,7 @@
     </row>
     <row r="375" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="1"/>
-      <c r="B375" s="38"/>
+      <c r="B375" s="27"/>
       <c r="C375" s="17"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
@@ -9643,7 +9607,7 @@
     </row>
     <row r="376" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="1"/>
-      <c r="B376" s="38"/>
+      <c r="B376" s="27"/>
       <c r="C376" s="17"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
@@ -9666,7 +9630,7 @@
     </row>
     <row r="377" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="1"/>
-      <c r="B377" s="38"/>
+      <c r="B377" s="27"/>
       <c r="C377" s="17"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
@@ -9689,7 +9653,7 @@
     </row>
     <row r="378" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="1"/>
-      <c r="B378" s="38"/>
+      <c r="B378" s="27"/>
       <c r="C378" s="17"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
@@ -9712,7 +9676,7 @@
     </row>
     <row r="379" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="1"/>
-      <c r="B379" s="38"/>
+      <c r="B379" s="27"/>
       <c r="C379" s="17"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
@@ -9735,7 +9699,7 @@
     </row>
     <row r="380" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="1"/>
-      <c r="B380" s="38"/>
+      <c r="B380" s="27"/>
       <c r="C380" s="17"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
@@ -9758,7 +9722,7 @@
     </row>
     <row r="381" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="1"/>
-      <c r="B381" s="38"/>
+      <c r="B381" s="27"/>
       <c r="C381" s="17"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
@@ -9781,7 +9745,7 @@
     </row>
     <row r="382" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="1"/>
-      <c r="B382" s="38"/>
+      <c r="B382" s="27"/>
       <c r="C382" s="17"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
@@ -9804,7 +9768,7 @@
     </row>
     <row r="383" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="1"/>
-      <c r="B383" s="38"/>
+      <c r="B383" s="27"/>
       <c r="C383" s="17"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
@@ -9827,7 +9791,7 @@
     </row>
     <row r="384" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="1"/>
-      <c r="B384" s="38"/>
+      <c r="B384" s="27"/>
       <c r="C384" s="17"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
@@ -9850,7 +9814,7 @@
     </row>
     <row r="385" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="1"/>
-      <c r="B385" s="38"/>
+      <c r="B385" s="27"/>
       <c r="C385" s="17"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
@@ -9873,7 +9837,7 @@
     </row>
     <row r="386" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="1"/>
-      <c r="B386" s="38"/>
+      <c r="B386" s="27"/>
       <c r="C386" s="17"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
@@ -9896,7 +9860,7 @@
     </row>
     <row r="387" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="1"/>
-      <c r="B387" s="38"/>
+      <c r="B387" s="27"/>
       <c r="C387" s="17"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
@@ -9919,7 +9883,7 @@
     </row>
     <row r="388" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1"/>
-      <c r="B388" s="38"/>
+      <c r="B388" s="27"/>
       <c r="C388" s="17"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
@@ -9942,7 +9906,7 @@
     </row>
     <row r="389" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="1"/>
-      <c r="B389" s="38"/>
+      <c r="B389" s="27"/>
       <c r="C389" s="17"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
@@ -9965,7 +9929,7 @@
     </row>
     <row r="390" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="1"/>
-      <c r="B390" s="38"/>
+      <c r="B390" s="27"/>
       <c r="C390" s="17"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
@@ -9988,7 +9952,7 @@
     </row>
     <row r="391" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="1"/>
-      <c r="B391" s="38"/>
+      <c r="B391" s="27"/>
       <c r="C391" s="17"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
@@ -10011,7 +9975,7 @@
     </row>
     <row r="392" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="1"/>
-      <c r="B392" s="38"/>
+      <c r="B392" s="27"/>
       <c r="C392" s="17"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
@@ -10034,7 +9998,7 @@
     </row>
     <row r="393" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="1"/>
-      <c r="B393" s="38"/>
+      <c r="B393" s="27"/>
       <c r="C393" s="17"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
@@ -10057,7 +10021,7 @@
     </row>
     <row r="394" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="1"/>
-      <c r="B394" s="38"/>
+      <c r="B394" s="27"/>
       <c r="C394" s="17"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
@@ -10080,7 +10044,7 @@
     </row>
     <row r="395" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="1"/>
-      <c r="B395" s="38"/>
+      <c r="B395" s="27"/>
       <c r="C395" s="17"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
@@ -10103,7 +10067,7 @@
     </row>
     <row r="396" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="1"/>
-      <c r="B396" s="38"/>
+      <c r="B396" s="27"/>
       <c r="C396" s="17"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
@@ -10126,7 +10090,7 @@
     </row>
     <row r="397" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="1"/>
-      <c r="B397" s="38"/>
+      <c r="B397" s="27"/>
       <c r="C397" s="17"/>
       <c r="D397" s="11"/>
       <c r="E397" s="11"/>
@@ -10149,7 +10113,7 @@
     </row>
     <row r="398" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="1"/>
-      <c r="B398" s="38"/>
+      <c r="B398" s="27"/>
       <c r="C398" s="17"/>
       <c r="D398" s="11"/>
       <c r="E398" s="11"/>
@@ -10172,7 +10136,7 @@
     </row>
     <row r="399" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="1"/>
-      <c r="B399" s="38"/>
+      <c r="B399" s="27"/>
       <c r="C399" s="17"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
@@ -10195,7 +10159,7 @@
     </row>
     <row r="400" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="1"/>
-      <c r="B400" s="38"/>
+      <c r="B400" s="27"/>
       <c r="C400" s="17"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
@@ -10218,7 +10182,7 @@
     </row>
     <row r="401" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="1"/>
-      <c r="B401" s="38"/>
+      <c r="B401" s="27"/>
       <c r="C401" s="17"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
@@ -10241,7 +10205,7 @@
     </row>
     <row r="402" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="1"/>
-      <c r="B402" s="38"/>
+      <c r="B402" s="27"/>
       <c r="C402" s="17"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
@@ -10264,7 +10228,7 @@
     </row>
     <row r="403" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="1"/>
-      <c r="B403" s="38"/>
+      <c r="B403" s="27"/>
       <c r="C403" s="17"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
@@ -10287,7 +10251,7 @@
     </row>
     <row r="404" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="1"/>
-      <c r="B404" s="38"/>
+      <c r="B404" s="27"/>
       <c r="C404" s="17"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
@@ -10310,7 +10274,7 @@
     </row>
     <row r="405" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="1"/>
-      <c r="B405" s="38"/>
+      <c r="B405" s="27"/>
       <c r="C405" s="17"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
@@ -10333,7 +10297,7 @@
     </row>
     <row r="406" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="1"/>
-      <c r="B406" s="38"/>
+      <c r="B406" s="27"/>
       <c r="C406" s="17"/>
       <c r="D406" s="11"/>
       <c r="E406" s="11"/>
@@ -10356,7 +10320,7 @@
     </row>
     <row r="407" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="1"/>
-      <c r="B407" s="38"/>
+      <c r="B407" s="27"/>
       <c r="C407" s="17"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
@@ -10379,7 +10343,7 @@
     </row>
     <row r="408" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="1"/>
-      <c r="B408" s="38"/>
+      <c r="B408" s="27"/>
       <c r="C408" s="17"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
@@ -10402,7 +10366,7 @@
     </row>
     <row r="409" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="1"/>
-      <c r="B409" s="38"/>
+      <c r="B409" s="27"/>
       <c r="C409" s="17"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
@@ -10425,7 +10389,7 @@
     </row>
     <row r="410" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="1"/>
-      <c r="B410" s="38"/>
+      <c r="B410" s="27"/>
       <c r="C410" s="17"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
@@ -10448,7 +10412,7 @@
     </row>
     <row r="411" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="1"/>
-      <c r="B411" s="38"/>
+      <c r="B411" s="27"/>
       <c r="C411" s="17"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
@@ -10471,7 +10435,7 @@
     </row>
     <row r="412" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="1"/>
-      <c r="B412" s="38"/>
+      <c r="B412" s="27"/>
       <c r="C412" s="17"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
@@ -10494,7 +10458,7 @@
     </row>
     <row r="413" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="1"/>
-      <c r="B413" s="38"/>
+      <c r="B413" s="27"/>
       <c r="C413" s="17"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
@@ -10517,7 +10481,7 @@
     </row>
     <row r="414" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="1"/>
-      <c r="B414" s="38"/>
+      <c r="B414" s="27"/>
       <c r="C414" s="17"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
@@ -10540,7 +10504,7 @@
     </row>
     <row r="415" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="1"/>
-      <c r="B415" s="38"/>
+      <c r="B415" s="27"/>
       <c r="C415" s="17"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
@@ -10563,7 +10527,7 @@
     </row>
     <row r="416" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="1"/>
-      <c r="B416" s="38"/>
+      <c r="B416" s="27"/>
       <c r="C416" s="17"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
@@ -10586,7 +10550,7 @@
     </row>
     <row r="417" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="1"/>
-      <c r="B417" s="38"/>
+      <c r="B417" s="27"/>
       <c r="C417" s="17"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
@@ -10609,7 +10573,7 @@
     </row>
     <row r="418" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="1"/>
-      <c r="B418" s="38"/>
+      <c r="B418" s="27"/>
       <c r="C418" s="17"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
@@ -10632,7 +10596,7 @@
     </row>
     <row r="419" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="1"/>
-      <c r="B419" s="38"/>
+      <c r="B419" s="27"/>
       <c r="C419" s="17"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
@@ -10655,7 +10619,7 @@
     </row>
     <row r="420" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="1"/>
-      <c r="B420" s="38"/>
+      <c r="B420" s="27"/>
       <c r="C420" s="17"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
@@ -10678,7 +10642,7 @@
     </row>
     <row r="421" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="1"/>
-      <c r="B421" s="38"/>
+      <c r="B421" s="27"/>
       <c r="C421" s="17"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
@@ -10701,7 +10665,7 @@
     </row>
     <row r="422" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="1"/>
-      <c r="B422" s="38"/>
+      <c r="B422" s="27"/>
       <c r="C422" s="17"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
@@ -10724,7 +10688,7 @@
     </row>
     <row r="423" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="1"/>
-      <c r="B423" s="38"/>
+      <c r="B423" s="27"/>
       <c r="C423" s="17"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
@@ -10747,7 +10711,7 @@
     </row>
     <row r="424" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="1"/>
-      <c r="B424" s="38"/>
+      <c r="B424" s="27"/>
       <c r="C424" s="17"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
@@ -10770,7 +10734,7 @@
     </row>
     <row r="425" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="1"/>
-      <c r="B425" s="38"/>
+      <c r="B425" s="27"/>
       <c r="C425" s="17"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
@@ -10793,7 +10757,7 @@
     </row>
     <row r="426" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="1"/>
-      <c r="B426" s="38"/>
+      <c r="B426" s="27"/>
       <c r="C426" s="17"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
@@ -10816,7 +10780,7 @@
     </row>
     <row r="427" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="1"/>
-      <c r="B427" s="38"/>
+      <c r="B427" s="27"/>
       <c r="C427" s="17"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
@@ -10839,7 +10803,7 @@
     </row>
     <row r="428" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="1"/>
-      <c r="B428" s="38"/>
+      <c r="B428" s="27"/>
       <c r="C428" s="17"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
@@ -10862,7 +10826,7 @@
     </row>
     <row r="429" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="1"/>
-      <c r="B429" s="38"/>
+      <c r="B429" s="27"/>
       <c r="C429" s="17"/>
       <c r="D429" s="11"/>
       <c r="E429" s="11"/>
@@ -10885,7 +10849,7 @@
     </row>
     <row r="430" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="1"/>
-      <c r="B430" s="38"/>
+      <c r="B430" s="27"/>
       <c r="C430" s="17"/>
       <c r="D430" s="11"/>
       <c r="E430" s="11"/>
@@ -10908,7 +10872,7 @@
     </row>
     <row r="431" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="1"/>
-      <c r="B431" s="38"/>
+      <c r="B431" s="27"/>
       <c r="C431" s="17"/>
       <c r="D431" s="11"/>
       <c r="E431" s="11"/>
@@ -10931,7 +10895,7 @@
     </row>
     <row r="432" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="1"/>
-      <c r="B432" s="38"/>
+      <c r="B432" s="27"/>
       <c r="C432" s="17"/>
       <c r="D432" s="11"/>
       <c r="E432" s="11"/>
@@ -10954,7 +10918,7 @@
     </row>
     <row r="433" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="1"/>
-      <c r="B433" s="38"/>
+      <c r="B433" s="27"/>
       <c r="C433" s="17"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
@@ -10977,7 +10941,7 @@
     </row>
     <row r="434" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="1"/>
-      <c r="B434" s="38"/>
+      <c r="B434" s="27"/>
       <c r="C434" s="17"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
@@ -11000,7 +10964,7 @@
     </row>
     <row r="435" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="1"/>
-      <c r="B435" s="38"/>
+      <c r="B435" s="27"/>
       <c r="C435" s="17"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
@@ -11023,7 +10987,7 @@
     </row>
     <row r="436" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="1"/>
-      <c r="B436" s="38"/>
+      <c r="B436" s="27"/>
       <c r="C436" s="17"/>
       <c r="D436" s="11"/>
       <c r="E436" s="11"/>
@@ -11046,7 +11010,7 @@
     </row>
     <row r="437" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="1"/>
-      <c r="B437" s="38"/>
+      <c r="B437" s="27"/>
       <c r="C437" s="17"/>
       <c r="D437" s="11"/>
       <c r="E437" s="11"/>
@@ -11069,7 +11033,7 @@
     </row>
     <row r="438" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="1"/>
-      <c r="B438" s="38"/>
+      <c r="B438" s="27"/>
       <c r="C438" s="17"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
@@ -11092,7 +11056,7 @@
     </row>
     <row r="439" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="1"/>
-      <c r="B439" s="38"/>
+      <c r="B439" s="27"/>
       <c r="C439" s="17"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
@@ -11115,7 +11079,7 @@
     </row>
     <row r="440" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="1"/>
-      <c r="B440" s="38"/>
+      <c r="B440" s="27"/>
       <c r="C440" s="17"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
@@ -11138,7 +11102,7 @@
     </row>
     <row r="441" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="1"/>
-      <c r="B441" s="38"/>
+      <c r="B441" s="27"/>
       <c r="C441" s="17"/>
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
@@ -11161,7 +11125,7 @@
     </row>
     <row r="442" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="1"/>
-      <c r="B442" s="38"/>
+      <c r="B442" s="27"/>
       <c r="C442" s="17"/>
       <c r="D442" s="11"/>
       <c r="E442" s="11"/>
@@ -11184,7 +11148,7 @@
     </row>
     <row r="443" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="1"/>
-      <c r="B443" s="38"/>
+      <c r="B443" s="27"/>
       <c r="C443" s="17"/>
       <c r="D443" s="11"/>
       <c r="E443" s="11"/>
@@ -11207,7 +11171,7 @@
     </row>
     <row r="444" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="1"/>
-      <c r="B444" s="38"/>
+      <c r="B444" s="27"/>
       <c r="C444" s="17"/>
       <c r="D444" s="11"/>
       <c r="E444" s="11"/>
@@ -11230,7 +11194,7 @@
     </row>
     <row r="445" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="1"/>
-      <c r="B445" s="38"/>
+      <c r="B445" s="27"/>
       <c r="C445" s="17"/>
       <c r="D445" s="11"/>
       <c r="E445" s="11"/>
@@ -11253,7 +11217,7 @@
     </row>
     <row r="446" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="1"/>
-      <c r="B446" s="38"/>
+      <c r="B446" s="27"/>
       <c r="C446" s="17"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
@@ -11276,7 +11240,7 @@
     </row>
     <row r="447" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="1"/>
-      <c r="B447" s="38"/>
+      <c r="B447" s="27"/>
       <c r="C447" s="17"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
@@ -11299,7 +11263,7 @@
     </row>
     <row r="448" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="1"/>
-      <c r="B448" s="38"/>
+      <c r="B448" s="27"/>
       <c r="C448" s="17"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
@@ -11322,7 +11286,7 @@
     </row>
     <row r="449" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="1"/>
-      <c r="B449" s="38"/>
+      <c r="B449" s="27"/>
       <c r="C449" s="17"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
@@ -11345,7 +11309,7 @@
     </row>
     <row r="450" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="1"/>
-      <c r="B450" s="38"/>
+      <c r="B450" s="27"/>
       <c r="C450" s="17"/>
       <c r="D450" s="11"/>
       <c r="E450" s="11"/>
@@ -11368,7 +11332,7 @@
     </row>
     <row r="451" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="1"/>
-      <c r="B451" s="38"/>
+      <c r="B451" s="27"/>
       <c r="C451" s="17"/>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
@@ -11391,7 +11355,7 @@
     </row>
     <row r="452" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="1"/>
-      <c r="B452" s="38"/>
+      <c r="B452" s="27"/>
       <c r="C452" s="17"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
@@ -11414,7 +11378,7 @@
     </row>
     <row r="453" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1"/>
-      <c r="B453" s="38"/>
+      <c r="B453" s="27"/>
       <c r="C453" s="17"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
@@ -11437,7 +11401,7 @@
     </row>
     <row r="454" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="1"/>
-      <c r="B454" s="38"/>
+      <c r="B454" s="27"/>
       <c r="C454" s="17"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
@@ -11460,7 +11424,7 @@
     </row>
     <row r="455" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="1"/>
-      <c r="B455" s="38"/>
+      <c r="B455" s="27"/>
       <c r="C455" s="17"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
@@ -11483,7 +11447,7 @@
     </row>
     <row r="456" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1"/>
-      <c r="B456" s="38"/>
+      <c r="B456" s="27"/>
       <c r="C456" s="17"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
@@ -11506,7 +11470,7 @@
     </row>
     <row r="457" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="1"/>
-      <c r="B457" s="38"/>
+      <c r="B457" s="27"/>
       <c r="C457" s="17"/>
       <c r="D457" s="11"/>
       <c r="E457" s="11"/>
@@ -11529,7 +11493,7 @@
     </row>
     <row r="458" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="1"/>
-      <c r="B458" s="38"/>
+      <c r="B458" s="27"/>
       <c r="C458" s="17"/>
       <c r="D458" s="11"/>
       <c r="E458" s="11"/>
@@ -11552,7 +11516,7 @@
     </row>
     <row r="459" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="1"/>
-      <c r="B459" s="38"/>
+      <c r="B459" s="27"/>
       <c r="C459" s="17"/>
       <c r="D459" s="11"/>
       <c r="E459" s="11"/>
@@ -11575,7 +11539,7 @@
     </row>
     <row r="460" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="1"/>
-      <c r="B460" s="38"/>
+      <c r="B460" s="27"/>
       <c r="C460" s="17"/>
       <c r="D460" s="11"/>
       <c r="E460" s="11"/>
@@ -11598,7 +11562,7 @@
     </row>
     <row r="461" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1"/>
-      <c r="B461" s="38"/>
+      <c r="B461" s="27"/>
       <c r="C461" s="17"/>
       <c r="D461" s="11"/>
       <c r="E461" s="11"/>
@@ -11621,7 +11585,7 @@
     </row>
     <row r="462" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="1"/>
-      <c r="B462" s="38"/>
+      <c r="B462" s="27"/>
       <c r="C462" s="17"/>
       <c r="D462" s="11"/>
       <c r="E462" s="11"/>
@@ -11644,7 +11608,7 @@
     </row>
     <row r="463" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="1"/>
-      <c r="B463" s="38"/>
+      <c r="B463" s="27"/>
       <c r="C463" s="17"/>
       <c r="D463" s="11"/>
       <c r="E463" s="11"/>
@@ -11667,7 +11631,7 @@
     </row>
     <row r="464" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="1"/>
-      <c r="B464" s="38"/>
+      <c r="B464" s="27"/>
       <c r="C464" s="17"/>
       <c r="D464" s="11"/>
       <c r="E464" s="11"/>
@@ -11690,7 +11654,7 @@
     </row>
     <row r="465" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="1"/>
-      <c r="B465" s="38"/>
+      <c r="B465" s="27"/>
       <c r="C465" s="17"/>
       <c r="D465" s="11"/>
       <c r="E465" s="11"/>
@@ -11713,7 +11677,7 @@
     </row>
     <row r="466" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="1"/>
-      <c r="B466" s="38"/>
+      <c r="B466" s="27"/>
       <c r="C466" s="17"/>
       <c r="D466" s="11"/>
       <c r="E466" s="11"/>
@@ -11736,7 +11700,7 @@
     </row>
     <row r="467" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="1"/>
-      <c r="B467" s="38"/>
+      <c r="B467" s="27"/>
       <c r="C467" s="17"/>
       <c r="D467" s="11"/>
       <c r="E467" s="11"/>
@@ -11759,7 +11723,7 @@
     </row>
     <row r="468" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="1"/>
-      <c r="B468" s="38"/>
+      <c r="B468" s="27"/>
       <c r="C468" s="17"/>
       <c r="D468" s="11"/>
       <c r="E468" s="11"/>
@@ -11782,7 +11746,7 @@
     </row>
     <row r="469" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="1"/>
-      <c r="B469" s="38"/>
+      <c r="B469" s="27"/>
       <c r="C469" s="17"/>
       <c r="D469" s="11"/>
       <c r="E469" s="11"/>
@@ -11805,7 +11769,7 @@
     </row>
     <row r="470" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="1"/>
-      <c r="B470" s="38"/>
+      <c r="B470" s="27"/>
       <c r="C470" s="17"/>
       <c r="D470" s="11"/>
       <c r="E470" s="11"/>
@@ -11828,7 +11792,7 @@
     </row>
     <row r="471" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="1"/>
-      <c r="B471" s="38"/>
+      <c r="B471" s="27"/>
       <c r="C471" s="17"/>
       <c r="D471" s="11"/>
       <c r="E471" s="11"/>
@@ -11851,7 +11815,7 @@
     </row>
     <row r="472" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="1"/>
-      <c r="B472" s="38"/>
+      <c r="B472" s="27"/>
       <c r="C472" s="17"/>
       <c r="D472" s="11"/>
       <c r="E472" s="11"/>
@@ -11874,7 +11838,7 @@
     </row>
     <row r="473" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="1"/>
-      <c r="B473" s="38"/>
+      <c r="B473" s="27"/>
       <c r="C473" s="17"/>
       <c r="D473" s="11"/>
       <c r="E473" s="11"/>
@@ -11897,7 +11861,7 @@
     </row>
     <row r="474" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="1"/>
-      <c r="B474" s="38"/>
+      <c r="B474" s="27"/>
       <c r="C474" s="17"/>
       <c r="D474" s="11"/>
       <c r="E474" s="11"/>
@@ -11920,7 +11884,7 @@
     </row>
     <row r="475" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1"/>
-      <c r="B475" s="38"/>
+      <c r="B475" s="27"/>
       <c r="C475" s="17"/>
       <c r="D475" s="11"/>
       <c r="E475" s="11"/>
@@ -11943,7 +11907,7 @@
     </row>
     <row r="476" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="1"/>
-      <c r="B476" s="38"/>
+      <c r="B476" s="27"/>
       <c r="C476" s="17"/>
       <c r="D476" s="11"/>
       <c r="E476" s="11"/>
@@ -11966,7 +11930,7 @@
     </row>
     <row r="477" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="1"/>
-      <c r="B477" s="38"/>
+      <c r="B477" s="27"/>
       <c r="C477" s="17"/>
       <c r="D477" s="11"/>
       <c r="E477" s="11"/>
@@ -11989,7 +11953,7 @@
     </row>
     <row r="478" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="1"/>
-      <c r="B478" s="38"/>
+      <c r="B478" s="27"/>
       <c r="C478" s="17"/>
       <c r="D478" s="11"/>
       <c r="E478" s="11"/>
@@ -12012,7 +11976,7 @@
     </row>
     <row r="479" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="1"/>
-      <c r="B479" s="38"/>
+      <c r="B479" s="27"/>
       <c r="C479" s="17"/>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
@@ -12035,7 +11999,7 @@
     </row>
     <row r="480" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="1"/>
-      <c r="B480" s="38"/>
+      <c r="B480" s="27"/>
       <c r="C480" s="17"/>
       <c r="D480" s="11"/>
       <c r="E480" s="11"/>
@@ -12058,7 +12022,7 @@
     </row>
     <row r="481" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="1"/>
-      <c r="B481" s="38"/>
+      <c r="B481" s="27"/>
       <c r="C481" s="17"/>
       <c r="D481" s="11"/>
       <c r="E481" s="11"/>
@@ -12081,7 +12045,7 @@
     </row>
     <row r="482" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="1"/>
-      <c r="B482" s="38"/>
+      <c r="B482" s="27"/>
       <c r="C482" s="17"/>
       <c r="D482" s="11"/>
       <c r="E482" s="11"/>
@@ -12104,7 +12068,7 @@
     </row>
     <row r="483" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="1"/>
-      <c r="B483" s="38"/>
+      <c r="B483" s="27"/>
       <c r="C483" s="17"/>
       <c r="D483" s="11"/>
       <c r="E483" s="11"/>
@@ -12127,7 +12091,7 @@
     </row>
     <row r="484" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="1"/>
-      <c r="B484" s="38"/>
+      <c r="B484" s="27"/>
       <c r="C484" s="17"/>
       <c r="D484" s="11"/>
       <c r="E484" s="11"/>
@@ -12150,7 +12114,7 @@
     </row>
     <row r="485" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="1"/>
-      <c r="B485" s="38"/>
+      <c r="B485" s="27"/>
       <c r="C485" s="17"/>
       <c r="D485" s="11"/>
       <c r="E485" s="11"/>
@@ -12173,7 +12137,7 @@
     </row>
     <row r="486" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="1"/>
-      <c r="B486" s="38"/>
+      <c r="B486" s="27"/>
       <c r="C486" s="17"/>
       <c r="D486" s="11"/>
       <c r="E486" s="11"/>
@@ -12196,7 +12160,7 @@
     </row>
     <row r="487" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="1"/>
-      <c r="B487" s="38"/>
+      <c r="B487" s="27"/>
       <c r="C487" s="17"/>
       <c r="D487" s="11"/>
       <c r="E487" s="11"/>
@@ -12219,7 +12183,7 @@
     </row>
     <row r="488" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="1"/>
-      <c r="B488" s="38"/>
+      <c r="B488" s="27"/>
       <c r="C488" s="17"/>
       <c r="D488" s="11"/>
       <c r="E488" s="11"/>
@@ -12242,7 +12206,7 @@
     </row>
     <row r="489" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="1"/>
-      <c r="B489" s="38"/>
+      <c r="B489" s="27"/>
       <c r="C489" s="17"/>
       <c r="D489" s="11"/>
       <c r="E489" s="11"/>
@@ -12265,7 +12229,7 @@
     </row>
     <row r="490" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="1"/>
-      <c r="B490" s="38"/>
+      <c r="B490" s="27"/>
       <c r="C490" s="17"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
@@ -12288,7 +12252,7 @@
     </row>
     <row r="491" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1"/>
-      <c r="B491" s="38"/>
+      <c r="B491" s="27"/>
       <c r="C491" s="17"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
@@ -12311,7 +12275,7 @@
     </row>
     <row r="492" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="1"/>
-      <c r="B492" s="38"/>
+      <c r="B492" s="27"/>
       <c r="C492" s="17"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
@@ -12334,7 +12298,7 @@
     </row>
     <row r="493" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="1"/>
-      <c r="B493" s="38"/>
+      <c r="B493" s="27"/>
       <c r="C493" s="17"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
@@ -12357,7 +12321,7 @@
     </row>
     <row r="494" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="1"/>
-      <c r="B494" s="38"/>
+      <c r="B494" s="27"/>
       <c r="C494" s="17"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
@@ -12380,7 +12344,7 @@
     </row>
     <row r="495" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="1"/>
-      <c r="B495" s="38"/>
+      <c r="B495" s="27"/>
       <c r="C495" s="17"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
@@ -12403,7 +12367,7 @@
     </row>
     <row r="496" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="1"/>
-      <c r="B496" s="38"/>
+      <c r="B496" s="27"/>
       <c r="C496" s="17"/>
       <c r="D496" s="11"/>
       <c r="E496" s="11"/>
@@ -12426,7 +12390,7 @@
     </row>
     <row r="497" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="1"/>
-      <c r="B497" s="38"/>
+      <c r="B497" s="27"/>
       <c r="C497" s="17"/>
       <c r="D497" s="11"/>
       <c r="E497" s="11"/>
@@ -12449,7 +12413,7 @@
     </row>
     <row r="498" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="1"/>
-      <c r="B498" s="38"/>
+      <c r="B498" s="27"/>
       <c r="C498" s="17"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
@@ -12472,7 +12436,7 @@
     </row>
     <row r="499" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="1"/>
-      <c r="B499" s="38"/>
+      <c r="B499" s="27"/>
       <c r="C499" s="17"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
@@ -12495,7 +12459,7 @@
     </row>
     <row r="500" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A500" s="1"/>
-      <c r="B500" s="38"/>
+      <c r="B500" s="27"/>
       <c r="C500" s="17"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
@@ -12518,7 +12482,7 @@
     </row>
     <row r="501" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A501" s="1"/>
-      <c r="B501" s="38"/>
+      <c r="B501" s="27"/>
       <c r="C501" s="17"/>
       <c r="D501" s="11"/>
       <c r="E501" s="11"/>
@@ -12541,7 +12505,7 @@
     </row>
     <row r="502" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A502" s="1"/>
-      <c r="B502" s="38"/>
+      <c r="B502" s="27"/>
       <c r="C502" s="17"/>
       <c r="D502" s="11"/>
       <c r="E502" s="11"/>
@@ -12564,7 +12528,7 @@
     </row>
     <row r="503" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A503" s="1"/>
-      <c r="B503" s="38"/>
+      <c r="B503" s="27"/>
       <c r="C503" s="17"/>
       <c r="D503" s="11"/>
       <c r="E503" s="11"/>
@@ -12587,7 +12551,7 @@
     </row>
     <row r="504" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A504" s="1"/>
-      <c r="B504" s="38"/>
+      <c r="B504" s="27"/>
       <c r="C504" s="17"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
@@ -12610,7 +12574,7 @@
     </row>
     <row r="505" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A505" s="1"/>
-      <c r="B505" s="38"/>
+      <c r="B505" s="27"/>
       <c r="C505" s="17"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
@@ -12633,7 +12597,7 @@
     </row>
     <row r="506" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A506" s="1"/>
-      <c r="B506" s="38"/>
+      <c r="B506" s="27"/>
       <c r="C506" s="17"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
@@ -12656,7 +12620,7 @@
     </row>
     <row r="507" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A507" s="1"/>
-      <c r="B507" s="38"/>
+      <c r="B507" s="27"/>
       <c r="C507" s="17"/>
       <c r="D507" s="11"/>
       <c r="E507" s="11"/>
@@ -12679,7 +12643,7 @@
     </row>
     <row r="508" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A508" s="1"/>
-      <c r="B508" s="38"/>
+      <c r="B508" s="27"/>
       <c r="C508" s="17"/>
       <c r="D508" s="11"/>
       <c r="E508" s="11"/>
@@ -12702,7 +12666,7 @@
     </row>
     <row r="509" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A509" s="1"/>
-      <c r="B509" s="38"/>
+      <c r="B509" s="27"/>
       <c r="C509" s="17"/>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
@@ -12725,7 +12689,7 @@
     </row>
     <row r="510" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A510" s="1"/>
-      <c r="B510" s="38"/>
+      <c r="B510" s="27"/>
       <c r="C510" s="17"/>
       <c r="D510" s="11"/>
       <c r="E510" s="11"/>
@@ -12748,7 +12712,7 @@
     </row>
     <row r="511" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A511" s="1"/>
-      <c r="B511" s="38"/>
+      <c r="B511" s="27"/>
       <c r="C511" s="17"/>
       <c r="D511" s="11"/>
       <c r="E511" s="11"/>
@@ -12771,7 +12735,7 @@
     </row>
     <row r="512" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A512" s="1"/>
-      <c r="B512" s="38"/>
+      <c r="B512" s="27"/>
       <c r="C512" s="17"/>
       <c r="D512" s="11"/>
       <c r="E512" s="11"/>
@@ -12794,7 +12758,7 @@
     </row>
     <row r="513" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A513" s="1"/>
-      <c r="B513" s="38"/>
+      <c r="B513" s="27"/>
       <c r="C513" s="17"/>
       <c r="D513" s="11"/>
       <c r="E513" s="11"/>
@@ -12817,7 +12781,7 @@
     </row>
     <row r="514" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A514" s="1"/>
-      <c r="B514" s="38"/>
+      <c r="B514" s="27"/>
       <c r="C514" s="17"/>
       <c r="D514" s="11"/>
       <c r="E514" s="11"/>
@@ -12840,7 +12804,7 @@
     </row>
     <row r="515" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A515" s="1"/>
-      <c r="B515" s="38"/>
+      <c r="B515" s="27"/>
       <c r="C515" s="17"/>
       <c r="D515" s="11"/>
       <c r="E515" s="11"/>
@@ -12863,7 +12827,7 @@
     </row>
     <row r="516" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A516" s="1"/>
-      <c r="B516" s="38"/>
+      <c r="B516" s="27"/>
       <c r="C516" s="17"/>
       <c r="D516" s="11"/>
       <c r="E516" s="11"/>
@@ -12886,7 +12850,7 @@
     </row>
     <row r="517" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A517" s="1"/>
-      <c r="B517" s="38"/>
+      <c r="B517" s="27"/>
       <c r="C517" s="17"/>
       <c r="D517" s="11"/>
       <c r="E517" s="11"/>
@@ -12909,7 +12873,7 @@
     </row>
     <row r="518" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A518" s="1"/>
-      <c r="B518" s="38"/>
+      <c r="B518" s="27"/>
       <c r="C518" s="17"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
@@ -12932,7 +12896,7 @@
     </row>
     <row r="519" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A519" s="1"/>
-      <c r="B519" s="38"/>
+      <c r="B519" s="27"/>
       <c r="C519" s="17"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
@@ -12955,7 +12919,7 @@
     </row>
     <row r="520" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A520" s="1"/>
-      <c r="B520" s="38"/>
+      <c r="B520" s="27"/>
       <c r="C520" s="17"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
@@ -12978,7 +12942,7 @@
     </row>
     <row r="521" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A521" s="1"/>
-      <c r="B521" s="38"/>
+      <c r="B521" s="27"/>
       <c r="C521" s="17"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
@@ -13001,7 +12965,7 @@
     </row>
     <row r="522" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A522" s="1"/>
-      <c r="B522" s="38"/>
+      <c r="B522" s="27"/>
       <c r="C522" s="17"/>
       <c r="D522" s="11"/>
       <c r="E522" s="11"/>
@@ -13024,7 +12988,7 @@
     </row>
     <row r="523" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A523" s="1"/>
-      <c r="B523" s="38"/>
+      <c r="B523" s="27"/>
       <c r="C523" s="17"/>
       <c r="D523" s="11"/>
       <c r="E523" s="11"/>
@@ -13047,7 +13011,7 @@
     </row>
     <row r="524" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A524" s="1"/>
-      <c r="B524" s="38"/>
+      <c r="B524" s="27"/>
       <c r="C524" s="17"/>
       <c r="D524" s="11"/>
       <c r="E524" s="11"/>
@@ -13070,7 +13034,7 @@
     </row>
     <row r="525" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A525" s="1"/>
-      <c r="B525" s="38"/>
+      <c r="B525" s="27"/>
       <c r="C525" s="17"/>
       <c r="D525" s="11"/>
       <c r="E525" s="11"/>
@@ -13093,7 +13057,7 @@
     </row>
     <row r="526" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A526" s="1"/>
-      <c r="B526" s="38"/>
+      <c r="B526" s="27"/>
       <c r="C526" s="17"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
@@ -13116,7 +13080,7 @@
     </row>
     <row r="527" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A527" s="1"/>
-      <c r="B527" s="38"/>
+      <c r="B527" s="27"/>
       <c r="C527" s="17"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
@@ -13139,7 +13103,7 @@
     </row>
     <row r="528" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="1"/>
-      <c r="B528" s="38"/>
+      <c r="B528" s="27"/>
       <c r="C528" s="17"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
@@ -13162,7 +13126,7 @@
     </row>
     <row r="529" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="1"/>
-      <c r="B529" s="38"/>
+      <c r="B529" s="27"/>
       <c r="C529" s="17"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
@@ -13185,7 +13149,7 @@
     </row>
     <row r="530" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A530" s="1"/>
-      <c r="B530" s="38"/>
+      <c r="B530" s="27"/>
       <c r="C530" s="17"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
@@ -13208,7 +13172,7 @@
     </row>
     <row r="531" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="1"/>
-      <c r="B531" s="38"/>
+      <c r="B531" s="27"/>
       <c r="C531" s="17"/>
       <c r="D531" s="11"/>
       <c r="E531" s="11"/>
@@ -13231,7 +13195,7 @@
     </row>
     <row r="532" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A532" s="1"/>
-      <c r="B532" s="38"/>
+      <c r="B532" s="27"/>
       <c r="C532" s="17"/>
       <c r="D532" s="11"/>
       <c r="E532" s="11"/>
@@ -13254,7 +13218,7 @@
     </row>
     <row r="533" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="1"/>
-      <c r="B533" s="38"/>
+      <c r="B533" s="27"/>
       <c r="C533" s="17"/>
       <c r="D533" s="11"/>
       <c r="E533" s="11"/>
@@ -13277,7 +13241,7 @@
     </row>
     <row r="534" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="1"/>
-      <c r="B534" s="38"/>
+      <c r="B534" s="27"/>
       <c r="C534" s="17"/>
       <c r="D534" s="11"/>
       <c r="E534" s="11"/>
@@ -13300,7 +13264,7 @@
     </row>
     <row r="535" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A535" s="1"/>
-      <c r="B535" s="38"/>
+      <c r="B535" s="27"/>
       <c r="C535" s="17"/>
       <c r="D535" s="11"/>
       <c r="E535" s="11"/>
@@ -13323,7 +13287,7 @@
     </row>
     <row r="536" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A536" s="1"/>
-      <c r="B536" s="38"/>
+      <c r="B536" s="27"/>
       <c r="C536" s="17"/>
       <c r="D536" s="11"/>
       <c r="E536" s="11"/>
@@ -13346,7 +13310,7 @@
     </row>
     <row r="537" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A537" s="1"/>
-      <c r="B537" s="38"/>
+      <c r="B537" s="27"/>
       <c r="C537" s="17"/>
       <c r="D537" s="11"/>
       <c r="E537" s="11"/>
@@ -13369,7 +13333,7 @@
     </row>
     <row r="538" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A538" s="1"/>
-      <c r="B538" s="38"/>
+      <c r="B538" s="27"/>
       <c r="C538" s="17"/>
       <c r="D538" s="11"/>
       <c r="E538" s="11"/>
@@ -13392,7 +13356,7 @@
     </row>
     <row r="539" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A539" s="1"/>
-      <c r="B539" s="38"/>
+      <c r="B539" s="27"/>
       <c r="C539" s="17"/>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
@@ -13415,7 +13379,7 @@
     </row>
     <row r="540" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A540" s="1"/>
-      <c r="B540" s="38"/>
+      <c r="B540" s="27"/>
       <c r="C540" s="17"/>
       <c r="D540" s="11"/>
       <c r="E540" s="11"/>
@@ -13438,7 +13402,7 @@
     </row>
     <row r="541" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A541" s="1"/>
-      <c r="B541" s="38"/>
+      <c r="B541" s="27"/>
       <c r="C541" s="17"/>
       <c r="D541" s="11"/>
       <c r="E541" s="11"/>
@@ -13461,7 +13425,7 @@
     </row>
     <row r="542" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A542" s="1"/>
-      <c r="B542" s="38"/>
+      <c r="B542" s="27"/>
       <c r="C542" s="17"/>
       <c r="D542" s="11"/>
       <c r="E542" s="11"/>
@@ -13484,7 +13448,7 @@
     </row>
     <row r="543" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A543" s="1"/>
-      <c r="B543" s="38"/>
+      <c r="B543" s="27"/>
       <c r="C543" s="17"/>
       <c r="D543" s="11"/>
       <c r="E543" s="11"/>
@@ -13507,7 +13471,7 @@
     </row>
     <row r="544" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A544" s="1"/>
-      <c r="B544" s="38"/>
+      <c r="B544" s="27"/>
       <c r="C544" s="17"/>
       <c r="D544" s="11"/>
       <c r="E544" s="11"/>
@@ -13530,7 +13494,7 @@
     </row>
     <row r="545" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A545" s="1"/>
-      <c r="B545" s="38"/>
+      <c r="B545" s="27"/>
       <c r="C545" s="17"/>
       <c r="D545" s="11"/>
       <c r="E545" s="11"/>
@@ -13553,7 +13517,7 @@
     </row>
     <row r="546" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="1"/>
-      <c r="B546" s="38"/>
+      <c r="B546" s="27"/>
       <c r="C546" s="17"/>
       <c r="D546" s="11"/>
       <c r="E546" s="11"/>
@@ -13576,7 +13540,7 @@
     </row>
     <row r="547" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A547" s="1"/>
-      <c r="B547" s="38"/>
+      <c r="B547" s="27"/>
       <c r="C547" s="17"/>
       <c r="D547" s="11"/>
       <c r="E547" s="11"/>
@@ -13599,7 +13563,7 @@
     </row>
     <row r="548" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A548" s="1"/>
-      <c r="B548" s="38"/>
+      <c r="B548" s="27"/>
       <c r="C548" s="17"/>
       <c r="D548" s="11"/>
       <c r="E548" s="11"/>
@@ -13622,7 +13586,7 @@
     </row>
     <row r="549" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A549" s="1"/>
-      <c r="B549" s="38"/>
+      <c r="B549" s="27"/>
       <c r="C549" s="17"/>
       <c r="D549" s="11"/>
       <c r="E549" s="11"/>
@@ -13645,7 +13609,7 @@
     </row>
     <row r="550" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A550" s="1"/>
-      <c r="B550" s="38"/>
+      <c r="B550" s="27"/>
       <c r="C550" s="17"/>
       <c r="D550" s="11"/>
       <c r="E550" s="11"/>
@@ -13668,7 +13632,7 @@
     </row>
     <row r="551" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A551" s="1"/>
-      <c r="B551" s="38"/>
+      <c r="B551" s="27"/>
       <c r="C551" s="17"/>
       <c r="D551" s="11"/>
       <c r="E551" s="11"/>
@@ -13691,7 +13655,7 @@
     </row>
     <row r="552" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="1"/>
-      <c r="B552" s="38"/>
+      <c r="B552" s="27"/>
       <c r="C552" s="17"/>
       <c r="D552" s="11"/>
       <c r="E552" s="11"/>
@@ -13714,7 +13678,7 @@
     </row>
     <row r="553" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="1"/>
-      <c r="B553" s="38"/>
+      <c r="B553" s="27"/>
       <c r="C553" s="17"/>
       <c r="D553" s="11"/>
       <c r="E553" s="11"/>
@@ -13737,7 +13701,7 @@
     </row>
     <row r="554" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="1"/>
-      <c r="B554" s="38"/>
+      <c r="B554" s="27"/>
       <c r="C554" s="17"/>
       <c r="D554" s="11"/>
       <c r="E554" s="11"/>
@@ -13760,7 +13724,7 @@
     </row>
     <row r="555" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1"/>
-      <c r="B555" s="38"/>
+      <c r="B555" s="27"/>
       <c r="C555" s="17"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
@@ -13783,7 +13747,7 @@
     </row>
     <row r="556" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="1"/>
-      <c r="B556" s="38"/>
+      <c r="B556" s="27"/>
       <c r="C556" s="17"/>
       <c r="D556" s="11"/>
       <c r="E556" s="11"/>
@@ -13806,7 +13770,7 @@
     </row>
     <row r="557" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="1"/>
-      <c r="B557" s="38"/>
+      <c r="B557" s="27"/>
       <c r="C557" s="17"/>
       <c r="D557" s="11"/>
       <c r="E557" s="11"/>
@@ -13829,7 +13793,7 @@
     </row>
     <row r="558" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="1"/>
-      <c r="B558" s="38"/>
+      <c r="B558" s="27"/>
       <c r="C558" s="17"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
@@ -13852,7 +13816,7 @@
     </row>
     <row r="559" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="1"/>
-      <c r="B559" s="38"/>
+      <c r="B559" s="27"/>
       <c r="C559" s="17"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
@@ -13875,7 +13839,7 @@
     </row>
     <row r="560" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="1"/>
-      <c r="B560" s="38"/>
+      <c r="B560" s="27"/>
       <c r="C560" s="17"/>
       <c r="D560" s="11"/>
       <c r="E560" s="11"/>
@@ -13898,7 +13862,7 @@
     </row>
     <row r="561" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="1"/>
-      <c r="B561" s="38"/>
+      <c r="B561" s="27"/>
       <c r="C561" s="17"/>
       <c r="D561" s="11"/>
       <c r="E561" s="11"/>
@@ -13921,7 +13885,7 @@
     </row>
     <row r="562" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="1"/>
-      <c r="B562" s="38"/>
+      <c r="B562" s="27"/>
       <c r="C562" s="17"/>
       <c r="D562" s="11"/>
       <c r="E562" s="11"/>
@@ -13944,7 +13908,7 @@
     </row>
     <row r="563" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="1"/>
-      <c r="B563" s="38"/>
+      <c r="B563" s="27"/>
       <c r="C563" s="17"/>
       <c r="D563" s="11"/>
       <c r="E563" s="11"/>
@@ -13967,7 +13931,7 @@
     </row>
     <row r="564" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="1"/>
-      <c r="B564" s="38"/>
+      <c r="B564" s="27"/>
       <c r="C564" s="17"/>
       <c r="D564" s="11"/>
       <c r="E564" s="11"/>
@@ -13990,7 +13954,7 @@
     </row>
     <row r="565" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="1"/>
-      <c r="B565" s="38"/>
+      <c r="B565" s="27"/>
       <c r="C565" s="17"/>
       <c r="D565" s="11"/>
       <c r="E565" s="11"/>
@@ -14013,7 +13977,7 @@
     </row>
     <row r="566" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="1"/>
-      <c r="B566" s="38"/>
+      <c r="B566" s="27"/>
       <c r="C566" s="17"/>
       <c r="D566" s="11"/>
       <c r="E566" s="11"/>
@@ -14036,7 +14000,7 @@
     </row>
     <row r="567" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="1"/>
-      <c r="B567" s="38"/>
+      <c r="B567" s="27"/>
       <c r="C567" s="17"/>
       <c r="D567" s="11"/>
       <c r="E567" s="11"/>
@@ -14059,7 +14023,7 @@
     </row>
     <row r="568" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="1"/>
-      <c r="B568" s="38"/>
+      <c r="B568" s="27"/>
       <c r="C568" s="17"/>
       <c r="D568" s="11"/>
       <c r="E568" s="11"/>
@@ -14082,7 +14046,7 @@
     </row>
     <row r="569" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="1"/>
-      <c r="B569" s="38"/>
+      <c r="B569" s="27"/>
       <c r="C569" s="17"/>
       <c r="D569" s="11"/>
       <c r="E569" s="11"/>
@@ -14105,7 +14069,7 @@
     </row>
     <row r="570" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="1"/>
-      <c r="B570" s="38"/>
+      <c r="B570" s="27"/>
       <c r="C570" s="17"/>
       <c r="D570" s="11"/>
       <c r="E570" s="11"/>
@@ -14128,7 +14092,7 @@
     </row>
     <row r="571" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="1"/>
-      <c r="B571" s="38"/>
+      <c r="B571" s="27"/>
       <c r="C571" s="17"/>
       <c r="D571" s="11"/>
       <c r="E571" s="11"/>
@@ -14151,7 +14115,7 @@
     </row>
     <row r="572" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="1"/>
-      <c r="B572" s="38"/>
+      <c r="B572" s="27"/>
       <c r="C572" s="17"/>
       <c r="D572" s="11"/>
       <c r="E572" s="11"/>
@@ -14174,7 +14138,7 @@
     </row>
     <row r="573" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="1"/>
-      <c r="B573" s="38"/>
+      <c r="B573" s="27"/>
       <c r="C573" s="17"/>
       <c r="D573" s="11"/>
       <c r="E573" s="11"/>
@@ -14197,7 +14161,7 @@
     </row>
     <row r="574" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="1"/>
-      <c r="B574" s="38"/>
+      <c r="B574" s="27"/>
       <c r="C574" s="17"/>
       <c r="D574" s="11"/>
       <c r="E574" s="11"/>
@@ -14220,7 +14184,7 @@
     </row>
     <row r="575" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="1"/>
-      <c r="B575" s="38"/>
+      <c r="B575" s="27"/>
       <c r="C575" s="17"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
@@ -14243,7 +14207,7 @@
     </row>
     <row r="576" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="1"/>
-      <c r="B576" s="38"/>
+      <c r="B576" s="27"/>
       <c r="C576" s="17"/>
       <c r="D576" s="11"/>
       <c r="E576" s="11"/>
@@ -14266,7 +14230,7 @@
     </row>
     <row r="577" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="1"/>
-      <c r="B577" s="38"/>
+      <c r="B577" s="27"/>
       <c r="C577" s="17"/>
       <c r="D577" s="11"/>
       <c r="E577" s="11"/>
@@ -14289,7 +14253,7 @@
     </row>
     <row r="578" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="1"/>
-      <c r="B578" s="38"/>
+      <c r="B578" s="27"/>
       <c r="C578" s="17"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
@@ -14312,7 +14276,7 @@
     </row>
     <row r="579" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="1"/>
-      <c r="B579" s="38"/>
+      <c r="B579" s="27"/>
       <c r="C579" s="17"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
@@ -14335,7 +14299,7 @@
     </row>
     <row r="580" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="1"/>
-      <c r="B580" s="38"/>
+      <c r="B580" s="27"/>
       <c r="C580" s="17"/>
       <c r="D580" s="11"/>
       <c r="E580" s="11"/>
@@ -14358,7 +14322,7 @@
     </row>
     <row r="581" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="1"/>
-      <c r="B581" s="38"/>
+      <c r="B581" s="27"/>
       <c r="C581" s="17"/>
       <c r="D581" s="11"/>
       <c r="E581" s="11"/>
@@ -14381,7 +14345,7 @@
     </row>
     <row r="582" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="1"/>
-      <c r="B582" s="38"/>
+      <c r="B582" s="27"/>
       <c r="C582" s="17"/>
       <c r="D582" s="11"/>
       <c r="E582" s="11"/>
@@ -14404,7 +14368,7 @@
     </row>
     <row r="583" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="1"/>
-      <c r="B583" s="38"/>
+      <c r="B583" s="27"/>
       <c r="C583" s="17"/>
       <c r="D583" s="11"/>
       <c r="E583" s="11"/>
@@ -14427,7 +14391,7 @@
     </row>
     <row r="584" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="1"/>
-      <c r="B584" s="38"/>
+      <c r="B584" s="27"/>
       <c r="C584" s="17"/>
       <c r="D584" s="11"/>
       <c r="E584" s="11"/>
@@ -14450,7 +14414,7 @@
     </row>
     <row r="585" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="1"/>
-      <c r="B585" s="38"/>
+      <c r="B585" s="27"/>
       <c r="C585" s="17"/>
       <c r="D585" s="11"/>
       <c r="E585" s="11"/>
@@ -14473,7 +14437,7 @@
     </row>
     <row r="586" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="1"/>
-      <c r="B586" s="38"/>
+      <c r="B586" s="27"/>
       <c r="C586" s="17"/>
       <c r="D586" s="11"/>
       <c r="E586" s="11"/>
@@ -14496,7 +14460,7 @@
     </row>
     <row r="587" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="1"/>
-      <c r="B587" s="38"/>
+      <c r="B587" s="27"/>
       <c r="C587" s="17"/>
       <c r="D587" s="11"/>
       <c r="E587" s="11"/>
@@ -14519,7 +14483,7 @@
     </row>
     <row r="588" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="1"/>
-      <c r="B588" s="38"/>
+      <c r="B588" s="27"/>
       <c r="C588" s="17"/>
       <c r="D588" s="11"/>
       <c r="E588" s="11"/>
@@ -14542,7 +14506,7 @@
     </row>
     <row r="589" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="1"/>
-      <c r="B589" s="38"/>
+      <c r="B589" s="27"/>
       <c r="C589" s="17"/>
       <c r="D589" s="11"/>
       <c r="E589" s="11"/>
@@ -14565,7 +14529,7 @@
     </row>
     <row r="590" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="1"/>
-      <c r="B590" s="38"/>
+      <c r="B590" s="27"/>
       <c r="C590" s="17"/>
       <c r="D590" s="11"/>
       <c r="E590" s="11"/>
@@ -14588,7 +14552,7 @@
     </row>
     <row r="591" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="1"/>
-      <c r="B591" s="38"/>
+      <c r="B591" s="27"/>
       <c r="C591" s="17"/>
       <c r="D591" s="11"/>
       <c r="E591" s="11"/>
@@ -14611,7 +14575,7 @@
     </row>
     <row r="592" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="1"/>
-      <c r="B592" s="38"/>
+      <c r="B592" s="27"/>
       <c r="C592" s="17"/>
       <c r="D592" s="11"/>
       <c r="E592" s="11"/>
@@ -14634,7 +14598,7 @@
     </row>
     <row r="593" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="1"/>
-      <c r="B593" s="38"/>
+      <c r="B593" s="27"/>
       <c r="C593" s="17"/>
       <c r="D593" s="11"/>
       <c r="E593" s="11"/>
@@ -14657,7 +14621,7 @@
     </row>
     <row r="594" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="1"/>
-      <c r="B594" s="38"/>
+      <c r="B594" s="27"/>
       <c r="C594" s="17"/>
       <c r="D594" s="11"/>
       <c r="E594" s="11"/>
@@ -14680,7 +14644,7 @@
     </row>
     <row r="595" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="1"/>
-      <c r="B595" s="38"/>
+      <c r="B595" s="27"/>
       <c r="C595" s="17"/>
       <c r="D595" s="11"/>
       <c r="E595" s="11"/>
@@ -14703,7 +14667,7 @@
     </row>
     <row r="596" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="1"/>
-      <c r="B596" s="38"/>
+      <c r="B596" s="27"/>
       <c r="C596" s="17"/>
       <c r="D596" s="11"/>
       <c r="E596" s="11"/>
@@ -14726,7 +14690,7 @@
     </row>
     <row r="597" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="1"/>
-      <c r="B597" s="38"/>
+      <c r="B597" s="27"/>
       <c r="C597" s="17"/>
       <c r="D597" s="11"/>
       <c r="E597" s="11"/>
@@ -14749,7 +14713,7 @@
     </row>
     <row r="598" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="1"/>
-      <c r="B598" s="38"/>
+      <c r="B598" s="27"/>
       <c r="C598" s="17"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
@@ -14772,7 +14736,7 @@
     </row>
     <row r="599" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="1"/>
-      <c r="B599" s="38"/>
+      <c r="B599" s="27"/>
       <c r="C599" s="17"/>
       <c r="D599" s="11"/>
       <c r="E599" s="11"/>
@@ -14795,7 +14759,7 @@
     </row>
     <row r="600" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="1"/>
-      <c r="B600" s="38"/>
+      <c r="B600" s="27"/>
       <c r="C600" s="17"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
@@ -14818,7 +14782,7 @@
     </row>
     <row r="601" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="1"/>
-      <c r="B601" s="38"/>
+      <c r="B601" s="27"/>
       <c r="C601" s="17"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
@@ -14841,7 +14805,7 @@
     </row>
     <row r="602" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="1"/>
-      <c r="B602" s="38"/>
+      <c r="B602" s="27"/>
       <c r="C602" s="17"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
@@ -14864,7 +14828,7 @@
     </row>
     <row r="603" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="1"/>
-      <c r="B603" s="38"/>
+      <c r="B603" s="27"/>
       <c r="C603" s="17"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
@@ -14887,7 +14851,7 @@
     </row>
     <row r="604" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="1"/>
-      <c r="B604" s="38"/>
+      <c r="B604" s="27"/>
       <c r="C604" s="17"/>
       <c r="D604" s="11"/>
       <c r="E604" s="11"/>
@@ -14910,7 +14874,7 @@
     </row>
     <row r="605" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="1"/>
-      <c r="B605" s="38"/>
+      <c r="B605" s="27"/>
       <c r="C605" s="17"/>
       <c r="D605" s="11"/>
       <c r="E605" s="11"/>
@@ -14933,7 +14897,7 @@
     </row>
     <row r="606" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="1"/>
-      <c r="B606" s="38"/>
+      <c r="B606" s="27"/>
       <c r="C606" s="17"/>
       <c r="D606" s="11"/>
       <c r="E606" s="11"/>
@@ -14956,7 +14920,7 @@
     </row>
     <row r="607" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="1"/>
-      <c r="B607" s="38"/>
+      <c r="B607" s="27"/>
       <c r="C607" s="17"/>
       <c r="D607" s="11"/>
       <c r="E607" s="11"/>
@@ -14979,7 +14943,7 @@
     </row>
     <row r="608" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="1"/>
-      <c r="B608" s="38"/>
+      <c r="B608" s="27"/>
       <c r="C608" s="17"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
@@ -15002,7 +14966,7 @@
     </row>
     <row r="609" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="1"/>
-      <c r="B609" s="38"/>
+      <c r="B609" s="27"/>
       <c r="C609" s="17"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
@@ -15025,7 +14989,7 @@
     </row>
     <row r="610" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="1"/>
-      <c r="B610" s="38"/>
+      <c r="B610" s="27"/>
       <c r="C610" s="17"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
@@ -15048,7 +15012,7 @@
     </row>
     <row r="611" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="1"/>
-      <c r="B611" s="38"/>
+      <c r="B611" s="27"/>
       <c r="C611" s="17"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
@@ -15071,7 +15035,7 @@
     </row>
     <row r="612" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="1"/>
-      <c r="B612" s="38"/>
+      <c r="B612" s="27"/>
       <c r="C612" s="17"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
@@ -15094,7 +15058,7 @@
     </row>
     <row r="613" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="1"/>
-      <c r="B613" s="38"/>
+      <c r="B613" s="27"/>
       <c r="C613" s="17"/>
       <c r="D613" s="11"/>
       <c r="E613" s="11"/>
@@ -15117,7 +15081,7 @@
     </row>
     <row r="614" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="1"/>
-      <c r="B614" s="38"/>
+      <c r="B614" s="27"/>
       <c r="C614" s="17"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
@@ -15140,7 +15104,7 @@
     </row>
     <row r="615" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="1"/>
-      <c r="B615" s="38"/>
+      <c r="B615" s="27"/>
       <c r="C615" s="17"/>
       <c r="D615" s="11"/>
       <c r="E615" s="11"/>
@@ -15163,7 +15127,7 @@
     </row>
     <row r="616" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="1"/>
-      <c r="B616" s="38"/>
+      <c r="B616" s="27"/>
       <c r="C616" s="17"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
@@ -15186,7 +15150,7 @@
     </row>
     <row r="617" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="1"/>
-      <c r="B617" s="38"/>
+      <c r="B617" s="27"/>
       <c r="C617" s="17"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
@@ -15209,7 +15173,7 @@
     </row>
     <row r="618" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="1"/>
-      <c r="B618" s="38"/>
+      <c r="B618" s="27"/>
       <c r="C618" s="17"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
@@ -15232,7 +15196,7 @@
     </row>
     <row r="619" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="1"/>
-      <c r="B619" s="38"/>
+      <c r="B619" s="27"/>
       <c r="C619" s="17"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
@@ -15255,7 +15219,7 @@
     </row>
     <row r="620" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="1"/>
-      <c r="B620" s="38"/>
+      <c r="B620" s="27"/>
       <c r="C620" s="17"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
@@ -15278,7 +15242,7 @@
     </row>
     <row r="621" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="1"/>
-      <c r="B621" s="38"/>
+      <c r="B621" s="27"/>
       <c r="C621" s="17"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
@@ -15301,7 +15265,7 @@
     </row>
     <row r="622" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="1"/>
-      <c r="B622" s="38"/>
+      <c r="B622" s="27"/>
       <c r="C622" s="17"/>
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
@@ -15324,7 +15288,7 @@
     </row>
     <row r="623" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="1"/>
-      <c r="B623" s="38"/>
+      <c r="B623" s="27"/>
       <c r="C623" s="17"/>
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
@@ -15347,7 +15311,7 @@
     </row>
     <row r="624" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="1"/>
-      <c r="B624" s="38"/>
+      <c r="B624" s="27"/>
       <c r="C624" s="17"/>
       <c r="D624" s="11"/>
       <c r="E624" s="11"/>
@@ -15370,7 +15334,7 @@
     </row>
     <row r="625" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="1"/>
-      <c r="B625" s="38"/>
+      <c r="B625" s="27"/>
       <c r="C625" s="17"/>
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
@@ -15393,7 +15357,7 @@
     </row>
     <row r="626" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="1"/>
-      <c r="B626" s="38"/>
+      <c r="B626" s="27"/>
       <c r="C626" s="17"/>
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
@@ -15416,7 +15380,7 @@
     </row>
     <row r="627" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="1"/>
-      <c r="B627" s="38"/>
+      <c r="B627" s="27"/>
       <c r="C627" s="17"/>
       <c r="D627" s="11"/>
       <c r="E627" s="11"/>
@@ -15439,7 +15403,7 @@
     </row>
     <row r="628" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="1"/>
-      <c r="B628" s="38"/>
+      <c r="B628" s="27"/>
       <c r="C628" s="17"/>
       <c r="D628" s="11"/>
       <c r="E628" s="11"/>
@@ -15462,7 +15426,7 @@
     </row>
     <row r="629" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="1"/>
-      <c r="B629" s="38"/>
+      <c r="B629" s="27"/>
       <c r="C629" s="17"/>
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
@@ -15485,7 +15449,7 @@
     </row>
     <row r="630" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="1"/>
-      <c r="B630" s="38"/>
+      <c r="B630" s="27"/>
       <c r="C630" s="17"/>
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
@@ -15508,7 +15472,7 @@
     </row>
     <row r="631" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="1"/>
-      <c r="B631" s="38"/>
+      <c r="B631" s="27"/>
       <c r="C631" s="17"/>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
@@ -15531,7 +15495,7 @@
     </row>
     <row r="632" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="1"/>
-      <c r="B632" s="38"/>
+      <c r="B632" s="27"/>
       <c r="C632" s="17"/>
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
@@ -15554,7 +15518,7 @@
     </row>
     <row r="633" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="1"/>
-      <c r="B633" s="38"/>
+      <c r="B633" s="27"/>
       <c r="C633" s="17"/>
       <c r="D633" s="11"/>
       <c r="E633" s="11"/>
@@ -15577,7 +15541,7 @@
     </row>
     <row r="634" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="1"/>
-      <c r="B634" s="38"/>
+      <c r="B634" s="27"/>
       <c r="C634" s="17"/>
       <c r="D634" s="11"/>
       <c r="E634" s="11"/>
@@ -15600,7 +15564,7 @@
     </row>
     <row r="635" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="1"/>
-      <c r="B635" s="38"/>
+      <c r="B635" s="27"/>
       <c r="C635" s="17"/>
       <c r="D635" s="11"/>
       <c r="E635" s="11"/>
@@ -15623,7 +15587,7 @@
     </row>
     <row r="636" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="1"/>
-      <c r="B636" s="38"/>
+      <c r="B636" s="27"/>
       <c r="C636" s="17"/>
       <c r="D636" s="11"/>
       <c r="E636" s="11"/>
@@ -15646,7 +15610,7 @@
     </row>
     <row r="637" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="1"/>
-      <c r="B637" s="38"/>
+      <c r="B637" s="27"/>
       <c r="C637" s="17"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
@@ -15669,7 +15633,7 @@
     </row>
     <row r="638" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="1"/>
-      <c r="B638" s="38"/>
+      <c r="B638" s="27"/>
       <c r="C638" s="17"/>
       <c r="D638" s="11"/>
       <c r="E638" s="11"/>
@@ -15692,7 +15656,7 @@
     </row>
     <row r="639" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="1"/>
-      <c r="B639" s="38"/>
+      <c r="B639" s="27"/>
       <c r="C639" s="17"/>
       <c r="D639" s="11"/>
       <c r="E639" s="11"/>
@@ -15715,7 +15679,7 @@
     </row>
     <row r="640" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="1"/>
-      <c r="B640" s="38"/>
+      <c r="B640" s="27"/>
       <c r="C640" s="17"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
@@ -15738,7 +15702,7 @@
     </row>
     <row r="641" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="1"/>
-      <c r="B641" s="38"/>
+      <c r="B641" s="27"/>
       <c r="C641" s="17"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
@@ -15761,7 +15725,7 @@
     </row>
     <row r="642" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="1"/>
-      <c r="B642" s="38"/>
+      <c r="B642" s="27"/>
       <c r="C642" s="17"/>
       <c r="D642" s="11"/>
       <c r="E642" s="11"/>
@@ -15784,7 +15748,7 @@
     </row>
     <row r="643" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="1"/>
-      <c r="B643" s="38"/>
+      <c r="B643" s="27"/>
       <c r="C643" s="17"/>
       <c r="D643" s="11"/>
       <c r="E643" s="11"/>
@@ -15807,7 +15771,7 @@
     </row>
     <row r="644" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="1"/>
-      <c r="B644" s="38"/>
+      <c r="B644" s="27"/>
       <c r="C644" s="17"/>
       <c r="D644" s="11"/>
       <c r="E644" s="11"/>
@@ -15830,7 +15794,7 @@
     </row>
     <row r="645" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="1"/>
-      <c r="B645" s="38"/>
+      <c r="B645" s="27"/>
       <c r="C645" s="17"/>
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
@@ -15853,7 +15817,7 @@
     </row>
     <row r="646" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="1"/>
-      <c r="B646" s="38"/>
+      <c r="B646" s="27"/>
       <c r="C646" s="17"/>
       <c r="D646" s="11"/>
       <c r="E646" s="11"/>
@@ -15876,7 +15840,7 @@
     </row>
     <row r="647" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="1"/>
-      <c r="B647" s="38"/>
+      <c r="B647" s="27"/>
       <c r="C647" s="17"/>
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
@@ -15899,7 +15863,7 @@
     </row>
     <row r="648" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="1"/>
-      <c r="B648" s="38"/>
+      <c r="B648" s="27"/>
       <c r="C648" s="17"/>
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
@@ -15922,7 +15886,7 @@
     </row>
     <row r="649" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="1"/>
-      <c r="B649" s="38"/>
+      <c r="B649" s="27"/>
       <c r="C649" s="17"/>
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
@@ -15945,7 +15909,7 @@
     </row>
     <row r="650" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="1"/>
-      <c r="B650" s="38"/>
+      <c r="B650" s="27"/>
       <c r="C650" s="17"/>
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
@@ -15968,7 +15932,7 @@
     </row>
     <row r="651" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="1"/>
-      <c r="B651" s="38"/>
+      <c r="B651" s="27"/>
       <c r="C651" s="17"/>
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
@@ -15991,7 +15955,7 @@
     </row>
     <row r="652" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="1"/>
-      <c r="B652" s="38"/>
+      <c r="B652" s="27"/>
       <c r="C652" s="17"/>
       <c r="D652" s="11"/>
       <c r="E652" s="11"/>
@@ -16014,7 +15978,7 @@
     </row>
     <row r="653" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="1"/>
-      <c r="B653" s="38"/>
+      <c r="B653" s="27"/>
       <c r="C653" s="17"/>
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
@@ -16037,7 +16001,7 @@
     </row>
     <row r="654" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="1"/>
-      <c r="B654" s="38"/>
+      <c r="B654" s="27"/>
       <c r="C654" s="17"/>
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
@@ -16060,7 +16024,7 @@
     </row>
     <row r="655" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="1"/>
-      <c r="B655" s="38"/>
+      <c r="B655" s="27"/>
       <c r="C655" s="17"/>
       <c r="D655" s="11"/>
       <c r="E655" s="11"/>
@@ -16083,7 +16047,7 @@
     </row>
     <row r="656" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="1"/>
-      <c r="B656" s="38"/>
+      <c r="B656" s="27"/>
       <c r="C656" s="17"/>
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
@@ -16106,7 +16070,7 @@
     </row>
     <row r="657" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="1"/>
-      <c r="B657" s="38"/>
+      <c r="B657" s="27"/>
       <c r="C657" s="17"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
@@ -16129,7 +16093,7 @@
     </row>
     <row r="658" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="1"/>
-      <c r="B658" s="38"/>
+      <c r="B658" s="27"/>
       <c r="C658" s="17"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
@@ -16152,7 +16116,7 @@
     </row>
     <row r="659" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="1"/>
-      <c r="B659" s="38"/>
+      <c r="B659" s="27"/>
       <c r="C659" s="17"/>
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
@@ -16175,7 +16139,7 @@
     </row>
     <row r="660" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="1"/>
-      <c r="B660" s="38"/>
+      <c r="B660" s="27"/>
       <c r="C660" s="17"/>
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
@@ -16198,7 +16162,7 @@
     </row>
     <row r="661" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="1"/>
-      <c r="B661" s="38"/>
+      <c r="B661" s="27"/>
       <c r="C661" s="17"/>
       <c r="D661" s="11"/>
       <c r="E661" s="11"/>
@@ -16221,7 +16185,7 @@
     </row>
     <row r="662" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="1"/>
-      <c r="B662" s="38"/>
+      <c r="B662" s="27"/>
       <c r="C662" s="17"/>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
@@ -16244,7 +16208,7 @@
     </row>
     <row r="663" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="1"/>
-      <c r="B663" s="38"/>
+      <c r="B663" s="27"/>
       <c r="C663" s="17"/>
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
@@ -16267,7 +16231,7 @@
     </row>
     <row r="664" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="1"/>
-      <c r="B664" s="38"/>
+      <c r="B664" s="27"/>
       <c r="C664" s="17"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
@@ -16290,7 +16254,7 @@
     </row>
     <row r="665" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="1"/>
-      <c r="B665" s="38"/>
+      <c r="B665" s="27"/>
       <c r="C665" s="17"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
@@ -16313,7 +16277,7 @@
     </row>
     <row r="666" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="1"/>
-      <c r="B666" s="38"/>
+      <c r="B666" s="27"/>
       <c r="C666" s="17"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
@@ -16336,7 +16300,7 @@
     </row>
     <row r="667" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="1"/>
-      <c r="B667" s="38"/>
+      <c r="B667" s="27"/>
       <c r="C667" s="17"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
@@ -16359,7 +16323,7 @@
     </row>
     <row r="668" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="1"/>
-      <c r="B668" s="38"/>
+      <c r="B668" s="27"/>
       <c r="C668" s="17"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
@@ -16382,7 +16346,7 @@
     </row>
     <row r="669" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="1"/>
-      <c r="B669" s="38"/>
+      <c r="B669" s="27"/>
       <c r="C669" s="17"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
@@ -16405,7 +16369,7 @@
     </row>
     <row r="670" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="1"/>
-      <c r="B670" s="38"/>
+      <c r="B670" s="27"/>
       <c r="C670" s="17"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
@@ -16428,7 +16392,7 @@
     </row>
     <row r="671" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="1"/>
-      <c r="B671" s="38"/>
+      <c r="B671" s="27"/>
       <c r="C671" s="17"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
@@ -16451,7 +16415,7 @@
     </row>
     <row r="672" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="1"/>
-      <c r="B672" s="38"/>
+      <c r="B672" s="27"/>
       <c r="C672" s="17"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
@@ -16474,7 +16438,7 @@
     </row>
     <row r="673" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="1"/>
-      <c r="B673" s="38"/>
+      <c r="B673" s="27"/>
       <c r="C673" s="17"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
@@ -16497,7 +16461,7 @@
     </row>
     <row r="674" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="1"/>
-      <c r="B674" s="38"/>
+      <c r="B674" s="27"/>
       <c r="C674" s="17"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
@@ -16520,7 +16484,7 @@
     </row>
     <row r="675" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="1"/>
-      <c r="B675" s="38"/>
+      <c r="B675" s="27"/>
       <c r="C675" s="17"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -16543,7 +16507,7 @@
     </row>
     <row r="676" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="1"/>
-      <c r="B676" s="38"/>
+      <c r="B676" s="27"/>
       <c r="C676" s="17"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
@@ -16566,7 +16530,7 @@
     </row>
     <row r="677" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="1"/>
-      <c r="B677" s="38"/>
+      <c r="B677" s="27"/>
       <c r="C677" s="17"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
@@ -16589,7 +16553,7 @@
     </row>
     <row r="678" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="1"/>
-      <c r="B678" s="38"/>
+      <c r="B678" s="27"/>
       <c r="C678" s="17"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
@@ -16612,7 +16576,7 @@
     </row>
     <row r="679" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="1"/>
-      <c r="B679" s="38"/>
+      <c r="B679" s="27"/>
       <c r="C679" s="17"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
@@ -16635,7 +16599,7 @@
     </row>
     <row r="680" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="1"/>
-      <c r="B680" s="38"/>
+      <c r="B680" s="27"/>
       <c r="C680" s="17"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
@@ -16658,7 +16622,7 @@
     </row>
     <row r="681" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="1"/>
-      <c r="B681" s="38"/>
+      <c r="B681" s="27"/>
       <c r="C681" s="17"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
@@ -16681,7 +16645,7 @@
     </row>
     <row r="682" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="1"/>
-      <c r="B682" s="38"/>
+      <c r="B682" s="27"/>
       <c r="C682" s="17"/>
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
@@ -16704,7 +16668,7 @@
     </row>
     <row r="683" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="1"/>
-      <c r="B683" s="38"/>
+      <c r="B683" s="27"/>
       <c r="C683" s="17"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
@@ -16727,7 +16691,7 @@
     </row>
     <row r="684" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="1"/>
-      <c r="B684" s="38"/>
+      <c r="B684" s="27"/>
       <c r="C684" s="17"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
@@ -16750,7 +16714,7 @@
     </row>
     <row r="685" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="1"/>
-      <c r="B685" s="38"/>
+      <c r="B685" s="27"/>
       <c r="C685" s="17"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
@@ -16773,7 +16737,7 @@
     </row>
     <row r="686" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="1"/>
-      <c r="B686" s="38"/>
+      <c r="B686" s="27"/>
       <c r="C686" s="17"/>
       <c r="D686" s="11"/>
       <c r="E686" s="11"/>
@@ -16796,7 +16760,7 @@
     </row>
     <row r="687" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="1"/>
-      <c r="B687" s="38"/>
+      <c r="B687" s="27"/>
       <c r="C687" s="17"/>
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
@@ -16819,7 +16783,7 @@
     </row>
     <row r="688" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="1"/>
-      <c r="B688" s="38"/>
+      <c r="B688" s="27"/>
       <c r="C688" s="17"/>
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
@@ -16842,7 +16806,7 @@
     </row>
     <row r="689" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="1"/>
-      <c r="B689" s="38"/>
+      <c r="B689" s="27"/>
       <c r="C689" s="17"/>
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
@@ -16865,7 +16829,7 @@
     </row>
     <row r="690" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="1"/>
-      <c r="B690" s="38"/>
+      <c r="B690" s="27"/>
       <c r="C690" s="17"/>
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
@@ -16888,7 +16852,7 @@
     </row>
     <row r="691" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="1"/>
-      <c r="B691" s="38"/>
+      <c r="B691" s="27"/>
       <c r="C691" s="17"/>
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
@@ -16911,7 +16875,7 @@
     </row>
     <row r="692" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="1"/>
-      <c r="B692" s="38"/>
+      <c r="B692" s="27"/>
       <c r="C692" s="17"/>
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
@@ -16934,7 +16898,7 @@
     </row>
     <row r="693" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="1"/>
-      <c r="B693" s="38"/>
+      <c r="B693" s="27"/>
       <c r="C693" s="17"/>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
@@ -16957,7 +16921,7 @@
     </row>
     <row r="694" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="1"/>
-      <c r="B694" s="38"/>
+      <c r="B694" s="27"/>
       <c r="C694" s="17"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
@@ -16980,7 +16944,7 @@
     </row>
     <row r="695" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="1"/>
-      <c r="B695" s="38"/>
+      <c r="B695" s="27"/>
       <c r="C695" s="17"/>
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
@@ -17003,7 +16967,7 @@
     </row>
     <row r="696" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="1"/>
-      <c r="B696" s="38"/>
+      <c r="B696" s="27"/>
       <c r="C696" s="17"/>
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
@@ -17026,7 +16990,7 @@
     </row>
     <row r="697" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="1"/>
-      <c r="B697" s="38"/>
+      <c r="B697" s="27"/>
       <c r="C697" s="17"/>
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
@@ -17049,7 +17013,7 @@
     </row>
     <row r="698" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="1"/>
-      <c r="B698" s="38"/>
+      <c r="B698" s="27"/>
       <c r="C698" s="17"/>
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
@@ -17072,7 +17036,7 @@
     </row>
     <row r="699" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="1"/>
-      <c r="B699" s="38"/>
+      <c r="B699" s="27"/>
       <c r="C699" s="17"/>
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
@@ -17095,7 +17059,7 @@
     </row>
     <row r="700" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="1"/>
-      <c r="B700" s="38"/>
+      <c r="B700" s="27"/>
       <c r="C700" s="17"/>
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
@@ -17118,7 +17082,7 @@
     </row>
     <row r="701" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="1"/>
-      <c r="B701" s="38"/>
+      <c r="B701" s="27"/>
       <c r="C701" s="17"/>
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
@@ -17141,7 +17105,7 @@
     </row>
     <row r="702" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="1"/>
-      <c r="B702" s="38"/>
+      <c r="B702" s="27"/>
       <c r="C702" s="17"/>
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
@@ -17164,7 +17128,7 @@
     </row>
     <row r="703" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="1"/>
-      <c r="B703" s="38"/>
+      <c r="B703" s="27"/>
       <c r="C703" s="17"/>
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
@@ -17187,7 +17151,7 @@
     </row>
     <row r="704" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="1"/>
-      <c r="B704" s="38"/>
+      <c r="B704" s="27"/>
       <c r="C704" s="17"/>
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
@@ -17210,7 +17174,7 @@
     </row>
     <row r="705" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="1"/>
-      <c r="B705" s="38"/>
+      <c r="B705" s="27"/>
       <c r="C705" s="17"/>
       <c r="D705" s="11"/>
       <c r="E705" s="11"/>
@@ -17233,7 +17197,7 @@
     </row>
     <row r="706" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="1"/>
-      <c r="B706" s="38"/>
+      <c r="B706" s="27"/>
       <c r="C706" s="17"/>
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
@@ -17256,7 +17220,7 @@
     </row>
     <row r="707" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="1"/>
-      <c r="B707" s="38"/>
+      <c r="B707" s="27"/>
       <c r="C707" s="17"/>
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
@@ -17279,7 +17243,7 @@
     </row>
     <row r="708" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="1"/>
-      <c r="B708" s="38"/>
+      <c r="B708" s="27"/>
       <c r="C708" s="17"/>
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
@@ -17302,7 +17266,7 @@
     </row>
     <row r="709" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="1"/>
-      <c r="B709" s="38"/>
+      <c r="B709" s="27"/>
       <c r="C709" s="17"/>
       <c r="D709" s="11"/>
       <c r="E709" s="11"/>
@@ -17325,7 +17289,7 @@
     </row>
     <row r="710" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="1"/>
-      <c r="B710" s="38"/>
+      <c r="B710" s="27"/>
       <c r="C710" s="17"/>
       <c r="D710" s="11"/>
       <c r="E710" s="11"/>
@@ -17348,7 +17312,7 @@
     </row>
     <row r="711" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="1"/>
-      <c r="B711" s="38"/>
+      <c r="B711" s="27"/>
       <c r="C711" s="17"/>
       <c r="D711" s="11"/>
       <c r="E711" s="11"/>
@@ -17371,7 +17335,7 @@
     </row>
     <row r="712" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="1"/>
-      <c r="B712" s="38"/>
+      <c r="B712" s="27"/>
       <c r="C712" s="17"/>
       <c r="D712" s="11"/>
       <c r="E712" s="11"/>
@@ -17394,7 +17358,7 @@
     </row>
     <row r="713" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A713" s="1"/>
-      <c r="B713" s="38"/>
+      <c r="B713" s="27"/>
       <c r="C713" s="17"/>
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
@@ -17417,7 +17381,7 @@
     </row>
     <row r="714" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A714" s="1"/>
-      <c r="B714" s="38"/>
+      <c r="B714" s="27"/>
       <c r="C714" s="17"/>
       <c r="D714" s="11"/>
       <c r="E714" s="11"/>
@@ -17440,7 +17404,7 @@
     </row>
     <row r="715" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A715" s="1"/>
-      <c r="B715" s="38"/>
+      <c r="B715" s="27"/>
       <c r="C715" s="17"/>
       <c r="D715" s="11"/>
       <c r="E715" s="11"/>
@@ -17463,7 +17427,7 @@
     </row>
     <row r="716" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A716" s="1"/>
-      <c r="B716" s="38"/>
+      <c r="B716" s="27"/>
       <c r="C716" s="17"/>
       <c r="D716" s="11"/>
       <c r="E716" s="11"/>
@@ -17486,7 +17450,7 @@
     </row>
     <row r="717" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A717" s="1"/>
-      <c r="B717" s="38"/>
+      <c r="B717" s="27"/>
       <c r="C717" s="17"/>
       <c r="D717" s="11"/>
       <c r="E717" s="11"/>
@@ -17509,7 +17473,7 @@
     </row>
     <row r="718" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A718" s="1"/>
-      <c r="B718" s="38"/>
+      <c r="B718" s="27"/>
       <c r="C718" s="17"/>
       <c r="D718" s="11"/>
       <c r="E718" s="11"/>
@@ -17532,7 +17496,7 @@
     </row>
     <row r="719" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A719" s="1"/>
-      <c r="B719" s="38"/>
+      <c r="B719" s="27"/>
       <c r="C719" s="17"/>
       <c r="D719" s="11"/>
       <c r="E719" s="11"/>
@@ -17555,7 +17519,7 @@
     </row>
     <row r="720" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A720" s="1"/>
-      <c r="B720" s="38"/>
+      <c r="B720" s="27"/>
       <c r="C720" s="17"/>
       <c r="D720" s="11"/>
       <c r="E720" s="11"/>
@@ -17578,7 +17542,7 @@
     </row>
     <row r="721" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A721" s="1"/>
-      <c r="B721" s="38"/>
+      <c r="B721" s="27"/>
       <c r="C721" s="17"/>
       <c r="D721" s="11"/>
       <c r="E721" s="11"/>
@@ -17601,7 +17565,7 @@
     </row>
     <row r="722" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A722" s="1"/>
-      <c r="B722" s="38"/>
+      <c r="B722" s="27"/>
       <c r="C722" s="17"/>
       <c r="D722" s="11"/>
       <c r="E722" s="11"/>
@@ -17624,7 +17588,7 @@
     </row>
     <row r="723" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A723" s="1"/>
-      <c r="B723" s="38"/>
+      <c r="B723" s="27"/>
       <c r="C723" s="17"/>
       <c r="D723" s="11"/>
       <c r="E723" s="11"/>
@@ -17647,7 +17611,7 @@
     </row>
     <row r="724" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A724" s="1"/>
-      <c r="B724" s="38"/>
+      <c r="B724" s="27"/>
       <c r="C724" s="17"/>
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
@@ -17670,7 +17634,7 @@
     </row>
     <row r="725" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A725" s="1"/>
-      <c r="B725" s="38"/>
+      <c r="B725" s="27"/>
       <c r="C725" s="17"/>
       <c r="D725" s="11"/>
       <c r="E725" s="11"/>
@@ -17693,7 +17657,7 @@
     </row>
     <row r="726" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A726" s="1"/>
-      <c r="B726" s="38"/>
+      <c r="B726" s="27"/>
       <c r="C726" s="17"/>
       <c r="D726" s="11"/>
       <c r="E726" s="11"/>
@@ -17716,7 +17680,7 @@
     </row>
     <row r="727" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A727" s="1"/>
-      <c r="B727" s="38"/>
+      <c r="B727" s="27"/>
       <c r="C727" s="17"/>
       <c r="D727" s="11"/>
       <c r="E727" s="11"/>
@@ -17739,7 +17703,7 @@
     </row>
     <row r="728" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A728" s="1"/>
-      <c r="B728" s="38"/>
+      <c r="B728" s="27"/>
       <c r="C728" s="17"/>
       <c r="D728" s="11"/>
       <c r="E728" s="11"/>
@@ -17762,7 +17726,7 @@
     </row>
     <row r="729" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A729" s="1"/>
-      <c r="B729" s="38"/>
+      <c r="B729" s="27"/>
       <c r="C729" s="17"/>
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
@@ -17785,7 +17749,7 @@
     </row>
     <row r="730" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A730" s="1"/>
-      <c r="B730" s="38"/>
+      <c r="B730" s="27"/>
       <c r="C730" s="17"/>
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
@@ -17808,7 +17772,7 @@
     </row>
     <row r="731" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A731" s="1"/>
-      <c r="B731" s="38"/>
+      <c r="B731" s="27"/>
       <c r="C731" s="17"/>
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
@@ -17831,7 +17795,7 @@
     </row>
     <row r="732" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A732" s="1"/>
-      <c r="B732" s="38"/>
+      <c r="B732" s="27"/>
       <c r="C732" s="17"/>
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
@@ -17854,7 +17818,7 @@
     </row>
     <row r="733" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A733" s="1"/>
-      <c r="B733" s="38"/>
+      <c r="B733" s="27"/>
       <c r="C733" s="17"/>
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
@@ -17877,7 +17841,7 @@
     </row>
     <row r="734" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A734" s="1"/>
-      <c r="B734" s="38"/>
+      <c r="B734" s="27"/>
       <c r="C734" s="17"/>
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
@@ -17900,7 +17864,7 @@
     </row>
     <row r="735" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A735" s="1"/>
-      <c r="B735" s="38"/>
+      <c r="B735" s="27"/>
       <c r="C735" s="17"/>
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
@@ -17923,7 +17887,7 @@
     </row>
     <row r="736" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A736" s="1"/>
-      <c r="B736" s="38"/>
+      <c r="B736" s="27"/>
       <c r="C736" s="17"/>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
@@ -17946,7 +17910,7 @@
     </row>
     <row r="737" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A737" s="1"/>
-      <c r="B737" s="38"/>
+      <c r="B737" s="27"/>
       <c r="C737" s="17"/>
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
@@ -17969,7 +17933,7 @@
     </row>
     <row r="738" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A738" s="1"/>
-      <c r="B738" s="38"/>
+      <c r="B738" s="27"/>
       <c r="C738" s="17"/>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
@@ -17992,7 +17956,7 @@
     </row>
     <row r="739" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A739" s="1"/>
-      <c r="B739" s="38"/>
+      <c r="B739" s="27"/>
       <c r="C739" s="17"/>
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
@@ -18015,7 +17979,7 @@
     </row>
     <row r="740" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A740" s="1"/>
-      <c r="B740" s="38"/>
+      <c r="B740" s="27"/>
       <c r="C740" s="17"/>
       <c r="D740" s="11"/>
       <c r="E740" s="11"/>
@@ -18038,7 +18002,7 @@
     </row>
     <row r="741" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A741" s="1"/>
-      <c r="B741" s="38"/>
+      <c r="B741" s="27"/>
       <c r="C741" s="17"/>
       <c r="D741" s="11"/>
       <c r="E741" s="11"/>
@@ -18061,7 +18025,7 @@
     </row>
     <row r="742" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A742" s="1"/>
-      <c r="B742" s="38"/>
+      <c r="B742" s="27"/>
       <c r="C742" s="17"/>
       <c r="D742" s="11"/>
       <c r="E742" s="11"/>
@@ -18084,7 +18048,7 @@
     </row>
     <row r="743" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A743" s="1"/>
-      <c r="B743" s="38"/>
+      <c r="B743" s="27"/>
       <c r="C743" s="17"/>
       <c r="D743" s="11"/>
       <c r="E743" s="11"/>
@@ -18107,7 +18071,7 @@
     </row>
     <row r="744" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A744" s="1"/>
-      <c r="B744" s="38"/>
+      <c r="B744" s="27"/>
       <c r="C744" s="17"/>
       <c r="D744" s="11"/>
       <c r="E744" s="11"/>
@@ -18130,7 +18094,7 @@
     </row>
     <row r="745" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A745" s="1"/>
-      <c r="B745" s="38"/>
+      <c r="B745" s="27"/>
       <c r="C745" s="17"/>
       <c r="D745" s="11"/>
       <c r="E745" s="11"/>
@@ -18153,7 +18117,7 @@
     </row>
     <row r="746" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A746" s="1"/>
-      <c r="B746" s="38"/>
+      <c r="B746" s="27"/>
       <c r="C746" s="17"/>
       <c r="D746" s="11"/>
       <c r="E746" s="11"/>
@@ -18176,7 +18140,7 @@
     </row>
     <row r="747" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A747" s="1"/>
-      <c r="B747" s="38"/>
+      <c r="B747" s="27"/>
       <c r="C747" s="17"/>
       <c r="D747" s="11"/>
       <c r="E747" s="11"/>
@@ -18199,7 +18163,7 @@
     </row>
     <row r="748" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A748" s="1"/>
-      <c r="B748" s="38"/>
+      <c r="B748" s="27"/>
       <c r="C748" s="17"/>
       <c r="D748" s="11"/>
       <c r="E748" s="11"/>
@@ -18222,7 +18186,7 @@
     </row>
     <row r="749" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A749" s="1"/>
-      <c r="B749" s="38"/>
+      <c r="B749" s="27"/>
       <c r="C749" s="17"/>
       <c r="D749" s="11"/>
       <c r="E749" s="11"/>
@@ -18245,7 +18209,7 @@
     </row>
     <row r="750" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A750" s="1"/>
-      <c r="B750" s="38"/>
+      <c r="B750" s="27"/>
       <c r="C750" s="17"/>
       <c r="D750" s="11"/>
       <c r="E750" s="11"/>
@@ -18268,7 +18232,7 @@
     </row>
     <row r="751" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A751" s="1"/>
-      <c r="B751" s="38"/>
+      <c r="B751" s="27"/>
       <c r="C751" s="17"/>
       <c r="D751" s="11"/>
       <c r="E751" s="11"/>
@@ -18291,7 +18255,7 @@
     </row>
     <row r="752" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A752" s="1"/>
-      <c r="B752" s="38"/>
+      <c r="B752" s="27"/>
       <c r="C752" s="17"/>
       <c r="D752" s="11"/>
       <c r="E752" s="11"/>
@@ -18314,7 +18278,7 @@
     </row>
     <row r="753" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A753" s="1"/>
-      <c r="B753" s="38"/>
+      <c r="B753" s="27"/>
       <c r="C753" s="17"/>
       <c r="D753" s="11"/>
       <c r="E753" s="11"/>
@@ -18337,7 +18301,7 @@
     </row>
     <row r="754" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A754" s="1"/>
-      <c r="B754" s="38"/>
+      <c r="B754" s="27"/>
       <c r="C754" s="17"/>
       <c r="D754" s="11"/>
       <c r="E754" s="11"/>
@@ -18360,7 +18324,7 @@
     </row>
     <row r="755" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A755" s="1"/>
-      <c r="B755" s="38"/>
+      <c r="B755" s="27"/>
       <c r="C755" s="17"/>
       <c r="D755" s="11"/>
       <c r="E755" s="11"/>
@@ -18383,7 +18347,7 @@
     </row>
     <row r="756" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A756" s="1"/>
-      <c r="B756" s="38"/>
+      <c r="B756" s="27"/>
       <c r="C756" s="17"/>
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
@@ -18406,7 +18370,7 @@
     </row>
     <row r="757" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A757" s="1"/>
-      <c r="B757" s="38"/>
+      <c r="B757" s="27"/>
       <c r="C757" s="17"/>
       <c r="D757" s="11"/>
       <c r="E757" s="11"/>
@@ -18429,7 +18393,7 @@
     </row>
     <row r="758" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A758" s="1"/>
-      <c r="B758" s="38"/>
+      <c r="B758" s="27"/>
       <c r="C758" s="17"/>
       <c r="D758" s="11"/>
       <c r="E758" s="11"/>
@@ -18452,7 +18416,7 @@
     </row>
     <row r="759" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A759" s="1"/>
-      <c r="B759" s="38"/>
+      <c r="B759" s="27"/>
       <c r="C759" s="17"/>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
@@ -18475,7 +18439,7 @@
     </row>
     <row r="760" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A760" s="1"/>
-      <c r="B760" s="38"/>
+      <c r="B760" s="27"/>
       <c r="C760" s="17"/>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
@@ -18498,7 +18462,7 @@
     </row>
     <row r="761" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A761" s="1"/>
-      <c r="B761" s="38"/>
+      <c r="B761" s="27"/>
       <c r="C761" s="17"/>
       <c r="D761" s="11"/>
       <c r="E761" s="11"/>
@@ -18521,7 +18485,7 @@
     </row>
     <row r="762" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A762" s="1"/>
-      <c r="B762" s="38"/>
+      <c r="B762" s="27"/>
       <c r="C762" s="17"/>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
@@ -18544,7 +18508,7 @@
     </row>
     <row r="763" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A763" s="1"/>
-      <c r="B763" s="38"/>
+      <c r="B763" s="27"/>
       <c r="C763" s="17"/>
       <c r="D763" s="11"/>
       <c r="E763" s="11"/>
@@ -18567,7 +18531,7 @@
     </row>
     <row r="764" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A764" s="1"/>
-      <c r="B764" s="38"/>
+      <c r="B764" s="27"/>
       <c r="C764" s="17"/>
       <c r="D764" s="11"/>
       <c r="E764" s="11"/>
@@ -18590,7 +18554,7 @@
     </row>
     <row r="765" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A765" s="1"/>
-      <c r="B765" s="38"/>
+      <c r="B765" s="27"/>
       <c r="C765" s="17"/>
       <c r="D765" s="11"/>
       <c r="E765" s="11"/>
@@ -18613,7 +18577,7 @@
     </row>
     <row r="766" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A766" s="1"/>
-      <c r="B766" s="38"/>
+      <c r="B766" s="27"/>
       <c r="C766" s="17"/>
       <c r="D766" s="11"/>
       <c r="E766" s="11"/>
@@ -18636,7 +18600,7 @@
     </row>
     <row r="767" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A767" s="1"/>
-      <c r="B767" s="38"/>
+      <c r="B767" s="27"/>
       <c r="C767" s="17"/>
       <c r="D767" s="11"/>
       <c r="E767" s="11"/>
@@ -18659,7 +18623,7 @@
     </row>
     <row r="768" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A768" s="1"/>
-      <c r="B768" s="38"/>
+      <c r="B768" s="27"/>
       <c r="C768" s="17"/>
       <c r="D768" s="11"/>
       <c r="E768" s="11"/>
@@ -18682,7 +18646,7 @@
     </row>
     <row r="769" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A769" s="1"/>
-      <c r="B769" s="38"/>
+      <c r="B769" s="27"/>
       <c r="C769" s="17"/>
       <c r="D769" s="11"/>
       <c r="E769" s="11"/>
@@ -18705,7 +18669,7 @@
     </row>
     <row r="770" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A770" s="1"/>
-      <c r="B770" s="38"/>
+      <c r="B770" s="27"/>
       <c r="C770" s="17"/>
       <c r="D770" s="11"/>
       <c r="E770" s="11"/>
@@ -18728,7 +18692,7 @@
     </row>
     <row r="771" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A771" s="1"/>
-      <c r="B771" s="38"/>
+      <c r="B771" s="27"/>
       <c r="C771" s="17"/>
       <c r="D771" s="11"/>
       <c r="E771" s="11"/>
@@ -18751,7 +18715,7 @@
     </row>
     <row r="772" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A772" s="1"/>
-      <c r="B772" s="38"/>
+      <c r="B772" s="27"/>
       <c r="C772" s="17"/>
       <c r="D772" s="11"/>
       <c r="E772" s="11"/>
@@ -18774,7 +18738,7 @@
     </row>
     <row r="773" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A773" s="1"/>
-      <c r="B773" s="38"/>
+      <c r="B773" s="27"/>
       <c r="C773" s="17"/>
       <c r="D773" s="11"/>
       <c r="E773" s="11"/>
@@ -18797,7 +18761,7 @@
     </row>
     <row r="774" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A774" s="1"/>
-      <c r="B774" s="38"/>
+      <c r="B774" s="27"/>
       <c r="C774" s="17"/>
       <c r="D774" s="11"/>
       <c r="E774" s="11"/>
@@ -18820,7 +18784,7 @@
     </row>
     <row r="775" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A775" s="1"/>
-      <c r="B775" s="38"/>
+      <c r="B775" s="27"/>
       <c r="C775" s="17"/>
       <c r="D775" s="11"/>
       <c r="E775" s="11"/>
@@ -18843,7 +18807,7 @@
     </row>
     <row r="776" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A776" s="1"/>
-      <c r="B776" s="38"/>
+      <c r="B776" s="27"/>
       <c r="C776" s="17"/>
       <c r="D776" s="11"/>
       <c r="E776" s="11"/>
@@ -18866,7 +18830,7 @@
     </row>
     <row r="777" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A777" s="1"/>
-      <c r="B777" s="38"/>
+      <c r="B777" s="27"/>
       <c r="C777" s="17"/>
       <c r="D777" s="11"/>
       <c r="E777" s="11"/>
@@ -18889,7 +18853,7 @@
     </row>
     <row r="778" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A778" s="1"/>
-      <c r="B778" s="38"/>
+      <c r="B778" s="27"/>
       <c r="C778" s="17"/>
       <c r="D778" s="11"/>
       <c r="E778" s="11"/>
@@ -18912,7 +18876,7 @@
     </row>
     <row r="779" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A779" s="1"/>
-      <c r="B779" s="38"/>
+      <c r="B779" s="27"/>
       <c r="C779" s="17"/>
       <c r="D779" s="11"/>
       <c r="E779" s="11"/>
@@ -18935,7 +18899,7 @@
     </row>
     <row r="780" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A780" s="1"/>
-      <c r="B780" s="38"/>
+      <c r="B780" s="27"/>
       <c r="C780" s="17"/>
       <c r="D780" s="11"/>
       <c r="E780" s="11"/>
@@ -18958,7 +18922,7 @@
     </row>
     <row r="781" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A781" s="1"/>
-      <c r="B781" s="38"/>
+      <c r="B781" s="27"/>
       <c r="C781" s="17"/>
       <c r="D781" s="11"/>
       <c r="E781" s="11"/>
@@ -18981,7 +18945,7 @@
     </row>
     <row r="782" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A782" s="1"/>
-      <c r="B782" s="38"/>
+      <c r="B782" s="27"/>
       <c r="C782" s="17"/>
       <c r="D782" s="11"/>
       <c r="E782" s="11"/>
@@ -19004,7 +18968,7 @@
     </row>
     <row r="783" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A783" s="1"/>
-      <c r="B783" s="38"/>
+      <c r="B783" s="27"/>
       <c r="C783" s="17"/>
       <c r="D783" s="11"/>
       <c r="E783" s="11"/>
@@ -19027,7 +18991,7 @@
     </row>
     <row r="784" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A784" s="1"/>
-      <c r="B784" s="38"/>
+      <c r="B784" s="27"/>
       <c r="C784" s="17"/>
       <c r="D784" s="11"/>
       <c r="E784" s="11"/>
@@ -19050,7 +19014,7 @@
     </row>
     <row r="785" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A785" s="1"/>
-      <c r="B785" s="38"/>
+      <c r="B785" s="27"/>
       <c r="C785" s="17"/>
       <c r="D785" s="11"/>
       <c r="E785" s="11"/>
@@ -19073,7 +19037,7 @@
     </row>
     <row r="786" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A786" s="1"/>
-      <c r="B786" s="38"/>
+      <c r="B786" s="27"/>
       <c r="C786" s="17"/>
       <c r="D786" s="11"/>
       <c r="E786" s="11"/>
@@ -19096,7 +19060,7 @@
     </row>
     <row r="787" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A787" s="1"/>
-      <c r="B787" s="38"/>
+      <c r="B787" s="27"/>
       <c r="C787" s="17"/>
       <c r="D787" s="11"/>
       <c r="E787" s="11"/>
@@ -19119,7 +19083,7 @@
     </row>
     <row r="788" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A788" s="1"/>
-      <c r="B788" s="38"/>
+      <c r="B788" s="27"/>
       <c r="C788" s="17"/>
       <c r="D788" s="11"/>
       <c r="E788" s="11"/>
@@ -19142,7 +19106,7 @@
     </row>
     <row r="789" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A789" s="1"/>
-      <c r="B789" s="38"/>
+      <c r="B789" s="27"/>
       <c r="C789" s="17"/>
       <c r="D789" s="11"/>
       <c r="E789" s="11"/>
@@ -19165,7 +19129,7 @@
     </row>
     <row r="790" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A790" s="1"/>
-      <c r="B790" s="38"/>
+      <c r="B790" s="27"/>
       <c r="C790" s="17"/>
       <c r="D790" s="11"/>
       <c r="E790" s="11"/>
@@ -19188,7 +19152,7 @@
     </row>
     <row r="791" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A791" s="1"/>
-      <c r="B791" s="38"/>
+      <c r="B791" s="27"/>
       <c r="C791" s="17"/>
       <c r="D791" s="11"/>
       <c r="E791" s="11"/>
@@ -19211,7 +19175,7 @@
     </row>
     <row r="792" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A792" s="1"/>
-      <c r="B792" s="38"/>
+      <c r="B792" s="27"/>
       <c r="C792" s="17"/>
       <c r="D792" s="11"/>
       <c r="E792" s="11"/>
@@ -19234,7 +19198,7 @@
     </row>
     <row r="793" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A793" s="1"/>
-      <c r="B793" s="38"/>
+      <c r="B793" s="27"/>
       <c r="C793" s="17"/>
       <c r="D793" s="11"/>
       <c r="E793" s="11"/>
@@ -19257,7 +19221,7 @@
     </row>
     <row r="794" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A794" s="1"/>
-      <c r="B794" s="38"/>
+      <c r="B794" s="27"/>
       <c r="C794" s="17"/>
       <c r="D794" s="11"/>
       <c r="E794" s="11"/>
@@ -19280,7 +19244,7 @@
     </row>
     <row r="795" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A795" s="1"/>
-      <c r="B795" s="38"/>
+      <c r="B795" s="27"/>
       <c r="C795" s="17"/>
       <c r="D795" s="11"/>
       <c r="E795" s="11"/>
@@ -19303,7 +19267,7 @@
     </row>
     <row r="796" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A796" s="1"/>
-      <c r="B796" s="38"/>
+      <c r="B796" s="27"/>
       <c r="C796" s="17"/>
       <c r="D796" s="11"/>
       <c r="E796" s="11"/>
@@ -19326,7 +19290,7 @@
     </row>
     <row r="797" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A797" s="1"/>
-      <c r="B797" s="38"/>
+      <c r="B797" s="27"/>
       <c r="C797" s="17"/>
       <c r="D797" s="11"/>
       <c r="E797" s="11"/>
@@ -19349,7 +19313,7 @@
     </row>
     <row r="798" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A798" s="1"/>
-      <c r="B798" s="38"/>
+      <c r="B798" s="27"/>
       <c r="C798" s="17"/>
       <c r="D798" s="11"/>
       <c r="E798" s="11"/>
@@ -19372,7 +19336,7 @@
     </row>
     <row r="799" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A799" s="1"/>
-      <c r="B799" s="38"/>
+      <c r="B799" s="27"/>
       <c r="C799" s="17"/>
       <c r="D799" s="11"/>
       <c r="E799" s="11"/>
@@ -19395,7 +19359,7 @@
     </row>
     <row r="800" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A800" s="1"/>
-      <c r="B800" s="38"/>
+      <c r="B800" s="27"/>
       <c r="C800" s="17"/>
       <c r="D800" s="11"/>
       <c r="E800" s="11"/>
@@ -19418,7 +19382,7 @@
     </row>
     <row r="801" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A801" s="1"/>
-      <c r="B801" s="38"/>
+      <c r="B801" s="27"/>
       <c r="C801" s="17"/>
       <c r="D801" s="11"/>
       <c r="E801" s="11"/>
@@ -19441,7 +19405,7 @@
     </row>
     <row r="802" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A802" s="1"/>
-      <c r="B802" s="38"/>
+      <c r="B802" s="27"/>
       <c r="C802" s="17"/>
       <c r="D802" s="11"/>
       <c r="E802" s="11"/>
@@ -19464,7 +19428,7 @@
     </row>
     <row r="803" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A803" s="1"/>
-      <c r="B803" s="38"/>
+      <c r="B803" s="27"/>
       <c r="C803" s="17"/>
       <c r="D803" s="11"/>
       <c r="E803" s="11"/>
@@ -19487,7 +19451,7 @@
     </row>
     <row r="804" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A804" s="1"/>
-      <c r="B804" s="38"/>
+      <c r="B804" s="27"/>
       <c r="C804" s="17"/>
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
@@ -19510,7 +19474,7 @@
     </row>
     <row r="805" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A805" s="1"/>
-      <c r="B805" s="38"/>
+      <c r="B805" s="27"/>
       <c r="C805" s="17"/>
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
@@ -19533,7 +19497,7 @@
     </row>
     <row r="806" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A806" s="1"/>
-      <c r="B806" s="38"/>
+      <c r="B806" s="27"/>
       <c r="C806" s="17"/>
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
@@ -19556,7 +19520,7 @@
     </row>
     <row r="807" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A807" s="1"/>
-      <c r="B807" s="38"/>
+      <c r="B807" s="27"/>
       <c r="C807" s="17"/>
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
@@ -19579,7 +19543,7 @@
     </row>
     <row r="808" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A808" s="1"/>
-      <c r="B808" s="38"/>
+      <c r="B808" s="27"/>
       <c r="C808" s="17"/>
       <c r="D808" s="11"/>
       <c r="E808" s="11"/>
@@ -19602,7 +19566,7 @@
     </row>
     <row r="809" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A809" s="1"/>
-      <c r="B809" s="38"/>
+      <c r="B809" s="27"/>
       <c r="C809" s="17"/>
       <c r="D809" s="11"/>
       <c r="E809" s="11"/>
@@ -19625,7 +19589,7 @@
     </row>
     <row r="810" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A810" s="1"/>
-      <c r="B810" s="38"/>
+      <c r="B810" s="27"/>
       <c r="C810" s="17"/>
       <c r="D810" s="11"/>
       <c r="E810" s="11"/>
@@ -19648,7 +19612,7 @@
     </row>
     <row r="811" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A811" s="1"/>
-      <c r="B811" s="38"/>
+      <c r="B811" s="27"/>
       <c r="C811" s="17"/>
       <c r="D811" s="11"/>
       <c r="E811" s="11"/>
@@ -19671,7 +19635,7 @@
     </row>
     <row r="812" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A812" s="1"/>
-      <c r="B812" s="38"/>
+      <c r="B812" s="27"/>
       <c r="C812" s="17"/>
       <c r="D812" s="11"/>
       <c r="E812" s="11"/>
@@ -19694,7 +19658,7 @@
     </row>
     <row r="813" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A813" s="1"/>
-      <c r="B813" s="38"/>
+      <c r="B813" s="27"/>
       <c r="C813" s="17"/>
       <c r="D813" s="11"/>
       <c r="E813" s="11"/>
@@ -19717,7 +19681,7 @@
     </row>
     <row r="814" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A814" s="1"/>
-      <c r="B814" s="38"/>
+      <c r="B814" s="27"/>
       <c r="C814" s="17"/>
       <c r="D814" s="11"/>
       <c r="E814" s="11"/>
@@ -19740,7 +19704,7 @@
     </row>
     <row r="815" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A815" s="1"/>
-      <c r="B815" s="38"/>
+      <c r="B815" s="27"/>
       <c r="C815" s="17"/>
       <c r="D815" s="11"/>
       <c r="E815" s="11"/>
@@ -19763,7 +19727,7 @@
     </row>
     <row r="816" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A816" s="1"/>
-      <c r="B816" s="38"/>
+      <c r="B816" s="27"/>
       <c r="C816" s="17"/>
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
@@ -19786,7 +19750,7 @@
     </row>
     <row r="817" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A817" s="1"/>
-      <c r="B817" s="38"/>
+      <c r="B817" s="27"/>
       <c r="C817" s="17"/>
       <c r="D817" s="11"/>
       <c r="E817" s="11"/>
@@ -19809,7 +19773,7 @@
     </row>
     <row r="818" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A818" s="1"/>
-      <c r="B818" s="38"/>
+      <c r="B818" s="27"/>
       <c r="C818" s="17"/>
       <c r="D818" s="11"/>
       <c r="E818" s="11"/>
@@ -19832,7 +19796,7 @@
     </row>
     <row r="819" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A819" s="1"/>
-      <c r="B819" s="38"/>
+      <c r="B819" s="27"/>
       <c r="C819" s="17"/>
       <c r="D819" s="11"/>
       <c r="E819" s="11"/>
@@ -19855,7 +19819,7 @@
     </row>
     <row r="820" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A820" s="1"/>
-      <c r="B820" s="38"/>
+      <c r="B820" s="27"/>
       <c r="C820" s="17"/>
       <c r="D820" s="11"/>
       <c r="E820" s="11"/>
@@ -19878,7 +19842,7 @@
     </row>
     <row r="821" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A821" s="1"/>
-      <c r="B821" s="38"/>
+      <c r="B821" s="27"/>
       <c r="C821" s="17"/>
       <c r="D821" s="11"/>
       <c r="E821" s="11"/>
@@ -19901,7 +19865,7 @@
     </row>
     <row r="822" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A822" s="1"/>
-      <c r="B822" s="38"/>
+      <c r="B822" s="27"/>
       <c r="C822" s="17"/>
       <c r="D822" s="11"/>
       <c r="E822" s="11"/>
@@ -19924,7 +19888,7 @@
     </row>
     <row r="823" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A823" s="1"/>
-      <c r="B823" s="38"/>
+      <c r="B823" s="27"/>
       <c r="C823" s="17"/>
       <c r="D823" s="11"/>
       <c r="E823" s="11"/>
@@ -19947,7 +19911,7 @@
     </row>
     <row r="824" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A824" s="1"/>
-      <c r="B824" s="38"/>
+      <c r="B824" s="27"/>
       <c r="C824" s="17"/>
       <c r="D824" s="11"/>
       <c r="E824" s="11"/>
@@ -19970,7 +19934,7 @@
     </row>
     <row r="825" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A825" s="1"/>
-      <c r="B825" s="38"/>
+      <c r="B825" s="27"/>
       <c r="C825" s="17"/>
       <c r="D825" s="11"/>
       <c r="E825" s="11"/>
@@ -19993,7 +19957,7 @@
     </row>
     <row r="826" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A826" s="1"/>
-      <c r="B826" s="38"/>
+      <c r="B826" s="27"/>
       <c r="C826" s="17"/>
       <c r="D826" s="11"/>
       <c r="E826" s="11"/>
@@ -20016,7 +19980,7 @@
     </row>
     <row r="827" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A827" s="1"/>
-      <c r="B827" s="38"/>
+      <c r="B827" s="27"/>
       <c r="C827" s="17"/>
       <c r="D827" s="11"/>
       <c r="E827" s="11"/>
@@ -20039,7 +20003,7 @@
     </row>
     <row r="828" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A828" s="1"/>
-      <c r="B828" s="38"/>
+      <c r="B828" s="27"/>
       <c r="C828" s="17"/>
       <c r="D828" s="11"/>
       <c r="E828" s="11"/>
@@ -20062,7 +20026,7 @@
     </row>
     <row r="829" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A829" s="1"/>
-      <c r="B829" s="38"/>
+      <c r="B829" s="27"/>
       <c r="C829" s="17"/>
       <c r="D829" s="11"/>
       <c r="E829" s="11"/>
@@ -20085,7 +20049,7 @@
     </row>
     <row r="830" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A830" s="1"/>
-      <c r="B830" s="38"/>
+      <c r="B830" s="27"/>
       <c r="C830" s="17"/>
       <c r="D830" s="11"/>
       <c r="E830" s="11"/>
@@ -20108,7 +20072,7 @@
     </row>
     <row r="831" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A831" s="1"/>
-      <c r="B831" s="38"/>
+      <c r="B831" s="27"/>
       <c r="C831" s="17"/>
       <c r="D831" s="11"/>
       <c r="E831" s="11"/>
@@ -20131,7 +20095,7 @@
     </row>
     <row r="832" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A832" s="1"/>
-      <c r="B832" s="38"/>
+      <c r="B832" s="27"/>
       <c r="C832" s="17"/>
       <c r="D832" s="11"/>
       <c r="E832" s="11"/>
@@ -20154,7 +20118,7 @@
     </row>
     <row r="833" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A833" s="1"/>
-      <c r="B833" s="38"/>
+      <c r="B833" s="27"/>
       <c r="C833" s="17"/>
       <c r="D833" s="11"/>
       <c r="E833" s="11"/>
@@ -20177,7 +20141,7 @@
     </row>
     <row r="834" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A834" s="1"/>
-      <c r="B834" s="38"/>
+      <c r="B834" s="27"/>
       <c r="C834" s="17"/>
       <c r="D834" s="11"/>
       <c r="E834" s="11"/>
@@ -20200,7 +20164,7 @@
     </row>
     <row r="835" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A835" s="1"/>
-      <c r="B835" s="38"/>
+      <c r="B835" s="27"/>
       <c r="C835" s="17"/>
       <c r="D835" s="11"/>
       <c r="E835" s="11"/>
@@ -20223,7 +20187,7 @@
     </row>
     <row r="836" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A836" s="1"/>
-      <c r="B836" s="38"/>
+      <c r="B836" s="27"/>
       <c r="C836" s="17"/>
       <c r="D836" s="11"/>
       <c r="E836" s="11"/>
@@ -20246,7 +20210,7 @@
     </row>
     <row r="837" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A837" s="1"/>
-      <c r="B837" s="38"/>
+      <c r="B837" s="27"/>
       <c r="C837" s="17"/>
       <c r="D837" s="11"/>
       <c r="E837" s="11"/>
@@ -20269,7 +20233,7 @@
     </row>
     <row r="838" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A838" s="1"/>
-      <c r="B838" s="38"/>
+      <c r="B838" s="27"/>
       <c r="C838" s="17"/>
       <c r="D838" s="11"/>
       <c r="E838" s="11"/>
@@ -20292,7 +20256,7 @@
     </row>
     <row r="839" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A839" s="1"/>
-      <c r="B839" s="38"/>
+      <c r="B839" s="27"/>
       <c r="C839" s="17"/>
       <c r="D839" s="11"/>
       <c r="E839" s="11"/>
@@ -20315,7 +20279,7 @@
     </row>
     <row r="840" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A840" s="1"/>
-      <c r="B840" s="38"/>
+      <c r="B840" s="27"/>
       <c r="C840" s="17"/>
       <c r="D840" s="11"/>
       <c r="E840" s="11"/>
@@ -20338,7 +20302,7 @@
     </row>
     <row r="841" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A841" s="1"/>
-      <c r="B841" s="38"/>
+      <c r="B841" s="27"/>
       <c r="C841" s="17"/>
       <c r="D841" s="11"/>
       <c r="E841" s="11"/>
@@ -20361,7 +20325,7 @@
     </row>
     <row r="842" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A842" s="1"/>
-      <c r="B842" s="38"/>
+      <c r="B842" s="27"/>
       <c r="C842" s="17"/>
       <c r="D842" s="11"/>
       <c r="E842" s="11"/>
@@ -20384,7 +20348,7 @@
     </row>
     <row r="843" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A843" s="1"/>
-      <c r="B843" s="38"/>
+      <c r="B843" s="27"/>
       <c r="C843" s="17"/>
       <c r="D843" s="11"/>
       <c r="E843" s="11"/>
@@ -20407,7 +20371,7 @@
     </row>
     <row r="844" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A844" s="1"/>
-      <c r="B844" s="38"/>
+      <c r="B844" s="27"/>
       <c r="C844" s="17"/>
       <c r="D844" s="11"/>
       <c r="E844" s="11"/>
@@ -20430,7 +20394,7 @@
     </row>
     <row r="845" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A845" s="1"/>
-      <c r="B845" s="38"/>
+      <c r="B845" s="27"/>
       <c r="C845" s="17"/>
       <c r="D845" s="11"/>
       <c r="E845" s="11"/>
@@ -20453,7 +20417,7 @@
     </row>
     <row r="846" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A846" s="1"/>
-      <c r="B846" s="38"/>
+      <c r="B846" s="27"/>
       <c r="C846" s="17"/>
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
@@ -20476,7 +20440,7 @@
     </row>
     <row r="847" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A847" s="1"/>
-      <c r="B847" s="38"/>
+      <c r="B847" s="27"/>
       <c r="C847" s="17"/>
       <c r="D847" s="11"/>
       <c r="E847" s="11"/>
@@ -20499,7 +20463,7 @@
     </row>
     <row r="848" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A848" s="1"/>
-      <c r="B848" s="38"/>
+      <c r="B848" s="27"/>
       <c r="C848" s="17"/>
       <c r="D848" s="11"/>
       <c r="E848" s="11"/>
@@ -20522,7 +20486,7 @@
     </row>
     <row r="849" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A849" s="1"/>
-      <c r="B849" s="38"/>
+      <c r="B849" s="27"/>
       <c r="C849" s="17"/>
       <c r="D849" s="11"/>
       <c r="E849" s="11"/>
@@ -20545,7 +20509,7 @@
     </row>
     <row r="850" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A850" s="1"/>
-      <c r="B850" s="38"/>
+      <c r="B850" s="27"/>
       <c r="C850" s="17"/>
       <c r="D850" s="11"/>
       <c r="E850" s="11"/>
@@ -20568,7 +20532,7 @@
     </row>
     <row r="851" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A851" s="1"/>
-      <c r="B851" s="38"/>
+      <c r="B851" s="27"/>
       <c r="C851" s="17"/>
       <c r="D851" s="11"/>
       <c r="E851" s="11"/>
@@ -20591,7 +20555,7 @@
     </row>
     <row r="852" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A852" s="1"/>
-      <c r="B852" s="38"/>
+      <c r="B852" s="27"/>
       <c r="C852" s="17"/>
       <c r="D852" s="11"/>
       <c r="E852" s="11"/>
@@ -20614,7 +20578,7 @@
     </row>
     <row r="853" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A853" s="1"/>
-      <c r="B853" s="38"/>
+      <c r="B853" s="27"/>
       <c r="C853" s="17"/>
       <c r="D853" s="11"/>
       <c r="E853" s="11"/>
@@ -20637,7 +20601,7 @@
     </row>
     <row r="854" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A854" s="1"/>
-      <c r="B854" s="38"/>
+      <c r="B854" s="27"/>
       <c r="C854" s="17"/>
       <c r="D854" s="11"/>
       <c r="E854" s="11"/>
@@ -20660,7 +20624,7 @@
     </row>
     <row r="855" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A855" s="1"/>
-      <c r="B855" s="38"/>
+      <c r="B855" s="27"/>
       <c r="C855" s="17"/>
       <c r="D855" s="11"/>
       <c r="E855" s="11"/>
@@ -20683,7 +20647,7 @@
     </row>
     <row r="856" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A856" s="1"/>
-      <c r="B856" s="38"/>
+      <c r="B856" s="27"/>
       <c r="C856" s="17"/>
       <c r="D856" s="11"/>
       <c r="E856" s="11"/>
@@ -20706,7 +20670,7 @@
     </row>
     <row r="857" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A857" s="1"/>
-      <c r="B857" s="38"/>
+      <c r="B857" s="27"/>
       <c r="C857" s="17"/>
       <c r="D857" s="11"/>
       <c r="E857" s="11"/>
@@ -20729,7 +20693,7 @@
     </row>
     <row r="858" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A858" s="1"/>
-      <c r="B858" s="38"/>
+      <c r="B858" s="27"/>
       <c r="C858" s="17"/>
       <c r="D858" s="11"/>
       <c r="E858" s="11"/>
@@ -20752,7 +20716,7 @@
     </row>
     <row r="859" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A859" s="1"/>
-      <c r="B859" s="38"/>
+      <c r="B859" s="27"/>
       <c r="C859" s="17"/>
       <c r="D859" s="11"/>
       <c r="E859" s="11"/>
@@ -20775,7 +20739,7 @@
     </row>
     <row r="860" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A860" s="1"/>
-      <c r="B860" s="38"/>
+      <c r="B860" s="27"/>
       <c r="C860" s="17"/>
       <c r="D860" s="11"/>
       <c r="E860" s="11"/>
@@ -20798,7 +20762,7 @@
     </row>
     <row r="861" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A861" s="1"/>
-      <c r="B861" s="38"/>
+      <c r="B861" s="27"/>
       <c r="C861" s="17"/>
       <c r="D861" s="11"/>
       <c r="E861" s="11"/>
@@ -20821,7 +20785,7 @@
     </row>
     <row r="862" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A862" s="1"/>
-      <c r="B862" s="38"/>
+      <c r="B862" s="27"/>
       <c r="C862" s="17"/>
       <c r="D862" s="11"/>
       <c r="E862" s="11"/>
@@ -20844,7 +20808,7 @@
     </row>
     <row r="863" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A863" s="1"/>
-      <c r="B863" s="38"/>
+      <c r="B863" s="27"/>
       <c r="C863" s="17"/>
       <c r="D863" s="11"/>
       <c r="E863" s="11"/>
@@ -20867,7 +20831,7 @@
     </row>
     <row r="864" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A864" s="1"/>
-      <c r="B864" s="38"/>
+      <c r="B864" s="27"/>
       <c r="C864" s="17"/>
       <c r="D864" s="11"/>
       <c r="E864" s="11"/>
@@ -20890,7 +20854,7 @@
     </row>
     <row r="865" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A865" s="1"/>
-      <c r="B865" s="38"/>
+      <c r="B865" s="27"/>
       <c r="C865" s="17"/>
       <c r="D865" s="11"/>
       <c r="E865" s="11"/>
@@ -20913,7 +20877,7 @@
     </row>
     <row r="866" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A866" s="1"/>
-      <c r="B866" s="38"/>
+      <c r="B866" s="27"/>
       <c r="C866" s="17"/>
       <c r="D866" s="11"/>
       <c r="E866" s="11"/>
@@ -20936,7 +20900,7 @@
     </row>
     <row r="867" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A867" s="1"/>
-      <c r="B867" s="38"/>
+      <c r="B867" s="27"/>
       <c r="C867" s="17"/>
       <c r="D867" s="11"/>
       <c r="E867" s="11"/>
@@ -20959,7 +20923,7 @@
     </row>
     <row r="868" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A868" s="1"/>
-      <c r="B868" s="38"/>
+      <c r="B868" s="27"/>
       <c r="C868" s="17"/>
       <c r="D868" s="11"/>
       <c r="E868" s="11"/>
@@ -20982,7 +20946,7 @@
     </row>
     <row r="869" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A869" s="1"/>
-      <c r="B869" s="38"/>
+      <c r="B869" s="27"/>
       <c r="C869" s="17"/>
       <c r="D869" s="11"/>
       <c r="E869" s="11"/>
@@ -21005,7 +20969,7 @@
     </row>
     <row r="870" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A870" s="1"/>
-      <c r="B870" s="38"/>
+      <c r="B870" s="27"/>
       <c r="C870" s="17"/>
       <c r="D870" s="11"/>
       <c r="E870" s="11"/>
@@ -21028,7 +20992,7 @@
     </row>
     <row r="871" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A871" s="1"/>
-      <c r="B871" s="38"/>
+      <c r="B871" s="27"/>
       <c r="C871" s="17"/>
       <c r="D871" s="11"/>
       <c r="E871" s="11"/>
@@ -21051,7 +21015,7 @@
     </row>
     <row r="872" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A872" s="1"/>
-      <c r="B872" s="38"/>
+      <c r="B872" s="27"/>
       <c r="C872" s="17"/>
       <c r="D872" s="11"/>
       <c r="E872" s="11"/>
@@ -21074,7 +21038,7 @@
     </row>
     <row r="873" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A873" s="1"/>
-      <c r="B873" s="38"/>
+      <c r="B873" s="27"/>
       <c r="C873" s="17"/>
       <c r="D873" s="11"/>
       <c r="E873" s="11"/>
@@ -21097,7 +21061,7 @@
     </row>
     <row r="874" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A874" s="1"/>
-      <c r="B874" s="38"/>
+      <c r="B874" s="27"/>
       <c r="C874" s="17"/>
       <c r="D874" s="11"/>
       <c r="E874" s="11"/>
@@ -21120,7 +21084,7 @@
     </row>
     <row r="875" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A875" s="1"/>
-      <c r="B875" s="38"/>
+      <c r="B875" s="27"/>
       <c r="C875" s="17"/>
       <c r="D875" s="11"/>
       <c r="E875" s="11"/>
@@ -21143,7 +21107,7 @@
     </row>
     <row r="876" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A876" s="1"/>
-      <c r="B876" s="38"/>
+      <c r="B876" s="27"/>
       <c r="C876" s="17"/>
       <c r="D876" s="11"/>
       <c r="E876" s="11"/>
@@ -21166,7 +21130,7 @@
     </row>
     <row r="877" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A877" s="1"/>
-      <c r="B877" s="38"/>
+      <c r="B877" s="27"/>
       <c r="C877" s="17"/>
       <c r="D877" s="11"/>
       <c r="E877" s="11"/>
@@ -21189,7 +21153,7 @@
     </row>
     <row r="878" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A878" s="1"/>
-      <c r="B878" s="38"/>
+      <c r="B878" s="27"/>
       <c r="C878" s="17"/>
       <c r="D878" s="11"/>
       <c r="E878" s="11"/>
@@ -21212,7 +21176,7 @@
     </row>
     <row r="879" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A879" s="1"/>
-      <c r="B879" s="38"/>
+      <c r="B879" s="27"/>
       <c r="C879" s="17"/>
       <c r="D879" s="11"/>
       <c r="E879" s="11"/>
@@ -21235,7 +21199,7 @@
     </row>
     <row r="880" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A880" s="1"/>
-      <c r="B880" s="38"/>
+      <c r="B880" s="27"/>
       <c r="C880" s="17"/>
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
@@ -21258,7 +21222,7 @@
     </row>
     <row r="881" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A881" s="1"/>
-      <c r="B881" s="38"/>
+      <c r="B881" s="27"/>
       <c r="C881" s="17"/>
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
@@ -21281,7 +21245,7 @@
     </row>
     <row r="882" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A882" s="1"/>
-      <c r="B882" s="38"/>
+      <c r="B882" s="27"/>
       <c r="C882" s="17"/>
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
@@ -21304,7 +21268,7 @@
     </row>
     <row r="883" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A883" s="1"/>
-      <c r="B883" s="38"/>
+      <c r="B883" s="27"/>
       <c r="C883" s="17"/>
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
@@ -21327,7 +21291,7 @@
     </row>
     <row r="884" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A884" s="1"/>
-      <c r="B884" s="38"/>
+      <c r="B884" s="27"/>
       <c r="C884" s="17"/>
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
@@ -21350,7 +21314,7 @@
     </row>
     <row r="885" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A885" s="1"/>
-      <c r="B885" s="38"/>
+      <c r="B885" s="27"/>
       <c r="C885" s="17"/>
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
@@ -21373,7 +21337,7 @@
     </row>
     <row r="886" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A886" s="1"/>
-      <c r="B886" s="38"/>
+      <c r="B886" s="27"/>
       <c r="C886" s="17"/>
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
@@ -21396,7 +21360,7 @@
     </row>
     <row r="887" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A887" s="1"/>
-      <c r="B887" s="38"/>
+      <c r="B887" s="27"/>
       <c r="C887" s="17"/>
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
@@ -21419,7 +21383,7 @@
     </row>
     <row r="888" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A888" s="1"/>
-      <c r="B888" s="38"/>
+      <c r="B888" s="27"/>
       <c r="C888" s="17"/>
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
@@ -21442,7 +21406,7 @@
     </row>
     <row r="889" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A889" s="1"/>
-      <c r="B889" s="38"/>
+      <c r="B889" s="27"/>
       <c r="C889" s="17"/>
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
@@ -21465,7 +21429,7 @@
     </row>
     <row r="890" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A890" s="1"/>
-      <c r="B890" s="38"/>
+      <c r="B890" s="27"/>
       <c r="C890" s="17"/>
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
@@ -21488,7 +21452,7 @@
     </row>
     <row r="891" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A891" s="1"/>
-      <c r="B891" s="38"/>
+      <c r="B891" s="27"/>
       <c r="C891" s="17"/>
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
@@ -21511,7 +21475,7 @@
     </row>
     <row r="892" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A892" s="1"/>
-      <c r="B892" s="38"/>
+      <c r="B892" s="27"/>
       <c r="C892" s="17"/>
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
@@ -21534,7 +21498,7 @@
     </row>
     <row r="893" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A893" s="1"/>
-      <c r="B893" s="38"/>
+      <c r="B893" s="27"/>
       <c r="C893" s="17"/>
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
@@ -21557,7 +21521,7 @@
     </row>
     <row r="894" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A894" s="1"/>
-      <c r="B894" s="38"/>
+      <c r="B894" s="27"/>
       <c r="C894" s="17"/>
       <c r="D894" s="11"/>
       <c r="E894" s="11"/>
@@ -21580,7 +21544,7 @@
     </row>
     <row r="895" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A895" s="1"/>
-      <c r="B895" s="38"/>
+      <c r="B895" s="27"/>
       <c r="C895" s="17"/>
       <c r="D895" s="11"/>
       <c r="E895" s="11"/>
@@ -21603,7 +21567,7 @@
     </row>
     <row r="896" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A896" s="1"/>
-      <c r="B896" s="38"/>
+      <c r="B896" s="27"/>
       <c r="C896" s="17"/>
       <c r="D896" s="11"/>
       <c r="E896" s="11"/>
@@ -21626,7 +21590,7 @@
     </row>
     <row r="897" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A897" s="1"/>
-      <c r="B897" s="38"/>
+      <c r="B897" s="27"/>
       <c r="C897" s="17"/>
       <c r="D897" s="11"/>
       <c r="E897" s="11"/>
@@ -21649,7 +21613,7 @@
     </row>
     <row r="898" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A898" s="1"/>
-      <c r="B898" s="38"/>
+      <c r="B898" s="27"/>
       <c r="C898" s="17"/>
       <c r="D898" s="11"/>
       <c r="E898" s="11"/>
@@ -21672,7 +21636,7 @@
     </row>
     <row r="899" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A899" s="1"/>
-      <c r="B899" s="38"/>
+      <c r="B899" s="27"/>
       <c r="C899" s="17"/>
       <c r="D899" s="11"/>
       <c r="E899" s="11"/>
@@ -21695,7 +21659,7 @@
     </row>
     <row r="900" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A900" s="1"/>
-      <c r="B900" s="38"/>
+      <c r="B900" s="27"/>
       <c r="C900" s="17"/>
       <c r="D900" s="11"/>
       <c r="E900" s="11"/>
@@ -21718,7 +21682,7 @@
     </row>
     <row r="901" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A901" s="1"/>
-      <c r="B901" s="38"/>
+      <c r="B901" s="27"/>
       <c r="C901" s="17"/>
       <c r="D901" s="11"/>
       <c r="E901" s="11"/>
@@ -21741,7 +21705,7 @@
     </row>
     <row r="902" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A902" s="1"/>
-      <c r="B902" s="38"/>
+      <c r="B902" s="27"/>
       <c r="C902" s="17"/>
       <c r="D902" s="11"/>
       <c r="E902" s="11"/>
@@ -21764,7 +21728,7 @@
     </row>
     <row r="903" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A903" s="1"/>
-      <c r="B903" s="38"/>
+      <c r="B903" s="27"/>
       <c r="C903" s="17"/>
       <c r="D903" s="11"/>
       <c r="E903" s="11"/>
@@ -21787,7 +21751,7 @@
     </row>
     <row r="904" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A904" s="1"/>
-      <c r="B904" s="38"/>
+      <c r="B904" s="27"/>
       <c r="C904" s="17"/>
       <c r="D904" s="11"/>
       <c r="E904" s="11"/>
@@ -21810,7 +21774,7 @@
     </row>
     <row r="905" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A905" s="1"/>
-      <c r="B905" s="38"/>
+      <c r="B905" s="27"/>
       <c r="C905" s="17"/>
       <c r="D905" s="11"/>
       <c r="E905" s="11"/>
@@ -21833,7 +21797,7 @@
     </row>
     <row r="906" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A906" s="1"/>
-      <c r="B906" s="38"/>
+      <c r="B906" s="27"/>
       <c r="C906" s="17"/>
       <c r="D906" s="11"/>
       <c r="E906" s="11"/>
@@ -21856,7 +21820,7 @@
     </row>
     <row r="907" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A907" s="1"/>
-      <c r="B907" s="38"/>
+      <c r="B907" s="27"/>
       <c r="C907" s="17"/>
       <c r="D907" s="11"/>
       <c r="E907" s="11"/>
@@ -21879,7 +21843,7 @@
     </row>
     <row r="908" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A908" s="1"/>
-      <c r="B908" s="38"/>
+      <c r="B908" s="27"/>
       <c r="C908" s="17"/>
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
@@ -21902,7 +21866,7 @@
     </row>
     <row r="909" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A909" s="1"/>
-      <c r="B909" s="38"/>
+      <c r="B909" s="27"/>
       <c r="C909" s="17"/>
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
@@ -21925,7 +21889,7 @@
     </row>
     <row r="910" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A910" s="1"/>
-      <c r="B910" s="38"/>
+      <c r="B910" s="27"/>
       <c r="C910" s="17"/>
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
@@ -21948,7 +21912,7 @@
     </row>
     <row r="911" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A911" s="1"/>
-      <c r="B911" s="38"/>
+      <c r="B911" s="27"/>
       <c r="C911" s="17"/>
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
@@ -21971,7 +21935,7 @@
     </row>
     <row r="912" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A912" s="1"/>
-      <c r="B912" s="38"/>
+      <c r="B912" s="27"/>
       <c r="C912" s="17"/>
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
@@ -21994,7 +21958,7 @@
     </row>
     <row r="913" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A913" s="1"/>
-      <c r="B913" s="38"/>
+      <c r="B913" s="27"/>
       <c r="C913" s="17"/>
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
@@ -22017,7 +21981,7 @@
     </row>
     <row r="914" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A914" s="1"/>
-      <c r="B914" s="38"/>
+      <c r="B914" s="27"/>
       <c r="C914" s="17"/>
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
@@ -22040,7 +22004,7 @@
     </row>
     <row r="915" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A915" s="1"/>
-      <c r="B915" s="38"/>
+      <c r="B915" s="27"/>
       <c r="C915" s="17"/>
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
@@ -22063,7 +22027,7 @@
     </row>
     <row r="916" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A916" s="1"/>
-      <c r="B916" s="38"/>
+      <c r="B916" s="27"/>
       <c r="C916" s="17"/>
       <c r="D916" s="11"/>
       <c r="E916" s="11"/>
@@ -22086,7 +22050,7 @@
     </row>
     <row r="917" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A917" s="1"/>
-      <c r="B917" s="38"/>
+      <c r="B917" s="27"/>
       <c r="C917" s="17"/>
       <c r="D917" s="11"/>
       <c r="E917" s="11"/>
@@ -22109,7 +22073,7 @@
     </row>
     <row r="918" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A918" s="1"/>
-      <c r="B918" s="38"/>
+      <c r="B918" s="27"/>
       <c r="C918" s="17"/>
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
@@ -22132,7 +22096,7 @@
     </row>
     <row r="919" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A919" s="1"/>
-      <c r="B919" s="38"/>
+      <c r="B919" s="27"/>
       <c r="C919" s="17"/>
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
@@ -22155,7 +22119,7 @@
     </row>
     <row r="920" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A920" s="1"/>
-      <c r="B920" s="38"/>
+      <c r="B920" s="27"/>
       <c r="C920" s="17"/>
       <c r="D920" s="11"/>
       <c r="E920" s="11"/>
@@ -22178,7 +22142,7 @@
     </row>
     <row r="921" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A921" s="1"/>
-      <c r="B921" s="38"/>
+      <c r="B921" s="27"/>
       <c r="C921" s="17"/>
       <c r="D921" s="11"/>
       <c r="E921" s="11"/>
@@ -22201,7 +22165,7 @@
     </row>
     <row r="922" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A922" s="1"/>
-      <c r="B922" s="38"/>
+      <c r="B922" s="27"/>
       <c r="C922" s="17"/>
       <c r="D922" s="11"/>
       <c r="E922" s="11"/>
@@ -22224,7 +22188,7 @@
     </row>
     <row r="923" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A923" s="1"/>
-      <c r="B923" s="38"/>
+      <c r="B923" s="27"/>
       <c r="C923" s="17"/>
       <c r="D923" s="11"/>
       <c r="E923" s="11"/>
@@ -22247,7 +22211,7 @@
     </row>
     <row r="924" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A924" s="1"/>
-      <c r="B924" s="38"/>
+      <c r="B924" s="27"/>
       <c r="C924" s="17"/>
       <c r="D924" s="11"/>
       <c r="E924" s="11"/>
@@ -22270,7 +22234,7 @@
     </row>
     <row r="925" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A925" s="1"/>
-      <c r="B925" s="38"/>
+      <c r="B925" s="27"/>
       <c r="C925" s="17"/>
       <c r="D925" s="11"/>
       <c r="E925" s="11"/>
@@ -22293,7 +22257,7 @@
     </row>
     <row r="926" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A926" s="1"/>
-      <c r="B926" s="38"/>
+      <c r="B926" s="27"/>
       <c r="C926" s="17"/>
       <c r="D926" s="11"/>
       <c r="E926" s="11"/>
@@ -22316,7 +22280,7 @@
     </row>
     <row r="927" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A927" s="1"/>
-      <c r="B927" s="38"/>
+      <c r="B927" s="27"/>
       <c r="C927" s="17"/>
       <c r="D927" s="11"/>
       <c r="E927" s="11"/>
@@ -22339,7 +22303,7 @@
     </row>
     <row r="928" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A928" s="1"/>
-      <c r="B928" s="38"/>
+      <c r="B928" s="27"/>
       <c r="C928" s="17"/>
       <c r="D928" s="11"/>
       <c r="E928" s="11"/>
@@ -22362,7 +22326,7 @@
     </row>
     <row r="929" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A929" s="1"/>
-      <c r="B929" s="38"/>
+      <c r="B929" s="27"/>
       <c r="C929" s="17"/>
       <c r="D929" s="11"/>
       <c r="E929" s="11"/>
@@ -22385,7 +22349,7 @@
     </row>
     <row r="930" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A930" s="1"/>
-      <c r="B930" s="38"/>
+      <c r="B930" s="27"/>
       <c r="C930" s="17"/>
       <c r="D930" s="11"/>
       <c r="E930" s="11"/>
@@ -22408,7 +22372,7 @@
     </row>
     <row r="931" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A931" s="1"/>
-      <c r="B931" s="38"/>
+      <c r="B931" s="27"/>
       <c r="C931" s="17"/>
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
@@ -22431,7 +22395,7 @@
     </row>
     <row r="932" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A932" s="1"/>
-      <c r="B932" s="38"/>
+      <c r="B932" s="27"/>
       <c r="C932" s="17"/>
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
@@ -22454,7 +22418,7 @@
     </row>
     <row r="933" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A933" s="1"/>
-      <c r="B933" s="38"/>
+      <c r="B933" s="27"/>
       <c r="C933" s="17"/>
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
@@ -22477,7 +22441,7 @@
     </row>
     <row r="934" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A934" s="1"/>
-      <c r="B934" s="38"/>
+      <c r="B934" s="27"/>
       <c r="C934" s="17"/>
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
@@ -22500,7 +22464,7 @@
     </row>
     <row r="935" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A935" s="1"/>
-      <c r="B935" s="38"/>
+      <c r="B935" s="27"/>
       <c r="C935" s="17"/>
       <c r="D935" s="11"/>
       <c r="E935" s="11"/>
@@ -22523,7 +22487,7 @@
     </row>
     <row r="936" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A936" s="1"/>
-      <c r="B936" s="38"/>
+      <c r="B936" s="27"/>
       <c r="C936" s="17"/>
       <c r="D936" s="11"/>
       <c r="E936" s="11"/>
@@ -22546,7 +22510,7 @@
     </row>
     <row r="937" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A937" s="1"/>
-      <c r="B937" s="38"/>
+      <c r="B937" s="27"/>
       <c r="C937" s="17"/>
       <c r="D937" s="11"/>
       <c r="E937" s="11"/>
@@ -22569,7 +22533,7 @@
     </row>
     <row r="938" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A938" s="1"/>
-      <c r="B938" s="38"/>
+      <c r="B938" s="27"/>
       <c r="C938" s="17"/>
       <c r="D938" s="11"/>
       <c r="E938" s="11"/>
@@ -22592,7 +22556,7 @@
     </row>
     <row r="939" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A939" s="1"/>
-      <c r="B939" s="38"/>
+      <c r="B939" s="27"/>
       <c r="C939" s="17"/>
       <c r="D939" s="11"/>
       <c r="E939" s="11"/>
@@ -22615,7 +22579,7 @@
     </row>
     <row r="940" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A940" s="1"/>
-      <c r="B940" s="38"/>
+      <c r="B940" s="27"/>
       <c r="C940" s="17"/>
       <c r="D940" s="11"/>
       <c r="E940" s="11"/>
@@ -22638,7 +22602,7 @@
     </row>
     <row r="941" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A941" s="1"/>
-      <c r="B941" s="38"/>
+      <c r="B941" s="27"/>
       <c r="C941" s="17"/>
       <c r="D941" s="11"/>
       <c r="E941" s="11"/>
@@ -22661,7 +22625,7 @@
     </row>
     <row r="942" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A942" s="1"/>
-      <c r="B942" s="38"/>
+      <c r="B942" s="27"/>
       <c r="C942" s="17"/>
       <c r="D942" s="11"/>
       <c r="E942" s="11"/>
@@ -22684,7 +22648,7 @@
     </row>
     <row r="943" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A943" s="1"/>
-      <c r="B943" s="38"/>
+      <c r="B943" s="27"/>
       <c r="C943" s="17"/>
       <c r="D943" s="11"/>
       <c r="E943" s="11"/>
@@ -22707,7 +22671,7 @@
     </row>
     <row r="944" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A944" s="1"/>
-      <c r="B944" s="38"/>
+      <c r="B944" s="27"/>
       <c r="C944" s="17"/>
       <c r="D944" s="11"/>
       <c r="E944" s="11"/>
@@ -22730,7 +22694,7 @@
     </row>
     <row r="945" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A945" s="1"/>
-      <c r="B945" s="38"/>
+      <c r="B945" s="27"/>
       <c r="C945" s="17"/>
       <c r="D945" s="11"/>
       <c r="E945" s="11"/>
@@ -22753,7 +22717,7 @@
     </row>
     <row r="946" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A946" s="1"/>
-      <c r="B946" s="38"/>
+      <c r="B946" s="27"/>
       <c r="C946" s="17"/>
       <c r="D946" s="11"/>
       <c r="E946" s="11"/>
@@ -22776,7 +22740,7 @@
     </row>
     <row r="947" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A947" s="1"/>
-      <c r="B947" s="38"/>
+      <c r="B947" s="27"/>
       <c r="C947" s="17"/>
       <c r="D947" s="11"/>
       <c r="E947" s="11"/>
@@ -22816,15 +22780,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5D778AC6A79A84EAA5B25C5A2BFF7B6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4061397ea8fd8f272d8b26ba942e61d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cd0eaed-44fe-4f97-8632-c05a782ebbb7" xmlns:ns3="75164c79-2692-43d6-94a7-34b44bf80abd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b13378bff9c1c8ba474ff50185c4976f" ns2:_="" ns3:_="">
     <xsd:import namespace="3cd0eaed-44fe-4f97-8632-c05a782ebbb7"/>
@@ -22989,6 +22944,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -22996,14 +22960,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55915E3D-8D32-4904-AE11-02FF4B35B651}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23022,6 +22978,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}">
   <ds:schemaRefs>

--- a/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
+++ b/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24687699-AA8E-BD41-9C89-3AB04E7A76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{24687699-AA8E-BD41-9C89-3AB04E7A76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5113570-1141-424E-A360-47BFB0417722}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,27 @@
     <sheet name="PR Test Plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>PR ${PR_NUMBER} Test Plan - ${APP_VERSION} - ${BUILD_ENV}</t>
   </si>
@@ -31,10 +47,16 @@
     <t>Testers:</t>
   </si>
   <si>
-    <t>open</t>
+    <t>Open</t>
   </si>
   <si>
     <t>Build Info</t>
+  </si>
+  <si>
+    <t>Time and Date Testing Was Completed:</t>
+  </si>
+  <si>
+    <t>mm/dd/yy - 00:00 AM/PM</t>
   </si>
   <si>
     <t>Pull Request:</t>
@@ -43,7 +65,7 @@
     <t>${PR_NUMBER}</t>
   </si>
   <si>
-    <t>Onboarding login works as expected</t>
+    <t>General</t>
   </si>
   <si>
     <t>Author:</t>
@@ -52,7 +74,7 @@
     <t>${PR_AUTHOR}</t>
   </si>
   <si>
-    <t>Profile login works as expected</t>
+    <t>Onboarding login works as expected</t>
   </si>
   <si>
     <t>App Version:</t>
@@ -61,7 +83,7 @@
     <t>${APP_VERSION} (${BUILD_NUMBER})</t>
   </si>
   <si>
-    <t>Profile logout works as expected</t>
+    <t>Profile login works as expected</t>
   </si>
   <si>
     <t>Environment:</t>
@@ -70,61 +92,61 @@
     <t>${BUILD_ENV}</t>
   </si>
   <si>
+    <t>Profile logout works as expected</t>
+  </si>
+  <si>
     <t>Home view logged out displays visitor cards</t>
+  </si>
+  <si>
+    <t>Test Results</t>
   </si>
   <si>
     <t>Home view logged in displays authenticated cards</t>
   </si>
   <si>
-    <t>Test Results</t>
+    <t>PASS:</t>
+  </si>
+  <si>
+    <t>Build version, number, and environment verified on Profile tab - ${APP_VERSION} (${BUILD_NUMBER}) ${BUILD_ENV}</t>
+  </si>
+  <si>
+    <t>FAIL:</t>
   </si>
   <si>
     <t>Scanner Testing</t>
   </si>
   <si>
-    <t>PASS:</t>
+    <t>FOLLOW-UP:</t>
   </si>
   <si>
     <t>Native Scanner Code128 submission successful</t>
   </si>
   <si>
-    <t>FAIL:</t>
+    <t>N/A:</t>
   </si>
   <si>
     <t>Native Scanner 2D submission successful</t>
   </si>
   <si>
-    <t>FOLLOW-UP:</t>
-  </si>
-  <si>
     <t>Push Testing</t>
   </si>
   <si>
-    <t>N/A:</t>
+    <t>Tools</t>
   </si>
   <si>
     <t>DM Push Notification received and appears in Notifications tab</t>
   </si>
   <si>
+    <t>Notification Tool (QA)</t>
+  </si>
+  <si>
     <t>TM Push Notification received and appears in Notifications tab</t>
   </si>
   <si>
-    <t>Tools</t>
+    <t>Barcode Generator (Code128) - Random</t>
   </si>
   <si>
     <t>PR Testing  **Insert Test Notes from GitHub PR ${PR_NUMBER}**</t>
-  </si>
-  <si>
-    <t>Notification Tool (QA)</t>
-  </si>
-  <si>
-    <t>Regression Test Result</t>
-  </si>
-  <si>
-    <t>PASS / FAIL</t>
-  </si>
-  <si>
-    <t>Barcode Generator (Code128) - Random</t>
   </si>
   <si>
     <t>Barcode Generator (Code128) - Duplicate Barcode</t>
@@ -142,17 +164,17 @@
     <t>Barcode Generator (2D) - Invalid Barcode</t>
   </si>
   <si>
-    <t>General</t>
+    <t>Regression Test Result</t>
   </si>
   <si>
-    <t>Build version, number, and environment verified on Profile tab - ${APP_VERSION} (${BUILD_NUMBER}) ${BUILD_ENV}</t>
+    <t>PASS / FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,7 +239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +310,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3AA00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -455,6 +483,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -676,6 +710,14 @@
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFE3AA00"/>
+      <color rgb="FFF0B400"/>
+      <color rgb="FFD9A300"/>
+      <color rgb="FFCF9B00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -920,20 +962,20 @@
   <dimension ref="A1:U947"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B3" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="103" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="28" customWidth="1"/>
     <col min="3" max="3" width="5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="28" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="12"/>
+    <col min="6" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="51.95">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -959,7 +1001,7 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -988,16 +1030,18 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="D3" s="17" t="s">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -1016,16 +1060,16 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+    <row r="4" spans="1:21" ht="18" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="26"/>
       <c r="D4" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1044,16 +1088,16 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="27"/>
       <c r="D5" s="17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -1072,16 +1116,16 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="27"/>
       <c r="D6" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -1100,9 +1144,9 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="27"/>
       <c r="D7" s="11"/>
@@ -1124,13 +1168,13 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="27"/>
       <c r="D8" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="11"/>
@@ -1150,12 +1194,13 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
-        <v>41</v>
+    <row r="9" spans="1:21" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
+      <c r="B9" s="27"/>
       <c r="D9" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="11"/>
@@ -1175,13 +1220,12 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
+    <row r="10" spans="1:21" ht="18" customHeight="1">
+      <c r="A10" s="23" t="s">
+        <v>23</v>
       </c>
-      <c r="B10" s="26"/>
       <c r="D10" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -1201,13 +1245,13 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
+    <row r="11" spans="1:21" ht="18" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="D11" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="11"/>
@@ -1227,14 +1271,14 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="18" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="11"/>
@@ -1254,11 +1298,11 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
+    <row r="13" spans="1:21" ht="18" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="17"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1279,14 +1323,14 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
+    <row r="14" spans="1:21" ht="18" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="17"/>
       <c r="D14" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="11"/>
@@ -1306,14 +1350,14 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="18" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="17"/>
       <c r="D15" s="29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="11"/>
@@ -1333,14 +1377,14 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
+    <row r="16" spans="1:21" ht="18" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="17"/>
       <c r="D16" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="11"/>
@@ -1360,11 +1404,14 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:21" ht="18" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="26"/>
       <c r="C17" s="17"/>
       <c r="D17" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="11"/>
@@ -1376,10 +1423,11 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="18" customHeight="1">
+      <c r="B18" s="27"/>
       <c r="C18" s="17"/>
       <c r="D18" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1399,10 +1447,10 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="18" customHeight="1">
       <c r="C19" s="17"/>
       <c r="D19" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -1422,10 +1470,10 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="18" customHeight="1">
       <c r="C20" s="17"/>
       <c r="D20" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1445,10 +1493,10 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="18" customHeight="1">
       <c r="C21" s="17"/>
       <c r="D21" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -1468,11 +1516,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="26"/>
+    <row r="22" spans="1:21" ht="18" customHeight="1">
       <c r="C22" s="17"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1493,10 +1537,11 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
+    <row r="23" spans="1:21" ht="18" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
       </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="17"/>
       <c r="D23" s="11"/>
       <c r="F23" s="11"/>
@@ -1516,9 +1561,10 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
     </row>
-    <row r="24" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:21" ht="18" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="17"/>
       <c r="D24" s="11"/>
       <c r="F24" s="11"/>
@@ -1538,7 +1584,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="27"/>
       <c r="C25" s="17"/>
@@ -1560,7 +1606,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="18" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="27"/>
       <c r="C26" s="17"/>
@@ -1582,7 +1628,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
     </row>
-    <row r="27" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="18" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="27"/>
       <c r="C27" s="17"/>
@@ -1605,7 +1651,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
     </row>
-    <row r="28" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="27"/>
       <c r="C28" s="17"/>
@@ -1628,7 +1674,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
     </row>
-    <row r="29" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="27"/>
       <c r="D29" s="11"/>
@@ -1650,7 +1696,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="27"/>
       <c r="D30" s="11"/>
@@ -1672,7 +1718,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="27"/>
       <c r="D31" s="11"/>
@@ -1694,7 +1740,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
     </row>
-    <row r="32" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="27"/>
       <c r="D32" s="11"/>
@@ -1716,7 +1762,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="27"/>
       <c r="C33" s="17"/>
@@ -1739,7 +1785,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
     </row>
-    <row r="34" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="18" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="27"/>
       <c r="C34" s="17"/>
@@ -1762,7 +1808,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
     </row>
-    <row r="35" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="27"/>
       <c r="C35" s="17"/>
@@ -1785,7 +1831,7 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
     </row>
-    <row r="36" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="27"/>
       <c r="C36" s="17"/>
@@ -1808,7 +1854,7 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
     </row>
-    <row r="37" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="27"/>
       <c r="C37" s="17"/>
@@ -1831,7 +1877,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
     </row>
-    <row r="38" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="27"/>
       <c r="C38" s="17"/>
@@ -1854,7 +1900,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
     </row>
-    <row r="39" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="18" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="27"/>
       <c r="C39" s="17"/>
@@ -1877,7 +1923,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
     </row>
-    <row r="40" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="18" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="27"/>
       <c r="C40" s="17"/>
@@ -1900,7 +1946,7 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
     </row>
-    <row r="41" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="18" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="27"/>
       <c r="C41" s="17"/>
@@ -1923,7 +1969,7 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
     </row>
-    <row r="42" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="18" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="27"/>
       <c r="C42" s="17"/>
@@ -1946,7 +1992,7 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
     </row>
-    <row r="43" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="18" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="27"/>
       <c r="C43" s="17"/>
@@ -1969,7 +2015,7 @@
       <c r="T43" s="11"/>
       <c r="U43" s="11"/>
     </row>
-    <row r="44" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="18" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="27"/>
       <c r="C44" s="17"/>
@@ -1992,7 +2038,7 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
     </row>
-    <row r="45" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="18" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="27"/>
       <c r="C45" s="17"/>
@@ -2015,7 +2061,7 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
     </row>
-    <row r="46" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="18" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="27"/>
       <c r="C46" s="17"/>
@@ -2038,7 +2084,7 @@
       <c r="T46" s="11"/>
       <c r="U46" s="11"/>
     </row>
-    <row r="47" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="18" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="27"/>
       <c r="C47" s="17"/>
@@ -2061,7 +2107,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
     </row>
-    <row r="48" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="18" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="27"/>
       <c r="C48" s="17"/>
@@ -2084,7 +2130,7 @@
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
     </row>
-    <row r="49" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="18" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="27"/>
       <c r="C49" s="17"/>
@@ -2107,7 +2153,7 @@
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
     </row>
-    <row r="50" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="18" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="27"/>
       <c r="C50" s="17"/>
@@ -2130,7 +2176,7 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
     </row>
-    <row r="51" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="18" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="27"/>
       <c r="C51" s="17"/>
@@ -2153,7 +2199,7 @@
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
     </row>
-    <row r="52" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="18" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="27"/>
       <c r="C52" s="17"/>
@@ -2176,7 +2222,7 @@
       <c r="T52" s="11"/>
       <c r="U52" s="11"/>
     </row>
-    <row r="53" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="18" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="27"/>
       <c r="C53" s="17"/>
@@ -2199,7 +2245,7 @@
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
     </row>
-    <row r="54" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="18" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="27"/>
       <c r="C54" s="17"/>
@@ -2222,7 +2268,7 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
     </row>
-    <row r="55" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="18" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="27"/>
       <c r="C55" s="17"/>
@@ -2245,7 +2291,7 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
     </row>
-    <row r="56" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="18" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="27"/>
       <c r="C56" s="17"/>
@@ -2268,7 +2314,7 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
     </row>
-    <row r="57" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="18" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="27"/>
       <c r="C57" s="17"/>
@@ -2291,7 +2337,7 @@
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
     </row>
-    <row r="58" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="18" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="27"/>
       <c r="C58" s="17"/>
@@ -2314,7 +2360,7 @@
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
     </row>
-    <row r="59" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="18" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="27"/>
       <c r="C59" s="17"/>
@@ -2337,7 +2383,7 @@
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
     </row>
-    <row r="60" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="18" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="27"/>
       <c r="C60" s="17"/>
@@ -2360,7 +2406,7 @@
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
     </row>
-    <row r="61" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="18" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="27"/>
       <c r="C61" s="17"/>
@@ -2383,7 +2429,7 @@
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
     </row>
-    <row r="62" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="18" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="27"/>
       <c r="C62" s="17"/>
@@ -2406,7 +2452,7 @@
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
     </row>
-    <row r="63" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="18" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="27"/>
       <c r="C63" s="17"/>
@@ -2429,7 +2475,7 @@
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
     </row>
-    <row r="64" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="18" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="27"/>
       <c r="C64" s="17"/>
@@ -2452,7 +2498,7 @@
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
     </row>
-    <row r="65" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="18" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="27"/>
       <c r="C65" s="17"/>
@@ -2475,7 +2521,7 @@
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
     </row>
-    <row r="66" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="18" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="27"/>
       <c r="C66" s="17"/>
@@ -2498,7 +2544,7 @@
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
     </row>
-    <row r="67" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="18" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="27"/>
       <c r="C67" s="17"/>
@@ -2521,7 +2567,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
     </row>
-    <row r="68" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="18" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="27"/>
       <c r="C68" s="17"/>
@@ -2544,7 +2590,7 @@
       <c r="T68" s="11"/>
       <c r="U68" s="11"/>
     </row>
-    <row r="69" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="18" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="27"/>
       <c r="C69" s="17"/>
@@ -2567,7 +2613,7 @@
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
     </row>
-    <row r="70" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="18" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="27"/>
       <c r="C70" s="17"/>
@@ -2590,7 +2636,7 @@
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
     </row>
-    <row r="71" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="18" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="27"/>
       <c r="C71" s="17"/>
@@ -2613,7 +2659,7 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
     </row>
-    <row r="72" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="18" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="27"/>
       <c r="C72" s="17"/>
@@ -2636,7 +2682,7 @@
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
     </row>
-    <row r="73" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="18" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="27"/>
       <c r="C73" s="17"/>
@@ -2659,7 +2705,7 @@
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
     </row>
-    <row r="74" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="18" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="27"/>
       <c r="C74" s="17"/>
@@ -2682,7 +2728,7 @@
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
     </row>
-    <row r="75" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="18" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="27"/>
       <c r="C75" s="17"/>
@@ -2705,7 +2751,7 @@
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
     </row>
-    <row r="76" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="18" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="27"/>
       <c r="C76" s="17"/>
@@ -2728,7 +2774,7 @@
       <c r="T76" s="11"/>
       <c r="U76" s="11"/>
     </row>
-    <row r="77" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="18" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="27"/>
       <c r="C77" s="17"/>
@@ -2751,7 +2797,7 @@
       <c r="T77" s="11"/>
       <c r="U77" s="11"/>
     </row>
-    <row r="78" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="18" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="27"/>
       <c r="C78" s="17"/>
@@ -2774,7 +2820,7 @@
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
     </row>
-    <row r="79" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="18" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="27"/>
       <c r="C79" s="17"/>
@@ -2797,7 +2843,7 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
     </row>
-    <row r="80" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="18" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="27"/>
       <c r="C80" s="17"/>
@@ -2820,7 +2866,7 @@
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
     </row>
-    <row r="81" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="18" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="27"/>
       <c r="C81" s="17"/>
@@ -2843,7 +2889,7 @@
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
     </row>
-    <row r="82" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="18" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="27"/>
       <c r="C82" s="17"/>
@@ -2866,7 +2912,7 @@
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
     </row>
-    <row r="83" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="18" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="27"/>
       <c r="C83" s="17"/>
@@ -2889,7 +2935,7 @@
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
     </row>
-    <row r="84" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="18" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="27"/>
       <c r="C84" s="17"/>
@@ -2912,7 +2958,7 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
     </row>
-    <row r="85" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="18" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="27"/>
       <c r="C85" s="17"/>
@@ -2935,7 +2981,7 @@
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
     </row>
-    <row r="86" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="18" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="27"/>
       <c r="C86" s="17"/>
@@ -2958,7 +3004,7 @@
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
     </row>
-    <row r="87" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="18" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="27"/>
       <c r="C87" s="17"/>
@@ -2981,7 +3027,7 @@
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
     </row>
-    <row r="88" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="18" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="27"/>
       <c r="C88" s="17"/>
@@ -3004,7 +3050,7 @@
       <c r="T88" s="11"/>
       <c r="U88" s="11"/>
     </row>
-    <row r="89" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="18" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="27"/>
       <c r="C89" s="17"/>
@@ -3027,7 +3073,7 @@
       <c r="T89" s="11"/>
       <c r="U89" s="11"/>
     </row>
-    <row r="90" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="18" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="27"/>
       <c r="C90" s="17"/>
@@ -3050,7 +3096,7 @@
       <c r="T90" s="11"/>
       <c r="U90" s="11"/>
     </row>
-    <row r="91" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="18" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="27"/>
       <c r="C91" s="17"/>
@@ -3073,7 +3119,7 @@
       <c r="T91" s="11"/>
       <c r="U91" s="11"/>
     </row>
-    <row r="92" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="18" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="27"/>
       <c r="C92" s="17"/>
@@ -3096,7 +3142,7 @@
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
     </row>
-    <row r="93" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="18" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="27"/>
       <c r="C93" s="17"/>
@@ -3119,7 +3165,7 @@
       <c r="T93" s="11"/>
       <c r="U93" s="11"/>
     </row>
-    <row r="94" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="18" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="27"/>
       <c r="C94" s="17"/>
@@ -3142,7 +3188,7 @@
       <c r="T94" s="11"/>
       <c r="U94" s="11"/>
     </row>
-    <row r="95" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="18" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="27"/>
       <c r="C95" s="17"/>
@@ -3165,7 +3211,7 @@
       <c r="T95" s="11"/>
       <c r="U95" s="11"/>
     </row>
-    <row r="96" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="18" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="27"/>
       <c r="C96" s="17"/>
@@ -3188,7 +3234,7 @@
       <c r="T96" s="11"/>
       <c r="U96" s="11"/>
     </row>
-    <row r="97" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="18" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="27"/>
       <c r="C97" s="17"/>
@@ -3211,7 +3257,7 @@
       <c r="T97" s="11"/>
       <c r="U97" s="11"/>
     </row>
-    <row r="98" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="18" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="27"/>
       <c r="C98" s="17"/>
@@ -3234,7 +3280,7 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
     </row>
-    <row r="99" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="18" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="27"/>
       <c r="C99" s="17"/>
@@ -3257,7 +3303,7 @@
       <c r="T99" s="11"/>
       <c r="U99" s="11"/>
     </row>
-    <row r="100" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="18" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="27"/>
       <c r="C100" s="17"/>
@@ -3280,7 +3326,7 @@
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
     </row>
-    <row r="101" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="18" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="27"/>
       <c r="C101" s="17"/>
@@ -3303,7 +3349,7 @@
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
     </row>
-    <row r="102" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="18" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="27"/>
       <c r="C102" s="17"/>
@@ -3326,7 +3372,7 @@
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
     </row>
-    <row r="103" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="18" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="27"/>
       <c r="C103" s="17"/>
@@ -3349,7 +3395,7 @@
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
     </row>
-    <row r="104" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="18" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="27"/>
       <c r="C104" s="17"/>
@@ -3372,7 +3418,7 @@
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
     </row>
-    <row r="105" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="18" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="27"/>
       <c r="C105" s="17"/>
@@ -3395,7 +3441,7 @@
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
     </row>
-    <row r="106" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="18" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="27"/>
       <c r="C106" s="17"/>
@@ -3418,7 +3464,7 @@
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
     </row>
-    <row r="107" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="18" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="27"/>
       <c r="C107" s="17"/>
@@ -3441,7 +3487,7 @@
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
     </row>
-    <row r="108" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="18" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="27"/>
       <c r="C108" s="17"/>
@@ -3464,7 +3510,7 @@
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
     </row>
-    <row r="109" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="18" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="27"/>
       <c r="C109" s="17"/>
@@ -3487,7 +3533,7 @@
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
     </row>
-    <row r="110" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="18" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="27"/>
       <c r="C110" s="17"/>
@@ -3510,7 +3556,7 @@
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
     </row>
-    <row r="111" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="18" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="27"/>
       <c r="C111" s="17"/>
@@ -3533,7 +3579,7 @@
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
     </row>
-    <row r="112" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="18" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="27"/>
       <c r="C112" s="17"/>
@@ -3556,7 +3602,7 @@
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
     </row>
-    <row r="113" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="18" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="27"/>
       <c r="C113" s="17"/>
@@ -3579,7 +3625,7 @@
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
     </row>
-    <row r="114" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="18" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="27"/>
       <c r="C114" s="17"/>
@@ -3602,7 +3648,7 @@
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
     </row>
-    <row r="115" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="18" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="27"/>
       <c r="C115" s="17"/>
@@ -3625,7 +3671,7 @@
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
     </row>
-    <row r="116" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="18" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="27"/>
       <c r="C116" s="17"/>
@@ -3648,7 +3694,7 @@
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
     </row>
-    <row r="117" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="18" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="27"/>
       <c r="C117" s="17"/>
@@ -3671,7 +3717,7 @@
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
     </row>
-    <row r="118" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="18" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="27"/>
       <c r="C118" s="17"/>
@@ -3694,7 +3740,7 @@
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
     </row>
-    <row r="119" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="18" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="27"/>
       <c r="C119" s="17"/>
@@ -3717,7 +3763,7 @@
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
     </row>
-    <row r="120" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="18" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="27"/>
       <c r="C120" s="17"/>
@@ -3740,7 +3786,7 @@
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
     </row>
-    <row r="121" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="18" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="27"/>
       <c r="C121" s="17"/>
@@ -3763,7 +3809,7 @@
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
     </row>
-    <row r="122" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="18" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="27"/>
       <c r="C122" s="17"/>
@@ -3786,7 +3832,7 @@
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
     </row>
-    <row r="123" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="18" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="27"/>
       <c r="C123" s="17"/>
@@ -3809,7 +3855,7 @@
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
     </row>
-    <row r="124" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="18" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="27"/>
       <c r="C124" s="17"/>
@@ -3832,7 +3878,7 @@
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
     </row>
-    <row r="125" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="18" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="27"/>
       <c r="C125" s="17"/>
@@ -3855,7 +3901,7 @@
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
     </row>
-    <row r="126" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="18" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="27"/>
       <c r="C126" s="17"/>
@@ -3878,7 +3924,7 @@
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
     </row>
-    <row r="127" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="18" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="27"/>
       <c r="C127" s="17"/>
@@ -3901,7 +3947,7 @@
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
     </row>
-    <row r="128" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="18" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="27"/>
       <c r="C128" s="17"/>
@@ -3924,7 +3970,7 @@
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
     </row>
-    <row r="129" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="18" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="27"/>
       <c r="C129" s="17"/>
@@ -3947,7 +3993,7 @@
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
     </row>
-    <row r="130" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="18" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="27"/>
       <c r="C130" s="17"/>
@@ -3970,7 +4016,7 @@
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
     </row>
-    <row r="131" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="18" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="27"/>
       <c r="C131" s="17"/>
@@ -3993,7 +4039,7 @@
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
     </row>
-    <row r="132" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="18" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="27"/>
       <c r="C132" s="17"/>
@@ -4016,7 +4062,7 @@
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
     </row>
-    <row r="133" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="18" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="27"/>
       <c r="C133" s="17"/>
@@ -4039,7 +4085,7 @@
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
     </row>
-    <row r="134" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="18" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="27"/>
       <c r="C134" s="17"/>
@@ -4062,7 +4108,7 @@
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
     </row>
-    <row r="135" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" ht="18" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="27"/>
       <c r="C135" s="17"/>
@@ -4085,7 +4131,7 @@
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
     </row>
-    <row r="136" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" ht="18" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="27"/>
       <c r="C136" s="17"/>
@@ -4108,7 +4154,7 @@
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
     </row>
-    <row r="137" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" ht="18" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="27"/>
       <c r="C137" s="17"/>
@@ -4131,7 +4177,7 @@
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
     </row>
-    <row r="138" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" ht="18" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="27"/>
       <c r="C138" s="17"/>
@@ -4154,7 +4200,7 @@
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
     </row>
-    <row r="139" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" ht="18" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="27"/>
       <c r="C139" s="17"/>
@@ -4177,7 +4223,7 @@
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
     </row>
-    <row r="140" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" ht="18" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="27"/>
       <c r="C140" s="17"/>
@@ -4200,7 +4246,7 @@
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
     </row>
-    <row r="141" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" ht="18" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="27"/>
       <c r="C141" s="17"/>
@@ -4223,7 +4269,7 @@
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
     </row>
-    <row r="142" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" ht="18" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="27"/>
       <c r="C142" s="17"/>
@@ -4246,7 +4292,7 @@
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
     </row>
-    <row r="143" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" ht="18" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="27"/>
       <c r="C143" s="17"/>
@@ -4269,7 +4315,7 @@
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
     </row>
-    <row r="144" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" ht="18" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="27"/>
       <c r="C144" s="17"/>
@@ -4292,7 +4338,7 @@
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
     </row>
-    <row r="145" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" ht="18" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="27"/>
       <c r="C145" s="17"/>
@@ -4315,7 +4361,7 @@
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
     </row>
-    <row r="146" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" ht="18" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="27"/>
       <c r="C146" s="17"/>
@@ -4338,7 +4384,7 @@
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
     </row>
-    <row r="147" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" ht="18" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="27"/>
       <c r="C147" s="17"/>
@@ -4361,7 +4407,7 @@
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
     </row>
-    <row r="148" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" ht="18" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="27"/>
       <c r="C148" s="17"/>
@@ -4384,7 +4430,7 @@
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
     </row>
-    <row r="149" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21" ht="18" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="27"/>
       <c r="C149" s="17"/>
@@ -4407,7 +4453,7 @@
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
     </row>
-    <row r="150" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" ht="18" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="27"/>
       <c r="C150" s="17"/>
@@ -4430,7 +4476,7 @@
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
     </row>
-    <row r="151" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21" ht="18" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="27"/>
       <c r="C151" s="17"/>
@@ -4453,7 +4499,7 @@
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
     </row>
-    <row r="152" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21" ht="18" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="27"/>
       <c r="C152" s="17"/>
@@ -4476,7 +4522,7 @@
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
     </row>
-    <row r="153" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21" ht="18" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="27"/>
       <c r="C153" s="17"/>
@@ -4499,7 +4545,7 @@
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
     </row>
-    <row r="154" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21" ht="18" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="27"/>
       <c r="C154" s="17"/>
@@ -4522,7 +4568,7 @@
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
     </row>
-    <row r="155" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21" ht="18" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="27"/>
       <c r="C155" s="17"/>
@@ -4545,7 +4591,7 @@
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
     </row>
-    <row r="156" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" ht="18" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="27"/>
       <c r="C156" s="17"/>
@@ -4568,7 +4614,7 @@
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
     </row>
-    <row r="157" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21" ht="18" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="27"/>
       <c r="C157" s="17"/>
@@ -4591,7 +4637,7 @@
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
     </row>
-    <row r="158" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" ht="18" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="27"/>
       <c r="C158" s="17"/>
@@ -4614,7 +4660,7 @@
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
     </row>
-    <row r="159" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21" ht="18" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="27"/>
       <c r="C159" s="17"/>
@@ -4637,7 +4683,7 @@
       <c r="T159" s="11"/>
       <c r="U159" s="11"/>
     </row>
-    <row r="160" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" ht="18" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="27"/>
       <c r="C160" s="17"/>
@@ -4660,7 +4706,7 @@
       <c r="T160" s="11"/>
       <c r="U160" s="11"/>
     </row>
-    <row r="161" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21" ht="18" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="27"/>
       <c r="C161" s="17"/>
@@ -4683,7 +4729,7 @@
       <c r="T161" s="11"/>
       <c r="U161" s="11"/>
     </row>
-    <row r="162" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21" ht="18" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="27"/>
       <c r="C162" s="17"/>
@@ -4706,7 +4752,7 @@
       <c r="T162" s="11"/>
       <c r="U162" s="11"/>
     </row>
-    <row r="163" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21" ht="18" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="27"/>
       <c r="C163" s="17"/>
@@ -4729,7 +4775,7 @@
       <c r="T163" s="11"/>
       <c r="U163" s="11"/>
     </row>
-    <row r="164" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21" ht="18" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="27"/>
       <c r="C164" s="17"/>
@@ -4752,7 +4798,7 @@
       <c r="T164" s="11"/>
       <c r="U164" s="11"/>
     </row>
-    <row r="165" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21" ht="18" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="27"/>
       <c r="C165" s="17"/>
@@ -4775,7 +4821,7 @@
       <c r="T165" s="11"/>
       <c r="U165" s="11"/>
     </row>
-    <row r="166" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" ht="18" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="27"/>
       <c r="C166" s="17"/>
@@ -4798,7 +4844,7 @@
       <c r="T166" s="11"/>
       <c r="U166" s="11"/>
     </row>
-    <row r="167" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" ht="18" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="27"/>
       <c r="C167" s="17"/>
@@ -4821,7 +4867,7 @@
       <c r="T167" s="11"/>
       <c r="U167" s="11"/>
     </row>
-    <row r="168" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" ht="18" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="27"/>
       <c r="C168" s="17"/>
@@ -4844,7 +4890,7 @@
       <c r="T168" s="11"/>
       <c r="U168" s="11"/>
     </row>
-    <row r="169" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" ht="18" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="27"/>
       <c r="C169" s="17"/>
@@ -4867,7 +4913,7 @@
       <c r="T169" s="11"/>
       <c r="U169" s="11"/>
     </row>
-    <row r="170" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21" ht="18" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="27"/>
       <c r="C170" s="17"/>
@@ -4890,7 +4936,7 @@
       <c r="T170" s="11"/>
       <c r="U170" s="11"/>
     </row>
-    <row r="171" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21" ht="18" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="27"/>
       <c r="C171" s="17"/>
@@ -4913,7 +4959,7 @@
       <c r="T171" s="11"/>
       <c r="U171" s="11"/>
     </row>
-    <row r="172" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21" ht="18" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="27"/>
       <c r="C172" s="17"/>
@@ -4936,7 +4982,7 @@
       <c r="T172" s="11"/>
       <c r="U172" s="11"/>
     </row>
-    <row r="173" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21" ht="18" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="27"/>
       <c r="C173" s="17"/>
@@ -4959,7 +5005,7 @@
       <c r="T173" s="11"/>
       <c r="U173" s="11"/>
     </row>
-    <row r="174" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21" ht="18" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="27"/>
       <c r="C174" s="17"/>
@@ -4982,7 +5028,7 @@
       <c r="T174" s="11"/>
       <c r="U174" s="11"/>
     </row>
-    <row r="175" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21" ht="18" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="27"/>
       <c r="C175" s="17"/>
@@ -5005,7 +5051,7 @@
       <c r="T175" s="11"/>
       <c r="U175" s="11"/>
     </row>
-    <row r="176" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21" ht="18" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="27"/>
       <c r="C176" s="17"/>
@@ -5028,7 +5074,7 @@
       <c r="T176" s="11"/>
       <c r="U176" s="11"/>
     </row>
-    <row r="177" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:21" ht="18" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="27"/>
       <c r="C177" s="17"/>
@@ -5051,7 +5097,7 @@
       <c r="T177" s="11"/>
       <c r="U177" s="11"/>
     </row>
-    <row r="178" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:21" ht="18" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="27"/>
       <c r="C178" s="17"/>
@@ -5074,7 +5120,7 @@
       <c r="T178" s="11"/>
       <c r="U178" s="11"/>
     </row>
-    <row r="179" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:21" ht="18" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="27"/>
       <c r="C179" s="17"/>
@@ -5097,7 +5143,7 @@
       <c r="T179" s="11"/>
       <c r="U179" s="11"/>
     </row>
-    <row r="180" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:21" ht="18" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="27"/>
       <c r="C180" s="17"/>
@@ -5120,7 +5166,7 @@
       <c r="T180" s="11"/>
       <c r="U180" s="11"/>
     </row>
-    <row r="181" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:21" ht="18" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="27"/>
       <c r="C181" s="17"/>
@@ -5143,7 +5189,7 @@
       <c r="T181" s="11"/>
       <c r="U181" s="11"/>
     </row>
-    <row r="182" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:21" ht="18" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="27"/>
       <c r="C182" s="17"/>
@@ -5166,7 +5212,7 @@
       <c r="T182" s="11"/>
       <c r="U182" s="11"/>
     </row>
-    <row r="183" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:21" ht="18" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="27"/>
       <c r="C183" s="17"/>
@@ -5189,7 +5235,7 @@
       <c r="T183" s="11"/>
       <c r="U183" s="11"/>
     </row>
-    <row r="184" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:21" ht="18" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="27"/>
       <c r="C184" s="17"/>
@@ -5212,7 +5258,7 @@
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
     </row>
-    <row r="185" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:21" ht="18" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="27"/>
       <c r="C185" s="17"/>
@@ -5235,7 +5281,7 @@
       <c r="T185" s="11"/>
       <c r="U185" s="11"/>
     </row>
-    <row r="186" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:21" ht="18" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="27"/>
       <c r="C186" s="17"/>
@@ -5258,7 +5304,7 @@
       <c r="T186" s="11"/>
       <c r="U186" s="11"/>
     </row>
-    <row r="187" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:21" ht="18" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="27"/>
       <c r="C187" s="17"/>
@@ -5281,7 +5327,7 @@
       <c r="T187" s="11"/>
       <c r="U187" s="11"/>
     </row>
-    <row r="188" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:21" ht="18" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="27"/>
       <c r="C188" s="17"/>
@@ -5304,7 +5350,7 @@
       <c r="T188" s="11"/>
       <c r="U188" s="11"/>
     </row>
-    <row r="189" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:21" ht="18" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="27"/>
       <c r="C189" s="17"/>
@@ -5327,7 +5373,7 @@
       <c r="T189" s="11"/>
       <c r="U189" s="11"/>
     </row>
-    <row r="190" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:21" ht="18" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="27"/>
       <c r="C190" s="17"/>
@@ -5350,7 +5396,7 @@
       <c r="T190" s="11"/>
       <c r="U190" s="11"/>
     </row>
-    <row r="191" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:21" ht="18" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="27"/>
       <c r="C191" s="17"/>
@@ -5373,7 +5419,7 @@
       <c r="T191" s="11"/>
       <c r="U191" s="11"/>
     </row>
-    <row r="192" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:21" ht="18" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="27"/>
       <c r="C192" s="17"/>
@@ -5396,7 +5442,7 @@
       <c r="T192" s="11"/>
       <c r="U192" s="11"/>
     </row>
-    <row r="193" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:21" ht="18" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="27"/>
       <c r="C193" s="17"/>
@@ -5419,7 +5465,7 @@
       <c r="T193" s="11"/>
       <c r="U193" s="11"/>
     </row>
-    <row r="194" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:21" ht="18" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="27"/>
       <c r="C194" s="17"/>
@@ -5442,7 +5488,7 @@
       <c r="T194" s="11"/>
       <c r="U194" s="11"/>
     </row>
-    <row r="195" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:21" ht="18" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="27"/>
       <c r="C195" s="17"/>
@@ -5465,7 +5511,7 @@
       <c r="T195" s="11"/>
       <c r="U195" s="11"/>
     </row>
-    <row r="196" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:21" ht="18" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="27"/>
       <c r="C196" s="17"/>
@@ -5488,7 +5534,7 @@
       <c r="T196" s="11"/>
       <c r="U196" s="11"/>
     </row>
-    <row r="197" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:21" ht="18" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="27"/>
       <c r="C197" s="17"/>
@@ -5511,7 +5557,7 @@
       <c r="T197" s="11"/>
       <c r="U197" s="11"/>
     </row>
-    <row r="198" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:21" ht="18" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="27"/>
       <c r="C198" s="17"/>
@@ -5534,7 +5580,7 @@
       <c r="T198" s="11"/>
       <c r="U198" s="11"/>
     </row>
-    <row r="199" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:21" ht="18" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="27"/>
       <c r="C199" s="17"/>
@@ -5557,7 +5603,7 @@
       <c r="T199" s="11"/>
       <c r="U199" s="11"/>
     </row>
-    <row r="200" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:21" ht="18" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="27"/>
       <c r="C200" s="17"/>
@@ -5580,7 +5626,7 @@
       <c r="T200" s="11"/>
       <c r="U200" s="11"/>
     </row>
-    <row r="201" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:21" ht="18" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="27"/>
       <c r="C201" s="17"/>
@@ -5603,7 +5649,7 @@
       <c r="T201" s="11"/>
       <c r="U201" s="11"/>
     </row>
-    <row r="202" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:21" ht="18" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="27"/>
       <c r="C202" s="17"/>
@@ -5626,7 +5672,7 @@
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
     </row>
-    <row r="203" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:21" ht="18" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="27"/>
       <c r="C203" s="17"/>
@@ -5649,7 +5695,7 @@
       <c r="T203" s="11"/>
       <c r="U203" s="11"/>
     </row>
-    <row r="204" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:21" ht="18" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="27"/>
       <c r="C204" s="17"/>
@@ -5672,7 +5718,7 @@
       <c r="T204" s="11"/>
       <c r="U204" s="11"/>
     </row>
-    <row r="205" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:21" ht="18" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="27"/>
       <c r="C205" s="17"/>
@@ -5695,7 +5741,7 @@
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
     </row>
-    <row r="206" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:21" ht="18" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="27"/>
       <c r="C206" s="17"/>
@@ -5718,7 +5764,7 @@
       <c r="T206" s="11"/>
       <c r="U206" s="11"/>
     </row>
-    <row r="207" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:21" ht="18" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="27"/>
       <c r="C207" s="17"/>
@@ -5741,7 +5787,7 @@
       <c r="T207" s="11"/>
       <c r="U207" s="11"/>
     </row>
-    <row r="208" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:21" ht="18" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="27"/>
       <c r="C208" s="17"/>
@@ -5764,7 +5810,7 @@
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
     </row>
-    <row r="209" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:21" ht="18" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="27"/>
       <c r="C209" s="17"/>
@@ -5787,7 +5833,7 @@
       <c r="T209" s="11"/>
       <c r="U209" s="11"/>
     </row>
-    <row r="210" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:21" ht="18" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="27"/>
       <c r="C210" s="17"/>
@@ -5810,7 +5856,7 @@
       <c r="T210" s="11"/>
       <c r="U210" s="11"/>
     </row>
-    <row r="211" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:21" ht="18" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="27"/>
       <c r="C211" s="17"/>
@@ -5833,7 +5879,7 @@
       <c r="T211" s="11"/>
       <c r="U211" s="11"/>
     </row>
-    <row r="212" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:21" ht="18" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="27"/>
       <c r="C212" s="17"/>
@@ -5856,7 +5902,7 @@
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
     </row>
-    <row r="213" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:21" ht="18" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="27"/>
       <c r="C213" s="17"/>
@@ -5879,7 +5925,7 @@
       <c r="T213" s="11"/>
       <c r="U213" s="11"/>
     </row>
-    <row r="214" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:21" ht="18" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="27"/>
       <c r="C214" s="17"/>
@@ -5902,7 +5948,7 @@
       <c r="T214" s="11"/>
       <c r="U214" s="11"/>
     </row>
-    <row r="215" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:21" ht="18" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="27"/>
       <c r="C215" s="17"/>
@@ -5925,7 +5971,7 @@
       <c r="T215" s="11"/>
       <c r="U215" s="11"/>
     </row>
-    <row r="216" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:21" ht="18" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="27"/>
       <c r="C216" s="17"/>
@@ -5948,7 +5994,7 @@
       <c r="T216" s="11"/>
       <c r="U216" s="11"/>
     </row>
-    <row r="217" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:21" ht="18" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="27"/>
       <c r="C217" s="17"/>
@@ -5971,7 +6017,7 @@
       <c r="T217" s="11"/>
       <c r="U217" s="11"/>
     </row>
-    <row r="218" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:21" ht="18" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="27"/>
       <c r="C218" s="17"/>
@@ -5994,7 +6040,7 @@
       <c r="T218" s="11"/>
       <c r="U218" s="11"/>
     </row>
-    <row r="219" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:21" ht="18" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="27"/>
       <c r="C219" s="17"/>
@@ -6017,7 +6063,7 @@
       <c r="T219" s="11"/>
       <c r="U219" s="11"/>
     </row>
-    <row r="220" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:21" ht="18" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="27"/>
       <c r="C220" s="17"/>
@@ -6040,7 +6086,7 @@
       <c r="T220" s="11"/>
       <c r="U220" s="11"/>
     </row>
-    <row r="221" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:21" ht="18" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="27"/>
       <c r="C221" s="17"/>
@@ -6063,7 +6109,7 @@
       <c r="T221" s="11"/>
       <c r="U221" s="11"/>
     </row>
-    <row r="222" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:21" ht="18" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="27"/>
       <c r="C222" s="17"/>
@@ -6086,7 +6132,7 @@
       <c r="T222" s="11"/>
       <c r="U222" s="11"/>
     </row>
-    <row r="223" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:21" ht="18" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="27"/>
       <c r="C223" s="17"/>
@@ -6109,7 +6155,7 @@
       <c r="T223" s="11"/>
       <c r="U223" s="11"/>
     </row>
-    <row r="224" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:21" ht="18" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="27"/>
       <c r="C224" s="17"/>
@@ -6132,7 +6178,7 @@
       <c r="T224" s="11"/>
       <c r="U224" s="11"/>
     </row>
-    <row r="225" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:21" ht="18" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="27"/>
       <c r="C225" s="17"/>
@@ -6155,7 +6201,7 @@
       <c r="T225" s="11"/>
       <c r="U225" s="11"/>
     </row>
-    <row r="226" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:21" ht="18" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="27"/>
       <c r="C226" s="17"/>
@@ -6178,7 +6224,7 @@
       <c r="T226" s="11"/>
       <c r="U226" s="11"/>
     </row>
-    <row r="227" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:21" ht="18" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="27"/>
       <c r="C227" s="17"/>
@@ -6201,7 +6247,7 @@
       <c r="T227" s="11"/>
       <c r="U227" s="11"/>
     </row>
-    <row r="228" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:21" ht="18" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="27"/>
       <c r="C228" s="17"/>
@@ -6224,7 +6270,7 @@
       <c r="T228" s="11"/>
       <c r="U228" s="11"/>
     </row>
-    <row r="229" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:21" ht="18" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="27"/>
       <c r="C229" s="17"/>
@@ -6247,7 +6293,7 @@
       <c r="T229" s="11"/>
       <c r="U229" s="11"/>
     </row>
-    <row r="230" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:21" ht="18" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="27"/>
       <c r="C230" s="17"/>
@@ -6270,7 +6316,7 @@
       <c r="T230" s="11"/>
       <c r="U230" s="11"/>
     </row>
-    <row r="231" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:21" ht="18" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="27"/>
       <c r="C231" s="17"/>
@@ -6293,7 +6339,7 @@
       <c r="T231" s="11"/>
       <c r="U231" s="11"/>
     </row>
-    <row r="232" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:21" ht="18" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="27"/>
       <c r="C232" s="17"/>
@@ -6316,7 +6362,7 @@
       <c r="T232" s="11"/>
       <c r="U232" s="11"/>
     </row>
-    <row r="233" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:21" ht="18" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="27"/>
       <c r="C233" s="17"/>
@@ -6339,7 +6385,7 @@
       <c r="T233" s="11"/>
       <c r="U233" s="11"/>
     </row>
-    <row r="234" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:21" ht="18" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="27"/>
       <c r="C234" s="17"/>
@@ -6362,7 +6408,7 @@
       <c r="T234" s="11"/>
       <c r="U234" s="11"/>
     </row>
-    <row r="235" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:21" ht="18" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="27"/>
       <c r="C235" s="17"/>
@@ -6385,7 +6431,7 @@
       <c r="T235" s="11"/>
       <c r="U235" s="11"/>
     </row>
-    <row r="236" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:21" ht="18" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="27"/>
       <c r="C236" s="17"/>
@@ -6408,7 +6454,7 @@
       <c r="T236" s="11"/>
       <c r="U236" s="11"/>
     </row>
-    <row r="237" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:21" ht="18" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="27"/>
       <c r="C237" s="17"/>
@@ -6431,7 +6477,7 @@
       <c r="T237" s="11"/>
       <c r="U237" s="11"/>
     </row>
-    <row r="238" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:21" ht="18" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="27"/>
       <c r="C238" s="17"/>
@@ -6454,7 +6500,7 @@
       <c r="T238" s="11"/>
       <c r="U238" s="11"/>
     </row>
-    <row r="239" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:21" ht="18" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="27"/>
       <c r="C239" s="17"/>
@@ -6477,7 +6523,7 @@
       <c r="T239" s="11"/>
       <c r="U239" s="11"/>
     </row>
-    <row r="240" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:21" ht="18" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="27"/>
       <c r="C240" s="17"/>
@@ -6500,7 +6546,7 @@
       <c r="T240" s="11"/>
       <c r="U240" s="11"/>
     </row>
-    <row r="241" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:21" ht="18" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="27"/>
       <c r="C241" s="17"/>
@@ -6523,7 +6569,7 @@
       <c r="T241" s="11"/>
       <c r="U241" s="11"/>
     </row>
-    <row r="242" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:21" ht="18" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="27"/>
       <c r="C242" s="17"/>
@@ -6546,7 +6592,7 @@
       <c r="T242" s="11"/>
       <c r="U242" s="11"/>
     </row>
-    <row r="243" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:21" ht="18" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="27"/>
       <c r="C243" s="17"/>
@@ -6569,7 +6615,7 @@
       <c r="T243" s="11"/>
       <c r="U243" s="11"/>
     </row>
-    <row r="244" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:21" ht="18" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="27"/>
       <c r="C244" s="17"/>
@@ -6592,7 +6638,7 @@
       <c r="T244" s="11"/>
       <c r="U244" s="11"/>
     </row>
-    <row r="245" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:21" ht="18" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="27"/>
       <c r="C245" s="17"/>
@@ -6615,7 +6661,7 @@
       <c r="T245" s="11"/>
       <c r="U245" s="11"/>
     </row>
-    <row r="246" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:21" ht="18" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="27"/>
       <c r="C246" s="17"/>
@@ -6638,7 +6684,7 @@
       <c r="T246" s="11"/>
       <c r="U246" s="11"/>
     </row>
-    <row r="247" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:21" ht="18" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="27"/>
       <c r="C247" s="17"/>
@@ -6661,7 +6707,7 @@
       <c r="T247" s="11"/>
       <c r="U247" s="11"/>
     </row>
-    <row r="248" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:21" ht="18" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="27"/>
       <c r="C248" s="17"/>
@@ -6684,7 +6730,7 @@
       <c r="T248" s="11"/>
       <c r="U248" s="11"/>
     </row>
-    <row r="249" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:21" ht="18" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="27"/>
       <c r="C249" s="17"/>
@@ -6707,7 +6753,7 @@
       <c r="T249" s="11"/>
       <c r="U249" s="11"/>
     </row>
-    <row r="250" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:21" ht="18" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="27"/>
       <c r="C250" s="17"/>
@@ -6730,7 +6776,7 @@
       <c r="T250" s="11"/>
       <c r="U250" s="11"/>
     </row>
-    <row r="251" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:21" ht="18" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="27"/>
       <c r="C251" s="17"/>
@@ -6753,7 +6799,7 @@
       <c r="T251" s="11"/>
       <c r="U251" s="11"/>
     </row>
-    <row r="252" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:21" ht="18" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="27"/>
       <c r="C252" s="17"/>
@@ -6776,7 +6822,7 @@
       <c r="T252" s="11"/>
       <c r="U252" s="11"/>
     </row>
-    <row r="253" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:21" ht="18" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="27"/>
       <c r="C253" s="17"/>
@@ -6799,7 +6845,7 @@
       <c r="T253" s="11"/>
       <c r="U253" s="11"/>
     </row>
-    <row r="254" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:21" ht="18" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="27"/>
       <c r="C254" s="17"/>
@@ -6822,7 +6868,7 @@
       <c r="T254" s="11"/>
       <c r="U254" s="11"/>
     </row>
-    <row r="255" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:21" ht="18" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="27"/>
       <c r="C255" s="17"/>
@@ -6845,7 +6891,7 @@
       <c r="T255" s="11"/>
       <c r="U255" s="11"/>
     </row>
-    <row r="256" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:21" ht="18" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="27"/>
       <c r="C256" s="17"/>
@@ -6868,7 +6914,7 @@
       <c r="T256" s="11"/>
       <c r="U256" s="11"/>
     </row>
-    <row r="257" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:21" ht="18" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="27"/>
       <c r="C257" s="17"/>
@@ -6891,7 +6937,7 @@
       <c r="T257" s="11"/>
       <c r="U257" s="11"/>
     </row>
-    <row r="258" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:21" ht="18" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="27"/>
       <c r="C258" s="17"/>
@@ -6914,7 +6960,7 @@
       <c r="T258" s="11"/>
       <c r="U258" s="11"/>
     </row>
-    <row r="259" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:21" ht="18" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="27"/>
       <c r="C259" s="17"/>
@@ -6937,7 +6983,7 @@
       <c r="T259" s="11"/>
       <c r="U259" s="11"/>
     </row>
-    <row r="260" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:21" ht="18" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="27"/>
       <c r="C260" s="17"/>
@@ -6960,7 +7006,7 @@
       <c r="T260" s="11"/>
       <c r="U260" s="11"/>
     </row>
-    <row r="261" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:21" ht="18" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="27"/>
       <c r="C261" s="17"/>
@@ -6983,7 +7029,7 @@
       <c r="T261" s="11"/>
       <c r="U261" s="11"/>
     </row>
-    <row r="262" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:21" ht="18" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="27"/>
       <c r="C262" s="17"/>
@@ -7006,7 +7052,7 @@
       <c r="T262" s="11"/>
       <c r="U262" s="11"/>
     </row>
-    <row r="263" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:21" ht="18" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="27"/>
       <c r="C263" s="17"/>
@@ -7029,7 +7075,7 @@
       <c r="T263" s="11"/>
       <c r="U263" s="11"/>
     </row>
-    <row r="264" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:21" ht="18" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="27"/>
       <c r="C264" s="17"/>
@@ -7052,7 +7098,7 @@
       <c r="T264" s="11"/>
       <c r="U264" s="11"/>
     </row>
-    <row r="265" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:21" ht="18" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="27"/>
       <c r="C265" s="17"/>
@@ -7075,7 +7121,7 @@
       <c r="T265" s="11"/>
       <c r="U265" s="11"/>
     </row>
-    <row r="266" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:21" ht="18" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="27"/>
       <c r="C266" s="17"/>
@@ -7098,7 +7144,7 @@
       <c r="T266" s="11"/>
       <c r="U266" s="11"/>
     </row>
-    <row r="267" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:21" ht="18" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="27"/>
       <c r="C267" s="17"/>
@@ -7121,7 +7167,7 @@
       <c r="T267" s="11"/>
       <c r="U267" s="11"/>
     </row>
-    <row r="268" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:21" ht="18" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="27"/>
       <c r="C268" s="17"/>
@@ -7144,7 +7190,7 @@
       <c r="T268" s="11"/>
       <c r="U268" s="11"/>
     </row>
-    <row r="269" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:21" ht="18" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="27"/>
       <c r="C269" s="17"/>
@@ -7167,7 +7213,7 @@
       <c r="T269" s="11"/>
       <c r="U269" s="11"/>
     </row>
-    <row r="270" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:21" ht="18" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="27"/>
       <c r="C270" s="17"/>
@@ -7190,7 +7236,7 @@
       <c r="T270" s="11"/>
       <c r="U270" s="11"/>
     </row>
-    <row r="271" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:21" ht="18" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="27"/>
       <c r="C271" s="17"/>
@@ -7213,7 +7259,7 @@
       <c r="T271" s="11"/>
       <c r="U271" s="11"/>
     </row>
-    <row r="272" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:21" ht="18" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="27"/>
       <c r="C272" s="17"/>
@@ -7236,7 +7282,7 @@
       <c r="T272" s="11"/>
       <c r="U272" s="11"/>
     </row>
-    <row r="273" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:21" ht="18" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="27"/>
       <c r="C273" s="17"/>
@@ -7259,7 +7305,7 @@
       <c r="T273" s="11"/>
       <c r="U273" s="11"/>
     </row>
-    <row r="274" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:21" ht="18" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="27"/>
       <c r="C274" s="17"/>
@@ -7282,7 +7328,7 @@
       <c r="T274" s="11"/>
       <c r="U274" s="11"/>
     </row>
-    <row r="275" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:21" ht="18" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="27"/>
       <c r="C275" s="17"/>
@@ -7305,7 +7351,7 @@
       <c r="T275" s="11"/>
       <c r="U275" s="11"/>
     </row>
-    <row r="276" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:21" ht="18" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="27"/>
       <c r="C276" s="17"/>
@@ -7328,7 +7374,7 @@
       <c r="T276" s="11"/>
       <c r="U276" s="11"/>
     </row>
-    <row r="277" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:21" ht="18" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="27"/>
       <c r="C277" s="17"/>
@@ -7351,7 +7397,7 @@
       <c r="T277" s="11"/>
       <c r="U277" s="11"/>
     </row>
-    <row r="278" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:21" ht="18" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="27"/>
       <c r="C278" s="17"/>
@@ -7374,7 +7420,7 @@
       <c r="T278" s="11"/>
       <c r="U278" s="11"/>
     </row>
-    <row r="279" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:21" ht="18" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="27"/>
       <c r="C279" s="17"/>
@@ -7397,7 +7443,7 @@
       <c r="T279" s="11"/>
       <c r="U279" s="11"/>
     </row>
-    <row r="280" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:21" ht="18" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="27"/>
       <c r="C280" s="17"/>
@@ -7420,7 +7466,7 @@
       <c r="T280" s="11"/>
       <c r="U280" s="11"/>
     </row>
-    <row r="281" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:21" ht="18" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="27"/>
       <c r="C281" s="17"/>
@@ -7443,7 +7489,7 @@
       <c r="T281" s="11"/>
       <c r="U281" s="11"/>
     </row>
-    <row r="282" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:21" ht="18" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="27"/>
       <c r="C282" s="17"/>
@@ -7466,7 +7512,7 @@
       <c r="T282" s="11"/>
       <c r="U282" s="11"/>
     </row>
-    <row r="283" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:21" ht="18" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="27"/>
       <c r="C283" s="17"/>
@@ -7489,7 +7535,7 @@
       <c r="T283" s="11"/>
       <c r="U283" s="11"/>
     </row>
-    <row r="284" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:21" ht="18" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="27"/>
       <c r="C284" s="17"/>
@@ -7512,7 +7558,7 @@
       <c r="T284" s="11"/>
       <c r="U284" s="11"/>
     </row>
-    <row r="285" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:21" ht="18" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="27"/>
       <c r="C285" s="17"/>
@@ -7535,7 +7581,7 @@
       <c r="T285" s="11"/>
       <c r="U285" s="11"/>
     </row>
-    <row r="286" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:21" ht="18" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="27"/>
       <c r="C286" s="17"/>
@@ -7558,7 +7604,7 @@
       <c r="T286" s="11"/>
       <c r="U286" s="11"/>
     </row>
-    <row r="287" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:21" ht="18" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="27"/>
       <c r="C287" s="17"/>
@@ -7581,7 +7627,7 @@
       <c r="T287" s="11"/>
       <c r="U287" s="11"/>
     </row>
-    <row r="288" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:21" ht="18" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="27"/>
       <c r="C288" s="17"/>
@@ -7604,7 +7650,7 @@
       <c r="T288" s="11"/>
       <c r="U288" s="11"/>
     </row>
-    <row r="289" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:21" ht="18" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="27"/>
       <c r="C289" s="17"/>
@@ -7627,7 +7673,7 @@
       <c r="T289" s="11"/>
       <c r="U289" s="11"/>
     </row>
-    <row r="290" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:21" ht="18" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="27"/>
       <c r="C290" s="17"/>
@@ -7650,7 +7696,7 @@
       <c r="T290" s="11"/>
       <c r="U290" s="11"/>
     </row>
-    <row r="291" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:21" ht="18" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="27"/>
       <c r="C291" s="17"/>
@@ -7673,7 +7719,7 @@
       <c r="T291" s="11"/>
       <c r="U291" s="11"/>
     </row>
-    <row r="292" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:21" ht="18" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="27"/>
       <c r="C292" s="17"/>
@@ -7696,7 +7742,7 @@
       <c r="T292" s="11"/>
       <c r="U292" s="11"/>
     </row>
-    <row r="293" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:21" ht="18" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="27"/>
       <c r="C293" s="17"/>
@@ -7719,7 +7765,7 @@
       <c r="T293" s="11"/>
       <c r="U293" s="11"/>
     </row>
-    <row r="294" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:21" ht="18" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="27"/>
       <c r="C294" s="17"/>
@@ -7742,7 +7788,7 @@
       <c r="T294" s="11"/>
       <c r="U294" s="11"/>
     </row>
-    <row r="295" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:21" ht="18" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="27"/>
       <c r="C295" s="17"/>
@@ -7765,7 +7811,7 @@
       <c r="T295" s="11"/>
       <c r="U295" s="11"/>
     </row>
-    <row r="296" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:21" ht="18" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="27"/>
       <c r="C296" s="17"/>
@@ -7788,7 +7834,7 @@
       <c r="T296" s="11"/>
       <c r="U296" s="11"/>
     </row>
-    <row r="297" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:21" ht="18" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="27"/>
       <c r="C297" s="17"/>
@@ -7811,7 +7857,7 @@
       <c r="T297" s="11"/>
       <c r="U297" s="11"/>
     </row>
-    <row r="298" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:21" ht="18" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="27"/>
       <c r="C298" s="17"/>
@@ -7834,7 +7880,7 @@
       <c r="T298" s="11"/>
       <c r="U298" s="11"/>
     </row>
-    <row r="299" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:21" ht="18" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="27"/>
       <c r="C299" s="17"/>
@@ -7857,7 +7903,7 @@
       <c r="T299" s="11"/>
       <c r="U299" s="11"/>
     </row>
-    <row r="300" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:21" ht="18" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="27"/>
       <c r="C300" s="17"/>
@@ -7880,7 +7926,7 @@
       <c r="T300" s="11"/>
       <c r="U300" s="11"/>
     </row>
-    <row r="301" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:21" ht="18" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="27"/>
       <c r="C301" s="17"/>
@@ -7903,7 +7949,7 @@
       <c r="T301" s="11"/>
       <c r="U301" s="11"/>
     </row>
-    <row r="302" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:21" ht="18" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="27"/>
       <c r="C302" s="17"/>
@@ -7926,7 +7972,7 @@
       <c r="T302" s="11"/>
       <c r="U302" s="11"/>
     </row>
-    <row r="303" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:21" ht="18" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="27"/>
       <c r="C303" s="17"/>
@@ -7949,7 +7995,7 @@
       <c r="T303" s="11"/>
       <c r="U303" s="11"/>
     </row>
-    <row r="304" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:21" ht="18" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="27"/>
       <c r="C304" s="17"/>
@@ -7972,7 +8018,7 @@
       <c r="T304" s="11"/>
       <c r="U304" s="11"/>
     </row>
-    <row r="305" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:21" ht="18" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="27"/>
       <c r="C305" s="17"/>
@@ -7995,7 +8041,7 @@
       <c r="T305" s="11"/>
       <c r="U305" s="11"/>
     </row>
-    <row r="306" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:21" ht="18" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="27"/>
       <c r="C306" s="17"/>
@@ -8018,7 +8064,7 @@
       <c r="T306" s="11"/>
       <c r="U306" s="11"/>
     </row>
-    <row r="307" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:21" ht="18" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="27"/>
       <c r="C307" s="17"/>
@@ -8041,7 +8087,7 @@
       <c r="T307" s="11"/>
       <c r="U307" s="11"/>
     </row>
-    <row r="308" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:21" ht="18" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="27"/>
       <c r="C308" s="17"/>
@@ -8064,7 +8110,7 @@
       <c r="T308" s="11"/>
       <c r="U308" s="11"/>
     </row>
-    <row r="309" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:21" ht="18" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="27"/>
       <c r="C309" s="17"/>
@@ -8087,7 +8133,7 @@
       <c r="T309" s="11"/>
       <c r="U309" s="11"/>
     </row>
-    <row r="310" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:21" ht="18" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="27"/>
       <c r="C310" s="17"/>
@@ -8110,7 +8156,7 @@
       <c r="T310" s="11"/>
       <c r="U310" s="11"/>
     </row>
-    <row r="311" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:21" ht="18" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="27"/>
       <c r="C311" s="17"/>
@@ -8133,7 +8179,7 @@
       <c r="T311" s="11"/>
       <c r="U311" s="11"/>
     </row>
-    <row r="312" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:21" ht="18" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="27"/>
       <c r="C312" s="17"/>
@@ -8156,7 +8202,7 @@
       <c r="T312" s="11"/>
       <c r="U312" s="11"/>
     </row>
-    <row r="313" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:21" ht="18" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="27"/>
       <c r="C313" s="17"/>
@@ -8179,7 +8225,7 @@
       <c r="T313" s="11"/>
       <c r="U313" s="11"/>
     </row>
-    <row r="314" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:21" ht="18" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="27"/>
       <c r="C314" s="17"/>
@@ -8202,7 +8248,7 @@
       <c r="T314" s="11"/>
       <c r="U314" s="11"/>
     </row>
-    <row r="315" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:21" ht="18" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="27"/>
       <c r="C315" s="17"/>
@@ -8225,7 +8271,7 @@
       <c r="T315" s="11"/>
       <c r="U315" s="11"/>
     </row>
-    <row r="316" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:21" ht="18" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="27"/>
       <c r="C316" s="17"/>
@@ -8248,7 +8294,7 @@
       <c r="T316" s="11"/>
       <c r="U316" s="11"/>
     </row>
-    <row r="317" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:21" ht="18" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="27"/>
       <c r="C317" s="17"/>
@@ -8271,7 +8317,7 @@
       <c r="T317" s="11"/>
       <c r="U317" s="11"/>
     </row>
-    <row r="318" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:21" ht="18" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="27"/>
       <c r="C318" s="17"/>
@@ -8294,7 +8340,7 @@
       <c r="T318" s="11"/>
       <c r="U318" s="11"/>
     </row>
-    <row r="319" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:21" ht="18" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="27"/>
       <c r="C319" s="17"/>
@@ -8317,7 +8363,7 @@
       <c r="T319" s="11"/>
       <c r="U319" s="11"/>
     </row>
-    <row r="320" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:21" ht="18" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="27"/>
       <c r="C320" s="17"/>
@@ -8340,7 +8386,7 @@
       <c r="T320" s="11"/>
       <c r="U320" s="11"/>
     </row>
-    <row r="321" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:21" ht="18" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="27"/>
       <c r="C321" s="17"/>
@@ -8363,7 +8409,7 @@
       <c r="T321" s="11"/>
       <c r="U321" s="11"/>
     </row>
-    <row r="322" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:21" ht="18" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="27"/>
       <c r="C322" s="17"/>
@@ -8386,7 +8432,7 @@
       <c r="T322" s="11"/>
       <c r="U322" s="11"/>
     </row>
-    <row r="323" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:21" ht="18" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="27"/>
       <c r="C323" s="17"/>
@@ -8409,7 +8455,7 @@
       <c r="T323" s="11"/>
       <c r="U323" s="11"/>
     </row>
-    <row r="324" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:21" ht="18" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="27"/>
       <c r="C324" s="17"/>
@@ -8432,7 +8478,7 @@
       <c r="T324" s="11"/>
       <c r="U324" s="11"/>
     </row>
-    <row r="325" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:21" ht="18" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="27"/>
       <c r="C325" s="17"/>
@@ -8455,7 +8501,7 @@
       <c r="T325" s="11"/>
       <c r="U325" s="11"/>
     </row>
-    <row r="326" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:21" ht="18" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="27"/>
       <c r="C326" s="17"/>
@@ -8478,7 +8524,7 @@
       <c r="T326" s="11"/>
       <c r="U326" s="11"/>
     </row>
-    <row r="327" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:21" ht="18" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="27"/>
       <c r="C327" s="17"/>
@@ -8501,7 +8547,7 @@
       <c r="T327" s="11"/>
       <c r="U327" s="11"/>
     </row>
-    <row r="328" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:21" ht="18" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="27"/>
       <c r="C328" s="17"/>
@@ -8524,7 +8570,7 @@
       <c r="T328" s="11"/>
       <c r="U328" s="11"/>
     </row>
-    <row r="329" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:21" ht="18" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="27"/>
       <c r="C329" s="17"/>
@@ -8547,7 +8593,7 @@
       <c r="T329" s="11"/>
       <c r="U329" s="11"/>
     </row>
-    <row r="330" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:21" ht="18" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="27"/>
       <c r="C330" s="17"/>
@@ -8570,7 +8616,7 @@
       <c r="T330" s="11"/>
       <c r="U330" s="11"/>
     </row>
-    <row r="331" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:21" ht="18" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="27"/>
       <c r="C331" s="17"/>
@@ -8593,7 +8639,7 @@
       <c r="T331" s="11"/>
       <c r="U331" s="11"/>
     </row>
-    <row r="332" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:21" ht="18" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="27"/>
       <c r="C332" s="17"/>
@@ -8616,7 +8662,7 @@
       <c r="T332" s="11"/>
       <c r="U332" s="11"/>
     </row>
-    <row r="333" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:21" ht="18" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="27"/>
       <c r="C333" s="17"/>
@@ -8639,7 +8685,7 @@
       <c r="T333" s="11"/>
       <c r="U333" s="11"/>
     </row>
-    <row r="334" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:21" ht="18" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="27"/>
       <c r="C334" s="17"/>
@@ -8662,7 +8708,7 @@
       <c r="T334" s="11"/>
       <c r="U334" s="11"/>
     </row>
-    <row r="335" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:21" ht="18" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="27"/>
       <c r="C335" s="17"/>
@@ -8685,7 +8731,7 @@
       <c r="T335" s="11"/>
       <c r="U335" s="11"/>
     </row>
-    <row r="336" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:21" ht="18" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="27"/>
       <c r="C336" s="17"/>
@@ -8708,7 +8754,7 @@
       <c r="T336" s="11"/>
       <c r="U336" s="11"/>
     </row>
-    <row r="337" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:21" ht="18" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="27"/>
       <c r="C337" s="17"/>
@@ -8731,7 +8777,7 @@
       <c r="T337" s="11"/>
       <c r="U337" s="11"/>
     </row>
-    <row r="338" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:21" ht="18" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="27"/>
       <c r="C338" s="17"/>
@@ -8754,7 +8800,7 @@
       <c r="T338" s="11"/>
       <c r="U338" s="11"/>
     </row>
-    <row r="339" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:21" ht="18" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="27"/>
       <c r="C339" s="17"/>
@@ -8777,7 +8823,7 @@
       <c r="T339" s="11"/>
       <c r="U339" s="11"/>
     </row>
-    <row r="340" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:21" ht="18" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="27"/>
       <c r="C340" s="17"/>
@@ -8800,7 +8846,7 @@
       <c r="T340" s="11"/>
       <c r="U340" s="11"/>
     </row>
-    <row r="341" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:21" ht="18" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="27"/>
       <c r="C341" s="17"/>
@@ -8823,7 +8869,7 @@
       <c r="T341" s="11"/>
       <c r="U341" s="11"/>
     </row>
-    <row r="342" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:21" ht="18" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="27"/>
       <c r="C342" s="17"/>
@@ -8846,7 +8892,7 @@
       <c r="T342" s="11"/>
       <c r="U342" s="11"/>
     </row>
-    <row r="343" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:21" ht="18" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="27"/>
       <c r="C343" s="17"/>
@@ -8869,7 +8915,7 @@
       <c r="T343" s="11"/>
       <c r="U343" s="11"/>
     </row>
-    <row r="344" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:21" ht="18" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="27"/>
       <c r="C344" s="17"/>
@@ -8892,7 +8938,7 @@
       <c r="T344" s="11"/>
       <c r="U344" s="11"/>
     </row>
-    <row r="345" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:21" ht="18" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="27"/>
       <c r="C345" s="17"/>
@@ -8915,7 +8961,7 @@
       <c r="T345" s="11"/>
       <c r="U345" s="11"/>
     </row>
-    <row r="346" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:21" ht="18" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="27"/>
       <c r="C346" s="17"/>
@@ -8938,7 +8984,7 @@
       <c r="T346" s="11"/>
       <c r="U346" s="11"/>
     </row>
-    <row r="347" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:21" ht="18" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="27"/>
       <c r="C347" s="17"/>
@@ -8961,7 +9007,7 @@
       <c r="T347" s="11"/>
       <c r="U347" s="11"/>
     </row>
-    <row r="348" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:21" ht="18" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="27"/>
       <c r="C348" s="17"/>
@@ -8984,7 +9030,7 @@
       <c r="T348" s="11"/>
       <c r="U348" s="11"/>
     </row>
-    <row r="349" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:21" ht="18" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="27"/>
       <c r="C349" s="17"/>
@@ -9007,7 +9053,7 @@
       <c r="T349" s="11"/>
       <c r="U349" s="11"/>
     </row>
-    <row r="350" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:21" ht="18" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="27"/>
       <c r="C350" s="17"/>
@@ -9030,7 +9076,7 @@
       <c r="T350" s="11"/>
       <c r="U350" s="11"/>
     </row>
-    <row r="351" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:21" ht="18" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="27"/>
       <c r="C351" s="17"/>
@@ -9053,7 +9099,7 @@
       <c r="T351" s="11"/>
       <c r="U351" s="11"/>
     </row>
-    <row r="352" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:21" ht="18" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="27"/>
       <c r="C352" s="17"/>
@@ -9076,7 +9122,7 @@
       <c r="T352" s="11"/>
       <c r="U352" s="11"/>
     </row>
-    <row r="353" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:21" ht="18" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="27"/>
       <c r="C353" s="17"/>
@@ -9099,7 +9145,7 @@
       <c r="T353" s="11"/>
       <c r="U353" s="11"/>
     </row>
-    <row r="354" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:21" ht="18" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="27"/>
       <c r="C354" s="17"/>
@@ -9122,7 +9168,7 @@
       <c r="T354" s="11"/>
       <c r="U354" s="11"/>
     </row>
-    <row r="355" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:21" ht="18" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="27"/>
       <c r="C355" s="17"/>
@@ -9145,7 +9191,7 @@
       <c r="T355" s="11"/>
       <c r="U355" s="11"/>
     </row>
-    <row r="356" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:21" ht="18" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="27"/>
       <c r="C356" s="17"/>
@@ -9168,7 +9214,7 @@
       <c r="T356" s="11"/>
       <c r="U356" s="11"/>
     </row>
-    <row r="357" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:21" ht="18" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="27"/>
       <c r="C357" s="17"/>
@@ -9191,7 +9237,7 @@
       <c r="T357" s="11"/>
       <c r="U357" s="11"/>
     </row>
-    <row r="358" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:21" ht="18" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="27"/>
       <c r="C358" s="17"/>
@@ -9214,7 +9260,7 @@
       <c r="T358" s="11"/>
       <c r="U358" s="11"/>
     </row>
-    <row r="359" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:21" ht="18" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="27"/>
       <c r="C359" s="17"/>
@@ -9237,7 +9283,7 @@
       <c r="T359" s="11"/>
       <c r="U359" s="11"/>
     </row>
-    <row r="360" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:21" ht="18" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="27"/>
       <c r="C360" s="17"/>
@@ -9260,7 +9306,7 @@
       <c r="T360" s="11"/>
       <c r="U360" s="11"/>
     </row>
-    <row r="361" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:21" ht="18" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="27"/>
       <c r="C361" s="17"/>
@@ -9283,7 +9329,7 @@
       <c r="T361" s="11"/>
       <c r="U361" s="11"/>
     </row>
-    <row r="362" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:21" ht="18" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="27"/>
       <c r="C362" s="17"/>
@@ -9306,7 +9352,7 @@
       <c r="T362" s="11"/>
       <c r="U362" s="11"/>
     </row>
-    <row r="363" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:21" ht="18" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="27"/>
       <c r="C363" s="17"/>
@@ -9329,7 +9375,7 @@
       <c r="T363" s="11"/>
       <c r="U363" s="11"/>
     </row>
-    <row r="364" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:21" ht="18" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="27"/>
       <c r="C364" s="17"/>
@@ -9352,7 +9398,7 @@
       <c r="T364" s="11"/>
       <c r="U364" s="11"/>
     </row>
-    <row r="365" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:21" ht="18" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="27"/>
       <c r="C365" s="17"/>
@@ -9375,7 +9421,7 @@
       <c r="T365" s="11"/>
       <c r="U365" s="11"/>
     </row>
-    <row r="366" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:21" ht="18" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="27"/>
       <c r="C366" s="17"/>
@@ -9398,7 +9444,7 @@
       <c r="T366" s="11"/>
       <c r="U366" s="11"/>
     </row>
-    <row r="367" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:21" ht="18" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="27"/>
       <c r="C367" s="17"/>
@@ -9421,7 +9467,7 @@
       <c r="T367" s="11"/>
       <c r="U367" s="11"/>
     </row>
-    <row r="368" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:21" ht="18" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="27"/>
       <c r="C368" s="17"/>
@@ -9444,7 +9490,7 @@
       <c r="T368" s="11"/>
       <c r="U368" s="11"/>
     </row>
-    <row r="369" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:21" ht="18" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="27"/>
       <c r="C369" s="17"/>
@@ -9467,7 +9513,7 @@
       <c r="T369" s="11"/>
       <c r="U369" s="11"/>
     </row>
-    <row r="370" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:21" ht="18" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="27"/>
       <c r="C370" s="17"/>
@@ -9490,7 +9536,7 @@
       <c r="T370" s="11"/>
       <c r="U370" s="11"/>
     </row>
-    <row r="371" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:21" ht="18" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="27"/>
       <c r="C371" s="17"/>
@@ -9513,7 +9559,7 @@
       <c r="T371" s="11"/>
       <c r="U371" s="11"/>
     </row>
-    <row r="372" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:21" ht="18" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="27"/>
       <c r="C372" s="17"/>
@@ -9536,7 +9582,7 @@
       <c r="T372" s="11"/>
       <c r="U372" s="11"/>
     </row>
-    <row r="373" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:21" ht="18" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="27"/>
       <c r="C373" s="17"/>
@@ -9559,7 +9605,7 @@
       <c r="T373" s="11"/>
       <c r="U373" s="11"/>
     </row>
-    <row r="374" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:21" ht="18" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="27"/>
       <c r="C374" s="17"/>
@@ -9582,7 +9628,7 @@
       <c r="T374" s="11"/>
       <c r="U374" s="11"/>
     </row>
-    <row r="375" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:21" ht="18" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="27"/>
       <c r="C375" s="17"/>
@@ -9605,7 +9651,7 @@
       <c r="T375" s="11"/>
       <c r="U375" s="11"/>
     </row>
-    <row r="376" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:21" ht="18" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="27"/>
       <c r="C376" s="17"/>
@@ -9628,7 +9674,7 @@
       <c r="T376" s="11"/>
       <c r="U376" s="11"/>
     </row>
-    <row r="377" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:21" ht="18" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="27"/>
       <c r="C377" s="17"/>
@@ -9651,7 +9697,7 @@
       <c r="T377" s="11"/>
       <c r="U377" s="11"/>
     </row>
-    <row r="378" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:21" ht="18" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="27"/>
       <c r="C378" s="17"/>
@@ -9674,7 +9720,7 @@
       <c r="T378" s="11"/>
       <c r="U378" s="11"/>
     </row>
-    <row r="379" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:21" ht="18" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="27"/>
       <c r="C379" s="17"/>
@@ -9697,7 +9743,7 @@
       <c r="T379" s="11"/>
       <c r="U379" s="11"/>
     </row>
-    <row r="380" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:21" ht="18" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="27"/>
       <c r="C380" s="17"/>
@@ -9720,7 +9766,7 @@
       <c r="T380" s="11"/>
       <c r="U380" s="11"/>
     </row>
-    <row r="381" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:21" ht="18" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="27"/>
       <c r="C381" s="17"/>
@@ -9743,7 +9789,7 @@
       <c r="T381" s="11"/>
       <c r="U381" s="11"/>
     </row>
-    <row r="382" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:21" ht="18" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="27"/>
       <c r="C382" s="17"/>
@@ -9766,7 +9812,7 @@
       <c r="T382" s="11"/>
       <c r="U382" s="11"/>
     </row>
-    <row r="383" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:21" ht="18" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="27"/>
       <c r="C383" s="17"/>
@@ -9789,7 +9835,7 @@
       <c r="T383" s="11"/>
       <c r="U383" s="11"/>
     </row>
-    <row r="384" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:21" ht="18" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="27"/>
       <c r="C384" s="17"/>
@@ -9812,7 +9858,7 @@
       <c r="T384" s="11"/>
       <c r="U384" s="11"/>
     </row>
-    <row r="385" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:21" ht="18" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="27"/>
       <c r="C385" s="17"/>
@@ -9835,7 +9881,7 @@
       <c r="T385" s="11"/>
       <c r="U385" s="11"/>
     </row>
-    <row r="386" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:21" ht="18" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="27"/>
       <c r="C386" s="17"/>
@@ -9858,7 +9904,7 @@
       <c r="T386" s="11"/>
       <c r="U386" s="11"/>
     </row>
-    <row r="387" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:21" ht="18" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="27"/>
       <c r="C387" s="17"/>
@@ -9881,7 +9927,7 @@
       <c r="T387" s="11"/>
       <c r="U387" s="11"/>
     </row>
-    <row r="388" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:21" ht="18" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="27"/>
       <c r="C388" s="17"/>
@@ -9904,7 +9950,7 @@
       <c r="T388" s="11"/>
       <c r="U388" s="11"/>
     </row>
-    <row r="389" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:21" ht="18" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="27"/>
       <c r="C389" s="17"/>
@@ -9927,7 +9973,7 @@
       <c r="T389" s="11"/>
       <c r="U389" s="11"/>
     </row>
-    <row r="390" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:21" ht="18" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="27"/>
       <c r="C390" s="17"/>
@@ -9950,7 +9996,7 @@
       <c r="T390" s="11"/>
       <c r="U390" s="11"/>
     </row>
-    <row r="391" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:21" ht="18" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="27"/>
       <c r="C391" s="17"/>
@@ -9973,7 +10019,7 @@
       <c r="T391" s="11"/>
       <c r="U391" s="11"/>
     </row>
-    <row r="392" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:21" ht="18" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="27"/>
       <c r="C392" s="17"/>
@@ -9996,7 +10042,7 @@
       <c r="T392" s="11"/>
       <c r="U392" s="11"/>
     </row>
-    <row r="393" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:21" ht="18" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="27"/>
       <c r="C393" s="17"/>
@@ -10019,7 +10065,7 @@
       <c r="T393" s="11"/>
       <c r="U393" s="11"/>
     </row>
-    <row r="394" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:21" ht="18" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="27"/>
       <c r="C394" s="17"/>
@@ -10042,7 +10088,7 @@
       <c r="T394" s="11"/>
       <c r="U394" s="11"/>
     </row>
-    <row r="395" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:21" ht="18" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="27"/>
       <c r="C395" s="17"/>
@@ -10065,7 +10111,7 @@
       <c r="T395" s="11"/>
       <c r="U395" s="11"/>
     </row>
-    <row r="396" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:21" ht="18" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="27"/>
       <c r="C396" s="17"/>
@@ -10088,7 +10134,7 @@
       <c r="T396" s="11"/>
       <c r="U396" s="11"/>
     </row>
-    <row r="397" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:21" ht="18" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="27"/>
       <c r="C397" s="17"/>
@@ -10111,7 +10157,7 @@
       <c r="T397" s="11"/>
       <c r="U397" s="11"/>
     </row>
-    <row r="398" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:21" ht="18" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="27"/>
       <c r="C398" s="17"/>
@@ -10134,7 +10180,7 @@
       <c r="T398" s="11"/>
       <c r="U398" s="11"/>
     </row>
-    <row r="399" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:21" ht="18" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="27"/>
       <c r="C399" s="17"/>
@@ -10157,7 +10203,7 @@
       <c r="T399" s="11"/>
       <c r="U399" s="11"/>
     </row>
-    <row r="400" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:21" ht="18" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="27"/>
       <c r="C400" s="17"/>
@@ -10180,7 +10226,7 @@
       <c r="T400" s="11"/>
       <c r="U400" s="11"/>
     </row>
-    <row r="401" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:21" ht="18" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="27"/>
       <c r="C401" s="17"/>
@@ -10203,7 +10249,7 @@
       <c r="T401" s="11"/>
       <c r="U401" s="11"/>
     </row>
-    <row r="402" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:21" ht="18" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="27"/>
       <c r="C402" s="17"/>
@@ -10226,7 +10272,7 @@
       <c r="T402" s="11"/>
       <c r="U402" s="11"/>
     </row>
-    <row r="403" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:21" ht="18" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="27"/>
       <c r="C403" s="17"/>
@@ -10249,7 +10295,7 @@
       <c r="T403" s="11"/>
       <c r="U403" s="11"/>
     </row>
-    <row r="404" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:21" ht="18" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="27"/>
       <c r="C404" s="17"/>
@@ -10272,7 +10318,7 @@
       <c r="T404" s="11"/>
       <c r="U404" s="11"/>
     </row>
-    <row r="405" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:21" ht="18" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="27"/>
       <c r="C405" s="17"/>
@@ -10295,7 +10341,7 @@
       <c r="T405" s="11"/>
       <c r="U405" s="11"/>
     </row>
-    <row r="406" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:21" ht="18" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="27"/>
       <c r="C406" s="17"/>
@@ -10318,7 +10364,7 @@
       <c r="T406" s="11"/>
       <c r="U406" s="11"/>
     </row>
-    <row r="407" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:21" ht="18" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="27"/>
       <c r="C407" s="17"/>
@@ -10341,7 +10387,7 @@
       <c r="T407" s="11"/>
       <c r="U407" s="11"/>
     </row>
-    <row r="408" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:21" ht="18" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="27"/>
       <c r="C408" s="17"/>
@@ -10364,7 +10410,7 @@
       <c r="T408" s="11"/>
       <c r="U408" s="11"/>
     </row>
-    <row r="409" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:21" ht="18" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="27"/>
       <c r="C409" s="17"/>
@@ -10387,7 +10433,7 @@
       <c r="T409" s="11"/>
       <c r="U409" s="11"/>
     </row>
-    <row r="410" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:21" ht="18" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="27"/>
       <c r="C410" s="17"/>
@@ -10410,7 +10456,7 @@
       <c r="T410" s="11"/>
       <c r="U410" s="11"/>
     </row>
-    <row r="411" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:21" ht="18" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="27"/>
       <c r="C411" s="17"/>
@@ -10433,7 +10479,7 @@
       <c r="T411" s="11"/>
       <c r="U411" s="11"/>
     </row>
-    <row r="412" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:21" ht="18" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="27"/>
       <c r="C412" s="17"/>
@@ -10456,7 +10502,7 @@
       <c r="T412" s="11"/>
       <c r="U412" s="11"/>
     </row>
-    <row r="413" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:21" ht="18" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="27"/>
       <c r="C413" s="17"/>
@@ -10479,7 +10525,7 @@
       <c r="T413" s="11"/>
       <c r="U413" s="11"/>
     </row>
-    <row r="414" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:21" ht="18" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="27"/>
       <c r="C414" s="17"/>
@@ -10502,7 +10548,7 @@
       <c r="T414" s="11"/>
       <c r="U414" s="11"/>
     </row>
-    <row r="415" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:21" ht="18" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="27"/>
       <c r="C415" s="17"/>
@@ -10525,7 +10571,7 @@
       <c r="T415" s="11"/>
       <c r="U415" s="11"/>
     </row>
-    <row r="416" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:21" ht="18" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="27"/>
       <c r="C416" s="17"/>
@@ -10548,7 +10594,7 @@
       <c r="T416" s="11"/>
       <c r="U416" s="11"/>
     </row>
-    <row r="417" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:21" ht="18" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="27"/>
       <c r="C417" s="17"/>
@@ -10571,7 +10617,7 @@
       <c r="T417" s="11"/>
       <c r="U417" s="11"/>
     </row>
-    <row r="418" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:21" ht="18" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="27"/>
       <c r="C418" s="17"/>
@@ -10594,7 +10640,7 @@
       <c r="T418" s="11"/>
       <c r="U418" s="11"/>
     </row>
-    <row r="419" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:21" ht="18" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="27"/>
       <c r="C419" s="17"/>
@@ -10617,7 +10663,7 @@
       <c r="T419" s="11"/>
       <c r="U419" s="11"/>
     </row>
-    <row r="420" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:21" ht="18" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="27"/>
       <c r="C420" s="17"/>
@@ -10640,7 +10686,7 @@
       <c r="T420" s="11"/>
       <c r="U420" s="11"/>
     </row>
-    <row r="421" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:21" ht="18" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="27"/>
       <c r="C421" s="17"/>
@@ -10663,7 +10709,7 @@
       <c r="T421" s="11"/>
       <c r="U421" s="11"/>
     </row>
-    <row r="422" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:21" ht="18" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="27"/>
       <c r="C422" s="17"/>
@@ -10686,7 +10732,7 @@
       <c r="T422" s="11"/>
       <c r="U422" s="11"/>
     </row>
-    <row r="423" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:21" ht="18" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="27"/>
       <c r="C423" s="17"/>
@@ -10709,7 +10755,7 @@
       <c r="T423" s="11"/>
       <c r="U423" s="11"/>
     </row>
-    <row r="424" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:21" ht="18" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="27"/>
       <c r="C424" s="17"/>
@@ -10732,7 +10778,7 @@
       <c r="T424" s="11"/>
       <c r="U424" s="11"/>
     </row>
-    <row r="425" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:21" ht="18" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="27"/>
       <c r="C425" s="17"/>
@@ -10755,7 +10801,7 @@
       <c r="T425" s="11"/>
       <c r="U425" s="11"/>
     </row>
-    <row r="426" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:21" ht="18" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="27"/>
       <c r="C426" s="17"/>
@@ -10778,7 +10824,7 @@
       <c r="T426" s="11"/>
       <c r="U426" s="11"/>
     </row>
-    <row r="427" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:21" ht="18" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="27"/>
       <c r="C427" s="17"/>
@@ -10801,7 +10847,7 @@
       <c r="T427" s="11"/>
       <c r="U427" s="11"/>
     </row>
-    <row r="428" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:21" ht="18" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="27"/>
       <c r="C428" s="17"/>
@@ -10824,7 +10870,7 @@
       <c r="T428" s="11"/>
       <c r="U428" s="11"/>
     </row>
-    <row r="429" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:21" ht="18" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="27"/>
       <c r="C429" s="17"/>
@@ -10847,7 +10893,7 @@
       <c r="T429" s="11"/>
       <c r="U429" s="11"/>
     </row>
-    <row r="430" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:21" ht="18" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="27"/>
       <c r="C430" s="17"/>
@@ -10870,7 +10916,7 @@
       <c r="T430" s="11"/>
       <c r="U430" s="11"/>
     </row>
-    <row r="431" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:21" ht="18" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="27"/>
       <c r="C431" s="17"/>
@@ -10893,7 +10939,7 @@
       <c r="T431" s="11"/>
       <c r="U431" s="11"/>
     </row>
-    <row r="432" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:21" ht="18" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="27"/>
       <c r="C432" s="17"/>
@@ -10916,7 +10962,7 @@
       <c r="T432" s="11"/>
       <c r="U432" s="11"/>
     </row>
-    <row r="433" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:21" ht="18" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="27"/>
       <c r="C433" s="17"/>
@@ -10939,7 +10985,7 @@
       <c r="T433" s="11"/>
       <c r="U433" s="11"/>
     </row>
-    <row r="434" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:21" ht="18" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="27"/>
       <c r="C434" s="17"/>
@@ -10962,7 +11008,7 @@
       <c r="T434" s="11"/>
       <c r="U434" s="11"/>
     </row>
-    <row r="435" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:21" ht="18" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="27"/>
       <c r="C435" s="17"/>
@@ -10985,7 +11031,7 @@
       <c r="T435" s="11"/>
       <c r="U435" s="11"/>
     </row>
-    <row r="436" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:21" ht="18" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="27"/>
       <c r="C436" s="17"/>
@@ -11008,7 +11054,7 @@
       <c r="T436" s="11"/>
       <c r="U436" s="11"/>
     </row>
-    <row r="437" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:21" ht="18" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="27"/>
       <c r="C437" s="17"/>
@@ -11031,7 +11077,7 @@
       <c r="T437" s="11"/>
       <c r="U437" s="11"/>
     </row>
-    <row r="438" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:21" ht="18" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="27"/>
       <c r="C438" s="17"/>
@@ -11054,7 +11100,7 @@
       <c r="T438" s="11"/>
       <c r="U438" s="11"/>
     </row>
-    <row r="439" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:21" ht="18" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="27"/>
       <c r="C439" s="17"/>
@@ -11077,7 +11123,7 @@
       <c r="T439" s="11"/>
       <c r="U439" s="11"/>
     </row>
-    <row r="440" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:21" ht="18" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="27"/>
       <c r="C440" s="17"/>
@@ -11100,7 +11146,7 @@
       <c r="T440" s="11"/>
       <c r="U440" s="11"/>
     </row>
-    <row r="441" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:21" ht="18" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="27"/>
       <c r="C441" s="17"/>
@@ -11123,7 +11169,7 @@
       <c r="T441" s="11"/>
       <c r="U441" s="11"/>
     </row>
-    <row r="442" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:21" ht="18" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="27"/>
       <c r="C442" s="17"/>
@@ -11146,7 +11192,7 @@
       <c r="T442" s="11"/>
       <c r="U442" s="11"/>
     </row>
-    <row r="443" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:21" ht="18" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="27"/>
       <c r="C443" s="17"/>
@@ -11169,7 +11215,7 @@
       <c r="T443" s="11"/>
       <c r="U443" s="11"/>
     </row>
-    <row r="444" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:21" ht="18" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="27"/>
       <c r="C444" s="17"/>
@@ -11192,7 +11238,7 @@
       <c r="T444" s="11"/>
       <c r="U444" s="11"/>
     </row>
-    <row r="445" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:21" ht="18" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="27"/>
       <c r="C445" s="17"/>
@@ -11215,7 +11261,7 @@
       <c r="T445" s="11"/>
       <c r="U445" s="11"/>
     </row>
-    <row r="446" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:21" ht="18" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="27"/>
       <c r="C446" s="17"/>
@@ -11238,7 +11284,7 @@
       <c r="T446" s="11"/>
       <c r="U446" s="11"/>
     </row>
-    <row r="447" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:21" ht="18" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="27"/>
       <c r="C447" s="17"/>
@@ -11261,7 +11307,7 @@
       <c r="T447" s="11"/>
       <c r="U447" s="11"/>
     </row>
-    <row r="448" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:21" ht="18" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="27"/>
       <c r="C448" s="17"/>
@@ -11284,7 +11330,7 @@
       <c r="T448" s="11"/>
       <c r="U448" s="11"/>
     </row>
-    <row r="449" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:21" ht="18" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="27"/>
       <c r="C449" s="17"/>
@@ -11307,7 +11353,7 @@
       <c r="T449" s="11"/>
       <c r="U449" s="11"/>
     </row>
-    <row r="450" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:21" ht="18" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="27"/>
       <c r="C450" s="17"/>
@@ -11330,7 +11376,7 @@
       <c r="T450" s="11"/>
       <c r="U450" s="11"/>
     </row>
-    <row r="451" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:21" ht="18" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="27"/>
       <c r="C451" s="17"/>
@@ -11353,7 +11399,7 @@
       <c r="T451" s="11"/>
       <c r="U451" s="11"/>
     </row>
-    <row r="452" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:21" ht="18" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="27"/>
       <c r="C452" s="17"/>
@@ -11376,7 +11422,7 @@
       <c r="T452" s="11"/>
       <c r="U452" s="11"/>
     </row>
-    <row r="453" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:21" ht="18" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="27"/>
       <c r="C453" s="17"/>
@@ -11399,7 +11445,7 @@
       <c r="T453" s="11"/>
       <c r="U453" s="11"/>
     </row>
-    <row r="454" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:21" ht="18" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="27"/>
       <c r="C454" s="17"/>
@@ -11422,7 +11468,7 @@
       <c r="T454" s="11"/>
       <c r="U454" s="11"/>
     </row>
-    <row r="455" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:21" ht="18" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="27"/>
       <c r="C455" s="17"/>
@@ -11445,7 +11491,7 @@
       <c r="T455" s="11"/>
       <c r="U455" s="11"/>
     </row>
-    <row r="456" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:21" ht="18" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="27"/>
       <c r="C456" s="17"/>
@@ -11468,7 +11514,7 @@
       <c r="T456" s="11"/>
       <c r="U456" s="11"/>
     </row>
-    <row r="457" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:21" ht="18" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="27"/>
       <c r="C457" s="17"/>
@@ -11491,7 +11537,7 @@
       <c r="T457" s="11"/>
       <c r="U457" s="11"/>
     </row>
-    <row r="458" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:21" ht="18" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="27"/>
       <c r="C458" s="17"/>
@@ -11514,7 +11560,7 @@
       <c r="T458" s="11"/>
       <c r="U458" s="11"/>
     </row>
-    <row r="459" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:21" ht="18" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="27"/>
       <c r="C459" s="17"/>
@@ -11537,7 +11583,7 @@
       <c r="T459" s="11"/>
       <c r="U459" s="11"/>
     </row>
-    <row r="460" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:21" ht="18" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="27"/>
       <c r="C460" s="17"/>
@@ -11560,7 +11606,7 @@
       <c r="T460" s="11"/>
       <c r="U460" s="11"/>
     </row>
-    <row r="461" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:21" ht="18" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="27"/>
       <c r="C461" s="17"/>
@@ -11583,7 +11629,7 @@
       <c r="T461" s="11"/>
       <c r="U461" s="11"/>
     </row>
-    <row r="462" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:21" ht="18" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="27"/>
       <c r="C462" s="17"/>
@@ -11606,7 +11652,7 @@
       <c r="T462" s="11"/>
       <c r="U462" s="11"/>
     </row>
-    <row r="463" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:21" ht="18" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="27"/>
       <c r="C463" s="17"/>
@@ -11629,7 +11675,7 @@
       <c r="T463" s="11"/>
       <c r="U463" s="11"/>
     </row>
-    <row r="464" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:21" ht="18" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="27"/>
       <c r="C464" s="17"/>
@@ -11652,7 +11698,7 @@
       <c r="T464" s="11"/>
       <c r="U464" s="11"/>
     </row>
-    <row r="465" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:21" ht="18" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="27"/>
       <c r="C465" s="17"/>
@@ -11675,7 +11721,7 @@
       <c r="T465" s="11"/>
       <c r="U465" s="11"/>
     </row>
-    <row r="466" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:21" ht="18" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="27"/>
       <c r="C466" s="17"/>
@@ -11698,7 +11744,7 @@
       <c r="T466" s="11"/>
       <c r="U466" s="11"/>
     </row>
-    <row r="467" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:21" ht="18" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="27"/>
       <c r="C467" s="17"/>
@@ -11721,7 +11767,7 @@
       <c r="T467" s="11"/>
       <c r="U467" s="11"/>
     </row>
-    <row r="468" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:21" ht="18" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="27"/>
       <c r="C468" s="17"/>
@@ -11744,7 +11790,7 @@
       <c r="T468" s="11"/>
       <c r="U468" s="11"/>
     </row>
-    <row r="469" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:21" ht="18" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="27"/>
       <c r="C469" s="17"/>
@@ -11767,7 +11813,7 @@
       <c r="T469" s="11"/>
       <c r="U469" s="11"/>
     </row>
-    <row r="470" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:21" ht="18" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="27"/>
       <c r="C470" s="17"/>
@@ -11790,7 +11836,7 @@
       <c r="T470" s="11"/>
       <c r="U470" s="11"/>
     </row>
-    <row r="471" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:21" ht="18" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="27"/>
       <c r="C471" s="17"/>
@@ -11813,7 +11859,7 @@
       <c r="T471" s="11"/>
       <c r="U471" s="11"/>
     </row>
-    <row r="472" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:21" ht="18" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="27"/>
       <c r="C472" s="17"/>
@@ -11836,7 +11882,7 @@
       <c r="T472" s="11"/>
       <c r="U472" s="11"/>
     </row>
-    <row r="473" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:21" ht="18" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="27"/>
       <c r="C473" s="17"/>
@@ -11859,7 +11905,7 @@
       <c r="T473" s="11"/>
       <c r="U473" s="11"/>
     </row>
-    <row r="474" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:21" ht="18" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="27"/>
       <c r="C474" s="17"/>
@@ -11882,7 +11928,7 @@
       <c r="T474" s="11"/>
       <c r="U474" s="11"/>
     </row>
-    <row r="475" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:21" ht="18" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="27"/>
       <c r="C475" s="17"/>
@@ -11905,7 +11951,7 @@
       <c r="T475" s="11"/>
       <c r="U475" s="11"/>
     </row>
-    <row r="476" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:21" ht="18" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="27"/>
       <c r="C476" s="17"/>
@@ -11928,7 +11974,7 @@
       <c r="T476" s="11"/>
       <c r="U476" s="11"/>
     </row>
-    <row r="477" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:21" ht="18" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="27"/>
       <c r="C477" s="17"/>
@@ -11951,7 +11997,7 @@
       <c r="T477" s="11"/>
       <c r="U477" s="11"/>
     </row>
-    <row r="478" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:21" ht="18" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="27"/>
       <c r="C478" s="17"/>
@@ -11974,7 +12020,7 @@
       <c r="T478" s="11"/>
       <c r="U478" s="11"/>
     </row>
-    <row r="479" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:21" ht="18" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="27"/>
       <c r="C479" s="17"/>
@@ -11997,7 +12043,7 @@
       <c r="T479" s="11"/>
       <c r="U479" s="11"/>
     </row>
-    <row r="480" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:21" ht="18" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="27"/>
       <c r="C480" s="17"/>
@@ -12020,7 +12066,7 @@
       <c r="T480" s="11"/>
       <c r="U480" s="11"/>
     </row>
-    <row r="481" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:21" ht="18" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="27"/>
       <c r="C481" s="17"/>
@@ -12043,7 +12089,7 @@
       <c r="T481" s="11"/>
       <c r="U481" s="11"/>
     </row>
-    <row r="482" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:21" ht="18" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="27"/>
       <c r="C482" s="17"/>
@@ -12066,7 +12112,7 @@
       <c r="T482" s="11"/>
       <c r="U482" s="11"/>
     </row>
-    <row r="483" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:21" ht="18" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="27"/>
       <c r="C483" s="17"/>
@@ -12089,7 +12135,7 @@
       <c r="T483" s="11"/>
       <c r="U483" s="11"/>
     </row>
-    <row r="484" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:21" ht="18" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="27"/>
       <c r="C484" s="17"/>
@@ -12112,7 +12158,7 @@
       <c r="T484" s="11"/>
       <c r="U484" s="11"/>
     </row>
-    <row r="485" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:21" ht="18" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="27"/>
       <c r="C485" s="17"/>
@@ -12135,7 +12181,7 @@
       <c r="T485" s="11"/>
       <c r="U485" s="11"/>
     </row>
-    <row r="486" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:21" ht="18" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="27"/>
       <c r="C486" s="17"/>
@@ -12158,7 +12204,7 @@
       <c r="T486" s="11"/>
       <c r="U486" s="11"/>
     </row>
-    <row r="487" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:21" ht="18" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="27"/>
       <c r="C487" s="17"/>
@@ -12181,7 +12227,7 @@
       <c r="T487" s="11"/>
       <c r="U487" s="11"/>
     </row>
-    <row r="488" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:21" ht="18" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="27"/>
       <c r="C488" s="17"/>
@@ -12204,7 +12250,7 @@
       <c r="T488" s="11"/>
       <c r="U488" s="11"/>
     </row>
-    <row r="489" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:21" ht="18" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="27"/>
       <c r="C489" s="17"/>
@@ -12227,7 +12273,7 @@
       <c r="T489" s="11"/>
       <c r="U489" s="11"/>
     </row>
-    <row r="490" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:21" ht="18" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="27"/>
       <c r="C490" s="17"/>
@@ -12250,7 +12296,7 @@
       <c r="T490" s="11"/>
       <c r="U490" s="11"/>
     </row>
-    <row r="491" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:21" ht="18" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="27"/>
       <c r="C491" s="17"/>
@@ -12273,7 +12319,7 @@
       <c r="T491" s="11"/>
       <c r="U491" s="11"/>
     </row>
-    <row r="492" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:21" ht="18" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="27"/>
       <c r="C492" s="17"/>
@@ -12296,7 +12342,7 @@
       <c r="T492" s="11"/>
       <c r="U492" s="11"/>
     </row>
-    <row r="493" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:21" ht="18" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="27"/>
       <c r="C493" s="17"/>
@@ -12319,7 +12365,7 @@
       <c r="T493" s="11"/>
       <c r="U493" s="11"/>
     </row>
-    <row r="494" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:21" ht="18" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="27"/>
       <c r="C494" s="17"/>
@@ -12342,7 +12388,7 @@
       <c r="T494" s="11"/>
       <c r="U494" s="11"/>
     </row>
-    <row r="495" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:21" ht="18" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="27"/>
       <c r="C495" s="17"/>
@@ -12365,7 +12411,7 @@
       <c r="T495" s="11"/>
       <c r="U495" s="11"/>
     </row>
-    <row r="496" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:21" ht="18" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="27"/>
       <c r="C496" s="17"/>
@@ -12388,7 +12434,7 @@
       <c r="T496" s="11"/>
       <c r="U496" s="11"/>
     </row>
-    <row r="497" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:21" ht="18" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="27"/>
       <c r="C497" s="17"/>
@@ -12411,7 +12457,7 @@
       <c r="T497" s="11"/>
       <c r="U497" s="11"/>
     </row>
-    <row r="498" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:21" ht="18" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="27"/>
       <c r="C498" s="17"/>
@@ -12434,7 +12480,7 @@
       <c r="T498" s="11"/>
       <c r="U498" s="11"/>
     </row>
-    <row r="499" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:21" ht="18" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="27"/>
       <c r="C499" s="17"/>
@@ -12457,7 +12503,7 @@
       <c r="T499" s="11"/>
       <c r="U499" s="11"/>
     </row>
-    <row r="500" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:21" ht="18" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="27"/>
       <c r="C500" s="17"/>
@@ -12480,7 +12526,7 @@
       <c r="T500" s="11"/>
       <c r="U500" s="11"/>
     </row>
-    <row r="501" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:21" ht="18" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="27"/>
       <c r="C501" s="17"/>
@@ -12503,7 +12549,7 @@
       <c r="T501" s="11"/>
       <c r="U501" s="11"/>
     </row>
-    <row r="502" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:21" ht="18" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="27"/>
       <c r="C502" s="17"/>
@@ -12526,7 +12572,7 @@
       <c r="T502" s="11"/>
       <c r="U502" s="11"/>
     </row>
-    <row r="503" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:21" ht="18" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="27"/>
       <c r="C503" s="17"/>
@@ -12549,7 +12595,7 @@
       <c r="T503" s="11"/>
       <c r="U503" s="11"/>
     </row>
-    <row r="504" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:21" ht="18" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="27"/>
       <c r="C504" s="17"/>
@@ -12572,7 +12618,7 @@
       <c r="T504" s="11"/>
       <c r="U504" s="11"/>
     </row>
-    <row r="505" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:21" ht="18" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="27"/>
       <c r="C505" s="17"/>
@@ -12595,7 +12641,7 @@
       <c r="T505" s="11"/>
       <c r="U505" s="11"/>
     </row>
-    <row r="506" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:21" ht="18" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="27"/>
       <c r="C506" s="17"/>
@@ -12618,7 +12664,7 @@
       <c r="T506" s="11"/>
       <c r="U506" s="11"/>
     </row>
-    <row r="507" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:21" ht="18" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="27"/>
       <c r="C507" s="17"/>
@@ -12641,7 +12687,7 @@
       <c r="T507" s="11"/>
       <c r="U507" s="11"/>
     </row>
-    <row r="508" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:21" ht="18" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="27"/>
       <c r="C508" s="17"/>
@@ -12664,7 +12710,7 @@
       <c r="T508" s="11"/>
       <c r="U508" s="11"/>
     </row>
-    <row r="509" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:21" ht="18" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="27"/>
       <c r="C509" s="17"/>
@@ -12687,7 +12733,7 @@
       <c r="T509" s="11"/>
       <c r="U509" s="11"/>
     </row>
-    <row r="510" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:21" ht="18" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="27"/>
       <c r="C510" s="17"/>
@@ -12710,7 +12756,7 @@
       <c r="T510" s="11"/>
       <c r="U510" s="11"/>
     </row>
-    <row r="511" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:21" ht="18" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="27"/>
       <c r="C511" s="17"/>
@@ -12733,7 +12779,7 @@
       <c r="T511" s="11"/>
       <c r="U511" s="11"/>
     </row>
-    <row r="512" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:21" ht="18" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="27"/>
       <c r="C512" s="17"/>
@@ -12756,7 +12802,7 @@
       <c r="T512" s="11"/>
       <c r="U512" s="11"/>
     </row>
-    <row r="513" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:21" ht="18" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="27"/>
       <c r="C513" s="17"/>
@@ -12779,7 +12825,7 @@
       <c r="T513" s="11"/>
       <c r="U513" s="11"/>
     </row>
-    <row r="514" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:21" ht="18" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="27"/>
       <c r="C514" s="17"/>
@@ -12802,7 +12848,7 @@
       <c r="T514" s="11"/>
       <c r="U514" s="11"/>
     </row>
-    <row r="515" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:21" ht="18" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="27"/>
       <c r="C515" s="17"/>
@@ -12825,7 +12871,7 @@
       <c r="T515" s="11"/>
       <c r="U515" s="11"/>
     </row>
-    <row r="516" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:21" ht="18" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="27"/>
       <c r="C516" s="17"/>
@@ -12848,7 +12894,7 @@
       <c r="T516" s="11"/>
       <c r="U516" s="11"/>
     </row>
-    <row r="517" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:21" ht="18" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="27"/>
       <c r="C517" s="17"/>
@@ -12871,7 +12917,7 @@
       <c r="T517" s="11"/>
       <c r="U517" s="11"/>
     </row>
-    <row r="518" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:21" ht="18" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="27"/>
       <c r="C518" s="17"/>
@@ -12894,7 +12940,7 @@
       <c r="T518" s="11"/>
       <c r="U518" s="11"/>
     </row>
-    <row r="519" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:21" ht="18" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="27"/>
       <c r="C519" s="17"/>
@@ -12917,7 +12963,7 @@
       <c r="T519" s="11"/>
       <c r="U519" s="11"/>
     </row>
-    <row r="520" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:21" ht="18" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="27"/>
       <c r="C520" s="17"/>
@@ -12940,7 +12986,7 @@
       <c r="T520" s="11"/>
       <c r="U520" s="11"/>
     </row>
-    <row r="521" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:21" ht="18" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="27"/>
       <c r="C521" s="17"/>
@@ -12963,7 +13009,7 @@
       <c r="T521" s="11"/>
       <c r="U521" s="11"/>
     </row>
-    <row r="522" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:21" ht="18" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="27"/>
       <c r="C522" s="17"/>
@@ -12986,7 +13032,7 @@
       <c r="T522" s="11"/>
       <c r="U522" s="11"/>
     </row>
-    <row r="523" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:21" ht="18" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="27"/>
       <c r="C523" s="17"/>
@@ -13009,7 +13055,7 @@
       <c r="T523" s="11"/>
       <c r="U523" s="11"/>
     </row>
-    <row r="524" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:21" ht="18" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="27"/>
       <c r="C524" s="17"/>
@@ -13032,7 +13078,7 @@
       <c r="T524" s="11"/>
       <c r="U524" s="11"/>
     </row>
-    <row r="525" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:21" ht="18" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="27"/>
       <c r="C525" s="17"/>
@@ -13055,7 +13101,7 @@
       <c r="T525" s="11"/>
       <c r="U525" s="11"/>
     </row>
-    <row r="526" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:21" ht="18" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="27"/>
       <c r="C526" s="17"/>
@@ -13078,7 +13124,7 @@
       <c r="T526" s="11"/>
       <c r="U526" s="11"/>
     </row>
-    <row r="527" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:21" ht="18" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="27"/>
       <c r="C527" s="17"/>
@@ -13101,7 +13147,7 @@
       <c r="T527" s="11"/>
       <c r="U527" s="11"/>
     </row>
-    <row r="528" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:21" ht="18" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="27"/>
       <c r="C528" s="17"/>
@@ -13124,7 +13170,7 @@
       <c r="T528" s="11"/>
       <c r="U528" s="11"/>
     </row>
-    <row r="529" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:21" ht="18" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="27"/>
       <c r="C529" s="17"/>
@@ -13147,7 +13193,7 @@
       <c r="T529" s="11"/>
       <c r="U529" s="11"/>
     </row>
-    <row r="530" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:21" ht="18" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="27"/>
       <c r="C530" s="17"/>
@@ -13170,7 +13216,7 @@
       <c r="T530" s="11"/>
       <c r="U530" s="11"/>
     </row>
-    <row r="531" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:21" ht="18" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="27"/>
       <c r="C531" s="17"/>
@@ -13193,7 +13239,7 @@
       <c r="T531" s="11"/>
       <c r="U531" s="11"/>
     </row>
-    <row r="532" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:21" ht="18" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="27"/>
       <c r="C532" s="17"/>
@@ -13216,7 +13262,7 @@
       <c r="T532" s="11"/>
       <c r="U532" s="11"/>
     </row>
-    <row r="533" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:21" ht="18" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="27"/>
       <c r="C533" s="17"/>
@@ -13239,7 +13285,7 @@
       <c r="T533" s="11"/>
       <c r="U533" s="11"/>
     </row>
-    <row r="534" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:21" ht="18" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="27"/>
       <c r="C534" s="17"/>
@@ -13262,7 +13308,7 @@
       <c r="T534" s="11"/>
       <c r="U534" s="11"/>
     </row>
-    <row r="535" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:21" ht="18" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="27"/>
       <c r="C535" s="17"/>
@@ -13285,7 +13331,7 @@
       <c r="T535" s="11"/>
       <c r="U535" s="11"/>
     </row>
-    <row r="536" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:21" ht="18" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="27"/>
       <c r="C536" s="17"/>
@@ -13308,7 +13354,7 @@
       <c r="T536" s="11"/>
       <c r="U536" s="11"/>
     </row>
-    <row r="537" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:21" ht="18" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="27"/>
       <c r="C537" s="17"/>
@@ -13331,7 +13377,7 @@
       <c r="T537" s="11"/>
       <c r="U537" s="11"/>
     </row>
-    <row r="538" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:21" ht="18" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="27"/>
       <c r="C538" s="17"/>
@@ -13354,7 +13400,7 @@
       <c r="T538" s="11"/>
       <c r="U538" s="11"/>
     </row>
-    <row r="539" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:21" ht="18" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="27"/>
       <c r="C539" s="17"/>
@@ -13377,7 +13423,7 @@
       <c r="T539" s="11"/>
       <c r="U539" s="11"/>
     </row>
-    <row r="540" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:21" ht="18" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="27"/>
       <c r="C540" s="17"/>
@@ -13400,7 +13446,7 @@
       <c r="T540" s="11"/>
       <c r="U540" s="11"/>
     </row>
-    <row r="541" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:21" ht="18" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="27"/>
       <c r="C541" s="17"/>
@@ -13423,7 +13469,7 @@
       <c r="T541" s="11"/>
       <c r="U541" s="11"/>
     </row>
-    <row r="542" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:21" ht="18" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="27"/>
       <c r="C542" s="17"/>
@@ -13446,7 +13492,7 @@
       <c r="T542" s="11"/>
       <c r="U542" s="11"/>
     </row>
-    <row r="543" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:21" ht="18" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="27"/>
       <c r="C543" s="17"/>
@@ -13469,7 +13515,7 @@
       <c r="T543" s="11"/>
       <c r="U543" s="11"/>
     </row>
-    <row r="544" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:21" ht="18" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="27"/>
       <c r="C544" s="17"/>
@@ -13492,7 +13538,7 @@
       <c r="T544" s="11"/>
       <c r="U544" s="11"/>
     </row>
-    <row r="545" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:21" ht="18" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="27"/>
       <c r="C545" s="17"/>
@@ -13515,7 +13561,7 @@
       <c r="T545" s="11"/>
       <c r="U545" s="11"/>
     </row>
-    <row r="546" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:21" ht="18" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="27"/>
       <c r="C546" s="17"/>
@@ -13538,7 +13584,7 @@
       <c r="T546" s="11"/>
       <c r="U546" s="11"/>
     </row>
-    <row r="547" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:21" ht="18" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="27"/>
       <c r="C547" s="17"/>
@@ -13561,7 +13607,7 @@
       <c r="T547" s="11"/>
       <c r="U547" s="11"/>
     </row>
-    <row r="548" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:21" ht="18" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="27"/>
       <c r="C548" s="17"/>
@@ -13584,7 +13630,7 @@
       <c r="T548" s="11"/>
       <c r="U548" s="11"/>
     </row>
-    <row r="549" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:21" ht="18" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="27"/>
       <c r="C549" s="17"/>
@@ -13607,7 +13653,7 @@
       <c r="T549" s="11"/>
       <c r="U549" s="11"/>
     </row>
-    <row r="550" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:21" ht="18" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="27"/>
       <c r="C550" s="17"/>
@@ -13630,7 +13676,7 @@
       <c r="T550" s="11"/>
       <c r="U550" s="11"/>
     </row>
-    <row r="551" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:21" ht="18" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="27"/>
       <c r="C551" s="17"/>
@@ -13653,7 +13699,7 @@
       <c r="T551" s="11"/>
       <c r="U551" s="11"/>
     </row>
-    <row r="552" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:21" ht="18" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="27"/>
       <c r="C552" s="17"/>
@@ -13676,7 +13722,7 @@
       <c r="T552" s="11"/>
       <c r="U552" s="11"/>
     </row>
-    <row r="553" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:21" ht="18" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="27"/>
       <c r="C553" s="17"/>
@@ -13699,7 +13745,7 @@
       <c r="T553" s="11"/>
       <c r="U553" s="11"/>
     </row>
-    <row r="554" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:21" ht="18" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="27"/>
       <c r="C554" s="17"/>
@@ -13722,7 +13768,7 @@
       <c r="T554" s="11"/>
       <c r="U554" s="11"/>
     </row>
-    <row r="555" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:21" ht="18" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="27"/>
       <c r="C555" s="17"/>
@@ -13745,7 +13791,7 @@
       <c r="T555" s="11"/>
       <c r="U555" s="11"/>
     </row>
-    <row r="556" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:21" ht="18" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="27"/>
       <c r="C556" s="17"/>
@@ -13768,7 +13814,7 @@
       <c r="T556" s="11"/>
       <c r="U556" s="11"/>
     </row>
-    <row r="557" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:21" ht="18" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="27"/>
       <c r="C557" s="17"/>
@@ -13791,7 +13837,7 @@
       <c r="T557" s="11"/>
       <c r="U557" s="11"/>
     </row>
-    <row r="558" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:21" ht="18" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="27"/>
       <c r="C558" s="17"/>
@@ -13814,7 +13860,7 @@
       <c r="T558" s="11"/>
       <c r="U558" s="11"/>
     </row>
-    <row r="559" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:21" ht="18" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="27"/>
       <c r="C559" s="17"/>
@@ -13837,7 +13883,7 @@
       <c r="T559" s="11"/>
       <c r="U559" s="11"/>
     </row>
-    <row r="560" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:21" ht="18" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="27"/>
       <c r="C560" s="17"/>
@@ -13860,7 +13906,7 @@
       <c r="T560" s="11"/>
       <c r="U560" s="11"/>
     </row>
-    <row r="561" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:21" ht="18" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="27"/>
       <c r="C561" s="17"/>
@@ -13883,7 +13929,7 @@
       <c r="T561" s="11"/>
       <c r="U561" s="11"/>
     </row>
-    <row r="562" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:21" ht="18" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="27"/>
       <c r="C562" s="17"/>
@@ -13906,7 +13952,7 @@
       <c r="T562" s="11"/>
       <c r="U562" s="11"/>
     </row>
-    <row r="563" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:21" ht="18" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="27"/>
       <c r="C563" s="17"/>
@@ -13929,7 +13975,7 @@
       <c r="T563" s="11"/>
       <c r="U563" s="11"/>
     </row>
-    <row r="564" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:21" ht="18" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="27"/>
       <c r="C564" s="17"/>
@@ -13952,7 +13998,7 @@
       <c r="T564" s="11"/>
       <c r="U564" s="11"/>
     </row>
-    <row r="565" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:21" ht="18" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="27"/>
       <c r="C565" s="17"/>
@@ -13975,7 +14021,7 @@
       <c r="T565" s="11"/>
       <c r="U565" s="11"/>
     </row>
-    <row r="566" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:21" ht="18" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="27"/>
       <c r="C566" s="17"/>
@@ -13998,7 +14044,7 @@
       <c r="T566" s="11"/>
       <c r="U566" s="11"/>
     </row>
-    <row r="567" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:21" ht="18" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="27"/>
       <c r="C567" s="17"/>
@@ -14021,7 +14067,7 @@
       <c r="T567" s="11"/>
       <c r="U567" s="11"/>
     </row>
-    <row r="568" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:21" ht="18" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="27"/>
       <c r="C568" s="17"/>
@@ -14044,7 +14090,7 @@
       <c r="T568" s="11"/>
       <c r="U568" s="11"/>
     </row>
-    <row r="569" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:21" ht="18" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="27"/>
       <c r="C569" s="17"/>
@@ -14067,7 +14113,7 @@
       <c r="T569" s="11"/>
       <c r="U569" s="11"/>
     </row>
-    <row r="570" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:21" ht="18" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="27"/>
       <c r="C570" s="17"/>
@@ -14090,7 +14136,7 @@
       <c r="T570" s="11"/>
       <c r="U570" s="11"/>
     </row>
-    <row r="571" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:21" ht="18" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="27"/>
       <c r="C571" s="17"/>
@@ -14113,7 +14159,7 @@
       <c r="T571" s="11"/>
       <c r="U571" s="11"/>
     </row>
-    <row r="572" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:21" ht="18" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="27"/>
       <c r="C572" s="17"/>
@@ -14136,7 +14182,7 @@
       <c r="T572" s="11"/>
       <c r="U572" s="11"/>
     </row>
-    <row r="573" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:21" ht="18" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="27"/>
       <c r="C573" s="17"/>
@@ -14159,7 +14205,7 @@
       <c r="T573" s="11"/>
       <c r="U573" s="11"/>
     </row>
-    <row r="574" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:21" ht="18" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="27"/>
       <c r="C574" s="17"/>
@@ -14182,7 +14228,7 @@
       <c r="T574" s="11"/>
       <c r="U574" s="11"/>
     </row>
-    <row r="575" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:21" ht="18" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="27"/>
       <c r="C575" s="17"/>
@@ -14205,7 +14251,7 @@
       <c r="T575" s="11"/>
       <c r="U575" s="11"/>
     </row>
-    <row r="576" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:21" ht="18" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="27"/>
       <c r="C576" s="17"/>
@@ -14228,7 +14274,7 @@
       <c r="T576" s="11"/>
       <c r="U576" s="11"/>
     </row>
-    <row r="577" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:21" ht="18" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="27"/>
       <c r="C577" s="17"/>
@@ -14251,7 +14297,7 @@
       <c r="T577" s="11"/>
       <c r="U577" s="11"/>
     </row>
-    <row r="578" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:21" ht="18" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="27"/>
       <c r="C578" s="17"/>
@@ -14274,7 +14320,7 @@
       <c r="T578" s="11"/>
       <c r="U578" s="11"/>
     </row>
-    <row r="579" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:21" ht="18" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="27"/>
       <c r="C579" s="17"/>
@@ -14297,7 +14343,7 @@
       <c r="T579" s="11"/>
       <c r="U579" s="11"/>
     </row>
-    <row r="580" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:21" ht="18" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="27"/>
       <c r="C580" s="17"/>
@@ -14320,7 +14366,7 @@
       <c r="T580" s="11"/>
       <c r="U580" s="11"/>
     </row>
-    <row r="581" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:21" ht="18" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="27"/>
       <c r="C581" s="17"/>
@@ -14343,7 +14389,7 @@
       <c r="T581" s="11"/>
       <c r="U581" s="11"/>
     </row>
-    <row r="582" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:21" ht="18" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="27"/>
       <c r="C582" s="17"/>
@@ -14366,7 +14412,7 @@
       <c r="T582" s="11"/>
       <c r="U582" s="11"/>
     </row>
-    <row r="583" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:21" ht="18" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="27"/>
       <c r="C583" s="17"/>
@@ -14389,7 +14435,7 @@
       <c r="T583" s="11"/>
       <c r="U583" s="11"/>
     </row>
-    <row r="584" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:21" ht="18" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="27"/>
       <c r="C584" s="17"/>
@@ -14412,7 +14458,7 @@
       <c r="T584" s="11"/>
       <c r="U584" s="11"/>
     </row>
-    <row r="585" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:21" ht="18" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="27"/>
       <c r="C585" s="17"/>
@@ -14435,7 +14481,7 @@
       <c r="T585" s="11"/>
       <c r="U585" s="11"/>
     </row>
-    <row r="586" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:21" ht="18" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="27"/>
       <c r="C586" s="17"/>
@@ -14458,7 +14504,7 @@
       <c r="T586" s="11"/>
       <c r="U586" s="11"/>
     </row>
-    <row r="587" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:21" ht="18" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="27"/>
       <c r="C587" s="17"/>
@@ -14481,7 +14527,7 @@
       <c r="T587" s="11"/>
       <c r="U587" s="11"/>
     </row>
-    <row r="588" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:21" ht="18" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="27"/>
       <c r="C588" s="17"/>
@@ -14504,7 +14550,7 @@
       <c r="T588" s="11"/>
       <c r="U588" s="11"/>
     </row>
-    <row r="589" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:21" ht="18" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="27"/>
       <c r="C589" s="17"/>
@@ -14527,7 +14573,7 @@
       <c r="T589" s="11"/>
       <c r="U589" s="11"/>
     </row>
-    <row r="590" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:21" ht="18" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="27"/>
       <c r="C590" s="17"/>
@@ -14550,7 +14596,7 @@
       <c r="T590" s="11"/>
       <c r="U590" s="11"/>
     </row>
-    <row r="591" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:21" ht="18" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="27"/>
       <c r="C591" s="17"/>
@@ -14573,7 +14619,7 @@
       <c r="T591" s="11"/>
       <c r="U591" s="11"/>
     </row>
-    <row r="592" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:21" ht="18" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="27"/>
       <c r="C592" s="17"/>
@@ -14596,7 +14642,7 @@
       <c r="T592" s="11"/>
       <c r="U592" s="11"/>
     </row>
-    <row r="593" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:21" ht="18" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="27"/>
       <c r="C593" s="17"/>
@@ -14619,7 +14665,7 @@
       <c r="T593" s="11"/>
       <c r="U593" s="11"/>
     </row>
-    <row r="594" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:21" ht="18" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="27"/>
       <c r="C594" s="17"/>
@@ -14642,7 +14688,7 @@
       <c r="T594" s="11"/>
       <c r="U594" s="11"/>
     </row>
-    <row r="595" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:21" ht="18" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="27"/>
       <c r="C595" s="17"/>
@@ -14665,7 +14711,7 @@
       <c r="T595" s="11"/>
       <c r="U595" s="11"/>
     </row>
-    <row r="596" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:21" ht="18" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="27"/>
       <c r="C596" s="17"/>
@@ -14688,7 +14734,7 @@
       <c r="T596" s="11"/>
       <c r="U596" s="11"/>
     </row>
-    <row r="597" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:21" ht="18" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="27"/>
       <c r="C597" s="17"/>
@@ -14711,7 +14757,7 @@
       <c r="T597" s="11"/>
       <c r="U597" s="11"/>
     </row>
-    <row r="598" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:21" ht="18" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="27"/>
       <c r="C598" s="17"/>
@@ -14734,7 +14780,7 @@
       <c r="T598" s="11"/>
       <c r="U598" s="11"/>
     </row>
-    <row r="599" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:21" ht="18" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="27"/>
       <c r="C599" s="17"/>
@@ -14757,7 +14803,7 @@
       <c r="T599" s="11"/>
       <c r="U599" s="11"/>
     </row>
-    <row r="600" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:21" ht="18" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="27"/>
       <c r="C600" s="17"/>
@@ -14780,7 +14826,7 @@
       <c r="T600" s="11"/>
       <c r="U600" s="11"/>
     </row>
-    <row r="601" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:21" ht="18" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="27"/>
       <c r="C601" s="17"/>
@@ -14803,7 +14849,7 @@
       <c r="T601" s="11"/>
       <c r="U601" s="11"/>
     </row>
-    <row r="602" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:21" ht="18" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="27"/>
       <c r="C602" s="17"/>
@@ -14826,7 +14872,7 @@
       <c r="T602" s="11"/>
       <c r="U602" s="11"/>
     </row>
-    <row r="603" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:21" ht="18" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="27"/>
       <c r="C603" s="17"/>
@@ -14849,7 +14895,7 @@
       <c r="T603" s="11"/>
       <c r="U603" s="11"/>
     </row>
-    <row r="604" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:21" ht="18" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="27"/>
       <c r="C604" s="17"/>
@@ -14872,7 +14918,7 @@
       <c r="T604" s="11"/>
       <c r="U604" s="11"/>
     </row>
-    <row r="605" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:21" ht="18" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="27"/>
       <c r="C605" s="17"/>
@@ -14895,7 +14941,7 @@
       <c r="T605" s="11"/>
       <c r="U605" s="11"/>
     </row>
-    <row r="606" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:21" ht="18" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="27"/>
       <c r="C606" s="17"/>
@@ -14918,7 +14964,7 @@
       <c r="T606" s="11"/>
       <c r="U606" s="11"/>
     </row>
-    <row r="607" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:21" ht="18" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="27"/>
       <c r="C607" s="17"/>
@@ -14941,7 +14987,7 @@
       <c r="T607" s="11"/>
       <c r="U607" s="11"/>
     </row>
-    <row r="608" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:21" ht="18" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="27"/>
       <c r="C608" s="17"/>
@@ -14964,7 +15010,7 @@
       <c r="T608" s="11"/>
       <c r="U608" s="11"/>
     </row>
-    <row r="609" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:21" ht="18" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="27"/>
       <c r="C609" s="17"/>
@@ -14987,7 +15033,7 @@
       <c r="T609" s="11"/>
       <c r="U609" s="11"/>
     </row>
-    <row r="610" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:21" ht="18" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="27"/>
       <c r="C610" s="17"/>
@@ -15010,7 +15056,7 @@
       <c r="T610" s="11"/>
       <c r="U610" s="11"/>
     </row>
-    <row r="611" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:21" ht="18" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="27"/>
       <c r="C611" s="17"/>
@@ -15033,7 +15079,7 @@
       <c r="T611" s="11"/>
       <c r="U611" s="11"/>
     </row>
-    <row r="612" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:21" ht="18" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="27"/>
       <c r="C612" s="17"/>
@@ -15056,7 +15102,7 @@
       <c r="T612" s="11"/>
       <c r="U612" s="11"/>
     </row>
-    <row r="613" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:21" ht="18" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="27"/>
       <c r="C613" s="17"/>
@@ -15079,7 +15125,7 @@
       <c r="T613" s="11"/>
       <c r="U613" s="11"/>
     </row>
-    <row r="614" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:21" ht="18" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="27"/>
       <c r="C614" s="17"/>
@@ -15102,7 +15148,7 @@
       <c r="T614" s="11"/>
       <c r="U614" s="11"/>
     </row>
-    <row r="615" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:21" ht="18" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="27"/>
       <c r="C615" s="17"/>
@@ -15125,7 +15171,7 @@
       <c r="T615" s="11"/>
       <c r="U615" s="11"/>
     </row>
-    <row r="616" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:21" ht="18" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="27"/>
       <c r="C616" s="17"/>
@@ -15148,7 +15194,7 @@
       <c r="T616" s="11"/>
       <c r="U616" s="11"/>
     </row>
-    <row r="617" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:21" ht="18" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="27"/>
       <c r="C617" s="17"/>
@@ -15171,7 +15217,7 @@
       <c r="T617" s="11"/>
       <c r="U617" s="11"/>
     </row>
-    <row r="618" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:21" ht="18" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="27"/>
       <c r="C618" s="17"/>
@@ -15194,7 +15240,7 @@
       <c r="T618" s="11"/>
       <c r="U618" s="11"/>
     </row>
-    <row r="619" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:21" ht="18" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="27"/>
       <c r="C619" s="17"/>
@@ -15217,7 +15263,7 @@
       <c r="T619" s="11"/>
       <c r="U619" s="11"/>
     </row>
-    <row r="620" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:21" ht="18" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="27"/>
       <c r="C620" s="17"/>
@@ -15240,7 +15286,7 @@
       <c r="T620" s="11"/>
       <c r="U620" s="11"/>
     </row>
-    <row r="621" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:21" ht="18" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="27"/>
       <c r="C621" s="17"/>
@@ -15263,7 +15309,7 @@
       <c r="T621" s="11"/>
       <c r="U621" s="11"/>
     </row>
-    <row r="622" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:21" ht="18" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="27"/>
       <c r="C622" s="17"/>
@@ -15286,7 +15332,7 @@
       <c r="T622" s="11"/>
       <c r="U622" s="11"/>
     </row>
-    <row r="623" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:21" ht="18" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="27"/>
       <c r="C623" s="17"/>
@@ -15309,7 +15355,7 @@
       <c r="T623" s="11"/>
       <c r="U623" s="11"/>
     </row>
-    <row r="624" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:21" ht="18" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="27"/>
       <c r="C624" s="17"/>
@@ -15332,7 +15378,7 @@
       <c r="T624" s="11"/>
       <c r="U624" s="11"/>
     </row>
-    <row r="625" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:21" ht="18" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="27"/>
       <c r="C625" s="17"/>
@@ -15355,7 +15401,7 @@
       <c r="T625" s="11"/>
       <c r="U625" s="11"/>
     </row>
-    <row r="626" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:21" ht="18" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="27"/>
       <c r="C626" s="17"/>
@@ -15378,7 +15424,7 @@
       <c r="T626" s="11"/>
       <c r="U626" s="11"/>
     </row>
-    <row r="627" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:21" ht="18" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="27"/>
       <c r="C627" s="17"/>
@@ -15401,7 +15447,7 @@
       <c r="T627" s="11"/>
       <c r="U627" s="11"/>
     </row>
-    <row r="628" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:21" ht="18" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="27"/>
       <c r="C628" s="17"/>
@@ -15424,7 +15470,7 @@
       <c r="T628" s="11"/>
       <c r="U628" s="11"/>
     </row>
-    <row r="629" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:21" ht="18" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="27"/>
       <c r="C629" s="17"/>
@@ -15447,7 +15493,7 @@
       <c r="T629" s="11"/>
       <c r="U629" s="11"/>
     </row>
-    <row r="630" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:21" ht="18" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="27"/>
       <c r="C630" s="17"/>
@@ -15470,7 +15516,7 @@
       <c r="T630" s="11"/>
       <c r="U630" s="11"/>
     </row>
-    <row r="631" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:21" ht="18" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="27"/>
       <c r="C631" s="17"/>
@@ -15493,7 +15539,7 @@
       <c r="T631" s="11"/>
       <c r="U631" s="11"/>
     </row>
-    <row r="632" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:21" ht="18" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="27"/>
       <c r="C632" s="17"/>
@@ -15516,7 +15562,7 @@
       <c r="T632" s="11"/>
       <c r="U632" s="11"/>
     </row>
-    <row r="633" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:21" ht="18" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="27"/>
       <c r="C633" s="17"/>
@@ -15539,7 +15585,7 @@
       <c r="T633" s="11"/>
       <c r="U633" s="11"/>
     </row>
-    <row r="634" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:21" ht="18" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="27"/>
       <c r="C634" s="17"/>
@@ -15562,7 +15608,7 @@
       <c r="T634" s="11"/>
       <c r="U634" s="11"/>
     </row>
-    <row r="635" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:21" ht="18" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="27"/>
       <c r="C635" s="17"/>
@@ -15585,7 +15631,7 @@
       <c r="T635" s="11"/>
       <c r="U635" s="11"/>
     </row>
-    <row r="636" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:21" ht="18" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="27"/>
       <c r="C636" s="17"/>
@@ -15608,7 +15654,7 @@
       <c r="T636" s="11"/>
       <c r="U636" s="11"/>
     </row>
-    <row r="637" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:21" ht="18" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="27"/>
       <c r="C637" s="17"/>
@@ -15631,7 +15677,7 @@
       <c r="T637" s="11"/>
       <c r="U637" s="11"/>
     </row>
-    <row r="638" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:21" ht="18" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="27"/>
       <c r="C638" s="17"/>
@@ -15654,7 +15700,7 @@
       <c r="T638" s="11"/>
       <c r="U638" s="11"/>
     </row>
-    <row r="639" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:21" ht="18" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="27"/>
       <c r="C639" s="17"/>
@@ -15677,7 +15723,7 @@
       <c r="T639" s="11"/>
       <c r="U639" s="11"/>
     </row>
-    <row r="640" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:21" ht="18" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="27"/>
       <c r="C640" s="17"/>
@@ -15700,7 +15746,7 @@
       <c r="T640" s="11"/>
       <c r="U640" s="11"/>
     </row>
-    <row r="641" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:21" ht="18" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="27"/>
       <c r="C641" s="17"/>
@@ -15723,7 +15769,7 @@
       <c r="T641" s="11"/>
       <c r="U641" s="11"/>
     </row>
-    <row r="642" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:21" ht="18" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="27"/>
       <c r="C642" s="17"/>
@@ -15746,7 +15792,7 @@
       <c r="T642" s="11"/>
       <c r="U642" s="11"/>
     </row>
-    <row r="643" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:21" ht="18" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="27"/>
       <c r="C643" s="17"/>
@@ -15769,7 +15815,7 @@
       <c r="T643" s="11"/>
       <c r="U643" s="11"/>
     </row>
-    <row r="644" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:21" ht="18" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="27"/>
       <c r="C644" s="17"/>
@@ -15792,7 +15838,7 @@
       <c r="T644" s="11"/>
       <c r="U644" s="11"/>
     </row>
-    <row r="645" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:21" ht="18" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="27"/>
       <c r="C645" s="17"/>
@@ -15815,7 +15861,7 @@
       <c r="T645" s="11"/>
       <c r="U645" s="11"/>
     </row>
-    <row r="646" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:21" ht="18" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="27"/>
       <c r="C646" s="17"/>
@@ -15838,7 +15884,7 @@
       <c r="T646" s="11"/>
       <c r="U646" s="11"/>
     </row>
-    <row r="647" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:21" ht="18" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="27"/>
       <c r="C647" s="17"/>
@@ -15861,7 +15907,7 @@
       <c r="T647" s="11"/>
       <c r="U647" s="11"/>
     </row>
-    <row r="648" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:21" ht="18" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="27"/>
       <c r="C648" s="17"/>
@@ -15884,7 +15930,7 @@
       <c r="T648" s="11"/>
       <c r="U648" s="11"/>
     </row>
-    <row r="649" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:21" ht="18" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="27"/>
       <c r="C649" s="17"/>
@@ -15907,7 +15953,7 @@
       <c r="T649" s="11"/>
       <c r="U649" s="11"/>
     </row>
-    <row r="650" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:21" ht="18" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="27"/>
       <c r="C650" s="17"/>
@@ -15930,7 +15976,7 @@
       <c r="T650" s="11"/>
       <c r="U650" s="11"/>
     </row>
-    <row r="651" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:21" ht="18" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="27"/>
       <c r="C651" s="17"/>
@@ -15953,7 +15999,7 @@
       <c r="T651" s="11"/>
       <c r="U651" s="11"/>
     </row>
-    <row r="652" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:21" ht="18" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="27"/>
       <c r="C652" s="17"/>
@@ -15976,7 +16022,7 @@
       <c r="T652" s="11"/>
       <c r="U652" s="11"/>
     </row>
-    <row r="653" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:21" ht="18" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="27"/>
       <c r="C653" s="17"/>
@@ -15999,7 +16045,7 @@
       <c r="T653" s="11"/>
       <c r="U653" s="11"/>
     </row>
-    <row r="654" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:21" ht="18" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="27"/>
       <c r="C654" s="17"/>
@@ -16022,7 +16068,7 @@
       <c r="T654" s="11"/>
       <c r="U654" s="11"/>
     </row>
-    <row r="655" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:21" ht="18" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="27"/>
       <c r="C655" s="17"/>
@@ -16045,7 +16091,7 @@
       <c r="T655" s="11"/>
       <c r="U655" s="11"/>
     </row>
-    <row r="656" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:21" ht="18" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="27"/>
       <c r="C656" s="17"/>
@@ -16068,7 +16114,7 @@
       <c r="T656" s="11"/>
       <c r="U656" s="11"/>
     </row>
-    <row r="657" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:21" ht="18" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="27"/>
       <c r="C657" s="17"/>
@@ -16091,7 +16137,7 @@
       <c r="T657" s="11"/>
       <c r="U657" s="11"/>
     </row>
-    <row r="658" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:21" ht="18" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="27"/>
       <c r="C658" s="17"/>
@@ -16114,7 +16160,7 @@
       <c r="T658" s="11"/>
       <c r="U658" s="11"/>
     </row>
-    <row r="659" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:21" ht="18" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="27"/>
       <c r="C659" s="17"/>
@@ -16137,7 +16183,7 @@
       <c r="T659" s="11"/>
       <c r="U659" s="11"/>
     </row>
-    <row r="660" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:21" ht="18" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="27"/>
       <c r="C660" s="17"/>
@@ -16160,7 +16206,7 @@
       <c r="T660" s="11"/>
       <c r="U660" s="11"/>
     </row>
-    <row r="661" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:21" ht="18" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="27"/>
       <c r="C661" s="17"/>
@@ -16183,7 +16229,7 @@
       <c r="T661" s="11"/>
       <c r="U661" s="11"/>
     </row>
-    <row r="662" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:21" ht="18" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="27"/>
       <c r="C662" s="17"/>
@@ -16206,7 +16252,7 @@
       <c r="T662" s="11"/>
       <c r="U662" s="11"/>
     </row>
-    <row r="663" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:21" ht="18" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="27"/>
       <c r="C663" s="17"/>
@@ -16229,7 +16275,7 @@
       <c r="T663" s="11"/>
       <c r="U663" s="11"/>
     </row>
-    <row r="664" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:21" ht="18" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="27"/>
       <c r="C664" s="17"/>
@@ -16252,7 +16298,7 @@
       <c r="T664" s="11"/>
       <c r="U664" s="11"/>
     </row>
-    <row r="665" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:21" ht="18" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="27"/>
       <c r="C665" s="17"/>
@@ -16275,7 +16321,7 @@
       <c r="T665" s="11"/>
       <c r="U665" s="11"/>
     </row>
-    <row r="666" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:21" ht="18" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="27"/>
       <c r="C666" s="17"/>
@@ -16298,7 +16344,7 @@
       <c r="T666" s="11"/>
       <c r="U666" s="11"/>
     </row>
-    <row r="667" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:21" ht="18" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="27"/>
       <c r="C667" s="17"/>
@@ -16321,7 +16367,7 @@
       <c r="T667" s="11"/>
       <c r="U667" s="11"/>
     </row>
-    <row r="668" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:21" ht="18" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="27"/>
       <c r="C668" s="17"/>
@@ -16344,7 +16390,7 @@
       <c r="T668" s="11"/>
       <c r="U668" s="11"/>
     </row>
-    <row r="669" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:21" ht="18" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="27"/>
       <c r="C669" s="17"/>
@@ -16367,7 +16413,7 @@
       <c r="T669" s="11"/>
       <c r="U669" s="11"/>
     </row>
-    <row r="670" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:21" ht="18" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="27"/>
       <c r="C670" s="17"/>
@@ -16390,7 +16436,7 @@
       <c r="T670" s="11"/>
       <c r="U670" s="11"/>
     </row>
-    <row r="671" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:21" ht="18" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="27"/>
       <c r="C671" s="17"/>
@@ -16413,7 +16459,7 @@
       <c r="T671" s="11"/>
       <c r="U671" s="11"/>
     </row>
-    <row r="672" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:21" ht="18" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="27"/>
       <c r="C672" s="17"/>
@@ -16436,7 +16482,7 @@
       <c r="T672" s="11"/>
       <c r="U672" s="11"/>
     </row>
-    <row r="673" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:21" ht="18" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="27"/>
       <c r="C673" s="17"/>
@@ -16459,7 +16505,7 @@
       <c r="T673" s="11"/>
       <c r="U673" s="11"/>
     </row>
-    <row r="674" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:21" ht="18" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="27"/>
       <c r="C674" s="17"/>
@@ -16482,7 +16528,7 @@
       <c r="T674" s="11"/>
       <c r="U674" s="11"/>
     </row>
-    <row r="675" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:21" ht="18" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="27"/>
       <c r="C675" s="17"/>
@@ -16505,7 +16551,7 @@
       <c r="T675" s="11"/>
       <c r="U675" s="11"/>
     </row>
-    <row r="676" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:21" ht="18" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="27"/>
       <c r="C676" s="17"/>
@@ -16528,7 +16574,7 @@
       <c r="T676" s="11"/>
       <c r="U676" s="11"/>
     </row>
-    <row r="677" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:21" ht="18" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="27"/>
       <c r="C677" s="17"/>
@@ -16551,7 +16597,7 @@
       <c r="T677" s="11"/>
       <c r="U677" s="11"/>
     </row>
-    <row r="678" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:21" ht="18" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="27"/>
       <c r="C678" s="17"/>
@@ -16574,7 +16620,7 @@
       <c r="T678" s="11"/>
       <c r="U678" s="11"/>
     </row>
-    <row r="679" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:21" ht="18" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="27"/>
       <c r="C679" s="17"/>
@@ -16597,7 +16643,7 @@
       <c r="T679" s="11"/>
       <c r="U679" s="11"/>
     </row>
-    <row r="680" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:21" ht="18" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="27"/>
       <c r="C680" s="17"/>
@@ -16620,7 +16666,7 @@
       <c r="T680" s="11"/>
       <c r="U680" s="11"/>
     </row>
-    <row r="681" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:21" ht="18" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="27"/>
       <c r="C681" s="17"/>
@@ -16643,7 +16689,7 @@
       <c r="T681" s="11"/>
       <c r="U681" s="11"/>
     </row>
-    <row r="682" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:21" ht="18" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="27"/>
       <c r="C682" s="17"/>
@@ -16666,7 +16712,7 @@
       <c r="T682" s="11"/>
       <c r="U682" s="11"/>
     </row>
-    <row r="683" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:21" ht="18" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="27"/>
       <c r="C683" s="17"/>
@@ -16689,7 +16735,7 @@
       <c r="T683" s="11"/>
       <c r="U683" s="11"/>
     </row>
-    <row r="684" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:21" ht="18" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="27"/>
       <c r="C684" s="17"/>
@@ -16712,7 +16758,7 @@
       <c r="T684" s="11"/>
       <c r="U684" s="11"/>
     </row>
-    <row r="685" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:21" ht="18" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="27"/>
       <c r="C685" s="17"/>
@@ -16735,7 +16781,7 @@
       <c r="T685" s="11"/>
       <c r="U685" s="11"/>
     </row>
-    <row r="686" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:21" ht="18" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="27"/>
       <c r="C686" s="17"/>
@@ -16758,7 +16804,7 @@
       <c r="T686" s="11"/>
       <c r="U686" s="11"/>
     </row>
-    <row r="687" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:21" ht="18" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="27"/>
       <c r="C687" s="17"/>
@@ -16781,7 +16827,7 @@
       <c r="T687" s="11"/>
       <c r="U687" s="11"/>
     </row>
-    <row r="688" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:21" ht="18" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="27"/>
       <c r="C688" s="17"/>
@@ -16804,7 +16850,7 @@
       <c r="T688" s="11"/>
       <c r="U688" s="11"/>
     </row>
-    <row r="689" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:21" ht="18" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="27"/>
       <c r="C689" s="17"/>
@@ -16827,7 +16873,7 @@
       <c r="T689" s="11"/>
       <c r="U689" s="11"/>
     </row>
-    <row r="690" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:21" ht="18" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="27"/>
       <c r="C690" s="17"/>
@@ -16850,7 +16896,7 @@
       <c r="T690" s="11"/>
       <c r="U690" s="11"/>
     </row>
-    <row r="691" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:21" ht="18" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="27"/>
       <c r="C691" s="17"/>
@@ -16873,7 +16919,7 @@
       <c r="T691" s="11"/>
       <c r="U691" s="11"/>
     </row>
-    <row r="692" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:21" ht="18" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="27"/>
       <c r="C692" s="17"/>
@@ -16896,7 +16942,7 @@
       <c r="T692" s="11"/>
       <c r="U692" s="11"/>
     </row>
-    <row r="693" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:21" ht="18" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="27"/>
       <c r="C693" s="17"/>
@@ -16919,7 +16965,7 @@
       <c r="T693" s="11"/>
       <c r="U693" s="11"/>
     </row>
-    <row r="694" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:21" ht="18" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="27"/>
       <c r="C694" s="17"/>
@@ -16942,7 +16988,7 @@
       <c r="T694" s="11"/>
       <c r="U694" s="11"/>
     </row>
-    <row r="695" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:21" ht="18" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="27"/>
       <c r="C695" s="17"/>
@@ -16965,7 +17011,7 @@
       <c r="T695" s="11"/>
       <c r="U695" s="11"/>
     </row>
-    <row r="696" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:21" ht="18" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="27"/>
       <c r="C696" s="17"/>
@@ -16988,7 +17034,7 @@
       <c r="T696" s="11"/>
       <c r="U696" s="11"/>
     </row>
-    <row r="697" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:21" ht="18" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="27"/>
       <c r="C697" s="17"/>
@@ -17011,7 +17057,7 @@
       <c r="T697" s="11"/>
       <c r="U697" s="11"/>
     </row>
-    <row r="698" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:21" ht="18" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="27"/>
       <c r="C698" s="17"/>
@@ -17034,7 +17080,7 @@
       <c r="T698" s="11"/>
       <c r="U698" s="11"/>
     </row>
-    <row r="699" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:21" ht="18" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="27"/>
       <c r="C699" s="17"/>
@@ -17057,7 +17103,7 @@
       <c r="T699" s="11"/>
       <c r="U699" s="11"/>
     </row>
-    <row r="700" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:21" ht="18" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="27"/>
       <c r="C700" s="17"/>
@@ -17080,7 +17126,7 @@
       <c r="T700" s="11"/>
       <c r="U700" s="11"/>
     </row>
-    <row r="701" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:21" ht="18" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="27"/>
       <c r="C701" s="17"/>
@@ -17103,7 +17149,7 @@
       <c r="T701" s="11"/>
       <c r="U701" s="11"/>
     </row>
-    <row r="702" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:21" ht="18" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="27"/>
       <c r="C702" s="17"/>
@@ -17126,7 +17172,7 @@
       <c r="T702" s="11"/>
       <c r="U702" s="11"/>
     </row>
-    <row r="703" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:21" ht="18" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="27"/>
       <c r="C703" s="17"/>
@@ -17149,7 +17195,7 @@
       <c r="T703" s="11"/>
       <c r="U703" s="11"/>
     </row>
-    <row r="704" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:21" ht="18" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="27"/>
       <c r="C704" s="17"/>
@@ -17172,7 +17218,7 @@
       <c r="T704" s="11"/>
       <c r="U704" s="11"/>
     </row>
-    <row r="705" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:21" ht="18" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="27"/>
       <c r="C705" s="17"/>
@@ -17195,7 +17241,7 @@
       <c r="T705" s="11"/>
       <c r="U705" s="11"/>
     </row>
-    <row r="706" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:21" ht="18" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="27"/>
       <c r="C706" s="17"/>
@@ -17218,7 +17264,7 @@
       <c r="T706" s="11"/>
       <c r="U706" s="11"/>
     </row>
-    <row r="707" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:21" ht="18" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="27"/>
       <c r="C707" s="17"/>
@@ -17241,7 +17287,7 @@
       <c r="T707" s="11"/>
       <c r="U707" s="11"/>
     </row>
-    <row r="708" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:21" ht="18" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="27"/>
       <c r="C708" s="17"/>
@@ -17264,7 +17310,7 @@
       <c r="T708" s="11"/>
       <c r="U708" s="11"/>
     </row>
-    <row r="709" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:21" ht="18" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="27"/>
       <c r="C709" s="17"/>
@@ -17287,7 +17333,7 @@
       <c r="T709" s="11"/>
       <c r="U709" s="11"/>
     </row>
-    <row r="710" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:21" ht="18" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="27"/>
       <c r="C710" s="17"/>
@@ -17310,7 +17356,7 @@
       <c r="T710" s="11"/>
       <c r="U710" s="11"/>
     </row>
-    <row r="711" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:21" ht="18" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="27"/>
       <c r="C711" s="17"/>
@@ -17333,7 +17379,7 @@
       <c r="T711" s="11"/>
       <c r="U711" s="11"/>
     </row>
-    <row r="712" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:21" ht="18" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="27"/>
       <c r="C712" s="17"/>
@@ -17356,7 +17402,7 @@
       <c r="T712" s="11"/>
       <c r="U712" s="11"/>
     </row>
-    <row r="713" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:21" ht="18" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="27"/>
       <c r="C713" s="17"/>
@@ -17379,7 +17425,7 @@
       <c r="T713" s="11"/>
       <c r="U713" s="11"/>
     </row>
-    <row r="714" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:21" ht="18" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="27"/>
       <c r="C714" s="17"/>
@@ -17402,7 +17448,7 @@
       <c r="T714" s="11"/>
       <c r="U714" s="11"/>
     </row>
-    <row r="715" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:21" ht="18" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="27"/>
       <c r="C715" s="17"/>
@@ -17425,7 +17471,7 @@
       <c r="T715" s="11"/>
       <c r="U715" s="11"/>
     </row>
-    <row r="716" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:21" ht="18" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="27"/>
       <c r="C716" s="17"/>
@@ -17448,7 +17494,7 @@
       <c r="T716" s="11"/>
       <c r="U716" s="11"/>
     </row>
-    <row r="717" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:21" ht="18" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="27"/>
       <c r="C717" s="17"/>
@@ -17471,7 +17517,7 @@
       <c r="T717" s="11"/>
       <c r="U717" s="11"/>
     </row>
-    <row r="718" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:21" ht="18" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="27"/>
       <c r="C718" s="17"/>
@@ -17494,7 +17540,7 @@
       <c r="T718" s="11"/>
       <c r="U718" s="11"/>
     </row>
-    <row r="719" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:21" ht="18" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="27"/>
       <c r="C719" s="17"/>
@@ -17517,7 +17563,7 @@
       <c r="T719" s="11"/>
       <c r="U719" s="11"/>
     </row>
-    <row r="720" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:21" ht="18" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="27"/>
       <c r="C720" s="17"/>
@@ -17540,7 +17586,7 @@
       <c r="T720" s="11"/>
       <c r="U720" s="11"/>
     </row>
-    <row r="721" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:21" ht="18" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="27"/>
       <c r="C721" s="17"/>
@@ -17563,7 +17609,7 @@
       <c r="T721" s="11"/>
       <c r="U721" s="11"/>
     </row>
-    <row r="722" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:21" ht="18" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="27"/>
       <c r="C722" s="17"/>
@@ -17586,7 +17632,7 @@
       <c r="T722" s="11"/>
       <c r="U722" s="11"/>
     </row>
-    <row r="723" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:21" ht="18" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="27"/>
       <c r="C723" s="17"/>
@@ -17609,7 +17655,7 @@
       <c r="T723" s="11"/>
       <c r="U723" s="11"/>
     </row>
-    <row r="724" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:21" ht="18" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="27"/>
       <c r="C724" s="17"/>
@@ -17632,7 +17678,7 @@
       <c r="T724" s="11"/>
       <c r="U724" s="11"/>
     </row>
-    <row r="725" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:21" ht="18" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="27"/>
       <c r="C725" s="17"/>
@@ -17655,7 +17701,7 @@
       <c r="T725" s="11"/>
       <c r="U725" s="11"/>
     </row>
-    <row r="726" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:21" ht="18" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="27"/>
       <c r="C726" s="17"/>
@@ -17678,7 +17724,7 @@
       <c r="T726" s="11"/>
       <c r="U726" s="11"/>
     </row>
-    <row r="727" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:21" ht="18" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="27"/>
       <c r="C727" s="17"/>
@@ -17701,7 +17747,7 @@
       <c r="T727" s="11"/>
       <c r="U727" s="11"/>
     </row>
-    <row r="728" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:21" ht="18" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="27"/>
       <c r="C728" s="17"/>
@@ -17724,7 +17770,7 @@
       <c r="T728" s="11"/>
       <c r="U728" s="11"/>
     </row>
-    <row r="729" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:21" ht="18" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="27"/>
       <c r="C729" s="17"/>
@@ -17747,7 +17793,7 @@
       <c r="T729" s="11"/>
       <c r="U729" s="11"/>
     </row>
-    <row r="730" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:21" ht="18" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="27"/>
       <c r="C730" s="17"/>
@@ -17770,7 +17816,7 @@
       <c r="T730" s="11"/>
       <c r="U730" s="11"/>
     </row>
-    <row r="731" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:21" ht="18" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="27"/>
       <c r="C731" s="17"/>
@@ -17793,7 +17839,7 @@
       <c r="T731" s="11"/>
       <c r="U731" s="11"/>
     </row>
-    <row r="732" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:21" ht="18" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="27"/>
       <c r="C732" s="17"/>
@@ -17816,7 +17862,7 @@
       <c r="T732" s="11"/>
       <c r="U732" s="11"/>
     </row>
-    <row r="733" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:21" ht="18" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="27"/>
       <c r="C733" s="17"/>
@@ -17839,7 +17885,7 @@
       <c r="T733" s="11"/>
       <c r="U733" s="11"/>
     </row>
-    <row r="734" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:21" ht="18" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="27"/>
       <c r="C734" s="17"/>
@@ -17862,7 +17908,7 @@
       <c r="T734" s="11"/>
       <c r="U734" s="11"/>
     </row>
-    <row r="735" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:21" ht="18" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="27"/>
       <c r="C735" s="17"/>
@@ -17885,7 +17931,7 @@
       <c r="T735" s="11"/>
       <c r="U735" s="11"/>
     </row>
-    <row r="736" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:21" ht="18" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="27"/>
       <c r="C736" s="17"/>
@@ -17908,7 +17954,7 @@
       <c r="T736" s="11"/>
       <c r="U736" s="11"/>
     </row>
-    <row r="737" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:21" ht="18" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="27"/>
       <c r="C737" s="17"/>
@@ -17931,7 +17977,7 @@
       <c r="T737" s="11"/>
       <c r="U737" s="11"/>
     </row>
-    <row r="738" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:21" ht="18" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="27"/>
       <c r="C738" s="17"/>
@@ -17954,7 +18000,7 @@
       <c r="T738" s="11"/>
       <c r="U738" s="11"/>
     </row>
-    <row r="739" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:21" ht="18" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="27"/>
       <c r="C739" s="17"/>
@@ -17977,7 +18023,7 @@
       <c r="T739" s="11"/>
       <c r="U739" s="11"/>
     </row>
-    <row r="740" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:21" ht="18" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="27"/>
       <c r="C740" s="17"/>
@@ -18000,7 +18046,7 @@
       <c r="T740" s="11"/>
       <c r="U740" s="11"/>
     </row>
-    <row r="741" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:21" ht="18" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="27"/>
       <c r="C741" s="17"/>
@@ -18023,7 +18069,7 @@
       <c r="T741" s="11"/>
       <c r="U741" s="11"/>
     </row>
-    <row r="742" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:21" ht="18" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="27"/>
       <c r="C742" s="17"/>
@@ -18046,7 +18092,7 @@
       <c r="T742" s="11"/>
       <c r="U742" s="11"/>
     </row>
-    <row r="743" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:21" ht="18" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="27"/>
       <c r="C743" s="17"/>
@@ -18069,7 +18115,7 @@
       <c r="T743" s="11"/>
       <c r="U743" s="11"/>
     </row>
-    <row r="744" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:21" ht="18" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="27"/>
       <c r="C744" s="17"/>
@@ -18092,7 +18138,7 @@
       <c r="T744" s="11"/>
       <c r="U744" s="11"/>
     </row>
-    <row r="745" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:21" ht="18" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="27"/>
       <c r="C745" s="17"/>
@@ -18115,7 +18161,7 @@
       <c r="T745" s="11"/>
       <c r="U745" s="11"/>
     </row>
-    <row r="746" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:21" ht="18" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="27"/>
       <c r="C746" s="17"/>
@@ -18138,7 +18184,7 @@
       <c r="T746" s="11"/>
       <c r="U746" s="11"/>
     </row>
-    <row r="747" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:21" ht="18" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="27"/>
       <c r="C747" s="17"/>
@@ -18161,7 +18207,7 @@
       <c r="T747" s="11"/>
       <c r="U747" s="11"/>
     </row>
-    <row r="748" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:21" ht="18" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="27"/>
       <c r="C748" s="17"/>
@@ -18184,7 +18230,7 @@
       <c r="T748" s="11"/>
       <c r="U748" s="11"/>
     </row>
-    <row r="749" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:21" ht="18" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="27"/>
       <c r="C749" s="17"/>
@@ -18207,7 +18253,7 @@
       <c r="T749" s="11"/>
       <c r="U749" s="11"/>
     </row>
-    <row r="750" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:21" ht="18" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="27"/>
       <c r="C750" s="17"/>
@@ -18230,7 +18276,7 @@
       <c r="T750" s="11"/>
       <c r="U750" s="11"/>
     </row>
-    <row r="751" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:21" ht="18" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="27"/>
       <c r="C751" s="17"/>
@@ -18253,7 +18299,7 @@
       <c r="T751" s="11"/>
       <c r="U751" s="11"/>
     </row>
-    <row r="752" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:21" ht="18" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="27"/>
       <c r="C752" s="17"/>
@@ -18276,7 +18322,7 @@
       <c r="T752" s="11"/>
       <c r="U752" s="11"/>
     </row>
-    <row r="753" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:21" ht="18" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="27"/>
       <c r="C753" s="17"/>
@@ -18299,7 +18345,7 @@
       <c r="T753" s="11"/>
       <c r="U753" s="11"/>
     </row>
-    <row r="754" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:21" ht="18" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="27"/>
       <c r="C754" s="17"/>
@@ -18322,7 +18368,7 @@
       <c r="T754" s="11"/>
       <c r="U754" s="11"/>
     </row>
-    <row r="755" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:21" ht="18" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="27"/>
       <c r="C755" s="17"/>
@@ -18345,7 +18391,7 @@
       <c r="T755" s="11"/>
       <c r="U755" s="11"/>
     </row>
-    <row r="756" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:21" ht="18" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="27"/>
       <c r="C756" s="17"/>
@@ -18368,7 +18414,7 @@
       <c r="T756" s="11"/>
       <c r="U756" s="11"/>
     </row>
-    <row r="757" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:21" ht="18" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="27"/>
       <c r="C757" s="17"/>
@@ -18391,7 +18437,7 @@
       <c r="T757" s="11"/>
       <c r="U757" s="11"/>
     </row>
-    <row r="758" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:21" ht="18" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="27"/>
       <c r="C758" s="17"/>
@@ -18414,7 +18460,7 @@
       <c r="T758" s="11"/>
       <c r="U758" s="11"/>
     </row>
-    <row r="759" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:21" ht="18" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="27"/>
       <c r="C759" s="17"/>
@@ -18437,7 +18483,7 @@
       <c r="T759" s="11"/>
       <c r="U759" s="11"/>
     </row>
-    <row r="760" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:21" ht="18" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="27"/>
       <c r="C760" s="17"/>
@@ -18460,7 +18506,7 @@
       <c r="T760" s="11"/>
       <c r="U760" s="11"/>
     </row>
-    <row r="761" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:21" ht="18" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="27"/>
       <c r="C761" s="17"/>
@@ -18483,7 +18529,7 @@
       <c r="T761" s="11"/>
       <c r="U761" s="11"/>
     </row>
-    <row r="762" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:21" ht="18" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="27"/>
       <c r="C762" s="17"/>
@@ -18506,7 +18552,7 @@
       <c r="T762" s="11"/>
       <c r="U762" s="11"/>
     </row>
-    <row r="763" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:21" ht="18" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="27"/>
       <c r="C763" s="17"/>
@@ -18529,7 +18575,7 @@
       <c r="T763" s="11"/>
       <c r="U763" s="11"/>
     </row>
-    <row r="764" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:21" ht="18" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="27"/>
       <c r="C764" s="17"/>
@@ -18552,7 +18598,7 @@
       <c r="T764" s="11"/>
       <c r="U764" s="11"/>
     </row>
-    <row r="765" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:21" ht="18" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="27"/>
       <c r="C765" s="17"/>
@@ -18575,7 +18621,7 @@
       <c r="T765" s="11"/>
       <c r="U765" s="11"/>
     </row>
-    <row r="766" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:21" ht="18" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="27"/>
       <c r="C766" s="17"/>
@@ -18598,7 +18644,7 @@
       <c r="T766" s="11"/>
       <c r="U766" s="11"/>
     </row>
-    <row r="767" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:21" ht="18" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="27"/>
       <c r="C767" s="17"/>
@@ -18621,7 +18667,7 @@
       <c r="T767" s="11"/>
       <c r="U767" s="11"/>
     </row>
-    <row r="768" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:21" ht="18" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="27"/>
       <c r="C768" s="17"/>
@@ -18644,7 +18690,7 @@
       <c r="T768" s="11"/>
       <c r="U768" s="11"/>
     </row>
-    <row r="769" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:21" ht="18" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="27"/>
       <c r="C769" s="17"/>
@@ -18667,7 +18713,7 @@
       <c r="T769" s="11"/>
       <c r="U769" s="11"/>
     </row>
-    <row r="770" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:21" ht="18" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="27"/>
       <c r="C770" s="17"/>
@@ -18690,7 +18736,7 @@
       <c r="T770" s="11"/>
       <c r="U770" s="11"/>
     </row>
-    <row r="771" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:21" ht="18" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="27"/>
       <c r="C771" s="17"/>
@@ -18713,7 +18759,7 @@
       <c r="T771" s="11"/>
       <c r="U771" s="11"/>
     </row>
-    <row r="772" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:21" ht="18" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="27"/>
       <c r="C772" s="17"/>
@@ -18736,7 +18782,7 @@
       <c r="T772" s="11"/>
       <c r="U772" s="11"/>
     </row>
-    <row r="773" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:21" ht="18" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="27"/>
       <c r="C773" s="17"/>
@@ -18759,7 +18805,7 @@
       <c r="T773" s="11"/>
       <c r="U773" s="11"/>
     </row>
-    <row r="774" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:21" ht="18" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="27"/>
       <c r="C774" s="17"/>
@@ -18782,7 +18828,7 @@
       <c r="T774" s="11"/>
       <c r="U774" s="11"/>
     </row>
-    <row r="775" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:21" ht="18" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="27"/>
       <c r="C775" s="17"/>
@@ -18805,7 +18851,7 @@
       <c r="T775" s="11"/>
       <c r="U775" s="11"/>
     </row>
-    <row r="776" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:21" ht="18" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="27"/>
       <c r="C776" s="17"/>
@@ -18828,7 +18874,7 @@
       <c r="T776" s="11"/>
       <c r="U776" s="11"/>
     </row>
-    <row r="777" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:21" ht="18" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="27"/>
       <c r="C777" s="17"/>
@@ -18851,7 +18897,7 @@
       <c r="T777" s="11"/>
       <c r="U777" s="11"/>
     </row>
-    <row r="778" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:21" ht="18" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="27"/>
       <c r="C778" s="17"/>
@@ -18874,7 +18920,7 @@
       <c r="T778" s="11"/>
       <c r="U778" s="11"/>
     </row>
-    <row r="779" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:21" ht="18" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="27"/>
       <c r="C779" s="17"/>
@@ -18897,7 +18943,7 @@
       <c r="T779" s="11"/>
       <c r="U779" s="11"/>
     </row>
-    <row r="780" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:21" ht="18" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="27"/>
       <c r="C780" s="17"/>
@@ -18920,7 +18966,7 @@
       <c r="T780" s="11"/>
       <c r="U780" s="11"/>
     </row>
-    <row r="781" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:21" ht="18" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="27"/>
       <c r="C781" s="17"/>
@@ -18943,7 +18989,7 @@
       <c r="T781" s="11"/>
       <c r="U781" s="11"/>
     </row>
-    <row r="782" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:21" ht="18" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="27"/>
       <c r="C782" s="17"/>
@@ -18966,7 +19012,7 @@
       <c r="T782" s="11"/>
       <c r="U782" s="11"/>
     </row>
-    <row r="783" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:21" ht="18" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="27"/>
       <c r="C783" s="17"/>
@@ -18989,7 +19035,7 @@
       <c r="T783" s="11"/>
       <c r="U783" s="11"/>
     </row>
-    <row r="784" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:21" ht="18" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="27"/>
       <c r="C784" s="17"/>
@@ -19012,7 +19058,7 @@
       <c r="T784" s="11"/>
       <c r="U784" s="11"/>
     </row>
-    <row r="785" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:21" ht="18" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="27"/>
       <c r="C785" s="17"/>
@@ -19035,7 +19081,7 @@
       <c r="T785" s="11"/>
       <c r="U785" s="11"/>
     </row>
-    <row r="786" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:21" ht="18" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="27"/>
       <c r="C786" s="17"/>
@@ -19058,7 +19104,7 @@
       <c r="T786" s="11"/>
       <c r="U786" s="11"/>
     </row>
-    <row r="787" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:21" ht="18" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="27"/>
       <c r="C787" s="17"/>
@@ -19081,7 +19127,7 @@
       <c r="T787" s="11"/>
       <c r="U787" s="11"/>
     </row>
-    <row r="788" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:21" ht="18" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="27"/>
       <c r="C788" s="17"/>
@@ -19104,7 +19150,7 @@
       <c r="T788" s="11"/>
       <c r="U788" s="11"/>
     </row>
-    <row r="789" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:21" ht="18" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="27"/>
       <c r="C789" s="17"/>
@@ -19127,7 +19173,7 @@
       <c r="T789" s="11"/>
       <c r="U789" s="11"/>
     </row>
-    <row r="790" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:21" ht="18" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="27"/>
       <c r="C790" s="17"/>
@@ -19150,7 +19196,7 @@
       <c r="T790" s="11"/>
       <c r="U790" s="11"/>
     </row>
-    <row r="791" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:21" ht="18" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="27"/>
       <c r="C791" s="17"/>
@@ -19173,7 +19219,7 @@
       <c r="T791" s="11"/>
       <c r="U791" s="11"/>
     </row>
-    <row r="792" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:21" ht="18" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="27"/>
       <c r="C792" s="17"/>
@@ -19196,7 +19242,7 @@
       <c r="T792" s="11"/>
       <c r="U792" s="11"/>
     </row>
-    <row r="793" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:21" ht="18" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="27"/>
       <c r="C793" s="17"/>
@@ -19219,7 +19265,7 @@
       <c r="T793" s="11"/>
       <c r="U793" s="11"/>
     </row>
-    <row r="794" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:21" ht="18" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="27"/>
       <c r="C794" s="17"/>
@@ -19242,7 +19288,7 @@
       <c r="T794" s="11"/>
       <c r="U794" s="11"/>
     </row>
-    <row r="795" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:21" ht="18" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="27"/>
       <c r="C795" s="17"/>
@@ -19265,7 +19311,7 @@
       <c r="T795" s="11"/>
       <c r="U795" s="11"/>
     </row>
-    <row r="796" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:21" ht="18" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="27"/>
       <c r="C796" s="17"/>
@@ -19288,7 +19334,7 @@
       <c r="T796" s="11"/>
       <c r="U796" s="11"/>
     </row>
-    <row r="797" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:21" ht="18" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="27"/>
       <c r="C797" s="17"/>
@@ -19311,7 +19357,7 @@
       <c r="T797" s="11"/>
       <c r="U797" s="11"/>
     </row>
-    <row r="798" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:21" ht="18" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="27"/>
       <c r="C798" s="17"/>
@@ -19334,7 +19380,7 @@
       <c r="T798" s="11"/>
       <c r="U798" s="11"/>
     </row>
-    <row r="799" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:21" ht="18" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="27"/>
       <c r="C799" s="17"/>
@@ -19357,7 +19403,7 @@
       <c r="T799" s="11"/>
       <c r="U799" s="11"/>
     </row>
-    <row r="800" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:21" ht="18" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="27"/>
       <c r="C800" s="17"/>
@@ -19380,7 +19426,7 @@
       <c r="T800" s="11"/>
       <c r="U800" s="11"/>
     </row>
-    <row r="801" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:21" ht="18" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="27"/>
       <c r="C801" s="17"/>
@@ -19403,7 +19449,7 @@
       <c r="T801" s="11"/>
       <c r="U801" s="11"/>
     </row>
-    <row r="802" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:21" ht="18" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="27"/>
       <c r="C802" s="17"/>
@@ -19426,7 +19472,7 @@
       <c r="T802" s="11"/>
       <c r="U802" s="11"/>
     </row>
-    <row r="803" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:21" ht="18" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="27"/>
       <c r="C803" s="17"/>
@@ -19449,7 +19495,7 @@
       <c r="T803" s="11"/>
       <c r="U803" s="11"/>
     </row>
-    <row r="804" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:21" ht="18" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="27"/>
       <c r="C804" s="17"/>
@@ -19472,7 +19518,7 @@
       <c r="T804" s="11"/>
       <c r="U804" s="11"/>
     </row>
-    <row r="805" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:21" ht="18" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="27"/>
       <c r="C805" s="17"/>
@@ -19495,7 +19541,7 @@
       <c r="T805" s="11"/>
       <c r="U805" s="11"/>
     </row>
-    <row r="806" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:21" ht="18" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="27"/>
       <c r="C806" s="17"/>
@@ -19518,7 +19564,7 @@
       <c r="T806" s="11"/>
       <c r="U806" s="11"/>
     </row>
-    <row r="807" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:21" ht="18" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="27"/>
       <c r="C807" s="17"/>
@@ -19541,7 +19587,7 @@
       <c r="T807" s="11"/>
       <c r="U807" s="11"/>
     </row>
-    <row r="808" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:21" ht="18" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="27"/>
       <c r="C808" s="17"/>
@@ -19564,7 +19610,7 @@
       <c r="T808" s="11"/>
       <c r="U808" s="11"/>
     </row>
-    <row r="809" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:21" ht="18" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="27"/>
       <c r="C809" s="17"/>
@@ -19587,7 +19633,7 @@
       <c r="T809" s="11"/>
       <c r="U809" s="11"/>
     </row>
-    <row r="810" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:21" ht="18" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="27"/>
       <c r="C810" s="17"/>
@@ -19610,7 +19656,7 @@
       <c r="T810" s="11"/>
       <c r="U810" s="11"/>
     </row>
-    <row r="811" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:21" ht="18" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="27"/>
       <c r="C811" s="17"/>
@@ -19633,7 +19679,7 @@
       <c r="T811" s="11"/>
       <c r="U811" s="11"/>
     </row>
-    <row r="812" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:21" ht="18" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="27"/>
       <c r="C812" s="17"/>
@@ -19656,7 +19702,7 @@
       <c r="T812" s="11"/>
       <c r="U812" s="11"/>
     </row>
-    <row r="813" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:21" ht="18" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="27"/>
       <c r="C813" s="17"/>
@@ -19679,7 +19725,7 @@
       <c r="T813" s="11"/>
       <c r="U813" s="11"/>
     </row>
-    <row r="814" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:21" ht="18" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="27"/>
       <c r="C814" s="17"/>
@@ -19702,7 +19748,7 @@
       <c r="T814" s="11"/>
       <c r="U814" s="11"/>
     </row>
-    <row r="815" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:21" ht="18" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="27"/>
       <c r="C815" s="17"/>
@@ -19725,7 +19771,7 @@
       <c r="T815" s="11"/>
       <c r="U815" s="11"/>
     </row>
-    <row r="816" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:21" ht="18" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="27"/>
       <c r="C816" s="17"/>
@@ -19748,7 +19794,7 @@
       <c r="T816" s="11"/>
       <c r="U816" s="11"/>
     </row>
-    <row r="817" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:21" ht="18" customHeight="1">
       <c r="A817" s="1"/>
       <c r="B817" s="27"/>
       <c r="C817" s="17"/>
@@ -19771,7 +19817,7 @@
       <c r="T817" s="11"/>
       <c r="U817" s="11"/>
     </row>
-    <row r="818" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:21" ht="18" customHeight="1">
       <c r="A818" s="1"/>
       <c r="B818" s="27"/>
       <c r="C818" s="17"/>
@@ -19794,7 +19840,7 @@
       <c r="T818" s="11"/>
       <c r="U818" s="11"/>
     </row>
-    <row r="819" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:21" ht="18" customHeight="1">
       <c r="A819" s="1"/>
       <c r="B819" s="27"/>
       <c r="C819" s="17"/>
@@ -19817,7 +19863,7 @@
       <c r="T819" s="11"/>
       <c r="U819" s="11"/>
     </row>
-    <row r="820" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:21" ht="18" customHeight="1">
       <c r="A820" s="1"/>
       <c r="B820" s="27"/>
       <c r="C820" s="17"/>
@@ -19840,7 +19886,7 @@
       <c r="T820" s="11"/>
       <c r="U820" s="11"/>
     </row>
-    <row r="821" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:21" ht="18" customHeight="1">
       <c r="A821" s="1"/>
       <c r="B821" s="27"/>
       <c r="C821" s="17"/>
@@ -19863,7 +19909,7 @@
       <c r="T821" s="11"/>
       <c r="U821" s="11"/>
     </row>
-    <row r="822" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:21" ht="18" customHeight="1">
       <c r="A822" s="1"/>
       <c r="B822" s="27"/>
       <c r="C822" s="17"/>
@@ -19886,7 +19932,7 @@
       <c r="T822" s="11"/>
       <c r="U822" s="11"/>
     </row>
-    <row r="823" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:21" ht="18" customHeight="1">
       <c r="A823" s="1"/>
       <c r="B823" s="27"/>
       <c r="C823" s="17"/>
@@ -19909,7 +19955,7 @@
       <c r="T823" s="11"/>
       <c r="U823" s="11"/>
     </row>
-    <row r="824" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:21" ht="18" customHeight="1">
       <c r="A824" s="1"/>
       <c r="B824" s="27"/>
       <c r="C824" s="17"/>
@@ -19932,7 +19978,7 @@
       <c r="T824" s="11"/>
       <c r="U824" s="11"/>
     </row>
-    <row r="825" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:21" ht="18" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="27"/>
       <c r="C825" s="17"/>
@@ -19955,7 +20001,7 @@
       <c r="T825" s="11"/>
       <c r="U825" s="11"/>
     </row>
-    <row r="826" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:21" ht="18" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="27"/>
       <c r="C826" s="17"/>
@@ -19978,7 +20024,7 @@
       <c r="T826" s="11"/>
       <c r="U826" s="11"/>
     </row>
-    <row r="827" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:21" ht="18" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="27"/>
       <c r="C827" s="17"/>
@@ -20001,7 +20047,7 @@
       <c r="T827" s="11"/>
       <c r="U827" s="11"/>
     </row>
-    <row r="828" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:21" ht="18" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="27"/>
       <c r="C828" s="17"/>
@@ -20024,7 +20070,7 @@
       <c r="T828" s="11"/>
       <c r="U828" s="11"/>
     </row>
-    <row r="829" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:21" ht="18" customHeight="1">
       <c r="A829" s="1"/>
       <c r="B829" s="27"/>
       <c r="C829" s="17"/>
@@ -20047,7 +20093,7 @@
       <c r="T829" s="11"/>
       <c r="U829" s="11"/>
     </row>
-    <row r="830" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:21" ht="18" customHeight="1">
       <c r="A830" s="1"/>
       <c r="B830" s="27"/>
       <c r="C830" s="17"/>
@@ -20070,7 +20116,7 @@
       <c r="T830" s="11"/>
       <c r="U830" s="11"/>
     </row>
-    <row r="831" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:21" ht="18" customHeight="1">
       <c r="A831" s="1"/>
       <c r="B831" s="27"/>
       <c r="C831" s="17"/>
@@ -20093,7 +20139,7 @@
       <c r="T831" s="11"/>
       <c r="U831" s="11"/>
     </row>
-    <row r="832" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:21" ht="18" customHeight="1">
       <c r="A832" s="1"/>
       <c r="B832" s="27"/>
       <c r="C832" s="17"/>
@@ -20116,7 +20162,7 @@
       <c r="T832" s="11"/>
       <c r="U832" s="11"/>
     </row>
-    <row r="833" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:21" ht="18" customHeight="1">
       <c r="A833" s="1"/>
       <c r="B833" s="27"/>
       <c r="C833" s="17"/>
@@ -20139,7 +20185,7 @@
       <c r="T833" s="11"/>
       <c r="U833" s="11"/>
     </row>
-    <row r="834" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:21" ht="18" customHeight="1">
       <c r="A834" s="1"/>
       <c r="B834" s="27"/>
       <c r="C834" s="17"/>
@@ -20162,7 +20208,7 @@
       <c r="T834" s="11"/>
       <c r="U834" s="11"/>
     </row>
-    <row r="835" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:21" ht="18" customHeight="1">
       <c r="A835" s="1"/>
       <c r="B835" s="27"/>
       <c r="C835" s="17"/>
@@ -20185,7 +20231,7 @@
       <c r="T835" s="11"/>
       <c r="U835" s="11"/>
     </row>
-    <row r="836" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:21" ht="18" customHeight="1">
       <c r="A836" s="1"/>
       <c r="B836" s="27"/>
       <c r="C836" s="17"/>
@@ -20208,7 +20254,7 @@
       <c r="T836" s="11"/>
       <c r="U836" s="11"/>
     </row>
-    <row r="837" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:21" ht="18" customHeight="1">
       <c r="A837" s="1"/>
       <c r="B837" s="27"/>
       <c r="C837" s="17"/>
@@ -20231,7 +20277,7 @@
       <c r="T837" s="11"/>
       <c r="U837" s="11"/>
     </row>
-    <row r="838" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:21" ht="18" customHeight="1">
       <c r="A838" s="1"/>
       <c r="B838" s="27"/>
       <c r="C838" s="17"/>
@@ -20254,7 +20300,7 @@
       <c r="T838" s="11"/>
       <c r="U838" s="11"/>
     </row>
-    <row r="839" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:21" ht="18" customHeight="1">
       <c r="A839" s="1"/>
       <c r="B839" s="27"/>
       <c r="C839" s="17"/>
@@ -20277,7 +20323,7 @@
       <c r="T839" s="11"/>
       <c r="U839" s="11"/>
     </row>
-    <row r="840" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:21" ht="18" customHeight="1">
       <c r="A840" s="1"/>
       <c r="B840" s="27"/>
       <c r="C840" s="17"/>
@@ -20300,7 +20346,7 @@
       <c r="T840" s="11"/>
       <c r="U840" s="11"/>
     </row>
-    <row r="841" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:21" ht="18" customHeight="1">
       <c r="A841" s="1"/>
       <c r="B841" s="27"/>
       <c r="C841" s="17"/>
@@ -20323,7 +20369,7 @@
       <c r="T841" s="11"/>
       <c r="U841" s="11"/>
     </row>
-    <row r="842" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:21" ht="18" customHeight="1">
       <c r="A842" s="1"/>
       <c r="B842" s="27"/>
       <c r="C842" s="17"/>
@@ -20346,7 +20392,7 @@
       <c r="T842" s="11"/>
       <c r="U842" s="11"/>
     </row>
-    <row r="843" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:21" ht="18" customHeight="1">
       <c r="A843" s="1"/>
       <c r="B843" s="27"/>
       <c r="C843" s="17"/>
@@ -20369,7 +20415,7 @@
       <c r="T843" s="11"/>
       <c r="U843" s="11"/>
     </row>
-    <row r="844" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:21" ht="18" customHeight="1">
       <c r="A844" s="1"/>
       <c r="B844" s="27"/>
       <c r="C844" s="17"/>
@@ -20392,7 +20438,7 @@
       <c r="T844" s="11"/>
       <c r="U844" s="11"/>
     </row>
-    <row r="845" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:21" ht="18" customHeight="1">
       <c r="A845" s="1"/>
       <c r="B845" s="27"/>
       <c r="C845" s="17"/>
@@ -20415,7 +20461,7 @@
       <c r="T845" s="11"/>
       <c r="U845" s="11"/>
     </row>
-    <row r="846" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:21" ht="18" customHeight="1">
       <c r="A846" s="1"/>
       <c r="B846" s="27"/>
       <c r="C846" s="17"/>
@@ -20438,7 +20484,7 @@
       <c r="T846" s="11"/>
       <c r="U846" s="11"/>
     </row>
-    <row r="847" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:21" ht="18" customHeight="1">
       <c r="A847" s="1"/>
       <c r="B847" s="27"/>
       <c r="C847" s="17"/>
@@ -20461,7 +20507,7 @@
       <c r="T847" s="11"/>
       <c r="U847" s="11"/>
     </row>
-    <row r="848" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:21" ht="18" customHeight="1">
       <c r="A848" s="1"/>
       <c r="B848" s="27"/>
       <c r="C848" s="17"/>
@@ -20484,7 +20530,7 @@
       <c r="T848" s="11"/>
       <c r="U848" s="11"/>
     </row>
-    <row r="849" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:21" ht="18" customHeight="1">
       <c r="A849" s="1"/>
       <c r="B849" s="27"/>
       <c r="C849" s="17"/>
@@ -20507,7 +20553,7 @@
       <c r="T849" s="11"/>
       <c r="U849" s="11"/>
     </row>
-    <row r="850" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:21" ht="18" customHeight="1">
       <c r="A850" s="1"/>
       <c r="B850" s="27"/>
       <c r="C850" s="17"/>
@@ -20530,7 +20576,7 @@
       <c r="T850" s="11"/>
       <c r="U850" s="11"/>
     </row>
-    <row r="851" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:21" ht="18" customHeight="1">
       <c r="A851" s="1"/>
       <c r="B851" s="27"/>
       <c r="C851" s="17"/>
@@ -20553,7 +20599,7 @@
       <c r="T851" s="11"/>
       <c r="U851" s="11"/>
     </row>
-    <row r="852" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:21" ht="18" customHeight="1">
       <c r="A852" s="1"/>
       <c r="B852" s="27"/>
       <c r="C852" s="17"/>
@@ -20576,7 +20622,7 @@
       <c r="T852" s="11"/>
       <c r="U852" s="11"/>
     </row>
-    <row r="853" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:21" ht="18" customHeight="1">
       <c r="A853" s="1"/>
       <c r="B853" s="27"/>
       <c r="C853" s="17"/>
@@ -20599,7 +20645,7 @@
       <c r="T853" s="11"/>
       <c r="U853" s="11"/>
     </row>
-    <row r="854" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:21" ht="18" customHeight="1">
       <c r="A854" s="1"/>
       <c r="B854" s="27"/>
       <c r="C854" s="17"/>
@@ -20622,7 +20668,7 @@
       <c r="T854" s="11"/>
       <c r="U854" s="11"/>
     </row>
-    <row r="855" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:21" ht="18" customHeight="1">
       <c r="A855" s="1"/>
       <c r="B855" s="27"/>
       <c r="C855" s="17"/>
@@ -20645,7 +20691,7 @@
       <c r="T855" s="11"/>
       <c r="U855" s="11"/>
     </row>
-    <row r="856" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:21" ht="18" customHeight="1">
       <c r="A856" s="1"/>
       <c r="B856" s="27"/>
       <c r="C856" s="17"/>
@@ -20668,7 +20714,7 @@
       <c r="T856" s="11"/>
       <c r="U856" s="11"/>
     </row>
-    <row r="857" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:21" ht="18" customHeight="1">
       <c r="A857" s="1"/>
       <c r="B857" s="27"/>
       <c r="C857" s="17"/>
@@ -20691,7 +20737,7 @@
       <c r="T857" s="11"/>
       <c r="U857" s="11"/>
     </row>
-    <row r="858" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:21" ht="18" customHeight="1">
       <c r="A858" s="1"/>
       <c r="B858" s="27"/>
       <c r="C858" s="17"/>
@@ -20714,7 +20760,7 @@
       <c r="T858" s="11"/>
       <c r="U858" s="11"/>
     </row>
-    <row r="859" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:21" ht="18" customHeight="1">
       <c r="A859" s="1"/>
       <c r="B859" s="27"/>
       <c r="C859" s="17"/>
@@ -20737,7 +20783,7 @@
       <c r="T859" s="11"/>
       <c r="U859" s="11"/>
     </row>
-    <row r="860" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:21" ht="18" customHeight="1">
       <c r="A860" s="1"/>
       <c r="B860" s="27"/>
       <c r="C860" s="17"/>
@@ -20760,7 +20806,7 @@
       <c r="T860" s="11"/>
       <c r="U860" s="11"/>
     </row>
-    <row r="861" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:21" ht="18" customHeight="1">
       <c r="A861" s="1"/>
       <c r="B861" s="27"/>
       <c r="C861" s="17"/>
@@ -20783,7 +20829,7 @@
       <c r="T861" s="11"/>
       <c r="U861" s="11"/>
     </row>
-    <row r="862" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:21" ht="18" customHeight="1">
       <c r="A862" s="1"/>
       <c r="B862" s="27"/>
       <c r="C862" s="17"/>
@@ -20806,7 +20852,7 @@
       <c r="T862" s="11"/>
       <c r="U862" s="11"/>
     </row>
-    <row r="863" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:21" ht="18" customHeight="1">
       <c r="A863" s="1"/>
       <c r="B863" s="27"/>
       <c r="C863" s="17"/>
@@ -20829,7 +20875,7 @@
       <c r="T863" s="11"/>
       <c r="U863" s="11"/>
     </row>
-    <row r="864" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:21" ht="18" customHeight="1">
       <c r="A864" s="1"/>
       <c r="B864" s="27"/>
       <c r="C864" s="17"/>
@@ -20852,7 +20898,7 @@
       <c r="T864" s="11"/>
       <c r="U864" s="11"/>
     </row>
-    <row r="865" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:21" ht="18" customHeight="1">
       <c r="A865" s="1"/>
       <c r="B865" s="27"/>
       <c r="C865" s="17"/>
@@ -20875,7 +20921,7 @@
       <c r="T865" s="11"/>
       <c r="U865" s="11"/>
     </row>
-    <row r="866" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:21" ht="18" customHeight="1">
       <c r="A866" s="1"/>
       <c r="B866" s="27"/>
       <c r="C866" s="17"/>
@@ -20898,7 +20944,7 @@
       <c r="T866" s="11"/>
       <c r="U866" s="11"/>
     </row>
-    <row r="867" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:21" ht="18" customHeight="1">
       <c r="A867" s="1"/>
       <c r="B867" s="27"/>
       <c r="C867" s="17"/>
@@ -20921,7 +20967,7 @@
       <c r="T867" s="11"/>
       <c r="U867" s="11"/>
     </row>
-    <row r="868" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:21" ht="18" customHeight="1">
       <c r="A868" s="1"/>
       <c r="B868" s="27"/>
       <c r="C868" s="17"/>
@@ -20944,7 +20990,7 @@
       <c r="T868" s="11"/>
       <c r="U868" s="11"/>
     </row>
-    <row r="869" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:21" ht="18" customHeight="1">
       <c r="A869" s="1"/>
       <c r="B869" s="27"/>
       <c r="C869" s="17"/>
@@ -20967,7 +21013,7 @@
       <c r="T869" s="11"/>
       <c r="U869" s="11"/>
     </row>
-    <row r="870" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:21" ht="18" customHeight="1">
       <c r="A870" s="1"/>
       <c r="B870" s="27"/>
       <c r="C870" s="17"/>
@@ -20990,7 +21036,7 @@
       <c r="T870" s="11"/>
       <c r="U870" s="11"/>
     </row>
-    <row r="871" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:21" ht="18" customHeight="1">
       <c r="A871" s="1"/>
       <c r="B871" s="27"/>
       <c r="C871" s="17"/>
@@ -21013,7 +21059,7 @@
       <c r="T871" s="11"/>
       <c r="U871" s="11"/>
     </row>
-    <row r="872" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:21" ht="18" customHeight="1">
       <c r="A872" s="1"/>
       <c r="B872" s="27"/>
       <c r="C872" s="17"/>
@@ -21036,7 +21082,7 @@
       <c r="T872" s="11"/>
       <c r="U872" s="11"/>
     </row>
-    <row r="873" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:21" ht="18" customHeight="1">
       <c r="A873" s="1"/>
       <c r="B873" s="27"/>
       <c r="C873" s="17"/>
@@ -21059,7 +21105,7 @@
       <c r="T873" s="11"/>
       <c r="U873" s="11"/>
     </row>
-    <row r="874" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:21" ht="18" customHeight="1">
       <c r="A874" s="1"/>
       <c r="B874" s="27"/>
       <c r="C874" s="17"/>
@@ -21082,7 +21128,7 @@
       <c r="T874" s="11"/>
       <c r="U874" s="11"/>
     </row>
-    <row r="875" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:21" ht="18" customHeight="1">
       <c r="A875" s="1"/>
       <c r="B875" s="27"/>
       <c r="C875" s="17"/>
@@ -21105,7 +21151,7 @@
       <c r="T875" s="11"/>
       <c r="U875" s="11"/>
     </row>
-    <row r="876" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:21" ht="18" customHeight="1">
       <c r="A876" s="1"/>
       <c r="B876" s="27"/>
       <c r="C876" s="17"/>
@@ -21128,7 +21174,7 @@
       <c r="T876" s="11"/>
       <c r="U876" s="11"/>
     </row>
-    <row r="877" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:21" ht="18" customHeight="1">
       <c r="A877" s="1"/>
       <c r="B877" s="27"/>
       <c r="C877" s="17"/>
@@ -21151,7 +21197,7 @@
       <c r="T877" s="11"/>
       <c r="U877" s="11"/>
     </row>
-    <row r="878" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:21" ht="18" customHeight="1">
       <c r="A878" s="1"/>
       <c r="B878" s="27"/>
       <c r="C878" s="17"/>
@@ -21174,7 +21220,7 @@
       <c r="T878" s="11"/>
       <c r="U878" s="11"/>
     </row>
-    <row r="879" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:21" ht="18" customHeight="1">
       <c r="A879" s="1"/>
       <c r="B879" s="27"/>
       <c r="C879" s="17"/>
@@ -21197,7 +21243,7 @@
       <c r="T879" s="11"/>
       <c r="U879" s="11"/>
     </row>
-    <row r="880" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:21" ht="18" customHeight="1">
       <c r="A880" s="1"/>
       <c r="B880" s="27"/>
       <c r="C880" s="17"/>
@@ -21220,7 +21266,7 @@
       <c r="T880" s="11"/>
       <c r="U880" s="11"/>
     </row>
-    <row r="881" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:21" ht="18" customHeight="1">
       <c r="A881" s="1"/>
       <c r="B881" s="27"/>
       <c r="C881" s="17"/>
@@ -21243,7 +21289,7 @@
       <c r="T881" s="11"/>
       <c r="U881" s="11"/>
     </row>
-    <row r="882" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:21" ht="18" customHeight="1">
       <c r="A882" s="1"/>
       <c r="B882" s="27"/>
       <c r="C882" s="17"/>
@@ -21266,7 +21312,7 @@
       <c r="T882" s="11"/>
       <c r="U882" s="11"/>
     </row>
-    <row r="883" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:21" ht="18" customHeight="1">
       <c r="A883" s="1"/>
       <c r="B883" s="27"/>
       <c r="C883" s="17"/>
@@ -21289,7 +21335,7 @@
       <c r="T883" s="11"/>
       <c r="U883" s="11"/>
     </row>
-    <row r="884" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:21" ht="18" customHeight="1">
       <c r="A884" s="1"/>
       <c r="B884" s="27"/>
       <c r="C884" s="17"/>
@@ -21312,7 +21358,7 @@
       <c r="T884" s="11"/>
       <c r="U884" s="11"/>
     </row>
-    <row r="885" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:21" ht="18" customHeight="1">
       <c r="A885" s="1"/>
       <c r="B885" s="27"/>
       <c r="C885" s="17"/>
@@ -21335,7 +21381,7 @@
       <c r="T885" s="11"/>
       <c r="U885" s="11"/>
     </row>
-    <row r="886" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:21" ht="18" customHeight="1">
       <c r="A886" s="1"/>
       <c r="B886" s="27"/>
       <c r="C886" s="17"/>
@@ -21358,7 +21404,7 @@
       <c r="T886" s="11"/>
       <c r="U886" s="11"/>
     </row>
-    <row r="887" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:21" ht="18" customHeight="1">
       <c r="A887" s="1"/>
       <c r="B887" s="27"/>
       <c r="C887" s="17"/>
@@ -21381,7 +21427,7 @@
       <c r="T887" s="11"/>
       <c r="U887" s="11"/>
     </row>
-    <row r="888" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:21" ht="18" customHeight="1">
       <c r="A888" s="1"/>
       <c r="B888" s="27"/>
       <c r="C888" s="17"/>
@@ -21404,7 +21450,7 @@
       <c r="T888" s="11"/>
       <c r="U888" s="11"/>
     </row>
-    <row r="889" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:21" ht="18" customHeight="1">
       <c r="A889" s="1"/>
       <c r="B889" s="27"/>
       <c r="C889" s="17"/>
@@ -21427,7 +21473,7 @@
       <c r="T889" s="11"/>
       <c r="U889" s="11"/>
     </row>
-    <row r="890" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:21" ht="18" customHeight="1">
       <c r="A890" s="1"/>
       <c r="B890" s="27"/>
       <c r="C890" s="17"/>
@@ -21450,7 +21496,7 @@
       <c r="T890" s="11"/>
       <c r="U890" s="11"/>
     </row>
-    <row r="891" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:21" ht="18" customHeight="1">
       <c r="A891" s="1"/>
       <c r="B891" s="27"/>
       <c r="C891" s="17"/>
@@ -21473,7 +21519,7 @@
       <c r="T891" s="11"/>
       <c r="U891" s="11"/>
     </row>
-    <row r="892" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:21" ht="18" customHeight="1">
       <c r="A892" s="1"/>
       <c r="B892" s="27"/>
       <c r="C892" s="17"/>
@@ -21496,7 +21542,7 @@
       <c r="T892" s="11"/>
       <c r="U892" s="11"/>
     </row>
-    <row r="893" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:21" ht="18" customHeight="1">
       <c r="A893" s="1"/>
       <c r="B893" s="27"/>
       <c r="C893" s="17"/>
@@ -21519,7 +21565,7 @@
       <c r="T893" s="11"/>
       <c r="U893" s="11"/>
     </row>
-    <row r="894" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:21" ht="18" customHeight="1">
       <c r="A894" s="1"/>
       <c r="B894" s="27"/>
       <c r="C894" s="17"/>
@@ -21542,7 +21588,7 @@
       <c r="T894" s="11"/>
       <c r="U894" s="11"/>
     </row>
-    <row r="895" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:21" ht="18" customHeight="1">
       <c r="A895" s="1"/>
       <c r="B895" s="27"/>
       <c r="C895" s="17"/>
@@ -21565,7 +21611,7 @@
       <c r="T895" s="11"/>
       <c r="U895" s="11"/>
     </row>
-    <row r="896" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:21" ht="18" customHeight="1">
       <c r="A896" s="1"/>
       <c r="B896" s="27"/>
       <c r="C896" s="17"/>
@@ -21588,7 +21634,7 @@
       <c r="T896" s="11"/>
       <c r="U896" s="11"/>
     </row>
-    <row r="897" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:21" ht="18" customHeight="1">
       <c r="A897" s="1"/>
       <c r="B897" s="27"/>
       <c r="C897" s="17"/>
@@ -21611,7 +21657,7 @@
       <c r="T897" s="11"/>
       <c r="U897" s="11"/>
     </row>
-    <row r="898" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:21" ht="18" customHeight="1">
       <c r="A898" s="1"/>
       <c r="B898" s="27"/>
       <c r="C898" s="17"/>
@@ -21634,7 +21680,7 @@
       <c r="T898" s="11"/>
       <c r="U898" s="11"/>
     </row>
-    <row r="899" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:21" ht="18" customHeight="1">
       <c r="A899" s="1"/>
       <c r="B899" s="27"/>
       <c r="C899" s="17"/>
@@ -21657,7 +21703,7 @@
       <c r="T899" s="11"/>
       <c r="U899" s="11"/>
     </row>
-    <row r="900" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:21" ht="18" customHeight="1">
       <c r="A900" s="1"/>
       <c r="B900" s="27"/>
       <c r="C900" s="17"/>
@@ -21680,7 +21726,7 @@
       <c r="T900" s="11"/>
       <c r="U900" s="11"/>
     </row>
-    <row r="901" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:21" ht="18" customHeight="1">
       <c r="A901" s="1"/>
       <c r="B901" s="27"/>
       <c r="C901" s="17"/>
@@ -21703,7 +21749,7 @@
       <c r="T901" s="11"/>
       <c r="U901" s="11"/>
     </row>
-    <row r="902" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:21" ht="18" customHeight="1">
       <c r="A902" s="1"/>
       <c r="B902" s="27"/>
       <c r="C902" s="17"/>
@@ -21726,7 +21772,7 @@
       <c r="T902" s="11"/>
       <c r="U902" s="11"/>
     </row>
-    <row r="903" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:21" ht="18" customHeight="1">
       <c r="A903" s="1"/>
       <c r="B903" s="27"/>
       <c r="C903" s="17"/>
@@ -21749,7 +21795,7 @@
       <c r="T903" s="11"/>
       <c r="U903" s="11"/>
     </row>
-    <row r="904" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:21" ht="18" customHeight="1">
       <c r="A904" s="1"/>
       <c r="B904" s="27"/>
       <c r="C904" s="17"/>
@@ -21772,7 +21818,7 @@
       <c r="T904" s="11"/>
       <c r="U904" s="11"/>
     </row>
-    <row r="905" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:21" ht="18" customHeight="1">
       <c r="A905" s="1"/>
       <c r="B905" s="27"/>
       <c r="C905" s="17"/>
@@ -21795,7 +21841,7 @@
       <c r="T905" s="11"/>
       <c r="U905" s="11"/>
     </row>
-    <row r="906" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:21" ht="18" customHeight="1">
       <c r="A906" s="1"/>
       <c r="B906" s="27"/>
       <c r="C906" s="17"/>
@@ -21818,7 +21864,7 @@
       <c r="T906" s="11"/>
       <c r="U906" s="11"/>
     </row>
-    <row r="907" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:21" ht="18" customHeight="1">
       <c r="A907" s="1"/>
       <c r="B907" s="27"/>
       <c r="C907" s="17"/>
@@ -21841,7 +21887,7 @@
       <c r="T907" s="11"/>
       <c r="U907" s="11"/>
     </row>
-    <row r="908" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:21" ht="18" customHeight="1">
       <c r="A908" s="1"/>
       <c r="B908" s="27"/>
       <c r="C908" s="17"/>
@@ -21864,7 +21910,7 @@
       <c r="T908" s="11"/>
       <c r="U908" s="11"/>
     </row>
-    <row r="909" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:21" ht="18" customHeight="1">
       <c r="A909" s="1"/>
       <c r="B909" s="27"/>
       <c r="C909" s="17"/>
@@ -21887,7 +21933,7 @@
       <c r="T909" s="11"/>
       <c r="U909" s="11"/>
     </row>
-    <row r="910" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:21" ht="18" customHeight="1">
       <c r="A910" s="1"/>
       <c r="B910" s="27"/>
       <c r="C910" s="17"/>
@@ -21910,7 +21956,7 @@
       <c r="T910" s="11"/>
       <c r="U910" s="11"/>
     </row>
-    <row r="911" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:21" ht="18" customHeight="1">
       <c r="A911" s="1"/>
       <c r="B911" s="27"/>
       <c r="C911" s="17"/>
@@ -21933,7 +21979,7 @@
       <c r="T911" s="11"/>
       <c r="U911" s="11"/>
     </row>
-    <row r="912" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:21" ht="18" customHeight="1">
       <c r="A912" s="1"/>
       <c r="B912" s="27"/>
       <c r="C912" s="17"/>
@@ -21956,7 +22002,7 @@
       <c r="T912" s="11"/>
       <c r="U912" s="11"/>
     </row>
-    <row r="913" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:21" ht="18" customHeight="1">
       <c r="A913" s="1"/>
       <c r="B913" s="27"/>
       <c r="C913" s="17"/>
@@ -21979,7 +22025,7 @@
       <c r="T913" s="11"/>
       <c r="U913" s="11"/>
     </row>
-    <row r="914" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:21" ht="18" customHeight="1">
       <c r="A914" s="1"/>
       <c r="B914" s="27"/>
       <c r="C914" s="17"/>
@@ -22002,7 +22048,7 @@
       <c r="T914" s="11"/>
       <c r="U914" s="11"/>
     </row>
-    <row r="915" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:21" ht="18" customHeight="1">
       <c r="A915" s="1"/>
       <c r="B915" s="27"/>
       <c r="C915" s="17"/>
@@ -22025,7 +22071,7 @@
       <c r="T915" s="11"/>
       <c r="U915" s="11"/>
     </row>
-    <row r="916" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:21" ht="18" customHeight="1">
       <c r="A916" s="1"/>
       <c r="B916" s="27"/>
       <c r="C916" s="17"/>
@@ -22048,7 +22094,7 @@
       <c r="T916" s="11"/>
       <c r="U916" s="11"/>
     </row>
-    <row r="917" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:21" ht="18" customHeight="1">
       <c r="A917" s="1"/>
       <c r="B917" s="27"/>
       <c r="C917" s="17"/>
@@ -22071,7 +22117,7 @@
       <c r="T917" s="11"/>
       <c r="U917" s="11"/>
     </row>
-    <row r="918" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:21" ht="18" customHeight="1">
       <c r="A918" s="1"/>
       <c r="B918" s="27"/>
       <c r="C918" s="17"/>
@@ -22094,7 +22140,7 @@
       <c r="T918" s="11"/>
       <c r="U918" s="11"/>
     </row>
-    <row r="919" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:21" ht="18" customHeight="1">
       <c r="A919" s="1"/>
       <c r="B919" s="27"/>
       <c r="C919" s="17"/>
@@ -22117,7 +22163,7 @@
       <c r="T919" s="11"/>
       <c r="U919" s="11"/>
     </row>
-    <row r="920" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:21" ht="18" customHeight="1">
       <c r="A920" s="1"/>
       <c r="B920" s="27"/>
       <c r="C920" s="17"/>
@@ -22140,7 +22186,7 @@
       <c r="T920" s="11"/>
       <c r="U920" s="11"/>
     </row>
-    <row r="921" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:21" ht="18" customHeight="1">
       <c r="A921" s="1"/>
       <c r="B921" s="27"/>
       <c r="C921" s="17"/>
@@ -22163,7 +22209,7 @@
       <c r="T921" s="11"/>
       <c r="U921" s="11"/>
     </row>
-    <row r="922" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:21" ht="18" customHeight="1">
       <c r="A922" s="1"/>
       <c r="B922" s="27"/>
       <c r="C922" s="17"/>
@@ -22186,7 +22232,7 @@
       <c r="T922" s="11"/>
       <c r="U922" s="11"/>
     </row>
-    <row r="923" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:21" ht="18" customHeight="1">
       <c r="A923" s="1"/>
       <c r="B923" s="27"/>
       <c r="C923" s="17"/>
@@ -22209,7 +22255,7 @@
       <c r="T923" s="11"/>
       <c r="U923" s="11"/>
     </row>
-    <row r="924" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:21" ht="18" customHeight="1">
       <c r="A924" s="1"/>
       <c r="B924" s="27"/>
       <c r="C924" s="17"/>
@@ -22232,7 +22278,7 @@
       <c r="T924" s="11"/>
       <c r="U924" s="11"/>
     </row>
-    <row r="925" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:21" ht="18" customHeight="1">
       <c r="A925" s="1"/>
       <c r="B925" s="27"/>
       <c r="C925" s="17"/>
@@ -22255,7 +22301,7 @@
       <c r="T925" s="11"/>
       <c r="U925" s="11"/>
     </row>
-    <row r="926" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:21" ht="18" customHeight="1">
       <c r="A926" s="1"/>
       <c r="B926" s="27"/>
       <c r="C926" s="17"/>
@@ -22278,7 +22324,7 @@
       <c r="T926" s="11"/>
       <c r="U926" s="11"/>
     </row>
-    <row r="927" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:21" ht="18" customHeight="1">
       <c r="A927" s="1"/>
       <c r="B927" s="27"/>
       <c r="C927" s="17"/>
@@ -22301,7 +22347,7 @@
       <c r="T927" s="11"/>
       <c r="U927" s="11"/>
     </row>
-    <row r="928" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:21" ht="18" customHeight="1">
       <c r="A928" s="1"/>
       <c r="B928" s="27"/>
       <c r="C928" s="17"/>
@@ -22324,7 +22370,7 @@
       <c r="T928" s="11"/>
       <c r="U928" s="11"/>
     </row>
-    <row r="929" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:21" ht="18" customHeight="1">
       <c r="A929" s="1"/>
       <c r="B929" s="27"/>
       <c r="C929" s="17"/>
@@ -22347,7 +22393,7 @@
       <c r="T929" s="11"/>
       <c r="U929" s="11"/>
     </row>
-    <row r="930" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:21" ht="18" customHeight="1">
       <c r="A930" s="1"/>
       <c r="B930" s="27"/>
       <c r="C930" s="17"/>
@@ -22370,7 +22416,7 @@
       <c r="T930" s="11"/>
       <c r="U930" s="11"/>
     </row>
-    <row r="931" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:21" ht="18" customHeight="1">
       <c r="A931" s="1"/>
       <c r="B931" s="27"/>
       <c r="C931" s="17"/>
@@ -22393,7 +22439,7 @@
       <c r="T931" s="11"/>
       <c r="U931" s="11"/>
     </row>
-    <row r="932" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:21" ht="18" customHeight="1">
       <c r="A932" s="1"/>
       <c r="B932" s="27"/>
       <c r="C932" s="17"/>
@@ -22416,7 +22462,7 @@
       <c r="T932" s="11"/>
       <c r="U932" s="11"/>
     </row>
-    <row r="933" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:21" ht="18" customHeight="1">
       <c r="A933" s="1"/>
       <c r="B933" s="27"/>
       <c r="C933" s="17"/>
@@ -22439,7 +22485,7 @@
       <c r="T933" s="11"/>
       <c r="U933" s="11"/>
     </row>
-    <row r="934" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:21" ht="18" customHeight="1">
       <c r="A934" s="1"/>
       <c r="B934" s="27"/>
       <c r="C934" s="17"/>
@@ -22462,7 +22508,7 @@
       <c r="T934" s="11"/>
       <c r="U934" s="11"/>
     </row>
-    <row r="935" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:21" ht="18" customHeight="1">
       <c r="A935" s="1"/>
       <c r="B935" s="27"/>
       <c r="C935" s="17"/>
@@ -22485,7 +22531,7 @@
       <c r="T935" s="11"/>
       <c r="U935" s="11"/>
     </row>
-    <row r="936" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:21" ht="18" customHeight="1">
       <c r="A936" s="1"/>
       <c r="B936" s="27"/>
       <c r="C936" s="17"/>
@@ -22508,7 +22554,7 @@
       <c r="T936" s="11"/>
       <c r="U936" s="11"/>
     </row>
-    <row r="937" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:21" ht="18" customHeight="1">
       <c r="A937" s="1"/>
       <c r="B937" s="27"/>
       <c r="C937" s="17"/>
@@ -22531,7 +22577,7 @@
       <c r="T937" s="11"/>
       <c r="U937" s="11"/>
     </row>
-    <row r="938" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:21" ht="18" customHeight="1">
       <c r="A938" s="1"/>
       <c r="B938" s="27"/>
       <c r="C938" s="17"/>
@@ -22554,7 +22600,7 @@
       <c r="T938" s="11"/>
       <c r="U938" s="11"/>
     </row>
-    <row r="939" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:21" ht="18" customHeight="1">
       <c r="A939" s="1"/>
       <c r="B939" s="27"/>
       <c r="C939" s="17"/>
@@ -22577,7 +22623,7 @@
       <c r="T939" s="11"/>
       <c r="U939" s="11"/>
     </row>
-    <row r="940" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:21" ht="18" customHeight="1">
       <c r="A940" s="1"/>
       <c r="B940" s="27"/>
       <c r="C940" s="17"/>
@@ -22600,7 +22646,7 @@
       <c r="T940" s="11"/>
       <c r="U940" s="11"/>
     </row>
-    <row r="941" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:21" ht="18" customHeight="1">
       <c r="A941" s="1"/>
       <c r="B941" s="27"/>
       <c r="C941" s="17"/>
@@ -22623,7 +22669,7 @@
       <c r="T941" s="11"/>
       <c r="U941" s="11"/>
     </row>
-    <row r="942" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:21" ht="18" customHeight="1">
       <c r="A942" s="1"/>
       <c r="B942" s="27"/>
       <c r="C942" s="17"/>
@@ -22646,7 +22692,7 @@
       <c r="T942" s="11"/>
       <c r="U942" s="11"/>
     </row>
-    <row r="943" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:21" ht="18" customHeight="1">
       <c r="A943" s="1"/>
       <c r="B943" s="27"/>
       <c r="C943" s="17"/>
@@ -22669,7 +22715,7 @@
       <c r="T943" s="11"/>
       <c r="U943" s="11"/>
     </row>
-    <row r="944" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:21" ht="18" customHeight="1">
       <c r="A944" s="1"/>
       <c r="B944" s="27"/>
       <c r="C944" s="17"/>
@@ -22692,7 +22738,7 @@
       <c r="T944" s="11"/>
       <c r="U944" s="11"/>
     </row>
-    <row r="945" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:21" ht="18" customHeight="1">
       <c r="A945" s="1"/>
       <c r="B945" s="27"/>
       <c r="C945" s="17"/>
@@ -22715,7 +22761,7 @@
       <c r="T945" s="11"/>
       <c r="U945" s="11"/>
     </row>
-    <row r="946" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:21" ht="18" customHeight="1">
       <c r="A946" s="1"/>
       <c r="B946" s="27"/>
       <c r="C946" s="17"/>
@@ -22738,7 +22784,7 @@
       <c r="T946" s="11"/>
       <c r="U946" s="11"/>
     </row>
-    <row r="947" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:21" ht="18" customHeight="1">
       <c r="A947" s="1"/>
       <c r="B947" s="27"/>
       <c r="C947" s="17"/>
@@ -22780,6 +22826,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5D778AC6A79A84EAA5B25C5A2BFF7B6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4061397ea8fd8f272d8b26ba942e61d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cd0eaed-44fe-4f97-8632-c05a782ebbb7" xmlns:ns3="75164c79-2692-43d6-94a7-34b44bf80abd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b13378bff9c1c8ba474ff50185c4976f" ns2:_="" ns3:_="">
     <xsd:import namespace="3cd0eaed-44fe-4f97-8632-c05a782ebbb7"/>
@@ -22944,53 +23005,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55915E3D-8D32-4904-AE11-02FF4B35B651}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3cd0eaed-44fe-4f97-8632-c05a782ebbb7"/>
-    <ds:schemaRef ds:uri="75164c79-2692-43d6-94a7-34b44bf80abd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55915E3D-8D32-4904-AE11-02FF4B35B651}"/>
 </file>
--- a/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
+++ b/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{24687699-AA8E-BD41-9C89-3AB04E7A76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5113570-1141-424E-A360-47BFB0417722}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{24687699-AA8E-BD41-9C89-3AB04E7A76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB1044C-09D4-41E5-B425-F39A029B6F11}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>PR ${PR_NUMBER} Test Plan - ${APP_VERSION} - ${BUILD_ENV}</t>
   </si>
@@ -53,7 +53,43 @@
     <t>Build Info</t>
   </si>
   <si>
-    <t>Time and Date Testing Was Completed:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6 AM and 5 PM, Mon-Fri</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
+    </r>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -164,17 +200,26 @@
     <t>Barcode Generator (2D) - Invalid Barcode</t>
   </si>
   <si>
+    <t>Services Duty Cycle</t>
+  </si>
+  <si>
     <t>Regression Test Result</t>
   </si>
   <si>
+    <t>Platform Duty Cycle - ESR iPaaS - UCSD Collab (atlassian.net)</t>
+  </si>
+  <si>
     <t>PASS / FAIL</t>
+  </si>
+  <si>
+    <t>Notified test requester that you have completed testing (mark this box green after you have informed the test requester that you have finished testing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -238,8 +283,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,12 +367,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE0F7FA"/>
         <bgColor rgb="FFE0F7FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -395,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -457,9 +514,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -481,14 +535,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,13 +1025,13 @@
   <dimension ref="A1:U947"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection activeCell="B3" sqref="A2:B3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="103" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="96.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="27" customWidth="1"/>
     <col min="3" max="3" width="5" style="16" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="28" style="12" customWidth="1"/>
@@ -979,7 +1042,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15"/>
@@ -1005,7 +1068,7 @@
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15"/>
@@ -1030,11 +1093,11 @@
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -1064,7 +1127,7 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1155,7 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
       <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1183,7 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="26"/>
       <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1211,7 @@
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1172,7 +1235,7 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
@@ -1198,7 +1261,7 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1284,7 @@
       <c r="U9" s="11"/>
     </row>
     <row r="10" spans="1:21" ht="18" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -1249,7 +1312,7 @@
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="25"/>
       <c r="D11" s="17" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1338,7 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
         <v>28</v>
@@ -1302,7 +1365,7 @@
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="17"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1327,7 +1390,7 @@
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="17"/>
       <c r="D14" s="20" t="s">
         <v>31</v>
@@ -1354,9 +1417,9 @@
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="4"/>
@@ -1381,7 +1444,7 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="17"/>
       <c r="D16" s="21" t="s">
         <v>35</v>
@@ -1408,9 +1471,9 @@
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="19"/>
@@ -1424,7 +1487,7 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1">
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="17"/>
       <c r="D18" s="21" t="s">
         <v>38</v>
@@ -1448,8 +1511,8 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1">
-      <c r="C19" s="17"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="11"/>
@@ -1494,8 +1557,8 @@
       <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1">
-      <c r="C21" s="17"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="11"/>
@@ -1518,8 +1581,10 @@
     </row>
     <row r="22" spans="1:21" ht="18" customHeight="1">
       <c r="C22" s="17"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="20"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1539,11 +1604,13 @@
     </row>
     <row r="23" spans="1:21" ht="18" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1562,8 +1629,8 @@
       <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
+      <c r="A24" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="11"/>
@@ -1584,11 +1651,13 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="18" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="27"/>
+    <row r="25" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="30"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1608,7 +1677,7 @@
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="27"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="17"/>
       <c r="D26" s="11"/>
       <c r="F26" s="11"/>
@@ -1630,7 +1699,7 @@
     </row>
     <row r="27" spans="1:21" ht="18" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="27"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="17"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1653,7 +1722,7 @@
     </row>
     <row r="28" spans="1:21" ht="18" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="27"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="17"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1676,7 +1745,7 @@
     </row>
     <row r="29" spans="1:21" ht="18" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1698,7 +1767,7 @@
     </row>
     <row r="30" spans="1:21" ht="18" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="27"/>
+      <c r="B30" s="26"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -1720,7 +1789,7 @@
     </row>
     <row r="31" spans="1:21" ht="18" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="27"/>
+      <c r="B31" s="26"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1742,7 +1811,7 @@
     </row>
     <row r="32" spans="1:21" ht="18" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="27"/>
+      <c r="B32" s="26"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -1764,7 +1833,7 @@
     </row>
     <row r="33" spans="1:21" ht="18" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="17"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -1787,7 +1856,7 @@
     </row>
     <row r="34" spans="1:21" ht="18" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="17"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1810,7 +1879,7 @@
     </row>
     <row r="35" spans="1:21" ht="18" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="17"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1833,7 +1902,7 @@
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="17"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -1856,7 +1925,7 @@
     </row>
     <row r="37" spans="1:21" ht="18" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="17"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -1879,7 +1948,7 @@
     </row>
     <row r="38" spans="1:21" ht="18" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="27"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="17"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1902,7 +1971,7 @@
     </row>
     <row r="39" spans="1:21" ht="18" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="17"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -1925,7 +1994,7 @@
     </row>
     <row r="40" spans="1:21" ht="18" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="27"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="17"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -1948,7 +2017,7 @@
     </row>
     <row r="41" spans="1:21" ht="18" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="17"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -1971,7 +2040,7 @@
     </row>
     <row r="42" spans="1:21" ht="18" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="27"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="17"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -1994,7 +2063,7 @@
     </row>
     <row r="43" spans="1:21" ht="18" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="27"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="17"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2017,7 +2086,7 @@
     </row>
     <row r="44" spans="1:21" ht="18" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="27"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="17"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -2040,7 +2109,7 @@
     </row>
     <row r="45" spans="1:21" ht="18" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="17"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -2063,7 +2132,7 @@
     </row>
     <row r="46" spans="1:21" ht="18" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="27"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="17"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -2086,7 +2155,7 @@
     </row>
     <row r="47" spans="1:21" ht="18" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="27"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="17"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2109,7 +2178,7 @@
     </row>
     <row r="48" spans="1:21" ht="18" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="27"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="17"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -2132,7 +2201,7 @@
     </row>
     <row r="49" spans="1:21" ht="18" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="27"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="17"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -2155,7 +2224,7 @@
     </row>
     <row r="50" spans="1:21" ht="18" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="27"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="17"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -2178,7 +2247,7 @@
     </row>
     <row r="51" spans="1:21" ht="18" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="27"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="17"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -2201,7 +2270,7 @@
     </row>
     <row r="52" spans="1:21" ht="18" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="17"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -2224,7 +2293,7 @@
     </row>
     <row r="53" spans="1:21" ht="18" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="27"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="17"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -2247,7 +2316,7 @@
     </row>
     <row r="54" spans="1:21" ht="18" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="27"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="17"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -2270,7 +2339,7 @@
     </row>
     <row r="55" spans="1:21" ht="18" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="27"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="17"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -2293,7 +2362,7 @@
     </row>
     <row r="56" spans="1:21" ht="18" customHeight="1">
       <c r="A56" s="1"/>
-      <c r="B56" s="27"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="17"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -2316,7 +2385,7 @@
     </row>
     <row r="57" spans="1:21" ht="18" customHeight="1">
       <c r="A57" s="1"/>
-      <c r="B57" s="27"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="17"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -2339,7 +2408,7 @@
     </row>
     <row r="58" spans="1:21" ht="18" customHeight="1">
       <c r="A58" s="1"/>
-      <c r="B58" s="27"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="17"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -2362,7 +2431,7 @@
     </row>
     <row r="59" spans="1:21" ht="18" customHeight="1">
       <c r="A59" s="1"/>
-      <c r="B59" s="27"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="17"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -2385,7 +2454,7 @@
     </row>
     <row r="60" spans="1:21" ht="18" customHeight="1">
       <c r="A60" s="1"/>
-      <c r="B60" s="27"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="17"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -2408,7 +2477,7 @@
     </row>
     <row r="61" spans="1:21" ht="18" customHeight="1">
       <c r="A61" s="1"/>
-      <c r="B61" s="27"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="17"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -2431,7 +2500,7 @@
     </row>
     <row r="62" spans="1:21" ht="18" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="27"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="17"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -2454,7 +2523,7 @@
     </row>
     <row r="63" spans="1:21" ht="18" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="27"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="17"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -2477,7 +2546,7 @@
     </row>
     <row r="64" spans="1:21" ht="18" customHeight="1">
       <c r="A64" s="1"/>
-      <c r="B64" s="27"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="17"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -2500,7 +2569,7 @@
     </row>
     <row r="65" spans="1:21" ht="18" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="17"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -2523,7 +2592,7 @@
     </row>
     <row r="66" spans="1:21" ht="18" customHeight="1">
       <c r="A66" s="1"/>
-      <c r="B66" s="27"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="17"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -2546,7 +2615,7 @@
     </row>
     <row r="67" spans="1:21" ht="18" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="27"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="17"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -2569,7 +2638,7 @@
     </row>
     <row r="68" spans="1:21" ht="18" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="27"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="17"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -2592,7 +2661,7 @@
     </row>
     <row r="69" spans="1:21" ht="18" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="27"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="17"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -2615,7 +2684,7 @@
     </row>
     <row r="70" spans="1:21" ht="18" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="27"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="17"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -2638,7 +2707,7 @@
     </row>
     <row r="71" spans="1:21" ht="18" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="17"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -2661,7 +2730,7 @@
     </row>
     <row r="72" spans="1:21" ht="18" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="27"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="17"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -2684,7 +2753,7 @@
     </row>
     <row r="73" spans="1:21" ht="18" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="27"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="17"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -2707,7 +2776,7 @@
     </row>
     <row r="74" spans="1:21" ht="18" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="27"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="17"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -2730,7 +2799,7 @@
     </row>
     <row r="75" spans="1:21" ht="18" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="27"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="17"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
@@ -2753,7 +2822,7 @@
     </row>
     <row r="76" spans="1:21" ht="18" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="17"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -2776,7 +2845,7 @@
     </row>
     <row r="77" spans="1:21" ht="18" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="27"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="17"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
@@ -2799,7 +2868,7 @@
     </row>
     <row r="78" spans="1:21" ht="18" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="27"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="17"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -2822,7 +2891,7 @@
     </row>
     <row r="79" spans="1:21" ht="18" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="27"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="17"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -2845,7 +2914,7 @@
     </row>
     <row r="80" spans="1:21" ht="18" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="27"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="17"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
@@ -2868,7 +2937,7 @@
     </row>
     <row r="81" spans="1:21" ht="18" customHeight="1">
       <c r="A81" s="1"/>
-      <c r="B81" s="27"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="17"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
@@ -2891,7 +2960,7 @@
     </row>
     <row r="82" spans="1:21" ht="18" customHeight="1">
       <c r="A82" s="1"/>
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="17"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
@@ -2914,7 +2983,7 @@
     </row>
     <row r="83" spans="1:21" ht="18" customHeight="1">
       <c r="A83" s="1"/>
-      <c r="B83" s="27"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="17"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -2937,7 +3006,7 @@
     </row>
     <row r="84" spans="1:21" ht="18" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="27"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="17"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -2960,7 +3029,7 @@
     </row>
     <row r="85" spans="1:21" ht="18" customHeight="1">
       <c r="A85" s="1"/>
-      <c r="B85" s="27"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="17"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -2983,7 +3052,7 @@
     </row>
     <row r="86" spans="1:21" ht="18" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="27"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="17"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -3006,7 +3075,7 @@
     </row>
     <row r="87" spans="1:21" ht="18" customHeight="1">
       <c r="A87" s="1"/>
-      <c r="B87" s="27"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="17"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
@@ -3029,7 +3098,7 @@
     </row>
     <row r="88" spans="1:21" ht="18" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="17"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
@@ -3052,7 +3121,7 @@
     </row>
     <row r="89" spans="1:21" ht="18" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="27"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="17"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
@@ -3075,7 +3144,7 @@
     </row>
     <row r="90" spans="1:21" ht="18" customHeight="1">
       <c r="A90" s="1"/>
-      <c r="B90" s="27"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="17"/>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
@@ -3098,7 +3167,7 @@
     </row>
     <row r="91" spans="1:21" ht="18" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="27"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="17"/>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
@@ -3121,7 +3190,7 @@
     </row>
     <row r="92" spans="1:21" ht="18" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="27"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="17"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -3144,7 +3213,7 @@
     </row>
     <row r="93" spans="1:21" ht="18" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="27"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="17"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -3167,7 +3236,7 @@
     </row>
     <row r="94" spans="1:21" ht="18" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="27"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="17"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
@@ -3190,7 +3259,7 @@
     </row>
     <row r="95" spans="1:21" ht="18" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="27"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="17"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -3213,7 +3282,7 @@
     </row>
     <row r="96" spans="1:21" ht="18" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="27"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="17"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -3236,7 +3305,7 @@
     </row>
     <row r="97" spans="1:21" ht="18" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="27"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="17"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -3259,7 +3328,7 @@
     </row>
     <row r="98" spans="1:21" ht="18" customHeight="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="27"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="17"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3282,7 +3351,7 @@
     </row>
     <row r="99" spans="1:21" ht="18" customHeight="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="27"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="17"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3305,7 +3374,7 @@
     </row>
     <row r="100" spans="1:21" ht="18" customHeight="1">
       <c r="A100" s="1"/>
-      <c r="B100" s="27"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="17"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -3328,7 +3397,7 @@
     </row>
     <row r="101" spans="1:21" ht="18" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="27"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="17"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -3351,7 +3420,7 @@
     </row>
     <row r="102" spans="1:21" ht="18" customHeight="1">
       <c r="A102" s="1"/>
-      <c r="B102" s="27"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="17"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3374,7 +3443,7 @@
     </row>
     <row r="103" spans="1:21" ht="18" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="27"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="17"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
@@ -3397,7 +3466,7 @@
     </row>
     <row r="104" spans="1:21" ht="18" customHeight="1">
       <c r="A104" s="1"/>
-      <c r="B104" s="27"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="17"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
@@ -3420,7 +3489,7 @@
     </row>
     <row r="105" spans="1:21" ht="18" customHeight="1">
       <c r="A105" s="1"/>
-      <c r="B105" s="27"/>
+      <c r="B105" s="26"/>
       <c r="C105" s="17"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
@@ -3443,7 +3512,7 @@
     </row>
     <row r="106" spans="1:21" ht="18" customHeight="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="27"/>
+      <c r="B106" s="26"/>
       <c r="C106" s="17"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -3466,7 +3535,7 @@
     </row>
     <row r="107" spans="1:21" ht="18" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="27"/>
+      <c r="B107" s="26"/>
       <c r="C107" s="17"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
@@ -3489,7 +3558,7 @@
     </row>
     <row r="108" spans="1:21" ht="18" customHeight="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="27"/>
+      <c r="B108" s="26"/>
       <c r="C108" s="17"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
@@ -3512,7 +3581,7 @@
     </row>
     <row r="109" spans="1:21" ht="18" customHeight="1">
       <c r="A109" s="1"/>
-      <c r="B109" s="27"/>
+      <c r="B109" s="26"/>
       <c r="C109" s="17"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
@@ -3535,7 +3604,7 @@
     </row>
     <row r="110" spans="1:21" ht="18" customHeight="1">
       <c r="A110" s="1"/>
-      <c r="B110" s="27"/>
+      <c r="B110" s="26"/>
       <c r="C110" s="17"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
@@ -3558,7 +3627,7 @@
     </row>
     <row r="111" spans="1:21" ht="18" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="27"/>
+      <c r="B111" s="26"/>
       <c r="C111" s="17"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
@@ -3581,7 +3650,7 @@
     </row>
     <row r="112" spans="1:21" ht="18" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="27"/>
+      <c r="B112" s="26"/>
       <c r="C112" s="17"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
@@ -3604,7 +3673,7 @@
     </row>
     <row r="113" spans="1:21" ht="18" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="27"/>
+      <c r="B113" s="26"/>
       <c r="C113" s="17"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
@@ -3627,7 +3696,7 @@
     </row>
     <row r="114" spans="1:21" ht="18" customHeight="1">
       <c r="A114" s="1"/>
-      <c r="B114" s="27"/>
+      <c r="B114" s="26"/>
       <c r="C114" s="17"/>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
@@ -3650,7 +3719,7 @@
     </row>
     <row r="115" spans="1:21" ht="18" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="27"/>
+      <c r="B115" s="26"/>
       <c r="C115" s="17"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
@@ -3673,7 +3742,7 @@
     </row>
     <row r="116" spans="1:21" ht="18" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="27"/>
+      <c r="B116" s="26"/>
       <c r="C116" s="17"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
@@ -3696,7 +3765,7 @@
     </row>
     <row r="117" spans="1:21" ht="18" customHeight="1">
       <c r="A117" s="1"/>
-      <c r="B117" s="27"/>
+      <c r="B117" s="26"/>
       <c r="C117" s="17"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
@@ -3719,7 +3788,7 @@
     </row>
     <row r="118" spans="1:21" ht="18" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="27"/>
+      <c r="B118" s="26"/>
       <c r="C118" s="17"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
@@ -3742,7 +3811,7 @@
     </row>
     <row r="119" spans="1:21" ht="18" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="27"/>
+      <c r="B119" s="26"/>
       <c r="C119" s="17"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
@@ -3765,7 +3834,7 @@
     </row>
     <row r="120" spans="1:21" ht="18" customHeight="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="27"/>
+      <c r="B120" s="26"/>
       <c r="C120" s="17"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
@@ -3788,7 +3857,7 @@
     </row>
     <row r="121" spans="1:21" ht="18" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="27"/>
+      <c r="B121" s="26"/>
       <c r="C121" s="17"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
@@ -3811,7 +3880,7 @@
     </row>
     <row r="122" spans="1:21" ht="18" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="27"/>
+      <c r="B122" s="26"/>
       <c r="C122" s="17"/>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
@@ -3834,7 +3903,7 @@
     </row>
     <row r="123" spans="1:21" ht="18" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="27"/>
+      <c r="B123" s="26"/>
       <c r="C123" s="17"/>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
@@ -3857,7 +3926,7 @@
     </row>
     <row r="124" spans="1:21" ht="18" customHeight="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="27"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="17"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
@@ -3880,7 +3949,7 @@
     </row>
     <row r="125" spans="1:21" ht="18" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="27"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="17"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
@@ -3903,7 +3972,7 @@
     </row>
     <row r="126" spans="1:21" ht="18" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="27"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="17"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
@@ -3926,7 +3995,7 @@
     </row>
     <row r="127" spans="1:21" ht="18" customHeight="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="27"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="17"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
@@ -3949,7 +4018,7 @@
     </row>
     <row r="128" spans="1:21" ht="18" customHeight="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="27"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="17"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
@@ -3972,7 +4041,7 @@
     </row>
     <row r="129" spans="1:21" ht="18" customHeight="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="27"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="17"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
@@ -3995,7 +4064,7 @@
     </row>
     <row r="130" spans="1:21" ht="18" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="27"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="17"/>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
@@ -4018,7 +4087,7 @@
     </row>
     <row r="131" spans="1:21" ht="18" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="27"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="17"/>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
@@ -4041,7 +4110,7 @@
     </row>
     <row r="132" spans="1:21" ht="18" customHeight="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="27"/>
+      <c r="B132" s="26"/>
       <c r="C132" s="17"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
@@ -4064,7 +4133,7 @@
     </row>
     <row r="133" spans="1:21" ht="18" customHeight="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="27"/>
+      <c r="B133" s="26"/>
       <c r="C133" s="17"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
@@ -4087,7 +4156,7 @@
     </row>
     <row r="134" spans="1:21" ht="18" customHeight="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="27"/>
+      <c r="B134" s="26"/>
       <c r="C134" s="17"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
@@ -4110,7 +4179,7 @@
     </row>
     <row r="135" spans="1:21" ht="18" customHeight="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="27"/>
+      <c r="B135" s="26"/>
       <c r="C135" s="17"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
@@ -4133,7 +4202,7 @@
     </row>
     <row r="136" spans="1:21" ht="18" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="27"/>
+      <c r="B136" s="26"/>
       <c r="C136" s="17"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
@@ -4156,7 +4225,7 @@
     </row>
     <row r="137" spans="1:21" ht="18" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="27"/>
+      <c r="B137" s="26"/>
       <c r="C137" s="17"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
@@ -4179,7 +4248,7 @@
     </row>
     <row r="138" spans="1:21" ht="18" customHeight="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="27"/>
+      <c r="B138" s="26"/>
       <c r="C138" s="17"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
@@ -4202,7 +4271,7 @@
     </row>
     <row r="139" spans="1:21" ht="18" customHeight="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="27"/>
+      <c r="B139" s="26"/>
       <c r="C139" s="17"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
@@ -4225,7 +4294,7 @@
     </row>
     <row r="140" spans="1:21" ht="18" customHeight="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="27"/>
+      <c r="B140" s="26"/>
       <c r="C140" s="17"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
@@ -4248,7 +4317,7 @@
     </row>
     <row r="141" spans="1:21" ht="18" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="27"/>
+      <c r="B141" s="26"/>
       <c r="C141" s="17"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
@@ -4271,7 +4340,7 @@
     </row>
     <row r="142" spans="1:21" ht="18" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="27"/>
+      <c r="B142" s="26"/>
       <c r="C142" s="17"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
@@ -4294,7 +4363,7 @@
     </row>
     <row r="143" spans="1:21" ht="18" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="27"/>
+      <c r="B143" s="26"/>
       <c r="C143" s="17"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
@@ -4317,7 +4386,7 @@
     </row>
     <row r="144" spans="1:21" ht="18" customHeight="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="27"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="17"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
@@ -4340,7 +4409,7 @@
     </row>
     <row r="145" spans="1:21" ht="18" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="27"/>
+      <c r="B145" s="26"/>
       <c r="C145" s="17"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -4363,7 +4432,7 @@
     </row>
     <row r="146" spans="1:21" ht="18" customHeight="1">
       <c r="A146" s="1"/>
-      <c r="B146" s="27"/>
+      <c r="B146" s="26"/>
       <c r="C146" s="17"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
@@ -4386,7 +4455,7 @@
     </row>
     <row r="147" spans="1:21" ht="18" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="27"/>
+      <c r="B147" s="26"/>
       <c r="C147" s="17"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
@@ -4409,7 +4478,7 @@
     </row>
     <row r="148" spans="1:21" ht="18" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="27"/>
+      <c r="B148" s="26"/>
       <c r="C148" s="17"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
@@ -4432,7 +4501,7 @@
     </row>
     <row r="149" spans="1:21" ht="18" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="27"/>
+      <c r="B149" s="26"/>
       <c r="C149" s="17"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
@@ -4455,7 +4524,7 @@
     </row>
     <row r="150" spans="1:21" ht="18" customHeight="1">
       <c r="A150" s="1"/>
-      <c r="B150" s="27"/>
+      <c r="B150" s="26"/>
       <c r="C150" s="17"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -4478,7 +4547,7 @@
     </row>
     <row r="151" spans="1:21" ht="18" customHeight="1">
       <c r="A151" s="1"/>
-      <c r="B151" s="27"/>
+      <c r="B151" s="26"/>
       <c r="C151" s="17"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
@@ -4501,7 +4570,7 @@
     </row>
     <row r="152" spans="1:21" ht="18" customHeight="1">
       <c r="A152" s="1"/>
-      <c r="B152" s="27"/>
+      <c r="B152" s="26"/>
       <c r="C152" s="17"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
@@ -4524,7 +4593,7 @@
     </row>
     <row r="153" spans="1:21" ht="18" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="27"/>
+      <c r="B153" s="26"/>
       <c r="C153" s="17"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
@@ -4547,7 +4616,7 @@
     </row>
     <row r="154" spans="1:21" ht="18" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="27"/>
+      <c r="B154" s="26"/>
       <c r="C154" s="17"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
@@ -4570,7 +4639,7 @@
     </row>
     <row r="155" spans="1:21" ht="18" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="27"/>
+      <c r="B155" s="26"/>
       <c r="C155" s="17"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
@@ -4593,7 +4662,7 @@
     </row>
     <row r="156" spans="1:21" ht="18" customHeight="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="27"/>
+      <c r="B156" s="26"/>
       <c r="C156" s="17"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
@@ -4616,7 +4685,7 @@
     </row>
     <row r="157" spans="1:21" ht="18" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="27"/>
+      <c r="B157" s="26"/>
       <c r="C157" s="17"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
@@ -4639,7 +4708,7 @@
     </row>
     <row r="158" spans="1:21" ht="18" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="27"/>
+      <c r="B158" s="26"/>
       <c r="C158" s="17"/>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
@@ -4662,7 +4731,7 @@
     </row>
     <row r="159" spans="1:21" ht="18" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="27"/>
+      <c r="B159" s="26"/>
       <c r="C159" s="17"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
@@ -4685,7 +4754,7 @@
     </row>
     <row r="160" spans="1:21" ht="18" customHeight="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="27"/>
+      <c r="B160" s="26"/>
       <c r="C160" s="17"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
@@ -4708,7 +4777,7 @@
     </row>
     <row r="161" spans="1:21" ht="18" customHeight="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="27"/>
+      <c r="B161" s="26"/>
       <c r="C161" s="17"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
@@ -4731,7 +4800,7 @@
     </row>
     <row r="162" spans="1:21" ht="18" customHeight="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="27"/>
+      <c r="B162" s="26"/>
       <c r="C162" s="17"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
@@ -4754,7 +4823,7 @@
     </row>
     <row r="163" spans="1:21" ht="18" customHeight="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="27"/>
+      <c r="B163" s="26"/>
       <c r="C163" s="17"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
@@ -4777,7 +4846,7 @@
     </row>
     <row r="164" spans="1:21" ht="18" customHeight="1">
       <c r="A164" s="1"/>
-      <c r="B164" s="27"/>
+      <c r="B164" s="26"/>
       <c r="C164" s="17"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
@@ -4800,7 +4869,7 @@
     </row>
     <row r="165" spans="1:21" ht="18" customHeight="1">
       <c r="A165" s="1"/>
-      <c r="B165" s="27"/>
+      <c r="B165" s="26"/>
       <c r="C165" s="17"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
@@ -4823,7 +4892,7 @@
     </row>
     <row r="166" spans="1:21" ht="18" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="27"/>
+      <c r="B166" s="26"/>
       <c r="C166" s="17"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
@@ -4846,7 +4915,7 @@
     </row>
     <row r="167" spans="1:21" ht="18" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="27"/>
+      <c r="B167" s="26"/>
       <c r="C167" s="17"/>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
@@ -4869,7 +4938,7 @@
     </row>
     <row r="168" spans="1:21" ht="18" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="27"/>
+      <c r="B168" s="26"/>
       <c r="C168" s="17"/>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
@@ -4892,7 +4961,7 @@
     </row>
     <row r="169" spans="1:21" ht="18" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="27"/>
+      <c r="B169" s="26"/>
       <c r="C169" s="17"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
@@ -4915,7 +4984,7 @@
     </row>
     <row r="170" spans="1:21" ht="18" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="27"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="17"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
@@ -4938,7 +5007,7 @@
     </row>
     <row r="171" spans="1:21" ht="18" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="27"/>
+      <c r="B171" s="26"/>
       <c r="C171" s="17"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
@@ -4961,7 +5030,7 @@
     </row>
     <row r="172" spans="1:21" ht="18" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="27"/>
+      <c r="B172" s="26"/>
       <c r="C172" s="17"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
@@ -4984,7 +5053,7 @@
     </row>
     <row r="173" spans="1:21" ht="18" customHeight="1">
       <c r="A173" s="1"/>
-      <c r="B173" s="27"/>
+      <c r="B173" s="26"/>
       <c r="C173" s="17"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
@@ -5007,7 +5076,7 @@
     </row>
     <row r="174" spans="1:21" ht="18" customHeight="1">
       <c r="A174" s="1"/>
-      <c r="B174" s="27"/>
+      <c r="B174" s="26"/>
       <c r="C174" s="17"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
@@ -5030,7 +5099,7 @@
     </row>
     <row r="175" spans="1:21" ht="18" customHeight="1">
       <c r="A175" s="1"/>
-      <c r="B175" s="27"/>
+      <c r="B175" s="26"/>
       <c r="C175" s="17"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
@@ -5053,7 +5122,7 @@
     </row>
     <row r="176" spans="1:21" ht="18" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="27"/>
+      <c r="B176" s="26"/>
       <c r="C176" s="17"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
@@ -5076,7 +5145,7 @@
     </row>
     <row r="177" spans="1:21" ht="18" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="27"/>
+      <c r="B177" s="26"/>
       <c r="C177" s="17"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
@@ -5099,7 +5168,7 @@
     </row>
     <row r="178" spans="1:21" ht="18" customHeight="1">
       <c r="A178" s="1"/>
-      <c r="B178" s="27"/>
+      <c r="B178" s="26"/>
       <c r="C178" s="17"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
@@ -5122,7 +5191,7 @@
     </row>
     <row r="179" spans="1:21" ht="18" customHeight="1">
       <c r="A179" s="1"/>
-      <c r="B179" s="27"/>
+      <c r="B179" s="26"/>
       <c r="C179" s="17"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
@@ -5145,7 +5214,7 @@
     </row>
     <row r="180" spans="1:21" ht="18" customHeight="1">
       <c r="A180" s="1"/>
-      <c r="B180" s="27"/>
+      <c r="B180" s="26"/>
       <c r="C180" s="17"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
@@ -5168,7 +5237,7 @@
     </row>
     <row r="181" spans="1:21" ht="18" customHeight="1">
       <c r="A181" s="1"/>
-      <c r="B181" s="27"/>
+      <c r="B181" s="26"/>
       <c r="C181" s="17"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
@@ -5191,7 +5260,7 @@
     </row>
     <row r="182" spans="1:21" ht="18" customHeight="1">
       <c r="A182" s="1"/>
-      <c r="B182" s="27"/>
+      <c r="B182" s="26"/>
       <c r="C182" s="17"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -5214,7 +5283,7 @@
     </row>
     <row r="183" spans="1:21" ht="18" customHeight="1">
       <c r="A183" s="1"/>
-      <c r="B183" s="27"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="17"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
@@ -5237,7 +5306,7 @@
     </row>
     <row r="184" spans="1:21" ht="18" customHeight="1">
       <c r="A184" s="1"/>
-      <c r="B184" s="27"/>
+      <c r="B184" s="26"/>
       <c r="C184" s="17"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
@@ -5260,7 +5329,7 @@
     </row>
     <row r="185" spans="1:21" ht="18" customHeight="1">
       <c r="A185" s="1"/>
-      <c r="B185" s="27"/>
+      <c r="B185" s="26"/>
       <c r="C185" s="17"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
@@ -5283,7 +5352,7 @@
     </row>
     <row r="186" spans="1:21" ht="18" customHeight="1">
       <c r="A186" s="1"/>
-      <c r="B186" s="27"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="17"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
@@ -5306,7 +5375,7 @@
     </row>
     <row r="187" spans="1:21" ht="18" customHeight="1">
       <c r="A187" s="1"/>
-      <c r="B187" s="27"/>
+      <c r="B187" s="26"/>
       <c r="C187" s="17"/>
       <c r="D187" s="11"/>
       <c r="E187" s="11"/>
@@ -5329,7 +5398,7 @@
     </row>
     <row r="188" spans="1:21" ht="18" customHeight="1">
       <c r="A188" s="1"/>
-      <c r="B188" s="27"/>
+      <c r="B188" s="26"/>
       <c r="C188" s="17"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
@@ -5352,7 +5421,7 @@
     </row>
     <row r="189" spans="1:21" ht="18" customHeight="1">
       <c r="A189" s="1"/>
-      <c r="B189" s="27"/>
+      <c r="B189" s="26"/>
       <c r="C189" s="17"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
@@ -5375,7 +5444,7 @@
     </row>
     <row r="190" spans="1:21" ht="18" customHeight="1">
       <c r="A190" s="1"/>
-      <c r="B190" s="27"/>
+      <c r="B190" s="26"/>
       <c r="C190" s="17"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
@@ -5398,7 +5467,7 @@
     </row>
     <row r="191" spans="1:21" ht="18" customHeight="1">
       <c r="A191" s="1"/>
-      <c r="B191" s="27"/>
+      <c r="B191" s="26"/>
       <c r="C191" s="17"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
@@ -5421,7 +5490,7 @@
     </row>
     <row r="192" spans="1:21" ht="18" customHeight="1">
       <c r="A192" s="1"/>
-      <c r="B192" s="27"/>
+      <c r="B192" s="26"/>
       <c r="C192" s="17"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -5444,7 +5513,7 @@
     </row>
     <row r="193" spans="1:21" ht="18" customHeight="1">
       <c r="A193" s="1"/>
-      <c r="B193" s="27"/>
+      <c r="B193" s="26"/>
       <c r="C193" s="17"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
@@ -5467,7 +5536,7 @@
     </row>
     <row r="194" spans="1:21" ht="18" customHeight="1">
       <c r="A194" s="1"/>
-      <c r="B194" s="27"/>
+      <c r="B194" s="26"/>
       <c r="C194" s="17"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
@@ -5490,7 +5559,7 @@
     </row>
     <row r="195" spans="1:21" ht="18" customHeight="1">
       <c r="A195" s="1"/>
-      <c r="B195" s="27"/>
+      <c r="B195" s="26"/>
       <c r="C195" s="17"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
@@ -5513,7 +5582,7 @@
     </row>
     <row r="196" spans="1:21" ht="18" customHeight="1">
       <c r="A196" s="1"/>
-      <c r="B196" s="27"/>
+      <c r="B196" s="26"/>
       <c r="C196" s="17"/>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
@@ -5536,7 +5605,7 @@
     </row>
     <row r="197" spans="1:21" ht="18" customHeight="1">
       <c r="A197" s="1"/>
-      <c r="B197" s="27"/>
+      <c r="B197" s="26"/>
       <c r="C197" s="17"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
@@ -5559,7 +5628,7 @@
     </row>
     <row r="198" spans="1:21" ht="18" customHeight="1">
       <c r="A198" s="1"/>
-      <c r="B198" s="27"/>
+      <c r="B198" s="26"/>
       <c r="C198" s="17"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
@@ -5582,7 +5651,7 @@
     </row>
     <row r="199" spans="1:21" ht="18" customHeight="1">
       <c r="A199" s="1"/>
-      <c r="B199" s="27"/>
+      <c r="B199" s="26"/>
       <c r="C199" s="17"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
@@ -5605,7 +5674,7 @@
     </row>
     <row r="200" spans="1:21" ht="18" customHeight="1">
       <c r="A200" s="1"/>
-      <c r="B200" s="27"/>
+      <c r="B200" s="26"/>
       <c r="C200" s="17"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
@@ -5628,7 +5697,7 @@
     </row>
     <row r="201" spans="1:21" ht="18" customHeight="1">
       <c r="A201" s="1"/>
-      <c r="B201" s="27"/>
+      <c r="B201" s="26"/>
       <c r="C201" s="17"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
@@ -5651,7 +5720,7 @@
     </row>
     <row r="202" spans="1:21" ht="18" customHeight="1">
       <c r="A202" s="1"/>
-      <c r="B202" s="27"/>
+      <c r="B202" s="26"/>
       <c r="C202" s="17"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
@@ -5674,7 +5743,7 @@
     </row>
     <row r="203" spans="1:21" ht="18" customHeight="1">
       <c r="A203" s="1"/>
-      <c r="B203" s="27"/>
+      <c r="B203" s="26"/>
       <c r="C203" s="17"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
@@ -5697,7 +5766,7 @@
     </row>
     <row r="204" spans="1:21" ht="18" customHeight="1">
       <c r="A204" s="1"/>
-      <c r="B204" s="27"/>
+      <c r="B204" s="26"/>
       <c r="C204" s="17"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
@@ -5720,7 +5789,7 @@
     </row>
     <row r="205" spans="1:21" ht="18" customHeight="1">
       <c r="A205" s="1"/>
-      <c r="B205" s="27"/>
+      <c r="B205" s="26"/>
       <c r="C205" s="17"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
@@ -5743,7 +5812,7 @@
     </row>
     <row r="206" spans="1:21" ht="18" customHeight="1">
       <c r="A206" s="1"/>
-      <c r="B206" s="27"/>
+      <c r="B206" s="26"/>
       <c r="C206" s="17"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
@@ -5766,7 +5835,7 @@
     </row>
     <row r="207" spans="1:21" ht="18" customHeight="1">
       <c r="A207" s="1"/>
-      <c r="B207" s="27"/>
+      <c r="B207" s="26"/>
       <c r="C207" s="17"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
@@ -5789,7 +5858,7 @@
     </row>
     <row r="208" spans="1:21" ht="18" customHeight="1">
       <c r="A208" s="1"/>
-      <c r="B208" s="27"/>
+      <c r="B208" s="26"/>
       <c r="C208" s="17"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
@@ -5812,7 +5881,7 @@
     </row>
     <row r="209" spans="1:21" ht="18" customHeight="1">
       <c r="A209" s="1"/>
-      <c r="B209" s="27"/>
+      <c r="B209" s="26"/>
       <c r="C209" s="17"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
@@ -5835,7 +5904,7 @@
     </row>
     <row r="210" spans="1:21" ht="18" customHeight="1">
       <c r="A210" s="1"/>
-      <c r="B210" s="27"/>
+      <c r="B210" s="26"/>
       <c r="C210" s="17"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
@@ -5858,7 +5927,7 @@
     </row>
     <row r="211" spans="1:21" ht="18" customHeight="1">
       <c r="A211" s="1"/>
-      <c r="B211" s="27"/>
+      <c r="B211" s="26"/>
       <c r="C211" s="17"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
@@ -5881,7 +5950,7 @@
     </row>
     <row r="212" spans="1:21" ht="18" customHeight="1">
       <c r="A212" s="1"/>
-      <c r="B212" s="27"/>
+      <c r="B212" s="26"/>
       <c r="C212" s="17"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
@@ -5904,7 +5973,7 @@
     </row>
     <row r="213" spans="1:21" ht="18" customHeight="1">
       <c r="A213" s="1"/>
-      <c r="B213" s="27"/>
+      <c r="B213" s="26"/>
       <c r="C213" s="17"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
@@ -5927,7 +5996,7 @@
     </row>
     <row r="214" spans="1:21" ht="18" customHeight="1">
       <c r="A214" s="1"/>
-      <c r="B214" s="27"/>
+      <c r="B214" s="26"/>
       <c r="C214" s="17"/>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
@@ -5950,7 +6019,7 @@
     </row>
     <row r="215" spans="1:21" ht="18" customHeight="1">
       <c r="A215" s="1"/>
-      <c r="B215" s="27"/>
+      <c r="B215" s="26"/>
       <c r="C215" s="17"/>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>
@@ -5973,7 +6042,7 @@
     </row>
     <row r="216" spans="1:21" ht="18" customHeight="1">
       <c r="A216" s="1"/>
-      <c r="B216" s="27"/>
+      <c r="B216" s="26"/>
       <c r="C216" s="17"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
@@ -5996,7 +6065,7 @@
     </row>
     <row r="217" spans="1:21" ht="18" customHeight="1">
       <c r="A217" s="1"/>
-      <c r="B217" s="27"/>
+      <c r="B217" s="26"/>
       <c r="C217" s="17"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
@@ -6019,7 +6088,7 @@
     </row>
     <row r="218" spans="1:21" ht="18" customHeight="1">
       <c r="A218" s="1"/>
-      <c r="B218" s="27"/>
+      <c r="B218" s="26"/>
       <c r="C218" s="17"/>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
@@ -6042,7 +6111,7 @@
     </row>
     <row r="219" spans="1:21" ht="18" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="27"/>
+      <c r="B219" s="26"/>
       <c r="C219" s="17"/>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
@@ -6065,7 +6134,7 @@
     </row>
     <row r="220" spans="1:21" ht="18" customHeight="1">
       <c r="A220" s="1"/>
-      <c r="B220" s="27"/>
+      <c r="B220" s="26"/>
       <c r="C220" s="17"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
@@ -6088,7 +6157,7 @@
     </row>
     <row r="221" spans="1:21" ht="18" customHeight="1">
       <c r="A221" s="1"/>
-      <c r="B221" s="27"/>
+      <c r="B221" s="26"/>
       <c r="C221" s="17"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
@@ -6111,7 +6180,7 @@
     </row>
     <row r="222" spans="1:21" ht="18" customHeight="1">
       <c r="A222" s="1"/>
-      <c r="B222" s="27"/>
+      <c r="B222" s="26"/>
       <c r="C222" s="17"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
@@ -6134,7 +6203,7 @@
     </row>
     <row r="223" spans="1:21" ht="18" customHeight="1">
       <c r="A223" s="1"/>
-      <c r="B223" s="27"/>
+      <c r="B223" s="26"/>
       <c r="C223" s="17"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
@@ -6157,7 +6226,7 @@
     </row>
     <row r="224" spans="1:21" ht="18" customHeight="1">
       <c r="A224" s="1"/>
-      <c r="B224" s="27"/>
+      <c r="B224" s="26"/>
       <c r="C224" s="17"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
@@ -6180,7 +6249,7 @@
     </row>
     <row r="225" spans="1:21" ht="18" customHeight="1">
       <c r="A225" s="1"/>
-      <c r="B225" s="27"/>
+      <c r="B225" s="26"/>
       <c r="C225" s="17"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
@@ -6203,7 +6272,7 @@
     </row>
     <row r="226" spans="1:21" ht="18" customHeight="1">
       <c r="A226" s="1"/>
-      <c r="B226" s="27"/>
+      <c r="B226" s="26"/>
       <c r="C226" s="17"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
@@ -6226,7 +6295,7 @@
     </row>
     <row r="227" spans="1:21" ht="18" customHeight="1">
       <c r="A227" s="1"/>
-      <c r="B227" s="27"/>
+      <c r="B227" s="26"/>
       <c r="C227" s="17"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
@@ -6249,7 +6318,7 @@
     </row>
     <row r="228" spans="1:21" ht="18" customHeight="1">
       <c r="A228" s="1"/>
-      <c r="B228" s="27"/>
+      <c r="B228" s="26"/>
       <c r="C228" s="17"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
@@ -6272,7 +6341,7 @@
     </row>
     <row r="229" spans="1:21" ht="18" customHeight="1">
       <c r="A229" s="1"/>
-      <c r="B229" s="27"/>
+      <c r="B229" s="26"/>
       <c r="C229" s="17"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
@@ -6295,7 +6364,7 @@
     </row>
     <row r="230" spans="1:21" ht="18" customHeight="1">
       <c r="A230" s="1"/>
-      <c r="B230" s="27"/>
+      <c r="B230" s="26"/>
       <c r="C230" s="17"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
@@ -6318,7 +6387,7 @@
     </row>
     <row r="231" spans="1:21" ht="18" customHeight="1">
       <c r="A231" s="1"/>
-      <c r="B231" s="27"/>
+      <c r="B231" s="26"/>
       <c r="C231" s="17"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
@@ -6341,7 +6410,7 @@
     </row>
     <row r="232" spans="1:21" ht="18" customHeight="1">
       <c r="A232" s="1"/>
-      <c r="B232" s="27"/>
+      <c r="B232" s="26"/>
       <c r="C232" s="17"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
@@ -6364,7 +6433,7 @@
     </row>
     <row r="233" spans="1:21" ht="18" customHeight="1">
       <c r="A233" s="1"/>
-      <c r="B233" s="27"/>
+      <c r="B233" s="26"/>
       <c r="C233" s="17"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
@@ -6387,7 +6456,7 @@
     </row>
     <row r="234" spans="1:21" ht="18" customHeight="1">
       <c r="A234" s="1"/>
-      <c r="B234" s="27"/>
+      <c r="B234" s="26"/>
       <c r="C234" s="17"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
@@ -6410,7 +6479,7 @@
     </row>
     <row r="235" spans="1:21" ht="18" customHeight="1">
       <c r="A235" s="1"/>
-      <c r="B235" s="27"/>
+      <c r="B235" s="26"/>
       <c r="C235" s="17"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
@@ -6433,7 +6502,7 @@
     </row>
     <row r="236" spans="1:21" ht="18" customHeight="1">
       <c r="A236" s="1"/>
-      <c r="B236" s="27"/>
+      <c r="B236" s="26"/>
       <c r="C236" s="17"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
@@ -6456,7 +6525,7 @@
     </row>
     <row r="237" spans="1:21" ht="18" customHeight="1">
       <c r="A237" s="1"/>
-      <c r="B237" s="27"/>
+      <c r="B237" s="26"/>
       <c r="C237" s="17"/>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
@@ -6479,7 +6548,7 @@
     </row>
     <row r="238" spans="1:21" ht="18" customHeight="1">
       <c r="A238" s="1"/>
-      <c r="B238" s="27"/>
+      <c r="B238" s="26"/>
       <c r="C238" s="17"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
@@ -6502,7 +6571,7 @@
     </row>
     <row r="239" spans="1:21" ht="18" customHeight="1">
       <c r="A239" s="1"/>
-      <c r="B239" s="27"/>
+      <c r="B239" s="26"/>
       <c r="C239" s="17"/>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
@@ -6525,7 +6594,7 @@
     </row>
     <row r="240" spans="1:21" ht="18" customHeight="1">
       <c r="A240" s="1"/>
-      <c r="B240" s="27"/>
+      <c r="B240" s="26"/>
       <c r="C240" s="17"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
@@ -6548,7 +6617,7 @@
     </row>
     <row r="241" spans="1:21" ht="18" customHeight="1">
       <c r="A241" s="1"/>
-      <c r="B241" s="27"/>
+      <c r="B241" s="26"/>
       <c r="C241" s="17"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
@@ -6571,7 +6640,7 @@
     </row>
     <row r="242" spans="1:21" ht="18" customHeight="1">
       <c r="A242" s="1"/>
-      <c r="B242" s="27"/>
+      <c r="B242" s="26"/>
       <c r="C242" s="17"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
@@ -6594,7 +6663,7 @@
     </row>
     <row r="243" spans="1:21" ht="18" customHeight="1">
       <c r="A243" s="1"/>
-      <c r="B243" s="27"/>
+      <c r="B243" s="26"/>
       <c r="C243" s="17"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
@@ -6617,7 +6686,7 @@
     </row>
     <row r="244" spans="1:21" ht="18" customHeight="1">
       <c r="A244" s="1"/>
-      <c r="B244" s="27"/>
+      <c r="B244" s="26"/>
       <c r="C244" s="17"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
@@ -6640,7 +6709,7 @@
     </row>
     <row r="245" spans="1:21" ht="18" customHeight="1">
       <c r="A245" s="1"/>
-      <c r="B245" s="27"/>
+      <c r="B245" s="26"/>
       <c r="C245" s="17"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
@@ -6663,7 +6732,7 @@
     </row>
     <row r="246" spans="1:21" ht="18" customHeight="1">
       <c r="A246" s="1"/>
-      <c r="B246" s="27"/>
+      <c r="B246" s="26"/>
       <c r="C246" s="17"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
@@ -6686,7 +6755,7 @@
     </row>
     <row r="247" spans="1:21" ht="18" customHeight="1">
       <c r="A247" s="1"/>
-      <c r="B247" s="27"/>
+      <c r="B247" s="26"/>
       <c r="C247" s="17"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
@@ -6709,7 +6778,7 @@
     </row>
     <row r="248" spans="1:21" ht="18" customHeight="1">
       <c r="A248" s="1"/>
-      <c r="B248" s="27"/>
+      <c r="B248" s="26"/>
       <c r="C248" s="17"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
@@ -6732,7 +6801,7 @@
     </row>
     <row r="249" spans="1:21" ht="18" customHeight="1">
       <c r="A249" s="1"/>
-      <c r="B249" s="27"/>
+      <c r="B249" s="26"/>
       <c r="C249" s="17"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
@@ -6755,7 +6824,7 @@
     </row>
     <row r="250" spans="1:21" ht="18" customHeight="1">
       <c r="A250" s="1"/>
-      <c r="B250" s="27"/>
+      <c r="B250" s="26"/>
       <c r="C250" s="17"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
@@ -6778,7 +6847,7 @@
     </row>
     <row r="251" spans="1:21" ht="18" customHeight="1">
       <c r="A251" s="1"/>
-      <c r="B251" s="27"/>
+      <c r="B251" s="26"/>
       <c r="C251" s="17"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
@@ -6801,7 +6870,7 @@
     </row>
     <row r="252" spans="1:21" ht="18" customHeight="1">
       <c r="A252" s="1"/>
-      <c r="B252" s="27"/>
+      <c r="B252" s="26"/>
       <c r="C252" s="17"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
@@ -6824,7 +6893,7 @@
     </row>
     <row r="253" spans="1:21" ht="18" customHeight="1">
       <c r="A253" s="1"/>
-      <c r="B253" s="27"/>
+      <c r="B253" s="26"/>
       <c r="C253" s="17"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
@@ -6847,7 +6916,7 @@
     </row>
     <row r="254" spans="1:21" ht="18" customHeight="1">
       <c r="A254" s="1"/>
-      <c r="B254" s="27"/>
+      <c r="B254" s="26"/>
       <c r="C254" s="17"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
@@ -6870,7 +6939,7 @@
     </row>
     <row r="255" spans="1:21" ht="18" customHeight="1">
       <c r="A255" s="1"/>
-      <c r="B255" s="27"/>
+      <c r="B255" s="26"/>
       <c r="C255" s="17"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
@@ -6893,7 +6962,7 @@
     </row>
     <row r="256" spans="1:21" ht="18" customHeight="1">
       <c r="A256" s="1"/>
-      <c r="B256" s="27"/>
+      <c r="B256" s="26"/>
       <c r="C256" s="17"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
@@ -6916,7 +6985,7 @@
     </row>
     <row r="257" spans="1:21" ht="18" customHeight="1">
       <c r="A257" s="1"/>
-      <c r="B257" s="27"/>
+      <c r="B257" s="26"/>
       <c r="C257" s="17"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
@@ -6939,7 +7008,7 @@
     </row>
     <row r="258" spans="1:21" ht="18" customHeight="1">
       <c r="A258" s="1"/>
-      <c r="B258" s="27"/>
+      <c r="B258" s="26"/>
       <c r="C258" s="17"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
@@ -6962,7 +7031,7 @@
     </row>
     <row r="259" spans="1:21" ht="18" customHeight="1">
       <c r="A259" s="1"/>
-      <c r="B259" s="27"/>
+      <c r="B259" s="26"/>
       <c r="C259" s="17"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
@@ -6985,7 +7054,7 @@
     </row>
     <row r="260" spans="1:21" ht="18" customHeight="1">
       <c r="A260" s="1"/>
-      <c r="B260" s="27"/>
+      <c r="B260" s="26"/>
       <c r="C260" s="17"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
@@ -7008,7 +7077,7 @@
     </row>
     <row r="261" spans="1:21" ht="18" customHeight="1">
       <c r="A261" s="1"/>
-      <c r="B261" s="27"/>
+      <c r="B261" s="26"/>
       <c r="C261" s="17"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
@@ -7031,7 +7100,7 @@
     </row>
     <row r="262" spans="1:21" ht="18" customHeight="1">
       <c r="A262" s="1"/>
-      <c r="B262" s="27"/>
+      <c r="B262" s="26"/>
       <c r="C262" s="17"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
@@ -7054,7 +7123,7 @@
     </row>
     <row r="263" spans="1:21" ht="18" customHeight="1">
       <c r="A263" s="1"/>
-      <c r="B263" s="27"/>
+      <c r="B263" s="26"/>
       <c r="C263" s="17"/>
       <c r="D263" s="11"/>
       <c r="E263" s="11"/>
@@ -7077,7 +7146,7 @@
     </row>
     <row r="264" spans="1:21" ht="18" customHeight="1">
       <c r="A264" s="1"/>
-      <c r="B264" s="27"/>
+      <c r="B264" s="26"/>
       <c r="C264" s="17"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
@@ -7100,7 +7169,7 @@
     </row>
     <row r="265" spans="1:21" ht="18" customHeight="1">
       <c r="A265" s="1"/>
-      <c r="B265" s="27"/>
+      <c r="B265" s="26"/>
       <c r="C265" s="17"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
@@ -7123,7 +7192,7 @@
     </row>
     <row r="266" spans="1:21" ht="18" customHeight="1">
       <c r="A266" s="1"/>
-      <c r="B266" s="27"/>
+      <c r="B266" s="26"/>
       <c r="C266" s="17"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
@@ -7146,7 +7215,7 @@
     </row>
     <row r="267" spans="1:21" ht="18" customHeight="1">
       <c r="A267" s="1"/>
-      <c r="B267" s="27"/>
+      <c r="B267" s="26"/>
       <c r="C267" s="17"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
@@ -7169,7 +7238,7 @@
     </row>
     <row r="268" spans="1:21" ht="18" customHeight="1">
       <c r="A268" s="1"/>
-      <c r="B268" s="27"/>
+      <c r="B268" s="26"/>
       <c r="C268" s="17"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
@@ -7192,7 +7261,7 @@
     </row>
     <row r="269" spans="1:21" ht="18" customHeight="1">
       <c r="A269" s="1"/>
-      <c r="B269" s="27"/>
+      <c r="B269" s="26"/>
       <c r="C269" s="17"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
@@ -7215,7 +7284,7 @@
     </row>
     <row r="270" spans="1:21" ht="18" customHeight="1">
       <c r="A270" s="1"/>
-      <c r="B270" s="27"/>
+      <c r="B270" s="26"/>
       <c r="C270" s="17"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
@@ -7238,7 +7307,7 @@
     </row>
     <row r="271" spans="1:21" ht="18" customHeight="1">
       <c r="A271" s="1"/>
-      <c r="B271" s="27"/>
+      <c r="B271" s="26"/>
       <c r="C271" s="17"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
@@ -7261,7 +7330,7 @@
     </row>
     <row r="272" spans="1:21" ht="18" customHeight="1">
       <c r="A272" s="1"/>
-      <c r="B272" s="27"/>
+      <c r="B272" s="26"/>
       <c r="C272" s="17"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
@@ -7284,7 +7353,7 @@
     </row>
     <row r="273" spans="1:21" ht="18" customHeight="1">
       <c r="A273" s="1"/>
-      <c r="B273" s="27"/>
+      <c r="B273" s="26"/>
       <c r="C273" s="17"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
@@ -7307,7 +7376,7 @@
     </row>
     <row r="274" spans="1:21" ht="18" customHeight="1">
       <c r="A274" s="1"/>
-      <c r="B274" s="27"/>
+      <c r="B274" s="26"/>
       <c r="C274" s="17"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
@@ -7330,7 +7399,7 @@
     </row>
     <row r="275" spans="1:21" ht="18" customHeight="1">
       <c r="A275" s="1"/>
-      <c r="B275" s="27"/>
+      <c r="B275" s="26"/>
       <c r="C275" s="17"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
@@ -7353,7 +7422,7 @@
     </row>
     <row r="276" spans="1:21" ht="18" customHeight="1">
       <c r="A276" s="1"/>
-      <c r="B276" s="27"/>
+      <c r="B276" s="26"/>
       <c r="C276" s="17"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
@@ -7376,7 +7445,7 @@
     </row>
     <row r="277" spans="1:21" ht="18" customHeight="1">
       <c r="A277" s="1"/>
-      <c r="B277" s="27"/>
+      <c r="B277" s="26"/>
       <c r="C277" s="17"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
@@ -7399,7 +7468,7 @@
     </row>
     <row r="278" spans="1:21" ht="18" customHeight="1">
       <c r="A278" s="1"/>
-      <c r="B278" s="27"/>
+      <c r="B278" s="26"/>
       <c r="C278" s="17"/>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
@@ -7422,7 +7491,7 @@
     </row>
     <row r="279" spans="1:21" ht="18" customHeight="1">
       <c r="A279" s="1"/>
-      <c r="B279" s="27"/>
+      <c r="B279" s="26"/>
       <c r="C279" s="17"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
@@ -7445,7 +7514,7 @@
     </row>
     <row r="280" spans="1:21" ht="18" customHeight="1">
       <c r="A280" s="1"/>
-      <c r="B280" s="27"/>
+      <c r="B280" s="26"/>
       <c r="C280" s="17"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
@@ -7468,7 +7537,7 @@
     </row>
     <row r="281" spans="1:21" ht="18" customHeight="1">
       <c r="A281" s="1"/>
-      <c r="B281" s="27"/>
+      <c r="B281" s="26"/>
       <c r="C281" s="17"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
@@ -7491,7 +7560,7 @@
     </row>
     <row r="282" spans="1:21" ht="18" customHeight="1">
       <c r="A282" s="1"/>
-      <c r="B282" s="27"/>
+      <c r="B282" s="26"/>
       <c r="C282" s="17"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
@@ -7514,7 +7583,7 @@
     </row>
     <row r="283" spans="1:21" ht="18" customHeight="1">
       <c r="A283" s="1"/>
-      <c r="B283" s="27"/>
+      <c r="B283" s="26"/>
       <c r="C283" s="17"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
@@ -7537,7 +7606,7 @@
     </row>
     <row r="284" spans="1:21" ht="18" customHeight="1">
       <c r="A284" s="1"/>
-      <c r="B284" s="27"/>
+      <c r="B284" s="26"/>
       <c r="C284" s="17"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
@@ -7560,7 +7629,7 @@
     </row>
     <row r="285" spans="1:21" ht="18" customHeight="1">
       <c r="A285" s="1"/>
-      <c r="B285" s="27"/>
+      <c r="B285" s="26"/>
       <c r="C285" s="17"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
@@ -7583,7 +7652,7 @@
     </row>
     <row r="286" spans="1:21" ht="18" customHeight="1">
       <c r="A286" s="1"/>
-      <c r="B286" s="27"/>
+      <c r="B286" s="26"/>
       <c r="C286" s="17"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
@@ -7606,7 +7675,7 @@
     </row>
     <row r="287" spans="1:21" ht="18" customHeight="1">
       <c r="A287" s="1"/>
-      <c r="B287" s="27"/>
+      <c r="B287" s="26"/>
       <c r="C287" s="17"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
@@ -7629,7 +7698,7 @@
     </row>
     <row r="288" spans="1:21" ht="18" customHeight="1">
       <c r="A288" s="1"/>
-      <c r="B288" s="27"/>
+      <c r="B288" s="26"/>
       <c r="C288" s="17"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
@@ -7652,7 +7721,7 @@
     </row>
     <row r="289" spans="1:21" ht="18" customHeight="1">
       <c r="A289" s="1"/>
-      <c r="B289" s="27"/>
+      <c r="B289" s="26"/>
       <c r="C289" s="17"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
@@ -7675,7 +7744,7 @@
     </row>
     <row r="290" spans="1:21" ht="18" customHeight="1">
       <c r="A290" s="1"/>
-      <c r="B290" s="27"/>
+      <c r="B290" s="26"/>
       <c r="C290" s="17"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
@@ -7698,7 +7767,7 @@
     </row>
     <row r="291" spans="1:21" ht="18" customHeight="1">
       <c r="A291" s="1"/>
-      <c r="B291" s="27"/>
+      <c r="B291" s="26"/>
       <c r="C291" s="17"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
@@ -7721,7 +7790,7 @@
     </row>
     <row r="292" spans="1:21" ht="18" customHeight="1">
       <c r="A292" s="1"/>
-      <c r="B292" s="27"/>
+      <c r="B292" s="26"/>
       <c r="C292" s="17"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
@@ -7744,7 +7813,7 @@
     </row>
     <row r="293" spans="1:21" ht="18" customHeight="1">
       <c r="A293" s="1"/>
-      <c r="B293" s="27"/>
+      <c r="B293" s="26"/>
       <c r="C293" s="17"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
@@ -7767,7 +7836,7 @@
     </row>
     <row r="294" spans="1:21" ht="18" customHeight="1">
       <c r="A294" s="1"/>
-      <c r="B294" s="27"/>
+      <c r="B294" s="26"/>
       <c r="C294" s="17"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
@@ -7790,7 +7859,7 @@
     </row>
     <row r="295" spans="1:21" ht="18" customHeight="1">
       <c r="A295" s="1"/>
-      <c r="B295" s="27"/>
+      <c r="B295" s="26"/>
       <c r="C295" s="17"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
@@ -7813,7 +7882,7 @@
     </row>
     <row r="296" spans="1:21" ht="18" customHeight="1">
       <c r="A296" s="1"/>
-      <c r="B296" s="27"/>
+      <c r="B296" s="26"/>
       <c r="C296" s="17"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
@@ -7836,7 +7905,7 @@
     </row>
     <row r="297" spans="1:21" ht="18" customHeight="1">
       <c r="A297" s="1"/>
-      <c r="B297" s="27"/>
+      <c r="B297" s="26"/>
       <c r="C297" s="17"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
@@ -7859,7 +7928,7 @@
     </row>
     <row r="298" spans="1:21" ht="18" customHeight="1">
       <c r="A298" s="1"/>
-      <c r="B298" s="27"/>
+      <c r="B298" s="26"/>
       <c r="C298" s="17"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
@@ -7882,7 +7951,7 @@
     </row>
     <row r="299" spans="1:21" ht="18" customHeight="1">
       <c r="A299" s="1"/>
-      <c r="B299" s="27"/>
+      <c r="B299" s="26"/>
       <c r="C299" s="17"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
@@ -7905,7 +7974,7 @@
     </row>
     <row r="300" spans="1:21" ht="18" customHeight="1">
       <c r="A300" s="1"/>
-      <c r="B300" s="27"/>
+      <c r="B300" s="26"/>
       <c r="C300" s="17"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
@@ -7928,7 +7997,7 @@
     </row>
     <row r="301" spans="1:21" ht="18" customHeight="1">
       <c r="A301" s="1"/>
-      <c r="B301" s="27"/>
+      <c r="B301" s="26"/>
       <c r="C301" s="17"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
@@ -7951,7 +8020,7 @@
     </row>
     <row r="302" spans="1:21" ht="18" customHeight="1">
       <c r="A302" s="1"/>
-      <c r="B302" s="27"/>
+      <c r="B302" s="26"/>
       <c r="C302" s="17"/>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
@@ -7974,7 +8043,7 @@
     </row>
     <row r="303" spans="1:21" ht="18" customHeight="1">
       <c r="A303" s="1"/>
-      <c r="B303" s="27"/>
+      <c r="B303" s="26"/>
       <c r="C303" s="17"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
@@ -7997,7 +8066,7 @@
     </row>
     <row r="304" spans="1:21" ht="18" customHeight="1">
       <c r="A304" s="1"/>
-      <c r="B304" s="27"/>
+      <c r="B304" s="26"/>
       <c r="C304" s="17"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
@@ -8020,7 +8089,7 @@
     </row>
     <row r="305" spans="1:21" ht="18" customHeight="1">
       <c r="A305" s="1"/>
-      <c r="B305" s="27"/>
+      <c r="B305" s="26"/>
       <c r="C305" s="17"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
@@ -8043,7 +8112,7 @@
     </row>
     <row r="306" spans="1:21" ht="18" customHeight="1">
       <c r="A306" s="1"/>
-      <c r="B306" s="27"/>
+      <c r="B306" s="26"/>
       <c r="C306" s="17"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
@@ -8066,7 +8135,7 @@
     </row>
     <row r="307" spans="1:21" ht="18" customHeight="1">
       <c r="A307" s="1"/>
-      <c r="B307" s="27"/>
+      <c r="B307" s="26"/>
       <c r="C307" s="17"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
@@ -8089,7 +8158,7 @@
     </row>
     <row r="308" spans="1:21" ht="18" customHeight="1">
       <c r="A308" s="1"/>
-      <c r="B308" s="27"/>
+      <c r="B308" s="26"/>
       <c r="C308" s="17"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
@@ -8112,7 +8181,7 @@
     </row>
     <row r="309" spans="1:21" ht="18" customHeight="1">
       <c r="A309" s="1"/>
-      <c r="B309" s="27"/>
+      <c r="B309" s="26"/>
       <c r="C309" s="17"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
@@ -8135,7 +8204,7 @@
     </row>
     <row r="310" spans="1:21" ht="18" customHeight="1">
       <c r="A310" s="1"/>
-      <c r="B310" s="27"/>
+      <c r="B310" s="26"/>
       <c r="C310" s="17"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
@@ -8158,7 +8227,7 @@
     </row>
     <row r="311" spans="1:21" ht="18" customHeight="1">
       <c r="A311" s="1"/>
-      <c r="B311" s="27"/>
+      <c r="B311" s="26"/>
       <c r="C311" s="17"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
@@ -8181,7 +8250,7 @@
     </row>
     <row r="312" spans="1:21" ht="18" customHeight="1">
       <c r="A312" s="1"/>
-      <c r="B312" s="27"/>
+      <c r="B312" s="26"/>
       <c r="C312" s="17"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
@@ -8204,7 +8273,7 @@
     </row>
     <row r="313" spans="1:21" ht="18" customHeight="1">
       <c r="A313" s="1"/>
-      <c r="B313" s="27"/>
+      <c r="B313" s="26"/>
       <c r="C313" s="17"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
@@ -8227,7 +8296,7 @@
     </row>
     <row r="314" spans="1:21" ht="18" customHeight="1">
       <c r="A314" s="1"/>
-      <c r="B314" s="27"/>
+      <c r="B314" s="26"/>
       <c r="C314" s="17"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
@@ -8250,7 +8319,7 @@
     </row>
     <row r="315" spans="1:21" ht="18" customHeight="1">
       <c r="A315" s="1"/>
-      <c r="B315" s="27"/>
+      <c r="B315" s="26"/>
       <c r="C315" s="17"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
@@ -8273,7 +8342,7 @@
     </row>
     <row r="316" spans="1:21" ht="18" customHeight="1">
       <c r="A316" s="1"/>
-      <c r="B316" s="27"/>
+      <c r="B316" s="26"/>
       <c r="C316" s="17"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
@@ -8296,7 +8365,7 @@
     </row>
     <row r="317" spans="1:21" ht="18" customHeight="1">
       <c r="A317" s="1"/>
-      <c r="B317" s="27"/>
+      <c r="B317" s="26"/>
       <c r="C317" s="17"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
@@ -8319,7 +8388,7 @@
     </row>
     <row r="318" spans="1:21" ht="18" customHeight="1">
       <c r="A318" s="1"/>
-      <c r="B318" s="27"/>
+      <c r="B318" s="26"/>
       <c r="C318" s="17"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
@@ -8342,7 +8411,7 @@
     </row>
     <row r="319" spans="1:21" ht="18" customHeight="1">
       <c r="A319" s="1"/>
-      <c r="B319" s="27"/>
+      <c r="B319" s="26"/>
       <c r="C319" s="17"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
@@ -8365,7 +8434,7 @@
     </row>
     <row r="320" spans="1:21" ht="18" customHeight="1">
       <c r="A320" s="1"/>
-      <c r="B320" s="27"/>
+      <c r="B320" s="26"/>
       <c r="C320" s="17"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
@@ -8388,7 +8457,7 @@
     </row>
     <row r="321" spans="1:21" ht="18" customHeight="1">
       <c r="A321" s="1"/>
-      <c r="B321" s="27"/>
+      <c r="B321" s="26"/>
       <c r="C321" s="17"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
@@ -8411,7 +8480,7 @@
     </row>
     <row r="322" spans="1:21" ht="18" customHeight="1">
       <c r="A322" s="1"/>
-      <c r="B322" s="27"/>
+      <c r="B322" s="26"/>
       <c r="C322" s="17"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
@@ -8434,7 +8503,7 @@
     </row>
     <row r="323" spans="1:21" ht="18" customHeight="1">
       <c r="A323" s="1"/>
-      <c r="B323" s="27"/>
+      <c r="B323" s="26"/>
       <c r="C323" s="17"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
@@ -8457,7 +8526,7 @@
     </row>
     <row r="324" spans="1:21" ht="18" customHeight="1">
       <c r="A324" s="1"/>
-      <c r="B324" s="27"/>
+      <c r="B324" s="26"/>
       <c r="C324" s="17"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
@@ -8480,7 +8549,7 @@
     </row>
     <row r="325" spans="1:21" ht="18" customHeight="1">
       <c r="A325" s="1"/>
-      <c r="B325" s="27"/>
+      <c r="B325" s="26"/>
       <c r="C325" s="17"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
@@ -8503,7 +8572,7 @@
     </row>
     <row r="326" spans="1:21" ht="18" customHeight="1">
       <c r="A326" s="1"/>
-      <c r="B326" s="27"/>
+      <c r="B326" s="26"/>
       <c r="C326" s="17"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
@@ -8526,7 +8595,7 @@
     </row>
     <row r="327" spans="1:21" ht="18" customHeight="1">
       <c r="A327" s="1"/>
-      <c r="B327" s="27"/>
+      <c r="B327" s="26"/>
       <c r="C327" s="17"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
@@ -8549,7 +8618,7 @@
     </row>
     <row r="328" spans="1:21" ht="18" customHeight="1">
       <c r="A328" s="1"/>
-      <c r="B328" s="27"/>
+      <c r="B328" s="26"/>
       <c r="C328" s="17"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
@@ -8572,7 +8641,7 @@
     </row>
     <row r="329" spans="1:21" ht="18" customHeight="1">
       <c r="A329" s="1"/>
-      <c r="B329" s="27"/>
+      <c r="B329" s="26"/>
       <c r="C329" s="17"/>
       <c r="D329" s="11"/>
       <c r="E329" s="11"/>
@@ -8595,7 +8664,7 @@
     </row>
     <row r="330" spans="1:21" ht="18" customHeight="1">
       <c r="A330" s="1"/>
-      <c r="B330" s="27"/>
+      <c r="B330" s="26"/>
       <c r="C330" s="17"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
@@ -8618,7 +8687,7 @@
     </row>
     <row r="331" spans="1:21" ht="18" customHeight="1">
       <c r="A331" s="1"/>
-      <c r="B331" s="27"/>
+      <c r="B331" s="26"/>
       <c r="C331" s="17"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
@@ -8641,7 +8710,7 @@
     </row>
     <row r="332" spans="1:21" ht="18" customHeight="1">
       <c r="A332" s="1"/>
-      <c r="B332" s="27"/>
+      <c r="B332" s="26"/>
       <c r="C332" s="17"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
@@ -8664,7 +8733,7 @@
     </row>
     <row r="333" spans="1:21" ht="18" customHeight="1">
       <c r="A333" s="1"/>
-      <c r="B333" s="27"/>
+      <c r="B333" s="26"/>
       <c r="C333" s="17"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
@@ -8687,7 +8756,7 @@
     </row>
     <row r="334" spans="1:21" ht="18" customHeight="1">
       <c r="A334" s="1"/>
-      <c r="B334" s="27"/>
+      <c r="B334" s="26"/>
       <c r="C334" s="17"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
@@ -8710,7 +8779,7 @@
     </row>
     <row r="335" spans="1:21" ht="18" customHeight="1">
       <c r="A335" s="1"/>
-      <c r="B335" s="27"/>
+      <c r="B335" s="26"/>
       <c r="C335" s="17"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
@@ -8733,7 +8802,7 @@
     </row>
     <row r="336" spans="1:21" ht="18" customHeight="1">
       <c r="A336" s="1"/>
-      <c r="B336" s="27"/>
+      <c r="B336" s="26"/>
       <c r="C336" s="17"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
@@ -8756,7 +8825,7 @@
     </row>
     <row r="337" spans="1:21" ht="18" customHeight="1">
       <c r="A337" s="1"/>
-      <c r="B337" s="27"/>
+      <c r="B337" s="26"/>
       <c r="C337" s="17"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
@@ -8779,7 +8848,7 @@
     </row>
     <row r="338" spans="1:21" ht="18" customHeight="1">
       <c r="A338" s="1"/>
-      <c r="B338" s="27"/>
+      <c r="B338" s="26"/>
       <c r="C338" s="17"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
@@ -8802,7 +8871,7 @@
     </row>
     <row r="339" spans="1:21" ht="18" customHeight="1">
       <c r="A339" s="1"/>
-      <c r="B339" s="27"/>
+      <c r="B339" s="26"/>
       <c r="C339" s="17"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
@@ -8825,7 +8894,7 @@
     </row>
     <row r="340" spans="1:21" ht="18" customHeight="1">
       <c r="A340" s="1"/>
-      <c r="B340" s="27"/>
+      <c r="B340" s="26"/>
       <c r="C340" s="17"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
@@ -8848,7 +8917,7 @@
     </row>
     <row r="341" spans="1:21" ht="18" customHeight="1">
       <c r="A341" s="1"/>
-      <c r="B341" s="27"/>
+      <c r="B341" s="26"/>
       <c r="C341" s="17"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
@@ -8871,7 +8940,7 @@
     </row>
     <row r="342" spans="1:21" ht="18" customHeight="1">
       <c r="A342" s="1"/>
-      <c r="B342" s="27"/>
+      <c r="B342" s="26"/>
       <c r="C342" s="17"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
@@ -8894,7 +8963,7 @@
     </row>
     <row r="343" spans="1:21" ht="18" customHeight="1">
       <c r="A343" s="1"/>
-      <c r="B343" s="27"/>
+      <c r="B343" s="26"/>
       <c r="C343" s="17"/>
       <c r="D343" s="11"/>
       <c r="E343" s="11"/>
@@ -8917,7 +8986,7 @@
     </row>
     <row r="344" spans="1:21" ht="18" customHeight="1">
       <c r="A344" s="1"/>
-      <c r="B344" s="27"/>
+      <c r="B344" s="26"/>
       <c r="C344" s="17"/>
       <c r="D344" s="11"/>
       <c r="E344" s="11"/>
@@ -8940,7 +9009,7 @@
     </row>
     <row r="345" spans="1:21" ht="18" customHeight="1">
       <c r="A345" s="1"/>
-      <c r="B345" s="27"/>
+      <c r="B345" s="26"/>
       <c r="C345" s="17"/>
       <c r="D345" s="11"/>
       <c r="E345" s="11"/>
@@ -8963,7 +9032,7 @@
     </row>
     <row r="346" spans="1:21" ht="18" customHeight="1">
       <c r="A346" s="1"/>
-      <c r="B346" s="27"/>
+      <c r="B346" s="26"/>
       <c r="C346" s="17"/>
       <c r="D346" s="11"/>
       <c r="E346" s="11"/>
@@ -8986,7 +9055,7 @@
     </row>
     <row r="347" spans="1:21" ht="18" customHeight="1">
       <c r="A347" s="1"/>
-      <c r="B347" s="27"/>
+      <c r="B347" s="26"/>
       <c r="C347" s="17"/>
       <c r="D347" s="11"/>
       <c r="E347" s="11"/>
@@ -9009,7 +9078,7 @@
     </row>
     <row r="348" spans="1:21" ht="18" customHeight="1">
       <c r="A348" s="1"/>
-      <c r="B348" s="27"/>
+      <c r="B348" s="26"/>
       <c r="C348" s="17"/>
       <c r="D348" s="11"/>
       <c r="E348" s="11"/>
@@ -9032,7 +9101,7 @@
     </row>
     <row r="349" spans="1:21" ht="18" customHeight="1">
       <c r="A349" s="1"/>
-      <c r="B349" s="27"/>
+      <c r="B349" s="26"/>
       <c r="C349" s="17"/>
       <c r="D349" s="11"/>
       <c r="E349" s="11"/>
@@ -9055,7 +9124,7 @@
     </row>
     <row r="350" spans="1:21" ht="18" customHeight="1">
       <c r="A350" s="1"/>
-      <c r="B350" s="27"/>
+      <c r="B350" s="26"/>
       <c r="C350" s="17"/>
       <c r="D350" s="11"/>
       <c r="E350" s="11"/>
@@ -9078,7 +9147,7 @@
     </row>
     <row r="351" spans="1:21" ht="18" customHeight="1">
       <c r="A351" s="1"/>
-      <c r="B351" s="27"/>
+      <c r="B351" s="26"/>
       <c r="C351" s="17"/>
       <c r="D351" s="11"/>
       <c r="E351" s="11"/>
@@ -9101,7 +9170,7 @@
     </row>
     <row r="352" spans="1:21" ht="18" customHeight="1">
       <c r="A352" s="1"/>
-      <c r="B352" s="27"/>
+      <c r="B352" s="26"/>
       <c r="C352" s="17"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
@@ -9124,7 +9193,7 @@
     </row>
     <row r="353" spans="1:21" ht="18" customHeight="1">
       <c r="A353" s="1"/>
-      <c r="B353" s="27"/>
+      <c r="B353" s="26"/>
       <c r="C353" s="17"/>
       <c r="D353" s="11"/>
       <c r="E353" s="11"/>
@@ -9147,7 +9216,7 @@
     </row>
     <row r="354" spans="1:21" ht="18" customHeight="1">
       <c r="A354" s="1"/>
-      <c r="B354" s="27"/>
+      <c r="B354" s="26"/>
       <c r="C354" s="17"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
@@ -9170,7 +9239,7 @@
     </row>
     <row r="355" spans="1:21" ht="18" customHeight="1">
       <c r="A355" s="1"/>
-      <c r="B355" s="27"/>
+      <c r="B355" s="26"/>
       <c r="C355" s="17"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
@@ -9193,7 +9262,7 @@
     </row>
     <row r="356" spans="1:21" ht="18" customHeight="1">
       <c r="A356" s="1"/>
-      <c r="B356" s="27"/>
+      <c r="B356" s="26"/>
       <c r="C356" s="17"/>
       <c r="D356" s="11"/>
       <c r="E356" s="11"/>
@@ -9216,7 +9285,7 @@
     </row>
     <row r="357" spans="1:21" ht="18" customHeight="1">
       <c r="A357" s="1"/>
-      <c r="B357" s="27"/>
+      <c r="B357" s="26"/>
       <c r="C357" s="17"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
@@ -9239,7 +9308,7 @@
     </row>
     <row r="358" spans="1:21" ht="18" customHeight="1">
       <c r="A358" s="1"/>
-      <c r="B358" s="27"/>
+      <c r="B358" s="26"/>
       <c r="C358" s="17"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
@@ -9262,7 +9331,7 @@
     </row>
     <row r="359" spans="1:21" ht="18" customHeight="1">
       <c r="A359" s="1"/>
-      <c r="B359" s="27"/>
+      <c r="B359" s="26"/>
       <c r="C359" s="17"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
@@ -9285,7 +9354,7 @@
     </row>
     <row r="360" spans="1:21" ht="18" customHeight="1">
       <c r="A360" s="1"/>
-      <c r="B360" s="27"/>
+      <c r="B360" s="26"/>
       <c r="C360" s="17"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
@@ -9308,7 +9377,7 @@
     </row>
     <row r="361" spans="1:21" ht="18" customHeight="1">
       <c r="A361" s="1"/>
-      <c r="B361" s="27"/>
+      <c r="B361" s="26"/>
       <c r="C361" s="17"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
@@ -9331,7 +9400,7 @@
     </row>
     <row r="362" spans="1:21" ht="18" customHeight="1">
       <c r="A362" s="1"/>
-      <c r="B362" s="27"/>
+      <c r="B362" s="26"/>
       <c r="C362" s="17"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
@@ -9354,7 +9423,7 @@
     </row>
     <row r="363" spans="1:21" ht="18" customHeight="1">
       <c r="A363" s="1"/>
-      <c r="B363" s="27"/>
+      <c r="B363" s="26"/>
       <c r="C363" s="17"/>
       <c r="D363" s="11"/>
       <c r="E363" s="11"/>
@@ -9377,7 +9446,7 @@
     </row>
     <row r="364" spans="1:21" ht="18" customHeight="1">
       <c r="A364" s="1"/>
-      <c r="B364" s="27"/>
+      <c r="B364" s="26"/>
       <c r="C364" s="17"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
@@ -9400,7 +9469,7 @@
     </row>
     <row r="365" spans="1:21" ht="18" customHeight="1">
       <c r="A365" s="1"/>
-      <c r="B365" s="27"/>
+      <c r="B365" s="26"/>
       <c r="C365" s="17"/>
       <c r="D365" s="11"/>
       <c r="E365" s="11"/>
@@ -9423,7 +9492,7 @@
     </row>
     <row r="366" spans="1:21" ht="18" customHeight="1">
       <c r="A366" s="1"/>
-      <c r="B366" s="27"/>
+      <c r="B366" s="26"/>
       <c r="C366" s="17"/>
       <c r="D366" s="11"/>
       <c r="E366" s="11"/>
@@ -9446,7 +9515,7 @@
     </row>
     <row r="367" spans="1:21" ht="18" customHeight="1">
       <c r="A367" s="1"/>
-      <c r="B367" s="27"/>
+      <c r="B367" s="26"/>
       <c r="C367" s="17"/>
       <c r="D367" s="11"/>
       <c r="E367" s="11"/>
@@ -9469,7 +9538,7 @@
     </row>
     <row r="368" spans="1:21" ht="18" customHeight="1">
       <c r="A368" s="1"/>
-      <c r="B368" s="27"/>
+      <c r="B368" s="26"/>
       <c r="C368" s="17"/>
       <c r="D368" s="11"/>
       <c r="E368" s="11"/>
@@ -9492,7 +9561,7 @@
     </row>
     <row r="369" spans="1:21" ht="18" customHeight="1">
       <c r="A369" s="1"/>
-      <c r="B369" s="27"/>
+      <c r="B369" s="26"/>
       <c r="C369" s="17"/>
       <c r="D369" s="11"/>
       <c r="E369" s="11"/>
@@ -9515,7 +9584,7 @@
     </row>
     <row r="370" spans="1:21" ht="18" customHeight="1">
       <c r="A370" s="1"/>
-      <c r="B370" s="27"/>
+      <c r="B370" s="26"/>
       <c r="C370" s="17"/>
       <c r="D370" s="11"/>
       <c r="E370" s="11"/>
@@ -9538,7 +9607,7 @@
     </row>
     <row r="371" spans="1:21" ht="18" customHeight="1">
       <c r="A371" s="1"/>
-      <c r="B371" s="27"/>
+      <c r="B371" s="26"/>
       <c r="C371" s="17"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
@@ -9561,7 +9630,7 @@
     </row>
     <row r="372" spans="1:21" ht="18" customHeight="1">
       <c r="A372" s="1"/>
-      <c r="B372" s="27"/>
+      <c r="B372" s="26"/>
       <c r="C372" s="17"/>
       <c r="D372" s="11"/>
       <c r="E372" s="11"/>
@@ -9584,7 +9653,7 @@
     </row>
     <row r="373" spans="1:21" ht="18" customHeight="1">
       <c r="A373" s="1"/>
-      <c r="B373" s="27"/>
+      <c r="B373" s="26"/>
       <c r="C373" s="17"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
@@ -9607,7 +9676,7 @@
     </row>
     <row r="374" spans="1:21" ht="18" customHeight="1">
       <c r="A374" s="1"/>
-      <c r="B374" s="27"/>
+      <c r="B374" s="26"/>
       <c r="C374" s="17"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
@@ -9630,7 +9699,7 @@
     </row>
     <row r="375" spans="1:21" ht="18" customHeight="1">
       <c r="A375" s="1"/>
-      <c r="B375" s="27"/>
+      <c r="B375" s="26"/>
       <c r="C375" s="17"/>
       <c r="D375" s="11"/>
       <c r="E375" s="11"/>
@@ -9653,7 +9722,7 @@
     </row>
     <row r="376" spans="1:21" ht="18" customHeight="1">
       <c r="A376" s="1"/>
-      <c r="B376" s="27"/>
+      <c r="B376" s="26"/>
       <c r="C376" s="17"/>
       <c r="D376" s="11"/>
       <c r="E376" s="11"/>
@@ -9676,7 +9745,7 @@
     </row>
     <row r="377" spans="1:21" ht="18" customHeight="1">
       <c r="A377" s="1"/>
-      <c r="B377" s="27"/>
+      <c r="B377" s="26"/>
       <c r="C377" s="17"/>
       <c r="D377" s="11"/>
       <c r="E377" s="11"/>
@@ -9699,7 +9768,7 @@
     </row>
     <row r="378" spans="1:21" ht="18" customHeight="1">
       <c r="A378" s="1"/>
-      <c r="B378" s="27"/>
+      <c r="B378" s="26"/>
       <c r="C378" s="17"/>
       <c r="D378" s="11"/>
       <c r="E378" s="11"/>
@@ -9722,7 +9791,7 @@
     </row>
     <row r="379" spans="1:21" ht="18" customHeight="1">
       <c r="A379" s="1"/>
-      <c r="B379" s="27"/>
+      <c r="B379" s="26"/>
       <c r="C379" s="17"/>
       <c r="D379" s="11"/>
       <c r="E379" s="11"/>
@@ -9745,7 +9814,7 @@
     </row>
     <row r="380" spans="1:21" ht="18" customHeight="1">
       <c r="A380" s="1"/>
-      <c r="B380" s="27"/>
+      <c r="B380" s="26"/>
       <c r="C380" s="17"/>
       <c r="D380" s="11"/>
       <c r="E380" s="11"/>
@@ -9768,7 +9837,7 @@
     </row>
     <row r="381" spans="1:21" ht="18" customHeight="1">
       <c r="A381" s="1"/>
-      <c r="B381" s="27"/>
+      <c r="B381" s="26"/>
       <c r="C381" s="17"/>
       <c r="D381" s="11"/>
       <c r="E381" s="11"/>
@@ -9791,7 +9860,7 @@
     </row>
     <row r="382" spans="1:21" ht="18" customHeight="1">
       <c r="A382" s="1"/>
-      <c r="B382" s="27"/>
+      <c r="B382" s="26"/>
       <c r="C382" s="17"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
@@ -9814,7 +9883,7 @@
     </row>
     <row r="383" spans="1:21" ht="18" customHeight="1">
       <c r="A383" s="1"/>
-      <c r="B383" s="27"/>
+      <c r="B383" s="26"/>
       <c r="C383" s="17"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
@@ -9837,7 +9906,7 @@
     </row>
     <row r="384" spans="1:21" ht="18" customHeight="1">
       <c r="A384" s="1"/>
-      <c r="B384" s="27"/>
+      <c r="B384" s="26"/>
       <c r="C384" s="17"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
@@ -9860,7 +9929,7 @@
     </row>
     <row r="385" spans="1:21" ht="18" customHeight="1">
       <c r="A385" s="1"/>
-      <c r="B385" s="27"/>
+      <c r="B385" s="26"/>
       <c r="C385" s="17"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
@@ -9883,7 +9952,7 @@
     </row>
     <row r="386" spans="1:21" ht="18" customHeight="1">
       <c r="A386" s="1"/>
-      <c r="B386" s="27"/>
+      <c r="B386" s="26"/>
       <c r="C386" s="17"/>
       <c r="D386" s="11"/>
       <c r="E386" s="11"/>
@@ -9906,7 +9975,7 @@
     </row>
     <row r="387" spans="1:21" ht="18" customHeight="1">
       <c r="A387" s="1"/>
-      <c r="B387" s="27"/>
+      <c r="B387" s="26"/>
       <c r="C387" s="17"/>
       <c r="D387" s="11"/>
       <c r="E387" s="11"/>
@@ -9929,7 +9998,7 @@
     </row>
     <row r="388" spans="1:21" ht="18" customHeight="1">
       <c r="A388" s="1"/>
-      <c r="B388" s="27"/>
+      <c r="B388" s="26"/>
       <c r="C388" s="17"/>
       <c r="D388" s="11"/>
       <c r="E388" s="11"/>
@@ -9952,7 +10021,7 @@
     </row>
     <row r="389" spans="1:21" ht="18" customHeight="1">
       <c r="A389" s="1"/>
-      <c r="B389" s="27"/>
+      <c r="B389" s="26"/>
       <c r="C389" s="17"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
@@ -9975,7 +10044,7 @@
     </row>
     <row r="390" spans="1:21" ht="18" customHeight="1">
       <c r="A390" s="1"/>
-      <c r="B390" s="27"/>
+      <c r="B390" s="26"/>
       <c r="C390" s="17"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
@@ -9998,7 +10067,7 @@
     </row>
     <row r="391" spans="1:21" ht="18" customHeight="1">
       <c r="A391" s="1"/>
-      <c r="B391" s="27"/>
+      <c r="B391" s="26"/>
       <c r="C391" s="17"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
@@ -10021,7 +10090,7 @@
     </row>
     <row r="392" spans="1:21" ht="18" customHeight="1">
       <c r="A392" s="1"/>
-      <c r="B392" s="27"/>
+      <c r="B392" s="26"/>
       <c r="C392" s="17"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
@@ -10044,7 +10113,7 @@
     </row>
     <row r="393" spans="1:21" ht="18" customHeight="1">
       <c r="A393" s="1"/>
-      <c r="B393" s="27"/>
+      <c r="B393" s="26"/>
       <c r="C393" s="17"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
@@ -10067,7 +10136,7 @@
     </row>
     <row r="394" spans="1:21" ht="18" customHeight="1">
       <c r="A394" s="1"/>
-      <c r="B394" s="27"/>
+      <c r="B394" s="26"/>
       <c r="C394" s="17"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
@@ -10090,7 +10159,7 @@
     </row>
     <row r="395" spans="1:21" ht="18" customHeight="1">
       <c r="A395" s="1"/>
-      <c r="B395" s="27"/>
+      <c r="B395" s="26"/>
       <c r="C395" s="17"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
@@ -10113,7 +10182,7 @@
     </row>
     <row r="396" spans="1:21" ht="18" customHeight="1">
       <c r="A396" s="1"/>
-      <c r="B396" s="27"/>
+      <c r="B396" s="26"/>
       <c r="C396" s="17"/>
       <c r="D396" s="11"/>
       <c r="E396" s="11"/>
@@ -10136,7 +10205,7 @@
     </row>
     <row r="397" spans="1:21" ht="18" customHeight="1">
       <c r="A397" s="1"/>
-      <c r="B397" s="27"/>
+      <c r="B397" s="26"/>
       <c r="C397" s="17"/>
       <c r="D397" s="11"/>
       <c r="E397" s="11"/>
@@ -10159,7 +10228,7 @@
     </row>
     <row r="398" spans="1:21" ht="18" customHeight="1">
       <c r="A398" s="1"/>
-      <c r="B398" s="27"/>
+      <c r="B398" s="26"/>
       <c r="C398" s="17"/>
       <c r="D398" s="11"/>
       <c r="E398" s="11"/>
@@ -10182,7 +10251,7 @@
     </row>
     <row r="399" spans="1:21" ht="18" customHeight="1">
       <c r="A399" s="1"/>
-      <c r="B399" s="27"/>
+      <c r="B399" s="26"/>
       <c r="C399" s="17"/>
       <c r="D399" s="11"/>
       <c r="E399" s="11"/>
@@ -10205,7 +10274,7 @@
     </row>
     <row r="400" spans="1:21" ht="18" customHeight="1">
       <c r="A400" s="1"/>
-      <c r="B400" s="27"/>
+      <c r="B400" s="26"/>
       <c r="C400" s="17"/>
       <c r="D400" s="11"/>
       <c r="E400" s="11"/>
@@ -10228,7 +10297,7 @@
     </row>
     <row r="401" spans="1:21" ht="18" customHeight="1">
       <c r="A401" s="1"/>
-      <c r="B401" s="27"/>
+      <c r="B401" s="26"/>
       <c r="C401" s="17"/>
       <c r="D401" s="11"/>
       <c r="E401" s="11"/>
@@ -10251,7 +10320,7 @@
     </row>
     <row r="402" spans="1:21" ht="18" customHeight="1">
       <c r="A402" s="1"/>
-      <c r="B402" s="27"/>
+      <c r="B402" s="26"/>
       <c r="C402" s="17"/>
       <c r="D402" s="11"/>
       <c r="E402" s="11"/>
@@ -10274,7 +10343,7 @@
     </row>
     <row r="403" spans="1:21" ht="18" customHeight="1">
       <c r="A403" s="1"/>
-      <c r="B403" s="27"/>
+      <c r="B403" s="26"/>
       <c r="C403" s="17"/>
       <c r="D403" s="11"/>
       <c r="E403" s="11"/>
@@ -10297,7 +10366,7 @@
     </row>
     <row r="404" spans="1:21" ht="18" customHeight="1">
       <c r="A404" s="1"/>
-      <c r="B404" s="27"/>
+      <c r="B404" s="26"/>
       <c r="C404" s="17"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
@@ -10320,7 +10389,7 @@
     </row>
     <row r="405" spans="1:21" ht="18" customHeight="1">
       <c r="A405" s="1"/>
-      <c r="B405" s="27"/>
+      <c r="B405" s="26"/>
       <c r="C405" s="17"/>
       <c r="D405" s="11"/>
       <c r="E405" s="11"/>
@@ -10343,7 +10412,7 @@
     </row>
     <row r="406" spans="1:21" ht="18" customHeight="1">
       <c r="A406" s="1"/>
-      <c r="B406" s="27"/>
+      <c r="B406" s="26"/>
       <c r="C406" s="17"/>
       <c r="D406" s="11"/>
       <c r="E406" s="11"/>
@@ -10366,7 +10435,7 @@
     </row>
     <row r="407" spans="1:21" ht="18" customHeight="1">
       <c r="A407" s="1"/>
-      <c r="B407" s="27"/>
+      <c r="B407" s="26"/>
       <c r="C407" s="17"/>
       <c r="D407" s="11"/>
       <c r="E407" s="11"/>
@@ -10389,7 +10458,7 @@
     </row>
     <row r="408" spans="1:21" ht="18" customHeight="1">
       <c r="A408" s="1"/>
-      <c r="B408" s="27"/>
+      <c r="B408" s="26"/>
       <c r="C408" s="17"/>
       <c r="D408" s="11"/>
       <c r="E408" s="11"/>
@@ -10412,7 +10481,7 @@
     </row>
     <row r="409" spans="1:21" ht="18" customHeight="1">
       <c r="A409" s="1"/>
-      <c r="B409" s="27"/>
+      <c r="B409" s="26"/>
       <c r="C409" s="17"/>
       <c r="D409" s="11"/>
       <c r="E409" s="11"/>
@@ -10435,7 +10504,7 @@
     </row>
     <row r="410" spans="1:21" ht="18" customHeight="1">
       <c r="A410" s="1"/>
-      <c r="B410" s="27"/>
+      <c r="B410" s="26"/>
       <c r="C410" s="17"/>
       <c r="D410" s="11"/>
       <c r="E410" s="11"/>
@@ -10458,7 +10527,7 @@
     </row>
     <row r="411" spans="1:21" ht="18" customHeight="1">
       <c r="A411" s="1"/>
-      <c r="B411" s="27"/>
+      <c r="B411" s="26"/>
       <c r="C411" s="17"/>
       <c r="D411" s="11"/>
       <c r="E411" s="11"/>
@@ -10481,7 +10550,7 @@
     </row>
     <row r="412" spans="1:21" ht="18" customHeight="1">
       <c r="A412" s="1"/>
-      <c r="B412" s="27"/>
+      <c r="B412" s="26"/>
       <c r="C412" s="17"/>
       <c r="D412" s="11"/>
       <c r="E412" s="11"/>
@@ -10504,7 +10573,7 @@
     </row>
     <row r="413" spans="1:21" ht="18" customHeight="1">
       <c r="A413" s="1"/>
-      <c r="B413" s="27"/>
+      <c r="B413" s="26"/>
       <c r="C413" s="17"/>
       <c r="D413" s="11"/>
       <c r="E413" s="11"/>
@@ -10527,7 +10596,7 @@
     </row>
     <row r="414" spans="1:21" ht="18" customHeight="1">
       <c r="A414" s="1"/>
-      <c r="B414" s="27"/>
+      <c r="B414" s="26"/>
       <c r="C414" s="17"/>
       <c r="D414" s="11"/>
       <c r="E414" s="11"/>
@@ -10550,7 +10619,7 @@
     </row>
     <row r="415" spans="1:21" ht="18" customHeight="1">
       <c r="A415" s="1"/>
-      <c r="B415" s="27"/>
+      <c r="B415" s="26"/>
       <c r="C415" s="17"/>
       <c r="D415" s="11"/>
       <c r="E415" s="11"/>
@@ -10573,7 +10642,7 @@
     </row>
     <row r="416" spans="1:21" ht="18" customHeight="1">
       <c r="A416" s="1"/>
-      <c r="B416" s="27"/>
+      <c r="B416" s="26"/>
       <c r="C416" s="17"/>
       <c r="D416" s="11"/>
       <c r="E416" s="11"/>
@@ -10596,7 +10665,7 @@
     </row>
     <row r="417" spans="1:21" ht="18" customHeight="1">
       <c r="A417" s="1"/>
-      <c r="B417" s="27"/>
+      <c r="B417" s="26"/>
       <c r="C417" s="17"/>
       <c r="D417" s="11"/>
       <c r="E417" s="11"/>
@@ -10619,7 +10688,7 @@
     </row>
     <row r="418" spans="1:21" ht="18" customHeight="1">
       <c r="A418" s="1"/>
-      <c r="B418" s="27"/>
+      <c r="B418" s="26"/>
       <c r="C418" s="17"/>
       <c r="D418" s="11"/>
       <c r="E418" s="11"/>
@@ -10642,7 +10711,7 @@
     </row>
     <row r="419" spans="1:21" ht="18" customHeight="1">
       <c r="A419" s="1"/>
-      <c r="B419" s="27"/>
+      <c r="B419" s="26"/>
       <c r="C419" s="17"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
@@ -10665,7 +10734,7 @@
     </row>
     <row r="420" spans="1:21" ht="18" customHeight="1">
       <c r="A420" s="1"/>
-      <c r="B420" s="27"/>
+      <c r="B420" s="26"/>
       <c r="C420" s="17"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
@@ -10688,7 +10757,7 @@
     </row>
     <row r="421" spans="1:21" ht="18" customHeight="1">
       <c r="A421" s="1"/>
-      <c r="B421" s="27"/>
+      <c r="B421" s="26"/>
       <c r="C421" s="17"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
@@ -10711,7 +10780,7 @@
     </row>
     <row r="422" spans="1:21" ht="18" customHeight="1">
       <c r="A422" s="1"/>
-      <c r="B422" s="27"/>
+      <c r="B422" s="26"/>
       <c r="C422" s="17"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
@@ -10734,7 +10803,7 @@
     </row>
     <row r="423" spans="1:21" ht="18" customHeight="1">
       <c r="A423" s="1"/>
-      <c r="B423" s="27"/>
+      <c r="B423" s="26"/>
       <c r="C423" s="17"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
@@ -10757,7 +10826,7 @@
     </row>
     <row r="424" spans="1:21" ht="18" customHeight="1">
       <c r="A424" s="1"/>
-      <c r="B424" s="27"/>
+      <c r="B424" s="26"/>
       <c r="C424" s="17"/>
       <c r="D424" s="11"/>
       <c r="E424" s="11"/>
@@ -10780,7 +10849,7 @@
     </row>
     <row r="425" spans="1:21" ht="18" customHeight="1">
       <c r="A425" s="1"/>
-      <c r="B425" s="27"/>
+      <c r="B425" s="26"/>
       <c r="C425" s="17"/>
       <c r="D425" s="11"/>
       <c r="E425" s="11"/>
@@ -10803,7 +10872,7 @@
     </row>
     <row r="426" spans="1:21" ht="18" customHeight="1">
       <c r="A426" s="1"/>
-      <c r="B426" s="27"/>
+      <c r="B426" s="26"/>
       <c r="C426" s="17"/>
       <c r="D426" s="11"/>
       <c r="E426" s="11"/>
@@ -10826,7 +10895,7 @@
     </row>
     <row r="427" spans="1:21" ht="18" customHeight="1">
       <c r="A427" s="1"/>
-      <c r="B427" s="27"/>
+      <c r="B427" s="26"/>
       <c r="C427" s="17"/>
       <c r="D427" s="11"/>
       <c r="E427" s="11"/>
@@ -10849,7 +10918,7 @@
     </row>
     <row r="428" spans="1:21" ht="18" customHeight="1">
       <c r="A428" s="1"/>
-      <c r="B428" s="27"/>
+      <c r="B428" s="26"/>
       <c r="C428" s="17"/>
       <c r="D428" s="11"/>
       <c r="E428" s="11"/>
@@ -10872,7 +10941,7 @@
     </row>
     <row r="429" spans="1:21" ht="18" customHeight="1">
       <c r="A429" s="1"/>
-      <c r="B429" s="27"/>
+      <c r="B429" s="26"/>
       <c r="C429" s="17"/>
       <c r="D429" s="11"/>
       <c r="E429" s="11"/>
@@ -10895,7 +10964,7 @@
     </row>
     <row r="430" spans="1:21" ht="18" customHeight="1">
       <c r="A430" s="1"/>
-      <c r="B430" s="27"/>
+      <c r="B430" s="26"/>
       <c r="C430" s="17"/>
       <c r="D430" s="11"/>
       <c r="E430" s="11"/>
@@ -10918,7 +10987,7 @@
     </row>
     <row r="431" spans="1:21" ht="18" customHeight="1">
       <c r="A431" s="1"/>
-      <c r="B431" s="27"/>
+      <c r="B431" s="26"/>
       <c r="C431" s="17"/>
       <c r="D431" s="11"/>
       <c r="E431" s="11"/>
@@ -10941,7 +11010,7 @@
     </row>
     <row r="432" spans="1:21" ht="18" customHeight="1">
       <c r="A432" s="1"/>
-      <c r="B432" s="27"/>
+      <c r="B432" s="26"/>
       <c r="C432" s="17"/>
       <c r="D432" s="11"/>
       <c r="E432" s="11"/>
@@ -10964,7 +11033,7 @@
     </row>
     <row r="433" spans="1:21" ht="18" customHeight="1">
       <c r="A433" s="1"/>
-      <c r="B433" s="27"/>
+      <c r="B433" s="26"/>
       <c r="C433" s="17"/>
       <c r="D433" s="11"/>
       <c r="E433" s="11"/>
@@ -10987,7 +11056,7 @@
     </row>
     <row r="434" spans="1:21" ht="18" customHeight="1">
       <c r="A434" s="1"/>
-      <c r="B434" s="27"/>
+      <c r="B434" s="26"/>
       <c r="C434" s="17"/>
       <c r="D434" s="11"/>
       <c r="E434" s="11"/>
@@ -11010,7 +11079,7 @@
     </row>
     <row r="435" spans="1:21" ht="18" customHeight="1">
       <c r="A435" s="1"/>
-      <c r="B435" s="27"/>
+      <c r="B435" s="26"/>
       <c r="C435" s="17"/>
       <c r="D435" s="11"/>
       <c r="E435" s="11"/>
@@ -11033,7 +11102,7 @@
     </row>
     <row r="436" spans="1:21" ht="18" customHeight="1">
       <c r="A436" s="1"/>
-      <c r="B436" s="27"/>
+      <c r="B436" s="26"/>
       <c r="C436" s="17"/>
       <c r="D436" s="11"/>
       <c r="E436" s="11"/>
@@ -11056,7 +11125,7 @@
     </row>
     <row r="437" spans="1:21" ht="18" customHeight="1">
       <c r="A437" s="1"/>
-      <c r="B437" s="27"/>
+      <c r="B437" s="26"/>
       <c r="C437" s="17"/>
       <c r="D437" s="11"/>
       <c r="E437" s="11"/>
@@ -11079,7 +11148,7 @@
     </row>
     <row r="438" spans="1:21" ht="18" customHeight="1">
       <c r="A438" s="1"/>
-      <c r="B438" s="27"/>
+      <c r="B438" s="26"/>
       <c r="C438" s="17"/>
       <c r="D438" s="11"/>
       <c r="E438" s="11"/>
@@ -11102,7 +11171,7 @@
     </row>
     <row r="439" spans="1:21" ht="18" customHeight="1">
       <c r="A439" s="1"/>
-      <c r="B439" s="27"/>
+      <c r="B439" s="26"/>
       <c r="C439" s="17"/>
       <c r="D439" s="11"/>
       <c r="E439" s="11"/>
@@ -11125,7 +11194,7 @@
     </row>
     <row r="440" spans="1:21" ht="18" customHeight="1">
       <c r="A440" s="1"/>
-      <c r="B440" s="27"/>
+      <c r="B440" s="26"/>
       <c r="C440" s="17"/>
       <c r="D440" s="11"/>
       <c r="E440" s="11"/>
@@ -11148,7 +11217,7 @@
     </row>
     <row r="441" spans="1:21" ht="18" customHeight="1">
       <c r="A441" s="1"/>
-      <c r="B441" s="27"/>
+      <c r="B441" s="26"/>
       <c r="C441" s="17"/>
       <c r="D441" s="11"/>
       <c r="E441" s="11"/>
@@ -11171,7 +11240,7 @@
     </row>
     <row r="442" spans="1:21" ht="18" customHeight="1">
       <c r="A442" s="1"/>
-      <c r="B442" s="27"/>
+      <c r="B442" s="26"/>
       <c r="C442" s="17"/>
       <c r="D442" s="11"/>
       <c r="E442" s="11"/>
@@ -11194,7 +11263,7 @@
     </row>
     <row r="443" spans="1:21" ht="18" customHeight="1">
       <c r="A443" s="1"/>
-      <c r="B443" s="27"/>
+      <c r="B443" s="26"/>
       <c r="C443" s="17"/>
       <c r="D443" s="11"/>
       <c r="E443" s="11"/>
@@ -11217,7 +11286,7 @@
     </row>
     <row r="444" spans="1:21" ht="18" customHeight="1">
       <c r="A444" s="1"/>
-      <c r="B444" s="27"/>
+      <c r="B444" s="26"/>
       <c r="C444" s="17"/>
       <c r="D444" s="11"/>
       <c r="E444" s="11"/>
@@ -11240,7 +11309,7 @@
     </row>
     <row r="445" spans="1:21" ht="18" customHeight="1">
       <c r="A445" s="1"/>
-      <c r="B445" s="27"/>
+      <c r="B445" s="26"/>
       <c r="C445" s="17"/>
       <c r="D445" s="11"/>
       <c r="E445" s="11"/>
@@ -11263,7 +11332,7 @@
     </row>
     <row r="446" spans="1:21" ht="18" customHeight="1">
       <c r="A446" s="1"/>
-      <c r="B446" s="27"/>
+      <c r="B446" s="26"/>
       <c r="C446" s="17"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
@@ -11286,7 +11355,7 @@
     </row>
     <row r="447" spans="1:21" ht="18" customHeight="1">
       <c r="A447" s="1"/>
-      <c r="B447" s="27"/>
+      <c r="B447" s="26"/>
       <c r="C447" s="17"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
@@ -11309,7 +11378,7 @@
     </row>
     <row r="448" spans="1:21" ht="18" customHeight="1">
       <c r="A448" s="1"/>
-      <c r="B448" s="27"/>
+      <c r="B448" s="26"/>
       <c r="C448" s="17"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
@@ -11332,7 +11401,7 @@
     </row>
     <row r="449" spans="1:21" ht="18" customHeight="1">
       <c r="A449" s="1"/>
-      <c r="B449" s="27"/>
+      <c r="B449" s="26"/>
       <c r="C449" s="17"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
@@ -11355,7 +11424,7 @@
     </row>
     <row r="450" spans="1:21" ht="18" customHeight="1">
       <c r="A450" s="1"/>
-      <c r="B450" s="27"/>
+      <c r="B450" s="26"/>
       <c r="C450" s="17"/>
       <c r="D450" s="11"/>
       <c r="E450" s="11"/>
@@ -11378,7 +11447,7 @@
     </row>
     <row r="451" spans="1:21" ht="18" customHeight="1">
       <c r="A451" s="1"/>
-      <c r="B451" s="27"/>
+      <c r="B451" s="26"/>
       <c r="C451" s="17"/>
       <c r="D451" s="11"/>
       <c r="E451" s="11"/>
@@ -11401,7 +11470,7 @@
     </row>
     <row r="452" spans="1:21" ht="18" customHeight="1">
       <c r="A452" s="1"/>
-      <c r="B452" s="27"/>
+      <c r="B452" s="26"/>
       <c r="C452" s="17"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
@@ -11424,7 +11493,7 @@
     </row>
     <row r="453" spans="1:21" ht="18" customHeight="1">
       <c r="A453" s="1"/>
-      <c r="B453" s="27"/>
+      <c r="B453" s="26"/>
       <c r="C453" s="17"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
@@ -11447,7 +11516,7 @@
     </row>
     <row r="454" spans="1:21" ht="18" customHeight="1">
       <c r="A454" s="1"/>
-      <c r="B454" s="27"/>
+      <c r="B454" s="26"/>
       <c r="C454" s="17"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
@@ -11470,7 +11539,7 @@
     </row>
     <row r="455" spans="1:21" ht="18" customHeight="1">
       <c r="A455" s="1"/>
-      <c r="B455" s="27"/>
+      <c r="B455" s="26"/>
       <c r="C455" s="17"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
@@ -11493,7 +11562,7 @@
     </row>
     <row r="456" spans="1:21" ht="18" customHeight="1">
       <c r="A456" s="1"/>
-      <c r="B456" s="27"/>
+      <c r="B456" s="26"/>
       <c r="C456" s="17"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
@@ -11516,7 +11585,7 @@
     </row>
     <row r="457" spans="1:21" ht="18" customHeight="1">
       <c r="A457" s="1"/>
-      <c r="B457" s="27"/>
+      <c r="B457" s="26"/>
       <c r="C457" s="17"/>
       <c r="D457" s="11"/>
       <c r="E457" s="11"/>
@@ -11539,7 +11608,7 @@
     </row>
     <row r="458" spans="1:21" ht="18" customHeight="1">
       <c r="A458" s="1"/>
-      <c r="B458" s="27"/>
+      <c r="B458" s="26"/>
       <c r="C458" s="17"/>
       <c r="D458" s="11"/>
       <c r="E458" s="11"/>
@@ -11562,7 +11631,7 @@
     </row>
     <row r="459" spans="1:21" ht="18" customHeight="1">
       <c r="A459" s="1"/>
-      <c r="B459" s="27"/>
+      <c r="B459" s="26"/>
       <c r="C459" s="17"/>
       <c r="D459" s="11"/>
       <c r="E459" s="11"/>
@@ -11585,7 +11654,7 @@
     </row>
     <row r="460" spans="1:21" ht="18" customHeight="1">
       <c r="A460" s="1"/>
-      <c r="B460" s="27"/>
+      <c r="B460" s="26"/>
       <c r="C460" s="17"/>
       <c r="D460" s="11"/>
       <c r="E460" s="11"/>
@@ -11608,7 +11677,7 @@
     </row>
     <row r="461" spans="1:21" ht="18" customHeight="1">
       <c r="A461" s="1"/>
-      <c r="B461" s="27"/>
+      <c r="B461" s="26"/>
       <c r="C461" s="17"/>
       <c r="D461" s="11"/>
       <c r="E461" s="11"/>
@@ -11631,7 +11700,7 @@
     </row>
     <row r="462" spans="1:21" ht="18" customHeight="1">
       <c r="A462" s="1"/>
-      <c r="B462" s="27"/>
+      <c r="B462" s="26"/>
       <c r="C462" s="17"/>
       <c r="D462" s="11"/>
       <c r="E462" s="11"/>
@@ -11654,7 +11723,7 @@
     </row>
     <row r="463" spans="1:21" ht="18" customHeight="1">
       <c r="A463" s="1"/>
-      <c r="B463" s="27"/>
+      <c r="B463" s="26"/>
       <c r="C463" s="17"/>
       <c r="D463" s="11"/>
       <c r="E463" s="11"/>
@@ -11677,7 +11746,7 @@
     </row>
     <row r="464" spans="1:21" ht="18" customHeight="1">
       <c r="A464" s="1"/>
-      <c r="B464" s="27"/>
+      <c r="B464" s="26"/>
       <c r="C464" s="17"/>
       <c r="D464" s="11"/>
       <c r="E464" s="11"/>
@@ -11700,7 +11769,7 @@
     </row>
     <row r="465" spans="1:21" ht="18" customHeight="1">
       <c r="A465" s="1"/>
-      <c r="B465" s="27"/>
+      <c r="B465" s="26"/>
       <c r="C465" s="17"/>
       <c r="D465" s="11"/>
       <c r="E465" s="11"/>
@@ -11723,7 +11792,7 @@
     </row>
     <row r="466" spans="1:21" ht="18" customHeight="1">
       <c r="A466" s="1"/>
-      <c r="B466" s="27"/>
+      <c r="B466" s="26"/>
       <c r="C466" s="17"/>
       <c r="D466" s="11"/>
       <c r="E466" s="11"/>
@@ -11746,7 +11815,7 @@
     </row>
     <row r="467" spans="1:21" ht="18" customHeight="1">
       <c r="A467" s="1"/>
-      <c r="B467" s="27"/>
+      <c r="B467" s="26"/>
       <c r="C467" s="17"/>
       <c r="D467" s="11"/>
       <c r="E467" s="11"/>
@@ -11769,7 +11838,7 @@
     </row>
     <row r="468" spans="1:21" ht="18" customHeight="1">
       <c r="A468" s="1"/>
-      <c r="B468" s="27"/>
+      <c r="B468" s="26"/>
       <c r="C468" s="17"/>
       <c r="D468" s="11"/>
       <c r="E468" s="11"/>
@@ -11792,7 +11861,7 @@
     </row>
     <row r="469" spans="1:21" ht="18" customHeight="1">
       <c r="A469" s="1"/>
-      <c r="B469" s="27"/>
+      <c r="B469" s="26"/>
       <c r="C469" s="17"/>
       <c r="D469" s="11"/>
       <c r="E469" s="11"/>
@@ -11815,7 +11884,7 @@
     </row>
     <row r="470" spans="1:21" ht="18" customHeight="1">
       <c r="A470" s="1"/>
-      <c r="B470" s="27"/>
+      <c r="B470" s="26"/>
       <c r="C470" s="17"/>
       <c r="D470" s="11"/>
       <c r="E470" s="11"/>
@@ -11838,7 +11907,7 @@
     </row>
     <row r="471" spans="1:21" ht="18" customHeight="1">
       <c r="A471" s="1"/>
-      <c r="B471" s="27"/>
+      <c r="B471" s="26"/>
       <c r="C471" s="17"/>
       <c r="D471" s="11"/>
       <c r="E471" s="11"/>
@@ -11861,7 +11930,7 @@
     </row>
     <row r="472" spans="1:21" ht="18" customHeight="1">
       <c r="A472" s="1"/>
-      <c r="B472" s="27"/>
+      <c r="B472" s="26"/>
       <c r="C472" s="17"/>
       <c r="D472" s="11"/>
       <c r="E472" s="11"/>
@@ -11884,7 +11953,7 @@
     </row>
     <row r="473" spans="1:21" ht="18" customHeight="1">
       <c r="A473" s="1"/>
-      <c r="B473" s="27"/>
+      <c r="B473" s="26"/>
       <c r="C473" s="17"/>
       <c r="D473" s="11"/>
       <c r="E473" s="11"/>
@@ -11907,7 +11976,7 @@
     </row>
     <row r="474" spans="1:21" ht="18" customHeight="1">
       <c r="A474" s="1"/>
-      <c r="B474" s="27"/>
+      <c r="B474" s="26"/>
       <c r="C474" s="17"/>
       <c r="D474" s="11"/>
       <c r="E474" s="11"/>
@@ -11930,7 +11999,7 @@
     </row>
     <row r="475" spans="1:21" ht="18" customHeight="1">
       <c r="A475" s="1"/>
-      <c r="B475" s="27"/>
+      <c r="B475" s="26"/>
       <c r="C475" s="17"/>
       <c r="D475" s="11"/>
       <c r="E475" s="11"/>
@@ -11953,7 +12022,7 @@
     </row>
     <row r="476" spans="1:21" ht="18" customHeight="1">
       <c r="A476" s="1"/>
-      <c r="B476" s="27"/>
+      <c r="B476" s="26"/>
       <c r="C476" s="17"/>
       <c r="D476" s="11"/>
       <c r="E476" s="11"/>
@@ -11976,7 +12045,7 @@
     </row>
     <row r="477" spans="1:21" ht="18" customHeight="1">
       <c r="A477" s="1"/>
-      <c r="B477" s="27"/>
+      <c r="B477" s="26"/>
       <c r="C477" s="17"/>
       <c r="D477" s="11"/>
       <c r="E477" s="11"/>
@@ -11999,7 +12068,7 @@
     </row>
     <row r="478" spans="1:21" ht="18" customHeight="1">
       <c r="A478" s="1"/>
-      <c r="B478" s="27"/>
+      <c r="B478" s="26"/>
       <c r="C478" s="17"/>
       <c r="D478" s="11"/>
       <c r="E478" s="11"/>
@@ -12022,7 +12091,7 @@
     </row>
     <row r="479" spans="1:21" ht="18" customHeight="1">
       <c r="A479" s="1"/>
-      <c r="B479" s="27"/>
+      <c r="B479" s="26"/>
       <c r="C479" s="17"/>
       <c r="D479" s="11"/>
       <c r="E479" s="11"/>
@@ -12045,7 +12114,7 @@
     </row>
     <row r="480" spans="1:21" ht="18" customHeight="1">
       <c r="A480" s="1"/>
-      <c r="B480" s="27"/>
+      <c r="B480" s="26"/>
       <c r="C480" s="17"/>
       <c r="D480" s="11"/>
       <c r="E480" s="11"/>
@@ -12068,7 +12137,7 @@
     </row>
     <row r="481" spans="1:21" ht="18" customHeight="1">
       <c r="A481" s="1"/>
-      <c r="B481" s="27"/>
+      <c r="B481" s="26"/>
       <c r="C481" s="17"/>
       <c r="D481" s="11"/>
       <c r="E481" s="11"/>
@@ -12091,7 +12160,7 @@
     </row>
     <row r="482" spans="1:21" ht="18" customHeight="1">
       <c r="A482" s="1"/>
-      <c r="B482" s="27"/>
+      <c r="B482" s="26"/>
       <c r="C482" s="17"/>
       <c r="D482" s="11"/>
       <c r="E482" s="11"/>
@@ -12114,7 +12183,7 @@
     </row>
     <row r="483" spans="1:21" ht="18" customHeight="1">
       <c r="A483" s="1"/>
-      <c r="B483" s="27"/>
+      <c r="B483" s="26"/>
       <c r="C483" s="17"/>
       <c r="D483" s="11"/>
       <c r="E483" s="11"/>
@@ -12137,7 +12206,7 @@
     </row>
     <row r="484" spans="1:21" ht="18" customHeight="1">
       <c r="A484" s="1"/>
-      <c r="B484" s="27"/>
+      <c r="B484" s="26"/>
       <c r="C484" s="17"/>
       <c r="D484" s="11"/>
       <c r="E484" s="11"/>
@@ -12160,7 +12229,7 @@
     </row>
     <row r="485" spans="1:21" ht="18" customHeight="1">
       <c r="A485" s="1"/>
-      <c r="B485" s="27"/>
+      <c r="B485" s="26"/>
       <c r="C485" s="17"/>
       <c r="D485" s="11"/>
       <c r="E485" s="11"/>
@@ -12183,7 +12252,7 @@
     </row>
     <row r="486" spans="1:21" ht="18" customHeight="1">
       <c r="A486" s="1"/>
-      <c r="B486" s="27"/>
+      <c r="B486" s="26"/>
       <c r="C486" s="17"/>
       <c r="D486" s="11"/>
       <c r="E486" s="11"/>
@@ -12206,7 +12275,7 @@
     </row>
     <row r="487" spans="1:21" ht="18" customHeight="1">
       <c r="A487" s="1"/>
-      <c r="B487" s="27"/>
+      <c r="B487" s="26"/>
       <c r="C487" s="17"/>
       <c r="D487" s="11"/>
       <c r="E487" s="11"/>
@@ -12229,7 +12298,7 @@
     </row>
     <row r="488" spans="1:21" ht="18" customHeight="1">
       <c r="A488" s="1"/>
-      <c r="B488" s="27"/>
+      <c r="B488" s="26"/>
       <c r="C488" s="17"/>
       <c r="D488" s="11"/>
       <c r="E488" s="11"/>
@@ -12252,7 +12321,7 @@
     </row>
     <row r="489" spans="1:21" ht="18" customHeight="1">
       <c r="A489" s="1"/>
-      <c r="B489" s="27"/>
+      <c r="B489" s="26"/>
       <c r="C489" s="17"/>
       <c r="D489" s="11"/>
       <c r="E489" s="11"/>
@@ -12275,7 +12344,7 @@
     </row>
     <row r="490" spans="1:21" ht="18" customHeight="1">
       <c r="A490" s="1"/>
-      <c r="B490" s="27"/>
+      <c r="B490" s="26"/>
       <c r="C490" s="17"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
@@ -12298,7 +12367,7 @@
     </row>
     <row r="491" spans="1:21" ht="18" customHeight="1">
       <c r="A491" s="1"/>
-      <c r="B491" s="27"/>
+      <c r="B491" s="26"/>
       <c r="C491" s="17"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
@@ -12321,7 +12390,7 @@
     </row>
     <row r="492" spans="1:21" ht="18" customHeight="1">
       <c r="A492" s="1"/>
-      <c r="B492" s="27"/>
+      <c r="B492" s="26"/>
       <c r="C492" s="17"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
@@ -12344,7 +12413,7 @@
     </row>
     <row r="493" spans="1:21" ht="18" customHeight="1">
       <c r="A493" s="1"/>
-      <c r="B493" s="27"/>
+      <c r="B493" s="26"/>
       <c r="C493" s="17"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
@@ -12367,7 +12436,7 @@
     </row>
     <row r="494" spans="1:21" ht="18" customHeight="1">
       <c r="A494" s="1"/>
-      <c r="B494" s="27"/>
+      <c r="B494" s="26"/>
       <c r="C494" s="17"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
@@ -12390,7 +12459,7 @@
     </row>
     <row r="495" spans="1:21" ht="18" customHeight="1">
       <c r="A495" s="1"/>
-      <c r="B495" s="27"/>
+      <c r="B495" s="26"/>
       <c r="C495" s="17"/>
       <c r="D495" s="11"/>
       <c r="E495" s="11"/>
@@ -12413,7 +12482,7 @@
     </row>
     <row r="496" spans="1:21" ht="18" customHeight="1">
       <c r="A496" s="1"/>
-      <c r="B496" s="27"/>
+      <c r="B496" s="26"/>
       <c r="C496" s="17"/>
       <c r="D496" s="11"/>
       <c r="E496" s="11"/>
@@ -12436,7 +12505,7 @@
     </row>
     <row r="497" spans="1:21" ht="18" customHeight="1">
       <c r="A497" s="1"/>
-      <c r="B497" s="27"/>
+      <c r="B497" s="26"/>
       <c r="C497" s="17"/>
       <c r="D497" s="11"/>
       <c r="E497" s="11"/>
@@ -12459,7 +12528,7 @@
     </row>
     <row r="498" spans="1:21" ht="18" customHeight="1">
       <c r="A498" s="1"/>
-      <c r="B498" s="27"/>
+      <c r="B498" s="26"/>
       <c r="C498" s="17"/>
       <c r="D498" s="11"/>
       <c r="E498" s="11"/>
@@ -12482,7 +12551,7 @@
     </row>
     <row r="499" spans="1:21" ht="18" customHeight="1">
       <c r="A499" s="1"/>
-      <c r="B499" s="27"/>
+      <c r="B499" s="26"/>
       <c r="C499" s="17"/>
       <c r="D499" s="11"/>
       <c r="E499" s="11"/>
@@ -12505,7 +12574,7 @@
     </row>
     <row r="500" spans="1:21" ht="18" customHeight="1">
       <c r="A500" s="1"/>
-      <c r="B500" s="27"/>
+      <c r="B500" s="26"/>
       <c r="C500" s="17"/>
       <c r="D500" s="11"/>
       <c r="E500" s="11"/>
@@ -12528,7 +12597,7 @@
     </row>
     <row r="501" spans="1:21" ht="18" customHeight="1">
       <c r="A501" s="1"/>
-      <c r="B501" s="27"/>
+      <c r="B501" s="26"/>
       <c r="C501" s="17"/>
       <c r="D501" s="11"/>
       <c r="E501" s="11"/>
@@ -12551,7 +12620,7 @@
     </row>
     <row r="502" spans="1:21" ht="18" customHeight="1">
       <c r="A502" s="1"/>
-      <c r="B502" s="27"/>
+      <c r="B502" s="26"/>
       <c r="C502" s="17"/>
       <c r="D502" s="11"/>
       <c r="E502" s="11"/>
@@ -12574,7 +12643,7 @@
     </row>
     <row r="503" spans="1:21" ht="18" customHeight="1">
       <c r="A503" s="1"/>
-      <c r="B503" s="27"/>
+      <c r="B503" s="26"/>
       <c r="C503" s="17"/>
       <c r="D503" s="11"/>
       <c r="E503" s="11"/>
@@ -12597,7 +12666,7 @@
     </row>
     <row r="504" spans="1:21" ht="18" customHeight="1">
       <c r="A504" s="1"/>
-      <c r="B504" s="27"/>
+      <c r="B504" s="26"/>
       <c r="C504" s="17"/>
       <c r="D504" s="11"/>
       <c r="E504" s="11"/>
@@ -12620,7 +12689,7 @@
     </row>
     <row r="505" spans="1:21" ht="18" customHeight="1">
       <c r="A505" s="1"/>
-      <c r="B505" s="27"/>
+      <c r="B505" s="26"/>
       <c r="C505" s="17"/>
       <c r="D505" s="11"/>
       <c r="E505" s="11"/>
@@ -12643,7 +12712,7 @@
     </row>
     <row r="506" spans="1:21" ht="18" customHeight="1">
       <c r="A506" s="1"/>
-      <c r="B506" s="27"/>
+      <c r="B506" s="26"/>
       <c r="C506" s="17"/>
       <c r="D506" s="11"/>
       <c r="E506" s="11"/>
@@ -12666,7 +12735,7 @@
     </row>
     <row r="507" spans="1:21" ht="18" customHeight="1">
       <c r="A507" s="1"/>
-      <c r="B507" s="27"/>
+      <c r="B507" s="26"/>
       <c r="C507" s="17"/>
       <c r="D507" s="11"/>
       <c r="E507" s="11"/>
@@ -12689,7 +12758,7 @@
     </row>
     <row r="508" spans="1:21" ht="18" customHeight="1">
       <c r="A508" s="1"/>
-      <c r="B508" s="27"/>
+      <c r="B508" s="26"/>
       <c r="C508" s="17"/>
       <c r="D508" s="11"/>
       <c r="E508" s="11"/>
@@ -12712,7 +12781,7 @@
     </row>
     <row r="509" spans="1:21" ht="18" customHeight="1">
       <c r="A509" s="1"/>
-      <c r="B509" s="27"/>
+      <c r="B509" s="26"/>
       <c r="C509" s="17"/>
       <c r="D509" s="11"/>
       <c r="E509" s="11"/>
@@ -12735,7 +12804,7 @@
     </row>
     <row r="510" spans="1:21" ht="18" customHeight="1">
       <c r="A510" s="1"/>
-      <c r="B510" s="27"/>
+      <c r="B510" s="26"/>
       <c r="C510" s="17"/>
       <c r="D510" s="11"/>
       <c r="E510" s="11"/>
@@ -12758,7 +12827,7 @@
     </row>
     <row r="511" spans="1:21" ht="18" customHeight="1">
       <c r="A511" s="1"/>
-      <c r="B511" s="27"/>
+      <c r="B511" s="26"/>
       <c r="C511" s="17"/>
       <c r="D511" s="11"/>
       <c r="E511" s="11"/>
@@ -12781,7 +12850,7 @@
     </row>
     <row r="512" spans="1:21" ht="18" customHeight="1">
       <c r="A512" s="1"/>
-      <c r="B512" s="27"/>
+      <c r="B512" s="26"/>
       <c r="C512" s="17"/>
       <c r="D512" s="11"/>
       <c r="E512" s="11"/>
@@ -12804,7 +12873,7 @@
     </row>
     <row r="513" spans="1:21" ht="18" customHeight="1">
       <c r="A513" s="1"/>
-      <c r="B513" s="27"/>
+      <c r="B513" s="26"/>
       <c r="C513" s="17"/>
       <c r="D513" s="11"/>
       <c r="E513" s="11"/>
@@ -12827,7 +12896,7 @@
     </row>
     <row r="514" spans="1:21" ht="18" customHeight="1">
       <c r="A514" s="1"/>
-      <c r="B514" s="27"/>
+      <c r="B514" s="26"/>
       <c r="C514" s="17"/>
       <c r="D514" s="11"/>
       <c r="E514" s="11"/>
@@ -12850,7 +12919,7 @@
     </row>
     <row r="515" spans="1:21" ht="18" customHeight="1">
       <c r="A515" s="1"/>
-      <c r="B515" s="27"/>
+      <c r="B515" s="26"/>
       <c r="C515" s="17"/>
       <c r="D515" s="11"/>
       <c r="E515" s="11"/>
@@ -12873,7 +12942,7 @@
     </row>
     <row r="516" spans="1:21" ht="18" customHeight="1">
       <c r="A516" s="1"/>
-      <c r="B516" s="27"/>
+      <c r="B516" s="26"/>
       <c r="C516" s="17"/>
       <c r="D516" s="11"/>
       <c r="E516" s="11"/>
@@ -12896,7 +12965,7 @@
     </row>
     <row r="517" spans="1:21" ht="18" customHeight="1">
       <c r="A517" s="1"/>
-      <c r="B517" s="27"/>
+      <c r="B517" s="26"/>
       <c r="C517" s="17"/>
       <c r="D517" s="11"/>
       <c r="E517" s="11"/>
@@ -12919,7 +12988,7 @@
     </row>
     <row r="518" spans="1:21" ht="18" customHeight="1">
       <c r="A518" s="1"/>
-      <c r="B518" s="27"/>
+      <c r="B518" s="26"/>
       <c r="C518" s="17"/>
       <c r="D518" s="11"/>
       <c r="E518" s="11"/>
@@ -12942,7 +13011,7 @@
     </row>
     <row r="519" spans="1:21" ht="18" customHeight="1">
       <c r="A519" s="1"/>
-      <c r="B519" s="27"/>
+      <c r="B519" s="26"/>
       <c r="C519" s="17"/>
       <c r="D519" s="11"/>
       <c r="E519" s="11"/>
@@ -12965,7 +13034,7 @@
     </row>
     <row r="520" spans="1:21" ht="18" customHeight="1">
       <c r="A520" s="1"/>
-      <c r="B520" s="27"/>
+      <c r="B520" s="26"/>
       <c r="C520" s="17"/>
       <c r="D520" s="11"/>
       <c r="E520" s="11"/>
@@ -12988,7 +13057,7 @@
     </row>
     <row r="521" spans="1:21" ht="18" customHeight="1">
       <c r="A521" s="1"/>
-      <c r="B521" s="27"/>
+      <c r="B521" s="26"/>
       <c r="C521" s="17"/>
       <c r="D521" s="11"/>
       <c r="E521" s="11"/>
@@ -13011,7 +13080,7 @@
     </row>
     <row r="522" spans="1:21" ht="18" customHeight="1">
       <c r="A522" s="1"/>
-      <c r="B522" s="27"/>
+      <c r="B522" s="26"/>
       <c r="C522" s="17"/>
       <c r="D522" s="11"/>
       <c r="E522" s="11"/>
@@ -13034,7 +13103,7 @@
     </row>
     <row r="523" spans="1:21" ht="18" customHeight="1">
       <c r="A523" s="1"/>
-      <c r="B523" s="27"/>
+      <c r="B523" s="26"/>
       <c r="C523" s="17"/>
       <c r="D523" s="11"/>
       <c r="E523" s="11"/>
@@ -13057,7 +13126,7 @@
     </row>
     <row r="524" spans="1:21" ht="18" customHeight="1">
       <c r="A524" s="1"/>
-      <c r="B524" s="27"/>
+      <c r="B524" s="26"/>
       <c r="C524" s="17"/>
       <c r="D524" s="11"/>
       <c r="E524" s="11"/>
@@ -13080,7 +13149,7 @@
     </row>
     <row r="525" spans="1:21" ht="18" customHeight="1">
       <c r="A525" s="1"/>
-      <c r="B525" s="27"/>
+      <c r="B525" s="26"/>
       <c r="C525" s="17"/>
       <c r="D525" s="11"/>
       <c r="E525" s="11"/>
@@ -13103,7 +13172,7 @@
     </row>
     <row r="526" spans="1:21" ht="18" customHeight="1">
       <c r="A526" s="1"/>
-      <c r="B526" s="27"/>
+      <c r="B526" s="26"/>
       <c r="C526" s="17"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
@@ -13126,7 +13195,7 @@
     </row>
     <row r="527" spans="1:21" ht="18" customHeight="1">
       <c r="A527" s="1"/>
-      <c r="B527" s="27"/>
+      <c r="B527" s="26"/>
       <c r="C527" s="17"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
@@ -13149,7 +13218,7 @@
     </row>
     <row r="528" spans="1:21" ht="18" customHeight="1">
       <c r="A528" s="1"/>
-      <c r="B528" s="27"/>
+      <c r="B528" s="26"/>
       <c r="C528" s="17"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
@@ -13172,7 +13241,7 @@
     </row>
     <row r="529" spans="1:21" ht="18" customHeight="1">
       <c r="A529" s="1"/>
-      <c r="B529" s="27"/>
+      <c r="B529" s="26"/>
       <c r="C529" s="17"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
@@ -13195,7 +13264,7 @@
     </row>
     <row r="530" spans="1:21" ht="18" customHeight="1">
       <c r="A530" s="1"/>
-      <c r="B530" s="27"/>
+      <c r="B530" s="26"/>
       <c r="C530" s="17"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
@@ -13218,7 +13287,7 @@
     </row>
     <row r="531" spans="1:21" ht="18" customHeight="1">
       <c r="A531" s="1"/>
-      <c r="B531" s="27"/>
+      <c r="B531" s="26"/>
       <c r="C531" s="17"/>
       <c r="D531" s="11"/>
       <c r="E531" s="11"/>
@@ -13241,7 +13310,7 @@
     </row>
     <row r="532" spans="1:21" ht="18" customHeight="1">
       <c r="A532" s="1"/>
-      <c r="B532" s="27"/>
+      <c r="B532" s="26"/>
       <c r="C532" s="17"/>
       <c r="D532" s="11"/>
       <c r="E532" s="11"/>
@@ -13264,7 +13333,7 @@
     </row>
     <row r="533" spans="1:21" ht="18" customHeight="1">
       <c r="A533" s="1"/>
-      <c r="B533" s="27"/>
+      <c r="B533" s="26"/>
       <c r="C533" s="17"/>
       <c r="D533" s="11"/>
       <c r="E533" s="11"/>
@@ -13287,7 +13356,7 @@
     </row>
     <row r="534" spans="1:21" ht="18" customHeight="1">
       <c r="A534" s="1"/>
-      <c r="B534" s="27"/>
+      <c r="B534" s="26"/>
       <c r="C534" s="17"/>
       <c r="D534" s="11"/>
       <c r="E534" s="11"/>
@@ -13310,7 +13379,7 @@
     </row>
     <row r="535" spans="1:21" ht="18" customHeight="1">
       <c r="A535" s="1"/>
-      <c r="B535" s="27"/>
+      <c r="B535" s="26"/>
       <c r="C535" s="17"/>
       <c r="D535" s="11"/>
       <c r="E535" s="11"/>
@@ -13333,7 +13402,7 @@
     </row>
     <row r="536" spans="1:21" ht="18" customHeight="1">
       <c r="A536" s="1"/>
-      <c r="B536" s="27"/>
+      <c r="B536" s="26"/>
       <c r="C536" s="17"/>
       <c r="D536" s="11"/>
       <c r="E536" s="11"/>
@@ -13356,7 +13425,7 @@
     </row>
     <row r="537" spans="1:21" ht="18" customHeight="1">
       <c r="A537" s="1"/>
-      <c r="B537" s="27"/>
+      <c r="B537" s="26"/>
       <c r="C537" s="17"/>
       <c r="D537" s="11"/>
       <c r="E537" s="11"/>
@@ -13379,7 +13448,7 @@
     </row>
     <row r="538" spans="1:21" ht="18" customHeight="1">
       <c r="A538" s="1"/>
-      <c r="B538" s="27"/>
+      <c r="B538" s="26"/>
       <c r="C538" s="17"/>
       <c r="D538" s="11"/>
       <c r="E538" s="11"/>
@@ -13402,7 +13471,7 @@
     </row>
     <row r="539" spans="1:21" ht="18" customHeight="1">
       <c r="A539" s="1"/>
-      <c r="B539" s="27"/>
+      <c r="B539" s="26"/>
       <c r="C539" s="17"/>
       <c r="D539" s="11"/>
       <c r="E539" s="11"/>
@@ -13425,7 +13494,7 @@
     </row>
     <row r="540" spans="1:21" ht="18" customHeight="1">
       <c r="A540" s="1"/>
-      <c r="B540" s="27"/>
+      <c r="B540" s="26"/>
       <c r="C540" s="17"/>
       <c r="D540" s="11"/>
       <c r="E540" s="11"/>
@@ -13448,7 +13517,7 @@
     </row>
     <row r="541" spans="1:21" ht="18" customHeight="1">
       <c r="A541" s="1"/>
-      <c r="B541" s="27"/>
+      <c r="B541" s="26"/>
       <c r="C541" s="17"/>
       <c r="D541" s="11"/>
       <c r="E541" s="11"/>
@@ -13471,7 +13540,7 @@
     </row>
     <row r="542" spans="1:21" ht="18" customHeight="1">
       <c r="A542" s="1"/>
-      <c r="B542" s="27"/>
+      <c r="B542" s="26"/>
       <c r="C542" s="17"/>
       <c r="D542" s="11"/>
       <c r="E542" s="11"/>
@@ -13494,7 +13563,7 @@
     </row>
     <row r="543" spans="1:21" ht="18" customHeight="1">
       <c r="A543" s="1"/>
-      <c r="B543" s="27"/>
+      <c r="B543" s="26"/>
       <c r="C543" s="17"/>
       <c r="D543" s="11"/>
       <c r="E543" s="11"/>
@@ -13517,7 +13586,7 @@
     </row>
     <row r="544" spans="1:21" ht="18" customHeight="1">
       <c r="A544" s="1"/>
-      <c r="B544" s="27"/>
+      <c r="B544" s="26"/>
       <c r="C544" s="17"/>
       <c r="D544" s="11"/>
       <c r="E544" s="11"/>
@@ -13540,7 +13609,7 @@
     </row>
     <row r="545" spans="1:21" ht="18" customHeight="1">
       <c r="A545" s="1"/>
-      <c r="B545" s="27"/>
+      <c r="B545" s="26"/>
       <c r="C545" s="17"/>
       <c r="D545" s="11"/>
       <c r="E545" s="11"/>
@@ -13563,7 +13632,7 @@
     </row>
     <row r="546" spans="1:21" ht="18" customHeight="1">
       <c r="A546" s="1"/>
-      <c r="B546" s="27"/>
+      <c r="B546" s="26"/>
       <c r="C546" s="17"/>
       <c r="D546" s="11"/>
       <c r="E546" s="11"/>
@@ -13586,7 +13655,7 @@
     </row>
     <row r="547" spans="1:21" ht="18" customHeight="1">
       <c r="A547" s="1"/>
-      <c r="B547" s="27"/>
+      <c r="B547" s="26"/>
       <c r="C547" s="17"/>
       <c r="D547" s="11"/>
       <c r="E547" s="11"/>
@@ -13609,7 +13678,7 @@
     </row>
     <row r="548" spans="1:21" ht="18" customHeight="1">
       <c r="A548" s="1"/>
-      <c r="B548" s="27"/>
+      <c r="B548" s="26"/>
       <c r="C548" s="17"/>
       <c r="D548" s="11"/>
       <c r="E548" s="11"/>
@@ -13632,7 +13701,7 @@
     </row>
     <row r="549" spans="1:21" ht="18" customHeight="1">
       <c r="A549" s="1"/>
-      <c r="B549" s="27"/>
+      <c r="B549" s="26"/>
       <c r="C549" s="17"/>
       <c r="D549" s="11"/>
       <c r="E549" s="11"/>
@@ -13655,7 +13724,7 @@
     </row>
     <row r="550" spans="1:21" ht="18" customHeight="1">
       <c r="A550" s="1"/>
-      <c r="B550" s="27"/>
+      <c r="B550" s="26"/>
       <c r="C550" s="17"/>
       <c r="D550" s="11"/>
       <c r="E550" s="11"/>
@@ -13678,7 +13747,7 @@
     </row>
     <row r="551" spans="1:21" ht="18" customHeight="1">
       <c r="A551" s="1"/>
-      <c r="B551" s="27"/>
+      <c r="B551" s="26"/>
       <c r="C551" s="17"/>
       <c r="D551" s="11"/>
       <c r="E551" s="11"/>
@@ -13701,7 +13770,7 @@
     </row>
     <row r="552" spans="1:21" ht="18" customHeight="1">
       <c r="A552" s="1"/>
-      <c r="B552" s="27"/>
+      <c r="B552" s="26"/>
       <c r="C552" s="17"/>
       <c r="D552" s="11"/>
       <c r="E552" s="11"/>
@@ -13724,7 +13793,7 @@
     </row>
     <row r="553" spans="1:21" ht="18" customHeight="1">
       <c r="A553" s="1"/>
-      <c r="B553" s="27"/>
+      <c r="B553" s="26"/>
       <c r="C553" s="17"/>
       <c r="D553" s="11"/>
       <c r="E553" s="11"/>
@@ -13747,7 +13816,7 @@
     </row>
     <row r="554" spans="1:21" ht="18" customHeight="1">
       <c r="A554" s="1"/>
-      <c r="B554" s="27"/>
+      <c r="B554" s="26"/>
       <c r="C554" s="17"/>
       <c r="D554" s="11"/>
       <c r="E554" s="11"/>
@@ -13770,7 +13839,7 @@
     </row>
     <row r="555" spans="1:21" ht="18" customHeight="1">
       <c r="A555" s="1"/>
-      <c r="B555" s="27"/>
+      <c r="B555" s="26"/>
       <c r="C555" s="17"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
@@ -13793,7 +13862,7 @@
     </row>
     <row r="556" spans="1:21" ht="18" customHeight="1">
       <c r="A556" s="1"/>
-      <c r="B556" s="27"/>
+      <c r="B556" s="26"/>
       <c r="C556" s="17"/>
       <c r="D556" s="11"/>
       <c r="E556" s="11"/>
@@ -13816,7 +13885,7 @@
     </row>
     <row r="557" spans="1:21" ht="18" customHeight="1">
       <c r="A557" s="1"/>
-      <c r="B557" s="27"/>
+      <c r="B557" s="26"/>
       <c r="C557" s="17"/>
       <c r="D557" s="11"/>
       <c r="E557" s="11"/>
@@ -13839,7 +13908,7 @@
     </row>
     <row r="558" spans="1:21" ht="18" customHeight="1">
       <c r="A558" s="1"/>
-      <c r="B558" s="27"/>
+      <c r="B558" s="26"/>
       <c r="C558" s="17"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
@@ -13862,7 +13931,7 @@
     </row>
     <row r="559" spans="1:21" ht="18" customHeight="1">
       <c r="A559" s="1"/>
-      <c r="B559" s="27"/>
+      <c r="B559" s="26"/>
       <c r="C559" s="17"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
@@ -13885,7 +13954,7 @@
     </row>
     <row r="560" spans="1:21" ht="18" customHeight="1">
       <c r="A560" s="1"/>
-      <c r="B560" s="27"/>
+      <c r="B560" s="26"/>
       <c r="C560" s="17"/>
       <c r="D560" s="11"/>
       <c r="E560" s="11"/>
@@ -13908,7 +13977,7 @@
     </row>
     <row r="561" spans="1:21" ht="18" customHeight="1">
       <c r="A561" s="1"/>
-      <c r="B561" s="27"/>
+      <c r="B561" s="26"/>
       <c r="C561" s="17"/>
       <c r="D561" s="11"/>
       <c r="E561" s="11"/>
@@ -13931,7 +14000,7 @@
     </row>
     <row r="562" spans="1:21" ht="18" customHeight="1">
       <c r="A562" s="1"/>
-      <c r="B562" s="27"/>
+      <c r="B562" s="26"/>
       <c r="C562" s="17"/>
       <c r="D562" s="11"/>
       <c r="E562" s="11"/>
@@ -13954,7 +14023,7 @@
     </row>
     <row r="563" spans="1:21" ht="18" customHeight="1">
       <c r="A563" s="1"/>
-      <c r="B563" s="27"/>
+      <c r="B563" s="26"/>
       <c r="C563" s="17"/>
       <c r="D563" s="11"/>
       <c r="E563" s="11"/>
@@ -13977,7 +14046,7 @@
     </row>
     <row r="564" spans="1:21" ht="18" customHeight="1">
       <c r="A564" s="1"/>
-      <c r="B564" s="27"/>
+      <c r="B564" s="26"/>
       <c r="C564" s="17"/>
       <c r="D564" s="11"/>
       <c r="E564" s="11"/>
@@ -14000,7 +14069,7 @@
     </row>
     <row r="565" spans="1:21" ht="18" customHeight="1">
       <c r="A565" s="1"/>
-      <c r="B565" s="27"/>
+      <c r="B565" s="26"/>
       <c r="C565" s="17"/>
       <c r="D565" s="11"/>
       <c r="E565" s="11"/>
@@ -14023,7 +14092,7 @@
     </row>
     <row r="566" spans="1:21" ht="18" customHeight="1">
       <c r="A566" s="1"/>
-      <c r="B566" s="27"/>
+      <c r="B566" s="26"/>
       <c r="C566" s="17"/>
       <c r="D566" s="11"/>
       <c r="E566" s="11"/>
@@ -14046,7 +14115,7 @@
     </row>
     <row r="567" spans="1:21" ht="18" customHeight="1">
       <c r="A567" s="1"/>
-      <c r="B567" s="27"/>
+      <c r="B567" s="26"/>
       <c r="C567" s="17"/>
       <c r="D567" s="11"/>
       <c r="E567" s="11"/>
@@ -14069,7 +14138,7 @@
     </row>
     <row r="568" spans="1:21" ht="18" customHeight="1">
       <c r="A568" s="1"/>
-      <c r="B568" s="27"/>
+      <c r="B568" s="26"/>
       <c r="C568" s="17"/>
       <c r="D568" s="11"/>
       <c r="E568" s="11"/>
@@ -14092,7 +14161,7 @@
     </row>
     <row r="569" spans="1:21" ht="18" customHeight="1">
       <c r="A569" s="1"/>
-      <c r="B569" s="27"/>
+      <c r="B569" s="26"/>
       <c r="C569" s="17"/>
       <c r="D569" s="11"/>
       <c r="E569" s="11"/>
@@ -14115,7 +14184,7 @@
     </row>
     <row r="570" spans="1:21" ht="18" customHeight="1">
       <c r="A570" s="1"/>
-      <c r="B570" s="27"/>
+      <c r="B570" s="26"/>
       <c r="C570" s="17"/>
       <c r="D570" s="11"/>
       <c r="E570" s="11"/>
@@ -14138,7 +14207,7 @@
     </row>
     <row r="571" spans="1:21" ht="18" customHeight="1">
       <c r="A571" s="1"/>
-      <c r="B571" s="27"/>
+      <c r="B571" s="26"/>
       <c r="C571" s="17"/>
       <c r="D571" s="11"/>
       <c r="E571" s="11"/>
@@ -14161,7 +14230,7 @@
     </row>
     <row r="572" spans="1:21" ht="18" customHeight="1">
       <c r="A572" s="1"/>
-      <c r="B572" s="27"/>
+      <c r="B572" s="26"/>
       <c r="C572" s="17"/>
       <c r="D572" s="11"/>
       <c r="E572" s="11"/>
@@ -14184,7 +14253,7 @@
     </row>
     <row r="573" spans="1:21" ht="18" customHeight="1">
       <c r="A573" s="1"/>
-      <c r="B573" s="27"/>
+      <c r="B573" s="26"/>
       <c r="C573" s="17"/>
       <c r="D573" s="11"/>
       <c r="E573" s="11"/>
@@ -14207,7 +14276,7 @@
     </row>
     <row r="574" spans="1:21" ht="18" customHeight="1">
       <c r="A574" s="1"/>
-      <c r="B574" s="27"/>
+      <c r="B574" s="26"/>
       <c r="C574" s="17"/>
       <c r="D574" s="11"/>
       <c r="E574" s="11"/>
@@ -14230,7 +14299,7 @@
     </row>
     <row r="575" spans="1:21" ht="18" customHeight="1">
       <c r="A575" s="1"/>
-      <c r="B575" s="27"/>
+      <c r="B575" s="26"/>
       <c r="C575" s="17"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
@@ -14253,7 +14322,7 @@
     </row>
     <row r="576" spans="1:21" ht="18" customHeight="1">
       <c r="A576" s="1"/>
-      <c r="B576" s="27"/>
+      <c r="B576" s="26"/>
       <c r="C576" s="17"/>
       <c r="D576" s="11"/>
       <c r="E576" s="11"/>
@@ -14276,7 +14345,7 @@
     </row>
     <row r="577" spans="1:21" ht="18" customHeight="1">
       <c r="A577" s="1"/>
-      <c r="B577" s="27"/>
+      <c r="B577" s="26"/>
       <c r="C577" s="17"/>
       <c r="D577" s="11"/>
       <c r="E577" s="11"/>
@@ -14299,7 +14368,7 @@
     </row>
     <row r="578" spans="1:21" ht="18" customHeight="1">
       <c r="A578" s="1"/>
-      <c r="B578" s="27"/>
+      <c r="B578" s="26"/>
       <c r="C578" s="17"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
@@ -14322,7 +14391,7 @@
     </row>
     <row r="579" spans="1:21" ht="18" customHeight="1">
       <c r="A579" s="1"/>
-      <c r="B579" s="27"/>
+      <c r="B579" s="26"/>
       <c r="C579" s="17"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
@@ -14345,7 +14414,7 @@
     </row>
     <row r="580" spans="1:21" ht="18" customHeight="1">
       <c r="A580" s="1"/>
-      <c r="B580" s="27"/>
+      <c r="B580" s="26"/>
       <c r="C580" s="17"/>
       <c r="D580" s="11"/>
       <c r="E580" s="11"/>
@@ -14368,7 +14437,7 @@
     </row>
     <row r="581" spans="1:21" ht="18" customHeight="1">
       <c r="A581" s="1"/>
-      <c r="B581" s="27"/>
+      <c r="B581" s="26"/>
       <c r="C581" s="17"/>
       <c r="D581" s="11"/>
       <c r="E581" s="11"/>
@@ -14391,7 +14460,7 @@
     </row>
     <row r="582" spans="1:21" ht="18" customHeight="1">
       <c r="A582" s="1"/>
-      <c r="B582" s="27"/>
+      <c r="B582" s="26"/>
       <c r="C582" s="17"/>
       <c r="D582" s="11"/>
       <c r="E582" s="11"/>
@@ -14414,7 +14483,7 @@
     </row>
     <row r="583" spans="1:21" ht="18" customHeight="1">
       <c r="A583" s="1"/>
-      <c r="B583" s="27"/>
+      <c r="B583" s="26"/>
       <c r="C583" s="17"/>
       <c r="D583" s="11"/>
       <c r="E583" s="11"/>
@@ -14437,7 +14506,7 @@
     </row>
     <row r="584" spans="1:21" ht="18" customHeight="1">
       <c r="A584" s="1"/>
-      <c r="B584" s="27"/>
+      <c r="B584" s="26"/>
       <c r="C584" s="17"/>
       <c r="D584" s="11"/>
       <c r="E584" s="11"/>
@@ -14460,7 +14529,7 @@
     </row>
     <row r="585" spans="1:21" ht="18" customHeight="1">
       <c r="A585" s="1"/>
-      <c r="B585" s="27"/>
+      <c r="B585" s="26"/>
       <c r="C585" s="17"/>
       <c r="D585" s="11"/>
       <c r="E585" s="11"/>
@@ -14483,7 +14552,7 @@
     </row>
     <row r="586" spans="1:21" ht="18" customHeight="1">
       <c r="A586" s="1"/>
-      <c r="B586" s="27"/>
+      <c r="B586" s="26"/>
       <c r="C586" s="17"/>
       <c r="D586" s="11"/>
       <c r="E586" s="11"/>
@@ -14506,7 +14575,7 @@
     </row>
     <row r="587" spans="1:21" ht="18" customHeight="1">
       <c r="A587" s="1"/>
-      <c r="B587" s="27"/>
+      <c r="B587" s="26"/>
       <c r="C587" s="17"/>
       <c r="D587" s="11"/>
       <c r="E587" s="11"/>
@@ -14529,7 +14598,7 @@
     </row>
     <row r="588" spans="1:21" ht="18" customHeight="1">
       <c r="A588" s="1"/>
-      <c r="B588" s="27"/>
+      <c r="B588" s="26"/>
       <c r="C588" s="17"/>
       <c r="D588" s="11"/>
       <c r="E588" s="11"/>
@@ -14552,7 +14621,7 @@
     </row>
     <row r="589" spans="1:21" ht="18" customHeight="1">
       <c r="A589" s="1"/>
-      <c r="B589" s="27"/>
+      <c r="B589" s="26"/>
       <c r="C589" s="17"/>
       <c r="D589" s="11"/>
       <c r="E589" s="11"/>
@@ -14575,7 +14644,7 @@
     </row>
     <row r="590" spans="1:21" ht="18" customHeight="1">
       <c r="A590" s="1"/>
-      <c r="B590" s="27"/>
+      <c r="B590" s="26"/>
       <c r="C590" s="17"/>
       <c r="D590" s="11"/>
       <c r="E590" s="11"/>
@@ -14598,7 +14667,7 @@
     </row>
     <row r="591" spans="1:21" ht="18" customHeight="1">
       <c r="A591" s="1"/>
-      <c r="B591" s="27"/>
+      <c r="B591" s="26"/>
       <c r="C591" s="17"/>
       <c r="D591" s="11"/>
       <c r="E591" s="11"/>
@@ -14621,7 +14690,7 @@
     </row>
     <row r="592" spans="1:21" ht="18" customHeight="1">
       <c r="A592" s="1"/>
-      <c r="B592" s="27"/>
+      <c r="B592" s="26"/>
       <c r="C592" s="17"/>
       <c r="D592" s="11"/>
       <c r="E592" s="11"/>
@@ -14644,7 +14713,7 @@
     </row>
     <row r="593" spans="1:21" ht="18" customHeight="1">
       <c r="A593" s="1"/>
-      <c r="B593" s="27"/>
+      <c r="B593" s="26"/>
       <c r="C593" s="17"/>
       <c r="D593" s="11"/>
       <c r="E593" s="11"/>
@@ -14667,7 +14736,7 @@
     </row>
     <row r="594" spans="1:21" ht="18" customHeight="1">
       <c r="A594" s="1"/>
-      <c r="B594" s="27"/>
+      <c r="B594" s="26"/>
       <c r="C594" s="17"/>
       <c r="D594" s="11"/>
       <c r="E594" s="11"/>
@@ -14690,7 +14759,7 @@
     </row>
     <row r="595" spans="1:21" ht="18" customHeight="1">
       <c r="A595" s="1"/>
-      <c r="B595" s="27"/>
+      <c r="B595" s="26"/>
       <c r="C595" s="17"/>
       <c r="D595" s="11"/>
       <c r="E595" s="11"/>
@@ -14713,7 +14782,7 @@
     </row>
     <row r="596" spans="1:21" ht="18" customHeight="1">
       <c r="A596" s="1"/>
-      <c r="B596" s="27"/>
+      <c r="B596" s="26"/>
       <c r="C596" s="17"/>
       <c r="D596" s="11"/>
       <c r="E596" s="11"/>
@@ -14736,7 +14805,7 @@
     </row>
     <row r="597" spans="1:21" ht="18" customHeight="1">
       <c r="A597" s="1"/>
-      <c r="B597" s="27"/>
+      <c r="B597" s="26"/>
       <c r="C597" s="17"/>
       <c r="D597" s="11"/>
       <c r="E597" s="11"/>
@@ -14759,7 +14828,7 @@
     </row>
     <row r="598" spans="1:21" ht="18" customHeight="1">
       <c r="A598" s="1"/>
-      <c r="B598" s="27"/>
+      <c r="B598" s="26"/>
       <c r="C598" s="17"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
@@ -14782,7 +14851,7 @@
     </row>
     <row r="599" spans="1:21" ht="18" customHeight="1">
       <c r="A599" s="1"/>
-      <c r="B599" s="27"/>
+      <c r="B599" s="26"/>
       <c r="C599" s="17"/>
       <c r="D599" s="11"/>
       <c r="E599" s="11"/>
@@ -14805,7 +14874,7 @@
     </row>
     <row r="600" spans="1:21" ht="18" customHeight="1">
       <c r="A600" s="1"/>
-      <c r="B600" s="27"/>
+      <c r="B600" s="26"/>
       <c r="C600" s="17"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
@@ -14828,7 +14897,7 @@
     </row>
     <row r="601" spans="1:21" ht="18" customHeight="1">
       <c r="A601" s="1"/>
-      <c r="B601" s="27"/>
+      <c r="B601" s="26"/>
       <c r="C601" s="17"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
@@ -14851,7 +14920,7 @@
     </row>
     <row r="602" spans="1:21" ht="18" customHeight="1">
       <c r="A602" s="1"/>
-      <c r="B602" s="27"/>
+      <c r="B602" s="26"/>
       <c r="C602" s="17"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
@@ -14874,7 +14943,7 @@
     </row>
     <row r="603" spans="1:21" ht="18" customHeight="1">
       <c r="A603" s="1"/>
-      <c r="B603" s="27"/>
+      <c r="B603" s="26"/>
       <c r="C603" s="17"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
@@ -14897,7 +14966,7 @@
     </row>
     <row r="604" spans="1:21" ht="18" customHeight="1">
       <c r="A604" s="1"/>
-      <c r="B604" s="27"/>
+      <c r="B604" s="26"/>
       <c r="C604" s="17"/>
       <c r="D604" s="11"/>
       <c r="E604" s="11"/>
@@ -14920,7 +14989,7 @@
     </row>
     <row r="605" spans="1:21" ht="18" customHeight="1">
       <c r="A605" s="1"/>
-      <c r="B605" s="27"/>
+      <c r="B605" s="26"/>
       <c r="C605" s="17"/>
       <c r="D605" s="11"/>
       <c r="E605" s="11"/>
@@ -14943,7 +15012,7 @@
     </row>
     <row r="606" spans="1:21" ht="18" customHeight="1">
       <c r="A606" s="1"/>
-      <c r="B606" s="27"/>
+      <c r="B606" s="26"/>
       <c r="C606" s="17"/>
       <c r="D606" s="11"/>
       <c r="E606" s="11"/>
@@ -14966,7 +15035,7 @@
     </row>
     <row r="607" spans="1:21" ht="18" customHeight="1">
       <c r="A607" s="1"/>
-      <c r="B607" s="27"/>
+      <c r="B607" s="26"/>
       <c r="C607" s="17"/>
       <c r="D607" s="11"/>
       <c r="E607" s="11"/>
@@ -14989,7 +15058,7 @@
     </row>
     <row r="608" spans="1:21" ht="18" customHeight="1">
       <c r="A608" s="1"/>
-      <c r="B608" s="27"/>
+      <c r="B608" s="26"/>
       <c r="C608" s="17"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
@@ -15012,7 +15081,7 @@
     </row>
     <row r="609" spans="1:21" ht="18" customHeight="1">
       <c r="A609" s="1"/>
-      <c r="B609" s="27"/>
+      <c r="B609" s="26"/>
       <c r="C609" s="17"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
@@ -15035,7 +15104,7 @@
     </row>
     <row r="610" spans="1:21" ht="18" customHeight="1">
       <c r="A610" s="1"/>
-      <c r="B610" s="27"/>
+      <c r="B610" s="26"/>
       <c r="C610" s="17"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
@@ -15058,7 +15127,7 @@
     </row>
     <row r="611" spans="1:21" ht="18" customHeight="1">
       <c r="A611" s="1"/>
-      <c r="B611" s="27"/>
+      <c r="B611" s="26"/>
       <c r="C611" s="17"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
@@ -15081,7 +15150,7 @@
     </row>
     <row r="612" spans="1:21" ht="18" customHeight="1">
       <c r="A612" s="1"/>
-      <c r="B612" s="27"/>
+      <c r="B612" s="26"/>
       <c r="C612" s="17"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
@@ -15104,7 +15173,7 @@
     </row>
     <row r="613" spans="1:21" ht="18" customHeight="1">
       <c r="A613" s="1"/>
-      <c r="B613" s="27"/>
+      <c r="B613" s="26"/>
       <c r="C613" s="17"/>
       <c r="D613" s="11"/>
       <c r="E613" s="11"/>
@@ -15127,7 +15196,7 @@
     </row>
     <row r="614" spans="1:21" ht="18" customHeight="1">
       <c r="A614" s="1"/>
-      <c r="B614" s="27"/>
+      <c r="B614" s="26"/>
       <c r="C614" s="17"/>
       <c r="D614" s="11"/>
       <c r="E614" s="11"/>
@@ -15150,7 +15219,7 @@
     </row>
     <row r="615" spans="1:21" ht="18" customHeight="1">
       <c r="A615" s="1"/>
-      <c r="B615" s="27"/>
+      <c r="B615" s="26"/>
       <c r="C615" s="17"/>
       <c r="D615" s="11"/>
       <c r="E615" s="11"/>
@@ -15173,7 +15242,7 @@
     </row>
     <row r="616" spans="1:21" ht="18" customHeight="1">
       <c r="A616" s="1"/>
-      <c r="B616" s="27"/>
+      <c r="B616" s="26"/>
       <c r="C616" s="17"/>
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
@@ -15196,7 +15265,7 @@
     </row>
     <row r="617" spans="1:21" ht="18" customHeight="1">
       <c r="A617" s="1"/>
-      <c r="B617" s="27"/>
+      <c r="B617" s="26"/>
       <c r="C617" s="17"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
@@ -15219,7 +15288,7 @@
     </row>
     <row r="618" spans="1:21" ht="18" customHeight="1">
       <c r="A618" s="1"/>
-      <c r="B618" s="27"/>
+      <c r="B618" s="26"/>
       <c r="C618" s="17"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
@@ -15242,7 +15311,7 @@
     </row>
     <row r="619" spans="1:21" ht="18" customHeight="1">
       <c r="A619" s="1"/>
-      <c r="B619" s="27"/>
+      <c r="B619" s="26"/>
       <c r="C619" s="17"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
@@ -15265,7 +15334,7 @@
     </row>
     <row r="620" spans="1:21" ht="18" customHeight="1">
       <c r="A620" s="1"/>
-      <c r="B620" s="27"/>
+      <c r="B620" s="26"/>
       <c r="C620" s="17"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
@@ -15288,7 +15357,7 @@
     </row>
     <row r="621" spans="1:21" ht="18" customHeight="1">
       <c r="A621" s="1"/>
-      <c r="B621" s="27"/>
+      <c r="B621" s="26"/>
       <c r="C621" s="17"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
@@ -15311,7 +15380,7 @@
     </row>
     <row r="622" spans="1:21" ht="18" customHeight="1">
       <c r="A622" s="1"/>
-      <c r="B622" s="27"/>
+      <c r="B622" s="26"/>
       <c r="C622" s="17"/>
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
@@ -15334,7 +15403,7 @@
     </row>
     <row r="623" spans="1:21" ht="18" customHeight="1">
       <c r="A623" s="1"/>
-      <c r="B623" s="27"/>
+      <c r="B623" s="26"/>
       <c r="C623" s="17"/>
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
@@ -15357,7 +15426,7 @@
     </row>
     <row r="624" spans="1:21" ht="18" customHeight="1">
       <c r="A624" s="1"/>
-      <c r="B624" s="27"/>
+      <c r="B624" s="26"/>
       <c r="C624" s="17"/>
       <c r="D624" s="11"/>
       <c r="E624" s="11"/>
@@ -15380,7 +15449,7 @@
     </row>
     <row r="625" spans="1:21" ht="18" customHeight="1">
       <c r="A625" s="1"/>
-      <c r="B625" s="27"/>
+      <c r="B625" s="26"/>
       <c r="C625" s="17"/>
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
@@ -15403,7 +15472,7 @@
     </row>
     <row r="626" spans="1:21" ht="18" customHeight="1">
       <c r="A626" s="1"/>
-      <c r="B626" s="27"/>
+      <c r="B626" s="26"/>
       <c r="C626" s="17"/>
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
@@ -15426,7 +15495,7 @@
     </row>
     <row r="627" spans="1:21" ht="18" customHeight="1">
       <c r="A627" s="1"/>
-      <c r="B627" s="27"/>
+      <c r="B627" s="26"/>
       <c r="C627" s="17"/>
       <c r="D627" s="11"/>
       <c r="E627" s="11"/>
@@ -15449,7 +15518,7 @@
     </row>
     <row r="628" spans="1:21" ht="18" customHeight="1">
       <c r="A628" s="1"/>
-      <c r="B628" s="27"/>
+      <c r="B628" s="26"/>
       <c r="C628" s="17"/>
       <c r="D628" s="11"/>
       <c r="E628" s="11"/>
@@ -15472,7 +15541,7 @@
     </row>
     <row r="629" spans="1:21" ht="18" customHeight="1">
       <c r="A629" s="1"/>
-      <c r="B629" s="27"/>
+      <c r="B629" s="26"/>
       <c r="C629" s="17"/>
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
@@ -15495,7 +15564,7 @@
     </row>
     <row r="630" spans="1:21" ht="18" customHeight="1">
       <c r="A630" s="1"/>
-      <c r="B630" s="27"/>
+      <c r="B630" s="26"/>
       <c r="C630" s="17"/>
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
@@ -15518,7 +15587,7 @@
     </row>
     <row r="631" spans="1:21" ht="18" customHeight="1">
       <c r="A631" s="1"/>
-      <c r="B631" s="27"/>
+      <c r="B631" s="26"/>
       <c r="C631" s="17"/>
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
@@ -15541,7 +15610,7 @@
     </row>
     <row r="632" spans="1:21" ht="18" customHeight="1">
       <c r="A632" s="1"/>
-      <c r="B632" s="27"/>
+      <c r="B632" s="26"/>
       <c r="C632" s="17"/>
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
@@ -15564,7 +15633,7 @@
     </row>
     <row r="633" spans="1:21" ht="18" customHeight="1">
       <c r="A633" s="1"/>
-      <c r="B633" s="27"/>
+      <c r="B633" s="26"/>
       <c r="C633" s="17"/>
       <c r="D633" s="11"/>
       <c r="E633" s="11"/>
@@ -15587,7 +15656,7 @@
     </row>
     <row r="634" spans="1:21" ht="18" customHeight="1">
       <c r="A634" s="1"/>
-      <c r="B634" s="27"/>
+      <c r="B634" s="26"/>
       <c r="C634" s="17"/>
       <c r="D634" s="11"/>
       <c r="E634" s="11"/>
@@ -15610,7 +15679,7 @@
     </row>
     <row r="635" spans="1:21" ht="18" customHeight="1">
       <c r="A635" s="1"/>
-      <c r="B635" s="27"/>
+      <c r="B635" s="26"/>
       <c r="C635" s="17"/>
       <c r="D635" s="11"/>
       <c r="E635" s="11"/>
@@ -15633,7 +15702,7 @@
     </row>
     <row r="636" spans="1:21" ht="18" customHeight="1">
       <c r="A636" s="1"/>
-      <c r="B636" s="27"/>
+      <c r="B636" s="26"/>
       <c r="C636" s="17"/>
       <c r="D636" s="11"/>
       <c r="E636" s="11"/>
@@ -15656,7 +15725,7 @@
     </row>
     <row r="637" spans="1:21" ht="18" customHeight="1">
       <c r="A637" s="1"/>
-      <c r="B637" s="27"/>
+      <c r="B637" s="26"/>
       <c r="C637" s="17"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
@@ -15679,7 +15748,7 @@
     </row>
     <row r="638" spans="1:21" ht="18" customHeight="1">
       <c r="A638" s="1"/>
-      <c r="B638" s="27"/>
+      <c r="B638" s="26"/>
       <c r="C638" s="17"/>
       <c r="D638" s="11"/>
       <c r="E638" s="11"/>
@@ -15702,7 +15771,7 @@
     </row>
     <row r="639" spans="1:21" ht="18" customHeight="1">
       <c r="A639" s="1"/>
-      <c r="B639" s="27"/>
+      <c r="B639" s="26"/>
       <c r="C639" s="17"/>
       <c r="D639" s="11"/>
       <c r="E639" s="11"/>
@@ -15725,7 +15794,7 @@
     </row>
     <row r="640" spans="1:21" ht="18" customHeight="1">
       <c r="A640" s="1"/>
-      <c r="B640" s="27"/>
+      <c r="B640" s="26"/>
       <c r="C640" s="17"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
@@ -15748,7 +15817,7 @@
     </row>
     <row r="641" spans="1:21" ht="18" customHeight="1">
       <c r="A641" s="1"/>
-      <c r="B641" s="27"/>
+      <c r="B641" s="26"/>
       <c r="C641" s="17"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
@@ -15771,7 +15840,7 @@
     </row>
     <row r="642" spans="1:21" ht="18" customHeight="1">
       <c r="A642" s="1"/>
-      <c r="B642" s="27"/>
+      <c r="B642" s="26"/>
       <c r="C642" s="17"/>
       <c r="D642" s="11"/>
       <c r="E642" s="11"/>
@@ -15794,7 +15863,7 @@
     </row>
     <row r="643" spans="1:21" ht="18" customHeight="1">
       <c r="A643" s="1"/>
-      <c r="B643" s="27"/>
+      <c r="B643" s="26"/>
       <c r="C643" s="17"/>
       <c r="D643" s="11"/>
       <c r="E643" s="11"/>
@@ -15817,7 +15886,7 @@
     </row>
     <row r="644" spans="1:21" ht="18" customHeight="1">
       <c r="A644" s="1"/>
-      <c r="B644" s="27"/>
+      <c r="B644" s="26"/>
       <c r="C644" s="17"/>
       <c r="D644" s="11"/>
       <c r="E644" s="11"/>
@@ -15840,7 +15909,7 @@
     </row>
     <row r="645" spans="1:21" ht="18" customHeight="1">
       <c r="A645" s="1"/>
-      <c r="B645" s="27"/>
+      <c r="B645" s="26"/>
       <c r="C645" s="17"/>
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
@@ -15863,7 +15932,7 @@
     </row>
     <row r="646" spans="1:21" ht="18" customHeight="1">
       <c r="A646" s="1"/>
-      <c r="B646" s="27"/>
+      <c r="B646" s="26"/>
       <c r="C646" s="17"/>
       <c r="D646" s="11"/>
       <c r="E646" s="11"/>
@@ -15886,7 +15955,7 @@
     </row>
     <row r="647" spans="1:21" ht="18" customHeight="1">
       <c r="A647" s="1"/>
-      <c r="B647" s="27"/>
+      <c r="B647" s="26"/>
       <c r="C647" s="17"/>
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
@@ -15909,7 +15978,7 @@
     </row>
     <row r="648" spans="1:21" ht="18" customHeight="1">
       <c r="A648" s="1"/>
-      <c r="B648" s="27"/>
+      <c r="B648" s="26"/>
       <c r="C648" s="17"/>
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
@@ -15932,7 +16001,7 @@
     </row>
     <row r="649" spans="1:21" ht="18" customHeight="1">
       <c r="A649" s="1"/>
-      <c r="B649" s="27"/>
+      <c r="B649" s="26"/>
       <c r="C649" s="17"/>
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
@@ -15955,7 +16024,7 @@
     </row>
     <row r="650" spans="1:21" ht="18" customHeight="1">
       <c r="A650" s="1"/>
-      <c r="B650" s="27"/>
+      <c r="B650" s="26"/>
       <c r="C650" s="17"/>
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
@@ -15978,7 +16047,7 @@
     </row>
     <row r="651" spans="1:21" ht="18" customHeight="1">
       <c r="A651" s="1"/>
-      <c r="B651" s="27"/>
+      <c r="B651" s="26"/>
       <c r="C651" s="17"/>
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
@@ -16001,7 +16070,7 @@
     </row>
     <row r="652" spans="1:21" ht="18" customHeight="1">
       <c r="A652" s="1"/>
-      <c r="B652" s="27"/>
+      <c r="B652" s="26"/>
       <c r="C652" s="17"/>
       <c r="D652" s="11"/>
       <c r="E652" s="11"/>
@@ -16024,7 +16093,7 @@
     </row>
     <row r="653" spans="1:21" ht="18" customHeight="1">
       <c r="A653" s="1"/>
-      <c r="B653" s="27"/>
+      <c r="B653" s="26"/>
       <c r="C653" s="17"/>
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
@@ -16047,7 +16116,7 @@
     </row>
     <row r="654" spans="1:21" ht="18" customHeight="1">
       <c r="A654" s="1"/>
-      <c r="B654" s="27"/>
+      <c r="B654" s="26"/>
       <c r="C654" s="17"/>
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
@@ -16070,7 +16139,7 @@
     </row>
     <row r="655" spans="1:21" ht="18" customHeight="1">
       <c r="A655" s="1"/>
-      <c r="B655" s="27"/>
+      <c r="B655" s="26"/>
       <c r="C655" s="17"/>
       <c r="D655" s="11"/>
       <c r="E655" s="11"/>
@@ -16093,7 +16162,7 @@
     </row>
     <row r="656" spans="1:21" ht="18" customHeight="1">
       <c r="A656" s="1"/>
-      <c r="B656" s="27"/>
+      <c r="B656" s="26"/>
       <c r="C656" s="17"/>
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
@@ -16116,7 +16185,7 @@
     </row>
     <row r="657" spans="1:21" ht="18" customHeight="1">
       <c r="A657" s="1"/>
-      <c r="B657" s="27"/>
+      <c r="B657" s="26"/>
       <c r="C657" s="17"/>
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
@@ -16139,7 +16208,7 @@
     </row>
     <row r="658" spans="1:21" ht="18" customHeight="1">
       <c r="A658" s="1"/>
-      <c r="B658" s="27"/>
+      <c r="B658" s="26"/>
       <c r="C658" s="17"/>
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
@@ -16162,7 +16231,7 @@
     </row>
     <row r="659" spans="1:21" ht="18" customHeight="1">
       <c r="A659" s="1"/>
-      <c r="B659" s="27"/>
+      <c r="B659" s="26"/>
       <c r="C659" s="17"/>
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
@@ -16185,7 +16254,7 @@
     </row>
     <row r="660" spans="1:21" ht="18" customHeight="1">
       <c r="A660" s="1"/>
-      <c r="B660" s="27"/>
+      <c r="B660" s="26"/>
       <c r="C660" s="17"/>
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
@@ -16208,7 +16277,7 @@
     </row>
     <row r="661" spans="1:21" ht="18" customHeight="1">
       <c r="A661" s="1"/>
-      <c r="B661" s="27"/>
+      <c r="B661" s="26"/>
       <c r="C661" s="17"/>
       <c r="D661" s="11"/>
       <c r="E661" s="11"/>
@@ -16231,7 +16300,7 @@
     </row>
     <row r="662" spans="1:21" ht="18" customHeight="1">
       <c r="A662" s="1"/>
-      <c r="B662" s="27"/>
+      <c r="B662" s="26"/>
       <c r="C662" s="17"/>
       <c r="D662" s="11"/>
       <c r="E662" s="11"/>
@@ -16254,7 +16323,7 @@
     </row>
     <row r="663" spans="1:21" ht="18" customHeight="1">
       <c r="A663" s="1"/>
-      <c r="B663" s="27"/>
+      <c r="B663" s="26"/>
       <c r="C663" s="17"/>
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
@@ -16277,7 +16346,7 @@
     </row>
     <row r="664" spans="1:21" ht="18" customHeight="1">
       <c r="A664" s="1"/>
-      <c r="B664" s="27"/>
+      <c r="B664" s="26"/>
       <c r="C664" s="17"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
@@ -16300,7 +16369,7 @@
     </row>
     <row r="665" spans="1:21" ht="18" customHeight="1">
       <c r="A665" s="1"/>
-      <c r="B665" s="27"/>
+      <c r="B665" s="26"/>
       <c r="C665" s="17"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
@@ -16323,7 +16392,7 @@
     </row>
     <row r="666" spans="1:21" ht="18" customHeight="1">
       <c r="A666" s="1"/>
-      <c r="B666" s="27"/>
+      <c r="B666" s="26"/>
       <c r="C666" s="17"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
@@ -16346,7 +16415,7 @@
     </row>
     <row r="667" spans="1:21" ht="18" customHeight="1">
       <c r="A667" s="1"/>
-      <c r="B667" s="27"/>
+      <c r="B667" s="26"/>
       <c r="C667" s="17"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
@@ -16369,7 +16438,7 @@
     </row>
     <row r="668" spans="1:21" ht="18" customHeight="1">
       <c r="A668" s="1"/>
-      <c r="B668" s="27"/>
+      <c r="B668" s="26"/>
       <c r="C668" s="17"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
@@ -16392,7 +16461,7 @@
     </row>
     <row r="669" spans="1:21" ht="18" customHeight="1">
       <c r="A669" s="1"/>
-      <c r="B669" s="27"/>
+      <c r="B669" s="26"/>
       <c r="C669" s="17"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
@@ -16415,7 +16484,7 @@
     </row>
     <row r="670" spans="1:21" ht="18" customHeight="1">
       <c r="A670" s="1"/>
-      <c r="B670" s="27"/>
+      <c r="B670" s="26"/>
       <c r="C670" s="17"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
@@ -16438,7 +16507,7 @@
     </row>
     <row r="671" spans="1:21" ht="18" customHeight="1">
       <c r="A671" s="1"/>
-      <c r="B671" s="27"/>
+      <c r="B671" s="26"/>
       <c r="C671" s="17"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
@@ -16461,7 +16530,7 @@
     </row>
     <row r="672" spans="1:21" ht="18" customHeight="1">
       <c r="A672" s="1"/>
-      <c r="B672" s="27"/>
+      <c r="B672" s="26"/>
       <c r="C672" s="17"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
@@ -16484,7 +16553,7 @@
     </row>
     <row r="673" spans="1:21" ht="18" customHeight="1">
       <c r="A673" s="1"/>
-      <c r="B673" s="27"/>
+      <c r="B673" s="26"/>
       <c r="C673" s="17"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
@@ -16507,7 +16576,7 @@
     </row>
     <row r="674" spans="1:21" ht="18" customHeight="1">
       <c r="A674" s="1"/>
-      <c r="B674" s="27"/>
+      <c r="B674" s="26"/>
       <c r="C674" s="17"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
@@ -16530,7 +16599,7 @@
     </row>
     <row r="675" spans="1:21" ht="18" customHeight="1">
       <c r="A675" s="1"/>
-      <c r="B675" s="27"/>
+      <c r="B675" s="26"/>
       <c r="C675" s="17"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
@@ -16553,7 +16622,7 @@
     </row>
     <row r="676" spans="1:21" ht="18" customHeight="1">
       <c r="A676" s="1"/>
-      <c r="B676" s="27"/>
+      <c r="B676" s="26"/>
       <c r="C676" s="17"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
@@ -16576,7 +16645,7 @@
     </row>
     <row r="677" spans="1:21" ht="18" customHeight="1">
       <c r="A677" s="1"/>
-      <c r="B677" s="27"/>
+      <c r="B677" s="26"/>
       <c r="C677" s="17"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
@@ -16599,7 +16668,7 @@
     </row>
     <row r="678" spans="1:21" ht="18" customHeight="1">
       <c r="A678" s="1"/>
-      <c r="B678" s="27"/>
+      <c r="B678" s="26"/>
       <c r="C678" s="17"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
@@ -16622,7 +16691,7 @@
     </row>
     <row r="679" spans="1:21" ht="18" customHeight="1">
       <c r="A679" s="1"/>
-      <c r="B679" s="27"/>
+      <c r="B679" s="26"/>
       <c r="C679" s="17"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
@@ -16645,7 +16714,7 @@
     </row>
     <row r="680" spans="1:21" ht="18" customHeight="1">
       <c r="A680" s="1"/>
-      <c r="B680" s="27"/>
+      <c r="B680" s="26"/>
       <c r="C680" s="17"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
@@ -16668,7 +16737,7 @@
     </row>
     <row r="681" spans="1:21" ht="18" customHeight="1">
       <c r="A681" s="1"/>
-      <c r="B681" s="27"/>
+      <c r="B681" s="26"/>
       <c r="C681" s="17"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
@@ -16691,7 +16760,7 @@
     </row>
     <row r="682" spans="1:21" ht="18" customHeight="1">
       <c r="A682" s="1"/>
-      <c r="B682" s="27"/>
+      <c r="B682" s="26"/>
       <c r="C682" s="17"/>
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
@@ -16714,7 +16783,7 @@
     </row>
     <row r="683" spans="1:21" ht="18" customHeight="1">
       <c r="A683" s="1"/>
-      <c r="B683" s="27"/>
+      <c r="B683" s="26"/>
       <c r="C683" s="17"/>
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
@@ -16737,7 +16806,7 @@
     </row>
     <row r="684" spans="1:21" ht="18" customHeight="1">
       <c r="A684" s="1"/>
-      <c r="B684" s="27"/>
+      <c r="B684" s="26"/>
       <c r="C684" s="17"/>
       <c r="D684" s="11"/>
       <c r="E684" s="11"/>
@@ -16760,7 +16829,7 @@
     </row>
     <row r="685" spans="1:21" ht="18" customHeight="1">
       <c r="A685" s="1"/>
-      <c r="B685" s="27"/>
+      <c r="B685" s="26"/>
       <c r="C685" s="17"/>
       <c r="D685" s="11"/>
       <c r="E685" s="11"/>
@@ -16783,7 +16852,7 @@
     </row>
     <row r="686" spans="1:21" ht="18" customHeight="1">
       <c r="A686" s="1"/>
-      <c r="B686" s="27"/>
+      <c r="B686" s="26"/>
       <c r="C686" s="17"/>
       <c r="D686" s="11"/>
       <c r="E686" s="11"/>
@@ -16806,7 +16875,7 @@
     </row>
     <row r="687" spans="1:21" ht="18" customHeight="1">
       <c r="A687" s="1"/>
-      <c r="B687" s="27"/>
+      <c r="B687" s="26"/>
       <c r="C687" s="17"/>
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
@@ -16829,7 +16898,7 @@
     </row>
     <row r="688" spans="1:21" ht="18" customHeight="1">
       <c r="A688" s="1"/>
-      <c r="B688" s="27"/>
+      <c r="B688" s="26"/>
       <c r="C688" s="17"/>
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
@@ -16852,7 +16921,7 @@
     </row>
     <row r="689" spans="1:21" ht="18" customHeight="1">
       <c r="A689" s="1"/>
-      <c r="B689" s="27"/>
+      <c r="B689" s="26"/>
       <c r="C689" s="17"/>
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
@@ -16875,7 +16944,7 @@
     </row>
     <row r="690" spans="1:21" ht="18" customHeight="1">
       <c r="A690" s="1"/>
-      <c r="B690" s="27"/>
+      <c r="B690" s="26"/>
       <c r="C690" s="17"/>
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
@@ -16898,7 +16967,7 @@
     </row>
     <row r="691" spans="1:21" ht="18" customHeight="1">
       <c r="A691" s="1"/>
-      <c r="B691" s="27"/>
+      <c r="B691" s="26"/>
       <c r="C691" s="17"/>
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
@@ -16921,7 +16990,7 @@
     </row>
     <row r="692" spans="1:21" ht="18" customHeight="1">
       <c r="A692" s="1"/>
-      <c r="B692" s="27"/>
+      <c r="B692" s="26"/>
       <c r="C692" s="17"/>
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
@@ -16944,7 +17013,7 @@
     </row>
     <row r="693" spans="1:21" ht="18" customHeight="1">
       <c r="A693" s="1"/>
-      <c r="B693" s="27"/>
+      <c r="B693" s="26"/>
       <c r="C693" s="17"/>
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
@@ -16967,7 +17036,7 @@
     </row>
     <row r="694" spans="1:21" ht="18" customHeight="1">
       <c r="A694" s="1"/>
-      <c r="B694" s="27"/>
+      <c r="B694" s="26"/>
       <c r="C694" s="17"/>
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
@@ -16990,7 +17059,7 @@
     </row>
     <row r="695" spans="1:21" ht="18" customHeight="1">
       <c r="A695" s="1"/>
-      <c r="B695" s="27"/>
+      <c r="B695" s="26"/>
       <c r="C695" s="17"/>
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
@@ -17013,7 +17082,7 @@
     </row>
     <row r="696" spans="1:21" ht="18" customHeight="1">
       <c r="A696" s="1"/>
-      <c r="B696" s="27"/>
+      <c r="B696" s="26"/>
       <c r="C696" s="17"/>
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
@@ -17036,7 +17105,7 @@
     </row>
     <row r="697" spans="1:21" ht="18" customHeight="1">
       <c r="A697" s="1"/>
-      <c r="B697" s="27"/>
+      <c r="B697" s="26"/>
       <c r="C697" s="17"/>
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
@@ -17059,7 +17128,7 @@
     </row>
     <row r="698" spans="1:21" ht="18" customHeight="1">
       <c r="A698" s="1"/>
-      <c r="B698" s="27"/>
+      <c r="B698" s="26"/>
       <c r="C698" s="17"/>
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
@@ -17082,7 +17151,7 @@
     </row>
     <row r="699" spans="1:21" ht="18" customHeight="1">
       <c r="A699" s="1"/>
-      <c r="B699" s="27"/>
+      <c r="B699" s="26"/>
       <c r="C699" s="17"/>
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
@@ -17105,7 +17174,7 @@
     </row>
     <row r="700" spans="1:21" ht="18" customHeight="1">
       <c r="A700" s="1"/>
-      <c r="B700" s="27"/>
+      <c r="B700" s="26"/>
       <c r="C700" s="17"/>
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
@@ -17128,7 +17197,7 @@
     </row>
     <row r="701" spans="1:21" ht="18" customHeight="1">
       <c r="A701" s="1"/>
-      <c r="B701" s="27"/>
+      <c r="B701" s="26"/>
       <c r="C701" s="17"/>
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
@@ -17151,7 +17220,7 @@
     </row>
     <row r="702" spans="1:21" ht="18" customHeight="1">
       <c r="A702" s="1"/>
-      <c r="B702" s="27"/>
+      <c r="B702" s="26"/>
       <c r="C702" s="17"/>
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
@@ -17174,7 +17243,7 @@
     </row>
     <row r="703" spans="1:21" ht="18" customHeight="1">
       <c r="A703" s="1"/>
-      <c r="B703" s="27"/>
+      <c r="B703" s="26"/>
       <c r="C703" s="17"/>
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
@@ -17197,7 +17266,7 @@
     </row>
     <row r="704" spans="1:21" ht="18" customHeight="1">
       <c r="A704" s="1"/>
-      <c r="B704" s="27"/>
+      <c r="B704" s="26"/>
       <c r="C704" s="17"/>
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
@@ -17220,7 +17289,7 @@
     </row>
     <row r="705" spans="1:21" ht="18" customHeight="1">
       <c r="A705" s="1"/>
-      <c r="B705" s="27"/>
+      <c r="B705" s="26"/>
       <c r="C705" s="17"/>
       <c r="D705" s="11"/>
       <c r="E705" s="11"/>
@@ -17243,7 +17312,7 @@
     </row>
     <row r="706" spans="1:21" ht="18" customHeight="1">
       <c r="A706" s="1"/>
-      <c r="B706" s="27"/>
+      <c r="B706" s="26"/>
       <c r="C706" s="17"/>
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
@@ -17266,7 +17335,7 @@
     </row>
     <row r="707" spans="1:21" ht="18" customHeight="1">
       <c r="A707" s="1"/>
-      <c r="B707" s="27"/>
+      <c r="B707" s="26"/>
       <c r="C707" s="17"/>
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
@@ -17289,7 +17358,7 @@
     </row>
     <row r="708" spans="1:21" ht="18" customHeight="1">
       <c r="A708" s="1"/>
-      <c r="B708" s="27"/>
+      <c r="B708" s="26"/>
       <c r="C708" s="17"/>
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
@@ -17312,7 +17381,7 @@
     </row>
     <row r="709" spans="1:21" ht="18" customHeight="1">
       <c r="A709" s="1"/>
-      <c r="B709" s="27"/>
+      <c r="B709" s="26"/>
       <c r="C709" s="17"/>
       <c r="D709" s="11"/>
       <c r="E709" s="11"/>
@@ -17335,7 +17404,7 @@
     </row>
     <row r="710" spans="1:21" ht="18" customHeight="1">
       <c r="A710" s="1"/>
-      <c r="B710" s="27"/>
+      <c r="B710" s="26"/>
       <c r="C710" s="17"/>
       <c r="D710" s="11"/>
       <c r="E710" s="11"/>
@@ -17358,7 +17427,7 @@
     </row>
     <row r="711" spans="1:21" ht="18" customHeight="1">
       <c r="A711" s="1"/>
-      <c r="B711" s="27"/>
+      <c r="B711" s="26"/>
       <c r="C711" s="17"/>
       <c r="D711" s="11"/>
       <c r="E711" s="11"/>
@@ -17381,7 +17450,7 @@
     </row>
     <row r="712" spans="1:21" ht="18" customHeight="1">
       <c r="A712" s="1"/>
-      <c r="B712" s="27"/>
+      <c r="B712" s="26"/>
       <c r="C712" s="17"/>
       <c r="D712" s="11"/>
       <c r="E712" s="11"/>
@@ -17404,7 +17473,7 @@
     </row>
     <row r="713" spans="1:21" ht="18" customHeight="1">
       <c r="A713" s="1"/>
-      <c r="B713" s="27"/>
+      <c r="B713" s="26"/>
       <c r="C713" s="17"/>
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
@@ -17427,7 +17496,7 @@
     </row>
     <row r="714" spans="1:21" ht="18" customHeight="1">
       <c r="A714" s="1"/>
-      <c r="B714" s="27"/>
+      <c r="B714" s="26"/>
       <c r="C714" s="17"/>
       <c r="D714" s="11"/>
       <c r="E714" s="11"/>
@@ -17450,7 +17519,7 @@
     </row>
     <row r="715" spans="1:21" ht="18" customHeight="1">
       <c r="A715" s="1"/>
-      <c r="B715" s="27"/>
+      <c r="B715" s="26"/>
       <c r="C715" s="17"/>
       <c r="D715" s="11"/>
       <c r="E715" s="11"/>
@@ -17473,7 +17542,7 @@
     </row>
     <row r="716" spans="1:21" ht="18" customHeight="1">
       <c r="A716" s="1"/>
-      <c r="B716" s="27"/>
+      <c r="B716" s="26"/>
       <c r="C716" s="17"/>
       <c r="D716" s="11"/>
       <c r="E716" s="11"/>
@@ -17496,7 +17565,7 @@
     </row>
     <row r="717" spans="1:21" ht="18" customHeight="1">
       <c r="A717" s="1"/>
-      <c r="B717" s="27"/>
+      <c r="B717" s="26"/>
       <c r="C717" s="17"/>
       <c r="D717" s="11"/>
       <c r="E717" s="11"/>
@@ -17519,7 +17588,7 @@
     </row>
     <row r="718" spans="1:21" ht="18" customHeight="1">
       <c r="A718" s="1"/>
-      <c r="B718" s="27"/>
+      <c r="B718" s="26"/>
       <c r="C718" s="17"/>
       <c r="D718" s="11"/>
       <c r="E718" s="11"/>
@@ -17542,7 +17611,7 @@
     </row>
     <row r="719" spans="1:21" ht="18" customHeight="1">
       <c r="A719" s="1"/>
-      <c r="B719" s="27"/>
+      <c r="B719" s="26"/>
       <c r="C719" s="17"/>
       <c r="D719" s="11"/>
       <c r="E719" s="11"/>
@@ -17565,7 +17634,7 @@
     </row>
     <row r="720" spans="1:21" ht="18" customHeight="1">
       <c r="A720" s="1"/>
-      <c r="B720" s="27"/>
+      <c r="B720" s="26"/>
       <c r="C720" s="17"/>
       <c r="D720" s="11"/>
       <c r="E720" s="11"/>
@@ -17588,7 +17657,7 @@
     </row>
     <row r="721" spans="1:21" ht="18" customHeight="1">
       <c r="A721" s="1"/>
-      <c r="B721" s="27"/>
+      <c r="B721" s="26"/>
       <c r="C721" s="17"/>
       <c r="D721" s="11"/>
       <c r="E721" s="11"/>
@@ -17611,7 +17680,7 @@
     </row>
     <row r="722" spans="1:21" ht="18" customHeight="1">
       <c r="A722" s="1"/>
-      <c r="B722" s="27"/>
+      <c r="B722" s="26"/>
       <c r="C722" s="17"/>
       <c r="D722" s="11"/>
       <c r="E722" s="11"/>
@@ -17634,7 +17703,7 @@
     </row>
     <row r="723" spans="1:21" ht="18" customHeight="1">
       <c r="A723" s="1"/>
-      <c r="B723" s="27"/>
+      <c r="B723" s="26"/>
       <c r="C723" s="17"/>
       <c r="D723" s="11"/>
       <c r="E723" s="11"/>
@@ -17657,7 +17726,7 @@
     </row>
     <row r="724" spans="1:21" ht="18" customHeight="1">
       <c r="A724" s="1"/>
-      <c r="B724" s="27"/>
+      <c r="B724" s="26"/>
       <c r="C724" s="17"/>
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
@@ -17680,7 +17749,7 @@
     </row>
     <row r="725" spans="1:21" ht="18" customHeight="1">
       <c r="A725" s="1"/>
-      <c r="B725" s="27"/>
+      <c r="B725" s="26"/>
       <c r="C725" s="17"/>
       <c r="D725" s="11"/>
       <c r="E725" s="11"/>
@@ -17703,7 +17772,7 @@
     </row>
     <row r="726" spans="1:21" ht="18" customHeight="1">
       <c r="A726" s="1"/>
-      <c r="B726" s="27"/>
+      <c r="B726" s="26"/>
       <c r="C726" s="17"/>
       <c r="D726" s="11"/>
       <c r="E726" s="11"/>
@@ -17726,7 +17795,7 @@
     </row>
     <row r="727" spans="1:21" ht="18" customHeight="1">
       <c r="A727" s="1"/>
-      <c r="B727" s="27"/>
+      <c r="B727" s="26"/>
       <c r="C727" s="17"/>
       <c r="D727" s="11"/>
       <c r="E727" s="11"/>
@@ -17749,7 +17818,7 @@
     </row>
     <row r="728" spans="1:21" ht="18" customHeight="1">
       <c r="A728" s="1"/>
-      <c r="B728" s="27"/>
+      <c r="B728" s="26"/>
       <c r="C728" s="17"/>
       <c r="D728" s="11"/>
       <c r="E728" s="11"/>
@@ -17772,7 +17841,7 @@
     </row>
     <row r="729" spans="1:21" ht="18" customHeight="1">
       <c r="A729" s="1"/>
-      <c r="B729" s="27"/>
+      <c r="B729" s="26"/>
       <c r="C729" s="17"/>
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
@@ -17795,7 +17864,7 @@
     </row>
     <row r="730" spans="1:21" ht="18" customHeight="1">
       <c r="A730" s="1"/>
-      <c r="B730" s="27"/>
+      <c r="B730" s="26"/>
       <c r="C730" s="17"/>
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
@@ -17818,7 +17887,7 @@
     </row>
     <row r="731" spans="1:21" ht="18" customHeight="1">
       <c r="A731" s="1"/>
-      <c r="B731" s="27"/>
+      <c r="B731" s="26"/>
       <c r="C731" s="17"/>
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
@@ -17841,7 +17910,7 @@
     </row>
     <row r="732" spans="1:21" ht="18" customHeight="1">
       <c r="A732" s="1"/>
-      <c r="B732" s="27"/>
+      <c r="B732" s="26"/>
       <c r="C732" s="17"/>
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
@@ -17864,7 +17933,7 @@
     </row>
     <row r="733" spans="1:21" ht="18" customHeight="1">
       <c r="A733" s="1"/>
-      <c r="B733" s="27"/>
+      <c r="B733" s="26"/>
       <c r="C733" s="17"/>
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
@@ -17887,7 +17956,7 @@
     </row>
     <row r="734" spans="1:21" ht="18" customHeight="1">
       <c r="A734" s="1"/>
-      <c r="B734" s="27"/>
+      <c r="B734" s="26"/>
       <c r="C734" s="17"/>
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
@@ -17910,7 +17979,7 @@
     </row>
     <row r="735" spans="1:21" ht="18" customHeight="1">
       <c r="A735" s="1"/>
-      <c r="B735" s="27"/>
+      <c r="B735" s="26"/>
       <c r="C735" s="17"/>
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
@@ -17933,7 +18002,7 @@
     </row>
     <row r="736" spans="1:21" ht="18" customHeight="1">
       <c r="A736" s="1"/>
-      <c r="B736" s="27"/>
+      <c r="B736" s="26"/>
       <c r="C736" s="17"/>
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
@@ -17956,7 +18025,7 @@
     </row>
     <row r="737" spans="1:21" ht="18" customHeight="1">
       <c r="A737" s="1"/>
-      <c r="B737" s="27"/>
+      <c r="B737" s="26"/>
       <c r="C737" s="17"/>
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
@@ -17979,7 +18048,7 @@
     </row>
     <row r="738" spans="1:21" ht="18" customHeight="1">
       <c r="A738" s="1"/>
-      <c r="B738" s="27"/>
+      <c r="B738" s="26"/>
       <c r="C738" s="17"/>
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
@@ -18002,7 +18071,7 @@
     </row>
     <row r="739" spans="1:21" ht="18" customHeight="1">
       <c r="A739" s="1"/>
-      <c r="B739" s="27"/>
+      <c r="B739" s="26"/>
       <c r="C739" s="17"/>
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
@@ -18025,7 +18094,7 @@
     </row>
     <row r="740" spans="1:21" ht="18" customHeight="1">
       <c r="A740" s="1"/>
-      <c r="B740" s="27"/>
+      <c r="B740" s="26"/>
       <c r="C740" s="17"/>
       <c r="D740" s="11"/>
       <c r="E740" s="11"/>
@@ -18048,7 +18117,7 @@
     </row>
     <row r="741" spans="1:21" ht="18" customHeight="1">
       <c r="A741" s="1"/>
-      <c r="B741" s="27"/>
+      <c r="B741" s="26"/>
       <c r="C741" s="17"/>
       <c r="D741" s="11"/>
       <c r="E741" s="11"/>
@@ -18071,7 +18140,7 @@
     </row>
     <row r="742" spans="1:21" ht="18" customHeight="1">
       <c r="A742" s="1"/>
-      <c r="B742" s="27"/>
+      <c r="B742" s="26"/>
       <c r="C742" s="17"/>
       <c r="D742" s="11"/>
       <c r="E742" s="11"/>
@@ -18094,7 +18163,7 @@
     </row>
     <row r="743" spans="1:21" ht="18" customHeight="1">
       <c r="A743" s="1"/>
-      <c r="B743" s="27"/>
+      <c r="B743" s="26"/>
       <c r="C743" s="17"/>
       <c r="D743" s="11"/>
       <c r="E743" s="11"/>
@@ -18117,7 +18186,7 @@
     </row>
     <row r="744" spans="1:21" ht="18" customHeight="1">
       <c r="A744" s="1"/>
-      <c r="B744" s="27"/>
+      <c r="B744" s="26"/>
       <c r="C744" s="17"/>
       <c r="D744" s="11"/>
       <c r="E744" s="11"/>
@@ -18140,7 +18209,7 @@
     </row>
     <row r="745" spans="1:21" ht="18" customHeight="1">
       <c r="A745" s="1"/>
-      <c r="B745" s="27"/>
+      <c r="B745" s="26"/>
       <c r="C745" s="17"/>
       <c r="D745" s="11"/>
       <c r="E745" s="11"/>
@@ -18163,7 +18232,7 @@
     </row>
     <row r="746" spans="1:21" ht="18" customHeight="1">
       <c r="A746" s="1"/>
-      <c r="B746" s="27"/>
+      <c r="B746" s="26"/>
       <c r="C746" s="17"/>
       <c r="D746" s="11"/>
       <c r="E746" s="11"/>
@@ -18186,7 +18255,7 @@
     </row>
     <row r="747" spans="1:21" ht="18" customHeight="1">
       <c r="A747" s="1"/>
-      <c r="B747" s="27"/>
+      <c r="B747" s="26"/>
       <c r="C747" s="17"/>
       <c r="D747" s="11"/>
       <c r="E747" s="11"/>
@@ -18209,7 +18278,7 @@
     </row>
     <row r="748" spans="1:21" ht="18" customHeight="1">
       <c r="A748" s="1"/>
-      <c r="B748" s="27"/>
+      <c r="B748" s="26"/>
       <c r="C748" s="17"/>
       <c r="D748" s="11"/>
       <c r="E748" s="11"/>
@@ -18232,7 +18301,7 @@
     </row>
     <row r="749" spans="1:21" ht="18" customHeight="1">
       <c r="A749" s="1"/>
-      <c r="B749" s="27"/>
+      <c r="B749" s="26"/>
       <c r="C749" s="17"/>
       <c r="D749" s="11"/>
       <c r="E749" s="11"/>
@@ -18255,7 +18324,7 @@
     </row>
     <row r="750" spans="1:21" ht="18" customHeight="1">
       <c r="A750" s="1"/>
-      <c r="B750" s="27"/>
+      <c r="B750" s="26"/>
       <c r="C750" s="17"/>
       <c r="D750" s="11"/>
       <c r="E750" s="11"/>
@@ -18278,7 +18347,7 @@
     </row>
     <row r="751" spans="1:21" ht="18" customHeight="1">
       <c r="A751" s="1"/>
-      <c r="B751" s="27"/>
+      <c r="B751" s="26"/>
       <c r="C751" s="17"/>
       <c r="D751" s="11"/>
       <c r="E751" s="11"/>
@@ -18301,7 +18370,7 @@
     </row>
     <row r="752" spans="1:21" ht="18" customHeight="1">
       <c r="A752" s="1"/>
-      <c r="B752" s="27"/>
+      <c r="B752" s="26"/>
       <c r="C752" s="17"/>
       <c r="D752" s="11"/>
       <c r="E752" s="11"/>
@@ -18324,7 +18393,7 @@
     </row>
     <row r="753" spans="1:21" ht="18" customHeight="1">
       <c r="A753" s="1"/>
-      <c r="B753" s="27"/>
+      <c r="B753" s="26"/>
       <c r="C753" s="17"/>
       <c r="D753" s="11"/>
       <c r="E753" s="11"/>
@@ -18347,7 +18416,7 @@
     </row>
     <row r="754" spans="1:21" ht="18" customHeight="1">
       <c r="A754" s="1"/>
-      <c r="B754" s="27"/>
+      <c r="B754" s="26"/>
       <c r="C754" s="17"/>
       <c r="D754" s="11"/>
       <c r="E754" s="11"/>
@@ -18370,7 +18439,7 @@
     </row>
     <row r="755" spans="1:21" ht="18" customHeight="1">
       <c r="A755" s="1"/>
-      <c r="B755" s="27"/>
+      <c r="B755" s="26"/>
       <c r="C755" s="17"/>
       <c r="D755" s="11"/>
       <c r="E755" s="11"/>
@@ -18393,7 +18462,7 @@
     </row>
     <row r="756" spans="1:21" ht="18" customHeight="1">
       <c r="A756" s="1"/>
-      <c r="B756" s="27"/>
+      <c r="B756" s="26"/>
       <c r="C756" s="17"/>
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
@@ -18416,7 +18485,7 @@
     </row>
     <row r="757" spans="1:21" ht="18" customHeight="1">
       <c r="A757" s="1"/>
-      <c r="B757" s="27"/>
+      <c r="B757" s="26"/>
       <c r="C757" s="17"/>
       <c r="D757" s="11"/>
       <c r="E757" s="11"/>
@@ -18439,7 +18508,7 @@
     </row>
     <row r="758" spans="1:21" ht="18" customHeight="1">
       <c r="A758" s="1"/>
-      <c r="B758" s="27"/>
+      <c r="B758" s="26"/>
       <c r="C758" s="17"/>
       <c r="D758" s="11"/>
       <c r="E758" s="11"/>
@@ -18462,7 +18531,7 @@
     </row>
     <row r="759" spans="1:21" ht="18" customHeight="1">
       <c r="A759" s="1"/>
-      <c r="B759" s="27"/>
+      <c r="B759" s="26"/>
       <c r="C759" s="17"/>
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
@@ -18485,7 +18554,7 @@
     </row>
     <row r="760" spans="1:21" ht="18" customHeight="1">
       <c r="A760" s="1"/>
-      <c r="B760" s="27"/>
+      <c r="B760" s="26"/>
       <c r="C760" s="17"/>
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
@@ -18508,7 +18577,7 @@
     </row>
     <row r="761" spans="1:21" ht="18" customHeight="1">
       <c r="A761" s="1"/>
-      <c r="B761" s="27"/>
+      <c r="B761" s="26"/>
       <c r="C761" s="17"/>
       <c r="D761" s="11"/>
       <c r="E761" s="11"/>
@@ -18531,7 +18600,7 @@
     </row>
     <row r="762" spans="1:21" ht="18" customHeight="1">
       <c r="A762" s="1"/>
-      <c r="B762" s="27"/>
+      <c r="B762" s="26"/>
       <c r="C762" s="17"/>
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
@@ -18554,7 +18623,7 @@
     </row>
     <row r="763" spans="1:21" ht="18" customHeight="1">
       <c r="A763" s="1"/>
-      <c r="B763" s="27"/>
+      <c r="B763" s="26"/>
       <c r="C763" s="17"/>
       <c r="D763" s="11"/>
       <c r="E763" s="11"/>
@@ -18577,7 +18646,7 @@
     </row>
     <row r="764" spans="1:21" ht="18" customHeight="1">
       <c r="A764" s="1"/>
-      <c r="B764" s="27"/>
+      <c r="B764" s="26"/>
       <c r="C764" s="17"/>
       <c r="D764" s="11"/>
       <c r="E764" s="11"/>
@@ -18600,7 +18669,7 @@
     </row>
     <row r="765" spans="1:21" ht="18" customHeight="1">
       <c r="A765" s="1"/>
-      <c r="B765" s="27"/>
+      <c r="B765" s="26"/>
       <c r="C765" s="17"/>
       <c r="D765" s="11"/>
       <c r="E765" s="11"/>
@@ -18623,7 +18692,7 @@
     </row>
     <row r="766" spans="1:21" ht="18" customHeight="1">
       <c r="A766" s="1"/>
-      <c r="B766" s="27"/>
+      <c r="B766" s="26"/>
       <c r="C766" s="17"/>
       <c r="D766" s="11"/>
       <c r="E766" s="11"/>
@@ -18646,7 +18715,7 @@
     </row>
     <row r="767" spans="1:21" ht="18" customHeight="1">
       <c r="A767" s="1"/>
-      <c r="B767" s="27"/>
+      <c r="B767" s="26"/>
       <c r="C767" s="17"/>
       <c r="D767" s="11"/>
       <c r="E767" s="11"/>
@@ -18669,7 +18738,7 @@
     </row>
     <row r="768" spans="1:21" ht="18" customHeight="1">
       <c r="A768" s="1"/>
-      <c r="B768" s="27"/>
+      <c r="B768" s="26"/>
       <c r="C768" s="17"/>
       <c r="D768" s="11"/>
       <c r="E768" s="11"/>
@@ -18692,7 +18761,7 @@
     </row>
     <row r="769" spans="1:21" ht="18" customHeight="1">
       <c r="A769" s="1"/>
-      <c r="B769" s="27"/>
+      <c r="B769" s="26"/>
       <c r="C769" s="17"/>
       <c r="D769" s="11"/>
       <c r="E769" s="11"/>
@@ -18715,7 +18784,7 @@
     </row>
     <row r="770" spans="1:21" ht="18" customHeight="1">
       <c r="A770" s="1"/>
-      <c r="B770" s="27"/>
+      <c r="B770" s="26"/>
       <c r="C770" s="17"/>
       <c r="D770" s="11"/>
       <c r="E770" s="11"/>
@@ -18738,7 +18807,7 @@
     </row>
     <row r="771" spans="1:21" ht="18" customHeight="1">
       <c r="A771" s="1"/>
-      <c r="B771" s="27"/>
+      <c r="B771" s="26"/>
       <c r="C771" s="17"/>
       <c r="D771" s="11"/>
       <c r="E771" s="11"/>
@@ -18761,7 +18830,7 @@
     </row>
     <row r="772" spans="1:21" ht="18" customHeight="1">
       <c r="A772" s="1"/>
-      <c r="B772" s="27"/>
+      <c r="B772" s="26"/>
       <c r="C772" s="17"/>
       <c r="D772" s="11"/>
       <c r="E772" s="11"/>
@@ -18784,7 +18853,7 @@
     </row>
     <row r="773" spans="1:21" ht="18" customHeight="1">
       <c r="A773" s="1"/>
-      <c r="B773" s="27"/>
+      <c r="B773" s="26"/>
       <c r="C773" s="17"/>
       <c r="D773" s="11"/>
       <c r="E773" s="11"/>
@@ -18807,7 +18876,7 @@
     </row>
     <row r="774" spans="1:21" ht="18" customHeight="1">
       <c r="A774" s="1"/>
-      <c r="B774" s="27"/>
+      <c r="B774" s="26"/>
       <c r="C774" s="17"/>
       <c r="D774" s="11"/>
       <c r="E774" s="11"/>
@@ -18830,7 +18899,7 @@
     </row>
     <row r="775" spans="1:21" ht="18" customHeight="1">
       <c r="A775" s="1"/>
-      <c r="B775" s="27"/>
+      <c r="B775" s="26"/>
       <c r="C775" s="17"/>
       <c r="D775" s="11"/>
       <c r="E775" s="11"/>
@@ -18853,7 +18922,7 @@
     </row>
     <row r="776" spans="1:21" ht="18" customHeight="1">
       <c r="A776" s="1"/>
-      <c r="B776" s="27"/>
+      <c r="B776" s="26"/>
       <c r="C776" s="17"/>
       <c r="D776" s="11"/>
       <c r="E776" s="11"/>
@@ -18876,7 +18945,7 @@
     </row>
     <row r="777" spans="1:21" ht="18" customHeight="1">
       <c r="A777" s="1"/>
-      <c r="B777" s="27"/>
+      <c r="B777" s="26"/>
       <c r="C777" s="17"/>
       <c r="D777" s="11"/>
       <c r="E777" s="11"/>
@@ -18899,7 +18968,7 @@
     </row>
     <row r="778" spans="1:21" ht="18" customHeight="1">
       <c r="A778" s="1"/>
-      <c r="B778" s="27"/>
+      <c r="B778" s="26"/>
       <c r="C778" s="17"/>
       <c r="D778" s="11"/>
       <c r="E778" s="11"/>
@@ -18922,7 +18991,7 @@
     </row>
     <row r="779" spans="1:21" ht="18" customHeight="1">
       <c r="A779" s="1"/>
-      <c r="B779" s="27"/>
+      <c r="B779" s="26"/>
       <c r="C779" s="17"/>
       <c r="D779" s="11"/>
       <c r="E779" s="11"/>
@@ -18945,7 +19014,7 @@
     </row>
     <row r="780" spans="1:21" ht="18" customHeight="1">
       <c r="A780" s="1"/>
-      <c r="B780" s="27"/>
+      <c r="B780" s="26"/>
       <c r="C780" s="17"/>
       <c r="D780" s="11"/>
       <c r="E780" s="11"/>
@@ -18968,7 +19037,7 @@
     </row>
     <row r="781" spans="1:21" ht="18" customHeight="1">
       <c r="A781" s="1"/>
-      <c r="B781" s="27"/>
+      <c r="B781" s="26"/>
       <c r="C781" s="17"/>
       <c r="D781" s="11"/>
       <c r="E781" s="11"/>
@@ -18991,7 +19060,7 @@
     </row>
     <row r="782" spans="1:21" ht="18" customHeight="1">
       <c r="A782" s="1"/>
-      <c r="B782" s="27"/>
+      <c r="B782" s="26"/>
       <c r="C782" s="17"/>
       <c r="D782" s="11"/>
       <c r="E782" s="11"/>
@@ -19014,7 +19083,7 @@
     </row>
     <row r="783" spans="1:21" ht="18" customHeight="1">
       <c r="A783" s="1"/>
-      <c r="B783" s="27"/>
+      <c r="B783" s="26"/>
       <c r="C783" s="17"/>
       <c r="D783" s="11"/>
       <c r="E783" s="11"/>
@@ -19037,7 +19106,7 @@
     </row>
     <row r="784" spans="1:21" ht="18" customHeight="1">
       <c r="A784" s="1"/>
-      <c r="B784" s="27"/>
+      <c r="B784" s="26"/>
       <c r="C784" s="17"/>
       <c r="D784" s="11"/>
       <c r="E784" s="11"/>
@@ -19060,7 +19129,7 @@
     </row>
     <row r="785" spans="1:21" ht="18" customHeight="1">
       <c r="A785" s="1"/>
-      <c r="B785" s="27"/>
+      <c r="B785" s="26"/>
       <c r="C785" s="17"/>
       <c r="D785" s="11"/>
       <c r="E785" s="11"/>
@@ -19083,7 +19152,7 @@
     </row>
     <row r="786" spans="1:21" ht="18" customHeight="1">
       <c r="A786" s="1"/>
-      <c r="B786" s="27"/>
+      <c r="B786" s="26"/>
       <c r="C786" s="17"/>
       <c r="D786" s="11"/>
       <c r="E786" s="11"/>
@@ -19106,7 +19175,7 @@
     </row>
     <row r="787" spans="1:21" ht="18" customHeight="1">
       <c r="A787" s="1"/>
-      <c r="B787" s="27"/>
+      <c r="B787" s="26"/>
       <c r="C787" s="17"/>
       <c r="D787" s="11"/>
       <c r="E787" s="11"/>
@@ -19129,7 +19198,7 @@
     </row>
     <row r="788" spans="1:21" ht="18" customHeight="1">
       <c r="A788" s="1"/>
-      <c r="B788" s="27"/>
+      <c r="B788" s="26"/>
       <c r="C788" s="17"/>
       <c r="D788" s="11"/>
       <c r="E788" s="11"/>
@@ -19152,7 +19221,7 @@
     </row>
     <row r="789" spans="1:21" ht="18" customHeight="1">
       <c r="A789" s="1"/>
-      <c r="B789" s="27"/>
+      <c r="B789" s="26"/>
       <c r="C789" s="17"/>
       <c r="D789" s="11"/>
       <c r="E789" s="11"/>
@@ -19175,7 +19244,7 @@
     </row>
     <row r="790" spans="1:21" ht="18" customHeight="1">
       <c r="A790" s="1"/>
-      <c r="B790" s="27"/>
+      <c r="B790" s="26"/>
       <c r="C790" s="17"/>
       <c r="D790" s="11"/>
       <c r="E790" s="11"/>
@@ -19198,7 +19267,7 @@
     </row>
     <row r="791" spans="1:21" ht="18" customHeight="1">
       <c r="A791" s="1"/>
-      <c r="B791" s="27"/>
+      <c r="B791" s="26"/>
       <c r="C791" s="17"/>
       <c r="D791" s="11"/>
       <c r="E791" s="11"/>
@@ -19221,7 +19290,7 @@
     </row>
     <row r="792" spans="1:21" ht="18" customHeight="1">
       <c r="A792" s="1"/>
-      <c r="B792" s="27"/>
+      <c r="B792" s="26"/>
       <c r="C792" s="17"/>
       <c r="D792" s="11"/>
       <c r="E792" s="11"/>
@@ -19244,7 +19313,7 @@
     </row>
     <row r="793" spans="1:21" ht="18" customHeight="1">
       <c r="A793" s="1"/>
-      <c r="B793" s="27"/>
+      <c r="B793" s="26"/>
       <c r="C793" s="17"/>
       <c r="D793" s="11"/>
       <c r="E793" s="11"/>
@@ -19267,7 +19336,7 @@
     </row>
     <row r="794" spans="1:21" ht="18" customHeight="1">
       <c r="A794" s="1"/>
-      <c r="B794" s="27"/>
+      <c r="B794" s="26"/>
       <c r="C794" s="17"/>
       <c r="D794" s="11"/>
       <c r="E794" s="11"/>
@@ -19290,7 +19359,7 @@
     </row>
     <row r="795" spans="1:21" ht="18" customHeight="1">
       <c r="A795" s="1"/>
-      <c r="B795" s="27"/>
+      <c r="B795" s="26"/>
       <c r="C795" s="17"/>
       <c r="D795" s="11"/>
       <c r="E795" s="11"/>
@@ -19313,7 +19382,7 @@
     </row>
     <row r="796" spans="1:21" ht="18" customHeight="1">
       <c r="A796" s="1"/>
-      <c r="B796" s="27"/>
+      <c r="B796" s="26"/>
       <c r="C796" s="17"/>
       <c r="D796" s="11"/>
       <c r="E796" s="11"/>
@@ -19336,7 +19405,7 @@
     </row>
     <row r="797" spans="1:21" ht="18" customHeight="1">
       <c r="A797" s="1"/>
-      <c r="B797" s="27"/>
+      <c r="B797" s="26"/>
       <c r="C797" s="17"/>
       <c r="D797" s="11"/>
       <c r="E797" s="11"/>
@@ -19359,7 +19428,7 @@
     </row>
     <row r="798" spans="1:21" ht="18" customHeight="1">
       <c r="A798" s="1"/>
-      <c r="B798" s="27"/>
+      <c r="B798" s="26"/>
       <c r="C798" s="17"/>
       <c r="D798" s="11"/>
       <c r="E798" s="11"/>
@@ -19382,7 +19451,7 @@
     </row>
     <row r="799" spans="1:21" ht="18" customHeight="1">
       <c r="A799" s="1"/>
-      <c r="B799" s="27"/>
+      <c r="B799" s="26"/>
       <c r="C799" s="17"/>
       <c r="D799" s="11"/>
       <c r="E799" s="11"/>
@@ -19405,7 +19474,7 @@
     </row>
     <row r="800" spans="1:21" ht="18" customHeight="1">
       <c r="A800" s="1"/>
-      <c r="B800" s="27"/>
+      <c r="B800" s="26"/>
       <c r="C800" s="17"/>
       <c r="D800" s="11"/>
       <c r="E800" s="11"/>
@@ -19428,7 +19497,7 @@
     </row>
     <row r="801" spans="1:21" ht="18" customHeight="1">
       <c r="A801" s="1"/>
-      <c r="B801" s="27"/>
+      <c r="B801" s="26"/>
       <c r="C801" s="17"/>
       <c r="D801" s="11"/>
       <c r="E801" s="11"/>
@@ -19451,7 +19520,7 @@
     </row>
     <row r="802" spans="1:21" ht="18" customHeight="1">
       <c r="A802" s="1"/>
-      <c r="B802" s="27"/>
+      <c r="B802" s="26"/>
       <c r="C802" s="17"/>
       <c r="D802" s="11"/>
       <c r="E802" s="11"/>
@@ -19474,7 +19543,7 @@
     </row>
     <row r="803" spans="1:21" ht="18" customHeight="1">
       <c r="A803" s="1"/>
-      <c r="B803" s="27"/>
+      <c r="B803" s="26"/>
       <c r="C803" s="17"/>
       <c r="D803" s="11"/>
       <c r="E803" s="11"/>
@@ -19497,7 +19566,7 @@
     </row>
     <row r="804" spans="1:21" ht="18" customHeight="1">
       <c r="A804" s="1"/>
-      <c r="B804" s="27"/>
+      <c r="B804" s="26"/>
       <c r="C804" s="17"/>
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
@@ -19520,7 +19589,7 @@
     </row>
     <row r="805" spans="1:21" ht="18" customHeight="1">
       <c r="A805" s="1"/>
-      <c r="B805" s="27"/>
+      <c r="B805" s="26"/>
       <c r="C805" s="17"/>
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
@@ -19543,7 +19612,7 @@
     </row>
     <row r="806" spans="1:21" ht="18" customHeight="1">
       <c r="A806" s="1"/>
-      <c r="B806" s="27"/>
+      <c r="B806" s="26"/>
       <c r="C806" s="17"/>
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
@@ -19566,7 +19635,7 @@
     </row>
     <row r="807" spans="1:21" ht="18" customHeight="1">
       <c r="A807" s="1"/>
-      <c r="B807" s="27"/>
+      <c r="B807" s="26"/>
       <c r="C807" s="17"/>
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
@@ -19589,7 +19658,7 @@
     </row>
     <row r="808" spans="1:21" ht="18" customHeight="1">
       <c r="A808" s="1"/>
-      <c r="B808" s="27"/>
+      <c r="B808" s="26"/>
       <c r="C808" s="17"/>
       <c r="D808" s="11"/>
       <c r="E808" s="11"/>
@@ -19612,7 +19681,7 @@
     </row>
     <row r="809" spans="1:21" ht="18" customHeight="1">
       <c r="A809" s="1"/>
-      <c r="B809" s="27"/>
+      <c r="B809" s="26"/>
       <c r="C809" s="17"/>
       <c r="D809" s="11"/>
       <c r="E809" s="11"/>
@@ -19635,7 +19704,7 @@
     </row>
     <row r="810" spans="1:21" ht="18" customHeight="1">
       <c r="A810" s="1"/>
-      <c r="B810" s="27"/>
+      <c r="B810" s="26"/>
       <c r="C810" s="17"/>
       <c r="D810" s="11"/>
       <c r="E810" s="11"/>
@@ -19658,7 +19727,7 @@
     </row>
     <row r="811" spans="1:21" ht="18" customHeight="1">
       <c r="A811" s="1"/>
-      <c r="B811" s="27"/>
+      <c r="B811" s="26"/>
       <c r="C811" s="17"/>
       <c r="D811" s="11"/>
       <c r="E811" s="11"/>
@@ -19681,7 +19750,7 @@
     </row>
     <row r="812" spans="1:21" ht="18" customHeight="1">
       <c r="A812" s="1"/>
-      <c r="B812" s="27"/>
+      <c r="B812" s="26"/>
       <c r="C812" s="17"/>
       <c r="D812" s="11"/>
       <c r="E812" s="11"/>
@@ -19704,7 +19773,7 @@
     </row>
     <row r="813" spans="1:21" ht="18" customHeight="1">
       <c r="A813" s="1"/>
-      <c r="B813" s="27"/>
+      <c r="B813" s="26"/>
       <c r="C813" s="17"/>
       <c r="D813" s="11"/>
       <c r="E813" s="11"/>
@@ -19727,7 +19796,7 @@
     </row>
     <row r="814" spans="1:21" ht="18" customHeight="1">
       <c r="A814" s="1"/>
-      <c r="B814" s="27"/>
+      <c r="B814" s="26"/>
       <c r="C814" s="17"/>
       <c r="D814" s="11"/>
       <c r="E814" s="11"/>
@@ -19750,7 +19819,7 @@
     </row>
     <row r="815" spans="1:21" ht="18" customHeight="1">
       <c r="A815" s="1"/>
-      <c r="B815" s="27"/>
+      <c r="B815" s="26"/>
       <c r="C815" s="17"/>
       <c r="D815" s="11"/>
       <c r="E815" s="11"/>
@@ -19773,7 +19842,7 @@
     </row>
     <row r="816" spans="1:21" ht="18" customHeight="1">
       <c r="A816" s="1"/>
-      <c r="B816" s="27"/>
+      <c r="B816" s="26"/>
       <c r="C816" s="17"/>
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
@@ -19796,7 +19865,7 @@
     </row>
     <row r="817" spans="1:21" ht="18" customHeight="1">
       <c r="A817" s="1"/>
-      <c r="B817" s="27"/>
+      <c r="B817" s="26"/>
       <c r="C817" s="17"/>
       <c r="D817" s="11"/>
       <c r="E817" s="11"/>
@@ -19819,7 +19888,7 @@
     </row>
     <row r="818" spans="1:21" ht="18" customHeight="1">
       <c r="A818" s="1"/>
-      <c r="B818" s="27"/>
+      <c r="B818" s="26"/>
       <c r="C818" s="17"/>
       <c r="D818" s="11"/>
       <c r="E818" s="11"/>
@@ -19842,7 +19911,7 @@
     </row>
     <row r="819" spans="1:21" ht="18" customHeight="1">
       <c r="A819" s="1"/>
-      <c r="B819" s="27"/>
+      <c r="B819" s="26"/>
       <c r="C819" s="17"/>
       <c r="D819" s="11"/>
       <c r="E819" s="11"/>
@@ -19865,7 +19934,7 @@
     </row>
     <row r="820" spans="1:21" ht="18" customHeight="1">
       <c r="A820" s="1"/>
-      <c r="B820" s="27"/>
+      <c r="B820" s="26"/>
       <c r="C820" s="17"/>
       <c r="D820" s="11"/>
       <c r="E820" s="11"/>
@@ -19888,7 +19957,7 @@
     </row>
     <row r="821" spans="1:21" ht="18" customHeight="1">
       <c r="A821" s="1"/>
-      <c r="B821" s="27"/>
+      <c r="B821" s="26"/>
       <c r="C821" s="17"/>
       <c r="D821" s="11"/>
       <c r="E821" s="11"/>
@@ -19911,7 +19980,7 @@
     </row>
     <row r="822" spans="1:21" ht="18" customHeight="1">
       <c r="A822" s="1"/>
-      <c r="B822" s="27"/>
+      <c r="B822" s="26"/>
       <c r="C822" s="17"/>
       <c r="D822" s="11"/>
       <c r="E822" s="11"/>
@@ -19934,7 +20003,7 @@
     </row>
     <row r="823" spans="1:21" ht="18" customHeight="1">
       <c r="A823" s="1"/>
-      <c r="B823" s="27"/>
+      <c r="B823" s="26"/>
       <c r="C823" s="17"/>
       <c r="D823" s="11"/>
       <c r="E823" s="11"/>
@@ -19957,7 +20026,7 @@
     </row>
     <row r="824" spans="1:21" ht="18" customHeight="1">
       <c r="A824" s="1"/>
-      <c r="B824" s="27"/>
+      <c r="B824" s="26"/>
       <c r="C824" s="17"/>
       <c r="D824" s="11"/>
       <c r="E824" s="11"/>
@@ -19980,7 +20049,7 @@
     </row>
     <row r="825" spans="1:21" ht="18" customHeight="1">
       <c r="A825" s="1"/>
-      <c r="B825" s="27"/>
+      <c r="B825" s="26"/>
       <c r="C825" s="17"/>
       <c r="D825" s="11"/>
       <c r="E825" s="11"/>
@@ -20003,7 +20072,7 @@
     </row>
     <row r="826" spans="1:21" ht="18" customHeight="1">
       <c r="A826" s="1"/>
-      <c r="B826" s="27"/>
+      <c r="B826" s="26"/>
       <c r="C826" s="17"/>
       <c r="D826" s="11"/>
       <c r="E826" s="11"/>
@@ -20026,7 +20095,7 @@
     </row>
     <row r="827" spans="1:21" ht="18" customHeight="1">
       <c r="A827" s="1"/>
-      <c r="B827" s="27"/>
+      <c r="B827" s="26"/>
       <c r="C827" s="17"/>
       <c r="D827" s="11"/>
       <c r="E827" s="11"/>
@@ -20049,7 +20118,7 @@
     </row>
     <row r="828" spans="1:21" ht="18" customHeight="1">
       <c r="A828" s="1"/>
-      <c r="B828" s="27"/>
+      <c r="B828" s="26"/>
       <c r="C828" s="17"/>
       <c r="D828" s="11"/>
       <c r="E828" s="11"/>
@@ -20072,7 +20141,7 @@
     </row>
     <row r="829" spans="1:21" ht="18" customHeight="1">
       <c r="A829" s="1"/>
-      <c r="B829" s="27"/>
+      <c r="B829" s="26"/>
       <c r="C829" s="17"/>
       <c r="D829" s="11"/>
       <c r="E829" s="11"/>
@@ -20095,7 +20164,7 @@
     </row>
     <row r="830" spans="1:21" ht="18" customHeight="1">
       <c r="A830" s="1"/>
-      <c r="B830" s="27"/>
+      <c r="B830" s="26"/>
       <c r="C830" s="17"/>
       <c r="D830" s="11"/>
       <c r="E830" s="11"/>
@@ -20118,7 +20187,7 @@
     </row>
     <row r="831" spans="1:21" ht="18" customHeight="1">
       <c r="A831" s="1"/>
-      <c r="B831" s="27"/>
+      <c r="B831" s="26"/>
       <c r="C831" s="17"/>
       <c r="D831" s="11"/>
       <c r="E831" s="11"/>
@@ -20141,7 +20210,7 @@
     </row>
     <row r="832" spans="1:21" ht="18" customHeight="1">
       <c r="A832" s="1"/>
-      <c r="B832" s="27"/>
+      <c r="B832" s="26"/>
       <c r="C832" s="17"/>
       <c r="D832" s="11"/>
       <c r="E832" s="11"/>
@@ -20164,7 +20233,7 @@
     </row>
     <row r="833" spans="1:21" ht="18" customHeight="1">
       <c r="A833" s="1"/>
-      <c r="B833" s="27"/>
+      <c r="B833" s="26"/>
       <c r="C833" s="17"/>
       <c r="D833" s="11"/>
       <c r="E833" s="11"/>
@@ -20187,7 +20256,7 @@
     </row>
     <row r="834" spans="1:21" ht="18" customHeight="1">
       <c r="A834" s="1"/>
-      <c r="B834" s="27"/>
+      <c r="B834" s="26"/>
       <c r="C834" s="17"/>
       <c r="D834" s="11"/>
       <c r="E834" s="11"/>
@@ -20210,7 +20279,7 @@
     </row>
     <row r="835" spans="1:21" ht="18" customHeight="1">
       <c r="A835" s="1"/>
-      <c r="B835" s="27"/>
+      <c r="B835" s="26"/>
       <c r="C835" s="17"/>
       <c r="D835" s="11"/>
       <c r="E835" s="11"/>
@@ -20233,7 +20302,7 @@
     </row>
     <row r="836" spans="1:21" ht="18" customHeight="1">
       <c r="A836" s="1"/>
-      <c r="B836" s="27"/>
+      <c r="B836" s="26"/>
       <c r="C836" s="17"/>
       <c r="D836" s="11"/>
       <c r="E836" s="11"/>
@@ -20256,7 +20325,7 @@
     </row>
     <row r="837" spans="1:21" ht="18" customHeight="1">
       <c r="A837" s="1"/>
-      <c r="B837" s="27"/>
+      <c r="B837" s="26"/>
       <c r="C837" s="17"/>
       <c r="D837" s="11"/>
       <c r="E837" s="11"/>
@@ -20279,7 +20348,7 @@
     </row>
     <row r="838" spans="1:21" ht="18" customHeight="1">
       <c r="A838" s="1"/>
-      <c r="B838" s="27"/>
+      <c r="B838" s="26"/>
       <c r="C838" s="17"/>
       <c r="D838" s="11"/>
       <c r="E838" s="11"/>
@@ -20302,7 +20371,7 @@
     </row>
     <row r="839" spans="1:21" ht="18" customHeight="1">
       <c r="A839" s="1"/>
-      <c r="B839" s="27"/>
+      <c r="B839" s="26"/>
       <c r="C839" s="17"/>
       <c r="D839" s="11"/>
       <c r="E839" s="11"/>
@@ -20325,7 +20394,7 @@
     </row>
     <row r="840" spans="1:21" ht="18" customHeight="1">
       <c r="A840" s="1"/>
-      <c r="B840" s="27"/>
+      <c r="B840" s="26"/>
       <c r="C840" s="17"/>
       <c r="D840" s="11"/>
       <c r="E840" s="11"/>
@@ -20348,7 +20417,7 @@
     </row>
     <row r="841" spans="1:21" ht="18" customHeight="1">
       <c r="A841" s="1"/>
-      <c r="B841" s="27"/>
+      <c r="B841" s="26"/>
       <c r="C841" s="17"/>
       <c r="D841" s="11"/>
       <c r="E841" s="11"/>
@@ -20371,7 +20440,7 @@
     </row>
     <row r="842" spans="1:21" ht="18" customHeight="1">
       <c r="A842" s="1"/>
-      <c r="B842" s="27"/>
+      <c r="B842" s="26"/>
       <c r="C842" s="17"/>
       <c r="D842" s="11"/>
       <c r="E842" s="11"/>
@@ -20394,7 +20463,7 @@
     </row>
     <row r="843" spans="1:21" ht="18" customHeight="1">
       <c r="A843" s="1"/>
-      <c r="B843" s="27"/>
+      <c r="B843" s="26"/>
       <c r="C843" s="17"/>
       <c r="D843" s="11"/>
       <c r="E843" s="11"/>
@@ -20417,7 +20486,7 @@
     </row>
     <row r="844" spans="1:21" ht="18" customHeight="1">
       <c r="A844" s="1"/>
-      <c r="B844" s="27"/>
+      <c r="B844" s="26"/>
       <c r="C844" s="17"/>
       <c r="D844" s="11"/>
       <c r="E844" s="11"/>
@@ -20440,7 +20509,7 @@
     </row>
     <row r="845" spans="1:21" ht="18" customHeight="1">
       <c r="A845" s="1"/>
-      <c r="B845" s="27"/>
+      <c r="B845" s="26"/>
       <c r="C845" s="17"/>
       <c r="D845" s="11"/>
       <c r="E845" s="11"/>
@@ -20463,7 +20532,7 @@
     </row>
     <row r="846" spans="1:21" ht="18" customHeight="1">
       <c r="A846" s="1"/>
-      <c r="B846" s="27"/>
+      <c r="B846" s="26"/>
       <c r="C846" s="17"/>
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
@@ -20486,7 +20555,7 @@
     </row>
     <row r="847" spans="1:21" ht="18" customHeight="1">
       <c r="A847" s="1"/>
-      <c r="B847" s="27"/>
+      <c r="B847" s="26"/>
       <c r="C847" s="17"/>
       <c r="D847" s="11"/>
       <c r="E847" s="11"/>
@@ -20509,7 +20578,7 @@
     </row>
     <row r="848" spans="1:21" ht="18" customHeight="1">
       <c r="A848" s="1"/>
-      <c r="B848" s="27"/>
+      <c r="B848" s="26"/>
       <c r="C848" s="17"/>
       <c r="D848" s="11"/>
       <c r="E848" s="11"/>
@@ -20532,7 +20601,7 @@
     </row>
     <row r="849" spans="1:21" ht="18" customHeight="1">
       <c r="A849" s="1"/>
-      <c r="B849" s="27"/>
+      <c r="B849" s="26"/>
       <c r="C849" s="17"/>
       <c r="D849" s="11"/>
       <c r="E849" s="11"/>
@@ -20555,7 +20624,7 @@
     </row>
     <row r="850" spans="1:21" ht="18" customHeight="1">
       <c r="A850" s="1"/>
-      <c r="B850" s="27"/>
+      <c r="B850" s="26"/>
       <c r="C850" s="17"/>
       <c r="D850" s="11"/>
       <c r="E850" s="11"/>
@@ -20578,7 +20647,7 @@
     </row>
     <row r="851" spans="1:21" ht="18" customHeight="1">
       <c r="A851" s="1"/>
-      <c r="B851" s="27"/>
+      <c r="B851" s="26"/>
       <c r="C851" s="17"/>
       <c r="D851" s="11"/>
       <c r="E851" s="11"/>
@@ -20601,7 +20670,7 @@
     </row>
     <row r="852" spans="1:21" ht="18" customHeight="1">
       <c r="A852" s="1"/>
-      <c r="B852" s="27"/>
+      <c r="B852" s="26"/>
       <c r="C852" s="17"/>
       <c r="D852" s="11"/>
       <c r="E852" s="11"/>
@@ -20624,7 +20693,7 @@
     </row>
     <row r="853" spans="1:21" ht="18" customHeight="1">
       <c r="A853" s="1"/>
-      <c r="B853" s="27"/>
+      <c r="B853" s="26"/>
       <c r="C853" s="17"/>
       <c r="D853" s="11"/>
       <c r="E853" s="11"/>
@@ -20647,7 +20716,7 @@
     </row>
     <row r="854" spans="1:21" ht="18" customHeight="1">
       <c r="A854" s="1"/>
-      <c r="B854" s="27"/>
+      <c r="B854" s="26"/>
       <c r="C854" s="17"/>
       <c r="D854" s="11"/>
       <c r="E854" s="11"/>
@@ -20670,7 +20739,7 @@
     </row>
     <row r="855" spans="1:21" ht="18" customHeight="1">
       <c r="A855" s="1"/>
-      <c r="B855" s="27"/>
+      <c r="B855" s="26"/>
       <c r="C855" s="17"/>
       <c r="D855" s="11"/>
       <c r="E855" s="11"/>
@@ -20693,7 +20762,7 @@
     </row>
     <row r="856" spans="1:21" ht="18" customHeight="1">
       <c r="A856" s="1"/>
-      <c r="B856" s="27"/>
+      <c r="B856" s="26"/>
       <c r="C856" s="17"/>
       <c r="D856" s="11"/>
       <c r="E856" s="11"/>
@@ -20716,7 +20785,7 @@
     </row>
     <row r="857" spans="1:21" ht="18" customHeight="1">
       <c r="A857" s="1"/>
-      <c r="B857" s="27"/>
+      <c r="B857" s="26"/>
       <c r="C857" s="17"/>
       <c r="D857" s="11"/>
       <c r="E857" s="11"/>
@@ -20739,7 +20808,7 @@
     </row>
     <row r="858" spans="1:21" ht="18" customHeight="1">
       <c r="A858" s="1"/>
-      <c r="B858" s="27"/>
+      <c r="B858" s="26"/>
       <c r="C858" s="17"/>
       <c r="D858" s="11"/>
       <c r="E858" s="11"/>
@@ -20762,7 +20831,7 @@
     </row>
     <row r="859" spans="1:21" ht="18" customHeight="1">
       <c r="A859" s="1"/>
-      <c r="B859" s="27"/>
+      <c r="B859" s="26"/>
       <c r="C859" s="17"/>
       <c r="D859" s="11"/>
       <c r="E859" s="11"/>
@@ -20785,7 +20854,7 @@
     </row>
     <row r="860" spans="1:21" ht="18" customHeight="1">
       <c r="A860" s="1"/>
-      <c r="B860" s="27"/>
+      <c r="B860" s="26"/>
       <c r="C860" s="17"/>
       <c r="D860" s="11"/>
       <c r="E860" s="11"/>
@@ -20808,7 +20877,7 @@
     </row>
     <row r="861" spans="1:21" ht="18" customHeight="1">
       <c r="A861" s="1"/>
-      <c r="B861" s="27"/>
+      <c r="B861" s="26"/>
       <c r="C861" s="17"/>
       <c r="D861" s="11"/>
       <c r="E861" s="11"/>
@@ -20831,7 +20900,7 @@
     </row>
     <row r="862" spans="1:21" ht="18" customHeight="1">
       <c r="A862" s="1"/>
-      <c r="B862" s="27"/>
+      <c r="B862" s="26"/>
       <c r="C862" s="17"/>
       <c r="D862" s="11"/>
       <c r="E862" s="11"/>
@@ -20854,7 +20923,7 @@
     </row>
     <row r="863" spans="1:21" ht="18" customHeight="1">
       <c r="A863" s="1"/>
-      <c r="B863" s="27"/>
+      <c r="B863" s="26"/>
       <c r="C863" s="17"/>
       <c r="D863" s="11"/>
       <c r="E863" s="11"/>
@@ -20877,7 +20946,7 @@
     </row>
     <row r="864" spans="1:21" ht="18" customHeight="1">
       <c r="A864" s="1"/>
-      <c r="B864" s="27"/>
+      <c r="B864" s="26"/>
       <c r="C864" s="17"/>
       <c r="D864" s="11"/>
       <c r="E864" s="11"/>
@@ -20900,7 +20969,7 @@
     </row>
     <row r="865" spans="1:21" ht="18" customHeight="1">
       <c r="A865" s="1"/>
-      <c r="B865" s="27"/>
+      <c r="B865" s="26"/>
       <c r="C865" s="17"/>
       <c r="D865" s="11"/>
       <c r="E865" s="11"/>
@@ -20923,7 +20992,7 @@
     </row>
     <row r="866" spans="1:21" ht="18" customHeight="1">
       <c r="A866" s="1"/>
-      <c r="B866" s="27"/>
+      <c r="B866" s="26"/>
       <c r="C866" s="17"/>
       <c r="D866" s="11"/>
       <c r="E866" s="11"/>
@@ -20946,7 +21015,7 @@
     </row>
     <row r="867" spans="1:21" ht="18" customHeight="1">
       <c r="A867" s="1"/>
-      <c r="B867" s="27"/>
+      <c r="B867" s="26"/>
       <c r="C867" s="17"/>
       <c r="D867" s="11"/>
       <c r="E867" s="11"/>
@@ -20969,7 +21038,7 @@
     </row>
     <row r="868" spans="1:21" ht="18" customHeight="1">
       <c r="A868" s="1"/>
-      <c r="B868" s="27"/>
+      <c r="B868" s="26"/>
       <c r="C868" s="17"/>
       <c r="D868" s="11"/>
       <c r="E868" s="11"/>
@@ -20992,7 +21061,7 @@
     </row>
     <row r="869" spans="1:21" ht="18" customHeight="1">
       <c r="A869" s="1"/>
-      <c r="B869" s="27"/>
+      <c r="B869" s="26"/>
       <c r="C869" s="17"/>
       <c r="D869" s="11"/>
       <c r="E869" s="11"/>
@@ -21015,7 +21084,7 @@
     </row>
     <row r="870" spans="1:21" ht="18" customHeight="1">
       <c r="A870" s="1"/>
-      <c r="B870" s="27"/>
+      <c r="B870" s="26"/>
       <c r="C870" s="17"/>
       <c r="D870" s="11"/>
       <c r="E870" s="11"/>
@@ -21038,7 +21107,7 @@
     </row>
     <row r="871" spans="1:21" ht="18" customHeight="1">
       <c r="A871" s="1"/>
-      <c r="B871" s="27"/>
+      <c r="B871" s="26"/>
       <c r="C871" s="17"/>
       <c r="D871" s="11"/>
       <c r="E871" s="11"/>
@@ -21061,7 +21130,7 @@
     </row>
     <row r="872" spans="1:21" ht="18" customHeight="1">
       <c r="A872" s="1"/>
-      <c r="B872" s="27"/>
+      <c r="B872" s="26"/>
       <c r="C872" s="17"/>
       <c r="D872" s="11"/>
       <c r="E872" s="11"/>
@@ -21084,7 +21153,7 @@
     </row>
     <row r="873" spans="1:21" ht="18" customHeight="1">
       <c r="A873" s="1"/>
-      <c r="B873" s="27"/>
+      <c r="B873" s="26"/>
       <c r="C873" s="17"/>
       <c r="D873" s="11"/>
       <c r="E873" s="11"/>
@@ -21107,7 +21176,7 @@
     </row>
     <row r="874" spans="1:21" ht="18" customHeight="1">
       <c r="A874" s="1"/>
-      <c r="B874" s="27"/>
+      <c r="B874" s="26"/>
       <c r="C874" s="17"/>
       <c r="D874" s="11"/>
       <c r="E874" s="11"/>
@@ -21130,7 +21199,7 @@
     </row>
     <row r="875" spans="1:21" ht="18" customHeight="1">
       <c r="A875" s="1"/>
-      <c r="B875" s="27"/>
+      <c r="B875" s="26"/>
       <c r="C875" s="17"/>
       <c r="D875" s="11"/>
       <c r="E875" s="11"/>
@@ -21153,7 +21222,7 @@
     </row>
     <row r="876" spans="1:21" ht="18" customHeight="1">
       <c r="A876" s="1"/>
-      <c r="B876" s="27"/>
+      <c r="B876" s="26"/>
       <c r="C876" s="17"/>
       <c r="D876" s="11"/>
       <c r="E876" s="11"/>
@@ -21176,7 +21245,7 @@
     </row>
     <row r="877" spans="1:21" ht="18" customHeight="1">
       <c r="A877" s="1"/>
-      <c r="B877" s="27"/>
+      <c r="B877" s="26"/>
       <c r="C877" s="17"/>
       <c r="D877" s="11"/>
       <c r="E877" s="11"/>
@@ -21199,7 +21268,7 @@
     </row>
     <row r="878" spans="1:21" ht="18" customHeight="1">
       <c r="A878" s="1"/>
-      <c r="B878" s="27"/>
+      <c r="B878" s="26"/>
       <c r="C878" s="17"/>
       <c r="D878" s="11"/>
       <c r="E878" s="11"/>
@@ -21222,7 +21291,7 @@
     </row>
     <row r="879" spans="1:21" ht="18" customHeight="1">
       <c r="A879" s="1"/>
-      <c r="B879" s="27"/>
+      <c r="B879" s="26"/>
       <c r="C879" s="17"/>
       <c r="D879" s="11"/>
       <c r="E879" s="11"/>
@@ -21245,7 +21314,7 @@
     </row>
     <row r="880" spans="1:21" ht="18" customHeight="1">
       <c r="A880" s="1"/>
-      <c r="B880" s="27"/>
+      <c r="B880" s="26"/>
       <c r="C880" s="17"/>
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
@@ -21268,7 +21337,7 @@
     </row>
     <row r="881" spans="1:21" ht="18" customHeight="1">
       <c r="A881" s="1"/>
-      <c r="B881" s="27"/>
+      <c r="B881" s="26"/>
       <c r="C881" s="17"/>
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
@@ -21291,7 +21360,7 @@
     </row>
     <row r="882" spans="1:21" ht="18" customHeight="1">
       <c r="A882" s="1"/>
-      <c r="B882" s="27"/>
+      <c r="B882" s="26"/>
       <c r="C882" s="17"/>
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
@@ -21314,7 +21383,7 @@
     </row>
     <row r="883" spans="1:21" ht="18" customHeight="1">
       <c r="A883" s="1"/>
-      <c r="B883" s="27"/>
+      <c r="B883" s="26"/>
       <c r="C883" s="17"/>
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
@@ -21337,7 +21406,7 @@
     </row>
     <row r="884" spans="1:21" ht="18" customHeight="1">
       <c r="A884" s="1"/>
-      <c r="B884" s="27"/>
+      <c r="B884" s="26"/>
       <c r="C884" s="17"/>
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
@@ -21360,7 +21429,7 @@
     </row>
     <row r="885" spans="1:21" ht="18" customHeight="1">
       <c r="A885" s="1"/>
-      <c r="B885" s="27"/>
+      <c r="B885" s="26"/>
       <c r="C885" s="17"/>
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
@@ -21383,7 +21452,7 @@
     </row>
     <row r="886" spans="1:21" ht="18" customHeight="1">
       <c r="A886" s="1"/>
-      <c r="B886" s="27"/>
+      <c r="B886" s="26"/>
       <c r="C886" s="17"/>
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
@@ -21406,7 +21475,7 @@
     </row>
     <row r="887" spans="1:21" ht="18" customHeight="1">
       <c r="A887" s="1"/>
-      <c r="B887" s="27"/>
+      <c r="B887" s="26"/>
       <c r="C887" s="17"/>
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
@@ -21429,7 +21498,7 @@
     </row>
     <row r="888" spans="1:21" ht="18" customHeight="1">
       <c r="A888" s="1"/>
-      <c r="B888" s="27"/>
+      <c r="B888" s="26"/>
       <c r="C888" s="17"/>
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
@@ -21452,7 +21521,7 @@
     </row>
     <row r="889" spans="1:21" ht="18" customHeight="1">
       <c r="A889" s="1"/>
-      <c r="B889" s="27"/>
+      <c r="B889" s="26"/>
       <c r="C889" s="17"/>
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
@@ -21475,7 +21544,7 @@
     </row>
     <row r="890" spans="1:21" ht="18" customHeight="1">
       <c r="A890" s="1"/>
-      <c r="B890" s="27"/>
+      <c r="B890" s="26"/>
       <c r="C890" s="17"/>
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
@@ -21498,7 +21567,7 @@
     </row>
     <row r="891" spans="1:21" ht="18" customHeight="1">
       <c r="A891" s="1"/>
-      <c r="B891" s="27"/>
+      <c r="B891" s="26"/>
       <c r="C891" s="17"/>
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
@@ -21521,7 +21590,7 @@
     </row>
     <row r="892" spans="1:21" ht="18" customHeight="1">
       <c r="A892" s="1"/>
-      <c r="B892" s="27"/>
+      <c r="B892" s="26"/>
       <c r="C892" s="17"/>
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
@@ -21544,7 +21613,7 @@
     </row>
     <row r="893" spans="1:21" ht="18" customHeight="1">
       <c r="A893" s="1"/>
-      <c r="B893" s="27"/>
+      <c r="B893" s="26"/>
       <c r="C893" s="17"/>
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
@@ -21567,7 +21636,7 @@
     </row>
     <row r="894" spans="1:21" ht="18" customHeight="1">
       <c r="A894" s="1"/>
-      <c r="B894" s="27"/>
+      <c r="B894" s="26"/>
       <c r="C894" s="17"/>
       <c r="D894" s="11"/>
       <c r="E894" s="11"/>
@@ -21590,7 +21659,7 @@
     </row>
     <row r="895" spans="1:21" ht="18" customHeight="1">
       <c r="A895" s="1"/>
-      <c r="B895" s="27"/>
+      <c r="B895" s="26"/>
       <c r="C895" s="17"/>
       <c r="D895" s="11"/>
       <c r="E895" s="11"/>
@@ -21613,7 +21682,7 @@
     </row>
     <row r="896" spans="1:21" ht="18" customHeight="1">
       <c r="A896" s="1"/>
-      <c r="B896" s="27"/>
+      <c r="B896" s="26"/>
       <c r="C896" s="17"/>
       <c r="D896" s="11"/>
       <c r="E896" s="11"/>
@@ -21636,7 +21705,7 @@
     </row>
     <row r="897" spans="1:21" ht="18" customHeight="1">
       <c r="A897" s="1"/>
-      <c r="B897" s="27"/>
+      <c r="B897" s="26"/>
       <c r="C897" s="17"/>
       <c r="D897" s="11"/>
       <c r="E897" s="11"/>
@@ -21659,7 +21728,7 @@
     </row>
     <row r="898" spans="1:21" ht="18" customHeight="1">
       <c r="A898" s="1"/>
-      <c r="B898" s="27"/>
+      <c r="B898" s="26"/>
       <c r="C898" s="17"/>
       <c r="D898" s="11"/>
       <c r="E898" s="11"/>
@@ -21682,7 +21751,7 @@
     </row>
     <row r="899" spans="1:21" ht="18" customHeight="1">
       <c r="A899" s="1"/>
-      <c r="B899" s="27"/>
+      <c r="B899" s="26"/>
       <c r="C899" s="17"/>
       <c r="D899" s="11"/>
       <c r="E899" s="11"/>
@@ -21705,7 +21774,7 @@
     </row>
     <row r="900" spans="1:21" ht="18" customHeight="1">
       <c r="A900" s="1"/>
-      <c r="B900" s="27"/>
+      <c r="B900" s="26"/>
       <c r="C900" s="17"/>
       <c r="D900" s="11"/>
       <c r="E900" s="11"/>
@@ -21728,7 +21797,7 @@
     </row>
     <row r="901" spans="1:21" ht="18" customHeight="1">
       <c r="A901" s="1"/>
-      <c r="B901" s="27"/>
+      <c r="B901" s="26"/>
       <c r="C901" s="17"/>
       <c r="D901" s="11"/>
       <c r="E901" s="11"/>
@@ -21751,7 +21820,7 @@
     </row>
     <row r="902" spans="1:21" ht="18" customHeight="1">
       <c r="A902" s="1"/>
-      <c r="B902" s="27"/>
+      <c r="B902" s="26"/>
       <c r="C902" s="17"/>
       <c r="D902" s="11"/>
       <c r="E902" s="11"/>
@@ -21774,7 +21843,7 @@
     </row>
     <row r="903" spans="1:21" ht="18" customHeight="1">
       <c r="A903" s="1"/>
-      <c r="B903" s="27"/>
+      <c r="B903" s="26"/>
       <c r="C903" s="17"/>
       <c r="D903" s="11"/>
       <c r="E903" s="11"/>
@@ -21797,7 +21866,7 @@
     </row>
     <row r="904" spans="1:21" ht="18" customHeight="1">
       <c r="A904" s="1"/>
-      <c r="B904" s="27"/>
+      <c r="B904" s="26"/>
       <c r="C904" s="17"/>
       <c r="D904" s="11"/>
       <c r="E904" s="11"/>
@@ -21820,7 +21889,7 @@
     </row>
     <row r="905" spans="1:21" ht="18" customHeight="1">
       <c r="A905" s="1"/>
-      <c r="B905" s="27"/>
+      <c r="B905" s="26"/>
       <c r="C905" s="17"/>
       <c r="D905" s="11"/>
       <c r="E905" s="11"/>
@@ -21843,7 +21912,7 @@
     </row>
     <row r="906" spans="1:21" ht="18" customHeight="1">
       <c r="A906" s="1"/>
-      <c r="B906" s="27"/>
+      <c r="B906" s="26"/>
       <c r="C906" s="17"/>
       <c r="D906" s="11"/>
       <c r="E906" s="11"/>
@@ -21866,7 +21935,7 @@
     </row>
     <row r="907" spans="1:21" ht="18" customHeight="1">
       <c r="A907" s="1"/>
-      <c r="B907" s="27"/>
+      <c r="B907" s="26"/>
       <c r="C907" s="17"/>
       <c r="D907" s="11"/>
       <c r="E907" s="11"/>
@@ -21889,7 +21958,7 @@
     </row>
     <row r="908" spans="1:21" ht="18" customHeight="1">
       <c r="A908" s="1"/>
-      <c r="B908" s="27"/>
+      <c r="B908" s="26"/>
       <c r="C908" s="17"/>
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
@@ -21912,7 +21981,7 @@
     </row>
     <row r="909" spans="1:21" ht="18" customHeight="1">
       <c r="A909" s="1"/>
-      <c r="B909" s="27"/>
+      <c r="B909" s="26"/>
       <c r="C909" s="17"/>
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
@@ -21935,7 +22004,7 @@
     </row>
     <row r="910" spans="1:21" ht="18" customHeight="1">
       <c r="A910" s="1"/>
-      <c r="B910" s="27"/>
+      <c r="B910" s="26"/>
       <c r="C910" s="17"/>
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
@@ -21958,7 +22027,7 @@
     </row>
     <row r="911" spans="1:21" ht="18" customHeight="1">
       <c r="A911" s="1"/>
-      <c r="B911" s="27"/>
+      <c r="B911" s="26"/>
       <c r="C911" s="17"/>
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
@@ -21981,7 +22050,7 @@
     </row>
     <row r="912" spans="1:21" ht="18" customHeight="1">
       <c r="A912" s="1"/>
-      <c r="B912" s="27"/>
+      <c r="B912" s="26"/>
       <c r="C912" s="17"/>
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
@@ -22004,7 +22073,7 @@
     </row>
     <row r="913" spans="1:21" ht="18" customHeight="1">
       <c r="A913" s="1"/>
-      <c r="B913" s="27"/>
+      <c r="B913" s="26"/>
       <c r="C913" s="17"/>
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
@@ -22027,7 +22096,7 @@
     </row>
     <row r="914" spans="1:21" ht="18" customHeight="1">
       <c r="A914" s="1"/>
-      <c r="B914" s="27"/>
+      <c r="B914" s="26"/>
       <c r="C914" s="17"/>
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
@@ -22050,7 +22119,7 @@
     </row>
     <row r="915" spans="1:21" ht="18" customHeight="1">
       <c r="A915" s="1"/>
-      <c r="B915" s="27"/>
+      <c r="B915" s="26"/>
       <c r="C915" s="17"/>
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
@@ -22073,7 +22142,7 @@
     </row>
     <row r="916" spans="1:21" ht="18" customHeight="1">
       <c r="A916" s="1"/>
-      <c r="B916" s="27"/>
+      <c r="B916" s="26"/>
       <c r="C916" s="17"/>
       <c r="D916" s="11"/>
       <c r="E916" s="11"/>
@@ -22096,7 +22165,7 @@
     </row>
     <row r="917" spans="1:21" ht="18" customHeight="1">
       <c r="A917" s="1"/>
-      <c r="B917" s="27"/>
+      <c r="B917" s="26"/>
       <c r="C917" s="17"/>
       <c r="D917" s="11"/>
       <c r="E917" s="11"/>
@@ -22119,7 +22188,7 @@
     </row>
     <row r="918" spans="1:21" ht="18" customHeight="1">
       <c r="A918" s="1"/>
-      <c r="B918" s="27"/>
+      <c r="B918" s="26"/>
       <c r="C918" s="17"/>
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
@@ -22142,7 +22211,7 @@
     </row>
     <row r="919" spans="1:21" ht="18" customHeight="1">
       <c r="A919" s="1"/>
-      <c r="B919" s="27"/>
+      <c r="B919" s="26"/>
       <c r="C919" s="17"/>
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
@@ -22165,7 +22234,7 @@
     </row>
     <row r="920" spans="1:21" ht="18" customHeight="1">
       <c r="A920" s="1"/>
-      <c r="B920" s="27"/>
+      <c r="B920" s="26"/>
       <c r="C920" s="17"/>
       <c r="D920" s="11"/>
       <c r="E920" s="11"/>
@@ -22188,7 +22257,7 @@
     </row>
     <row r="921" spans="1:21" ht="18" customHeight="1">
       <c r="A921" s="1"/>
-      <c r="B921" s="27"/>
+      <c r="B921" s="26"/>
       <c r="C921" s="17"/>
       <c r="D921" s="11"/>
       <c r="E921" s="11"/>
@@ -22211,7 +22280,7 @@
     </row>
     <row r="922" spans="1:21" ht="18" customHeight="1">
       <c r="A922" s="1"/>
-      <c r="B922" s="27"/>
+      <c r="B922" s="26"/>
       <c r="C922" s="17"/>
       <c r="D922" s="11"/>
       <c r="E922" s="11"/>
@@ -22234,7 +22303,7 @@
     </row>
     <row r="923" spans="1:21" ht="18" customHeight="1">
       <c r="A923" s="1"/>
-      <c r="B923" s="27"/>
+      <c r="B923" s="26"/>
       <c r="C923" s="17"/>
       <c r="D923" s="11"/>
       <c r="E923" s="11"/>
@@ -22257,7 +22326,7 @@
     </row>
     <row r="924" spans="1:21" ht="18" customHeight="1">
       <c r="A924" s="1"/>
-      <c r="B924" s="27"/>
+      <c r="B924" s="26"/>
       <c r="C924" s="17"/>
       <c r="D924" s="11"/>
       <c r="E924" s="11"/>
@@ -22280,7 +22349,7 @@
     </row>
     <row r="925" spans="1:21" ht="18" customHeight="1">
       <c r="A925" s="1"/>
-      <c r="B925" s="27"/>
+      <c r="B925" s="26"/>
       <c r="C925" s="17"/>
       <c r="D925" s="11"/>
       <c r="E925" s="11"/>
@@ -22303,7 +22372,7 @@
     </row>
     <row r="926" spans="1:21" ht="18" customHeight="1">
       <c r="A926" s="1"/>
-      <c r="B926" s="27"/>
+      <c r="B926" s="26"/>
       <c r="C926" s="17"/>
       <c r="D926" s="11"/>
       <c r="E926" s="11"/>
@@ -22326,7 +22395,7 @@
     </row>
     <row r="927" spans="1:21" ht="18" customHeight="1">
       <c r="A927" s="1"/>
-      <c r="B927" s="27"/>
+      <c r="B927" s="26"/>
       <c r="C927" s="17"/>
       <c r="D927" s="11"/>
       <c r="E927" s="11"/>
@@ -22349,7 +22418,7 @@
     </row>
     <row r="928" spans="1:21" ht="18" customHeight="1">
       <c r="A928" s="1"/>
-      <c r="B928" s="27"/>
+      <c r="B928" s="26"/>
       <c r="C928" s="17"/>
       <c r="D928" s="11"/>
       <c r="E928" s="11"/>
@@ -22372,7 +22441,7 @@
     </row>
     <row r="929" spans="1:21" ht="18" customHeight="1">
       <c r="A929" s="1"/>
-      <c r="B929" s="27"/>
+      <c r="B929" s="26"/>
       <c r="C929" s="17"/>
       <c r="D929" s="11"/>
       <c r="E929" s="11"/>
@@ -22395,7 +22464,7 @@
     </row>
     <row r="930" spans="1:21" ht="18" customHeight="1">
       <c r="A930" s="1"/>
-      <c r="B930" s="27"/>
+      <c r="B930" s="26"/>
       <c r="C930" s="17"/>
       <c r="D930" s="11"/>
       <c r="E930" s="11"/>
@@ -22418,7 +22487,7 @@
     </row>
     <row r="931" spans="1:21" ht="18" customHeight="1">
       <c r="A931" s="1"/>
-      <c r="B931" s="27"/>
+      <c r="B931" s="26"/>
       <c r="C931" s="17"/>
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
@@ -22441,7 +22510,7 @@
     </row>
     <row r="932" spans="1:21" ht="18" customHeight="1">
       <c r="A932" s="1"/>
-      <c r="B932" s="27"/>
+      <c r="B932" s="26"/>
       <c r="C932" s="17"/>
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
@@ -22464,7 +22533,7 @@
     </row>
     <row r="933" spans="1:21" ht="18" customHeight="1">
       <c r="A933" s="1"/>
-      <c r="B933" s="27"/>
+      <c r="B933" s="26"/>
       <c r="C933" s="17"/>
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
@@ -22487,7 +22556,7 @@
     </row>
     <row r="934" spans="1:21" ht="18" customHeight="1">
       <c r="A934" s="1"/>
-      <c r="B934" s="27"/>
+      <c r="B934" s="26"/>
       <c r="C934" s="17"/>
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
@@ -22510,7 +22579,7 @@
     </row>
     <row r="935" spans="1:21" ht="18" customHeight="1">
       <c r="A935" s="1"/>
-      <c r="B935" s="27"/>
+      <c r="B935" s="26"/>
       <c r="C935" s="17"/>
       <c r="D935" s="11"/>
       <c r="E935" s="11"/>
@@ -22533,7 +22602,7 @@
     </row>
     <row r="936" spans="1:21" ht="18" customHeight="1">
       <c r="A936" s="1"/>
-      <c r="B936" s="27"/>
+      <c r="B936" s="26"/>
       <c r="C936" s="17"/>
       <c r="D936" s="11"/>
       <c r="E936" s="11"/>
@@ -22556,7 +22625,7 @@
     </row>
     <row r="937" spans="1:21" ht="18" customHeight="1">
       <c r="A937" s="1"/>
-      <c r="B937" s="27"/>
+      <c r="B937" s="26"/>
       <c r="C937" s="17"/>
       <c r="D937" s="11"/>
       <c r="E937" s="11"/>
@@ -22579,7 +22648,7 @@
     </row>
     <row r="938" spans="1:21" ht="18" customHeight="1">
       <c r="A938" s="1"/>
-      <c r="B938" s="27"/>
+      <c r="B938" s="26"/>
       <c r="C938" s="17"/>
       <c r="D938" s="11"/>
       <c r="E938" s="11"/>
@@ -22602,7 +22671,7 @@
     </row>
     <row r="939" spans="1:21" ht="18" customHeight="1">
       <c r="A939" s="1"/>
-      <c r="B939" s="27"/>
+      <c r="B939" s="26"/>
       <c r="C939" s="17"/>
       <c r="D939" s="11"/>
       <c r="E939" s="11"/>
@@ -22625,7 +22694,7 @@
     </row>
     <row r="940" spans="1:21" ht="18" customHeight="1">
       <c r="A940" s="1"/>
-      <c r="B940" s="27"/>
+      <c r="B940" s="26"/>
       <c r="C940" s="17"/>
       <c r="D940" s="11"/>
       <c r="E940" s="11"/>
@@ -22648,7 +22717,7 @@
     </row>
     <row r="941" spans="1:21" ht="18" customHeight="1">
       <c r="A941" s="1"/>
-      <c r="B941" s="27"/>
+      <c r="B941" s="26"/>
       <c r="C941" s="17"/>
       <c r="D941" s="11"/>
       <c r="E941" s="11"/>
@@ -22671,7 +22740,7 @@
     </row>
     <row r="942" spans="1:21" ht="18" customHeight="1">
       <c r="A942" s="1"/>
-      <c r="B942" s="27"/>
+      <c r="B942" s="26"/>
       <c r="C942" s="17"/>
       <c r="D942" s="11"/>
       <c r="E942" s="11"/>
@@ -22694,7 +22763,7 @@
     </row>
     <row r="943" spans="1:21" ht="18" customHeight="1">
       <c r="A943" s="1"/>
-      <c r="B943" s="27"/>
+      <c r="B943" s="26"/>
       <c r="C943" s="17"/>
       <c r="D943" s="11"/>
       <c r="E943" s="11"/>
@@ -22717,7 +22786,7 @@
     </row>
     <row r="944" spans="1:21" ht="18" customHeight="1">
       <c r="A944" s="1"/>
-      <c r="B944" s="27"/>
+      <c r="B944" s="26"/>
       <c r="C944" s="17"/>
       <c r="D944" s="11"/>
       <c r="E944" s="11"/>
@@ -22740,7 +22809,7 @@
     </row>
     <row r="945" spans="1:21" ht="18" customHeight="1">
       <c r="A945" s="1"/>
-      <c r="B945" s="27"/>
+      <c r="B945" s="26"/>
       <c r="C945" s="17"/>
       <c r="D945" s="11"/>
       <c r="E945" s="11"/>
@@ -22763,7 +22832,7 @@
     </row>
     <row r="946" spans="1:21" ht="18" customHeight="1">
       <c r="A946" s="1"/>
-      <c r="B946" s="27"/>
+      <c r="B946" s="26"/>
       <c r="C946" s="17"/>
       <c r="D946" s="11"/>
       <c r="E946" s="11"/>
@@ -22786,7 +22855,7 @@
     </row>
     <row r="947" spans="1:21" ht="18" customHeight="1">
       <c r="A947" s="1"/>
-      <c r="B947" s="27"/>
+      <c r="B947" s="26"/>
       <c r="C947" s="17"/>
       <c r="D947" s="11"/>
       <c r="E947" s="11"/>
@@ -22810,34 +22879,35 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_barcode.html" xr:uid="{06AFEFC9-E1E0-724D-9588-E5C8FB0CBA2C}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=rkeOwEgCN" xr:uid="{69D59F96-DC1D-2042-ACF3-843EE6A4EBA7}"/>
-    <hyperlink ref="D18" r:id="rId3" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=inv@l1d!" xr:uid="{18533D33-B490-4845-BF5D-24BBE6FE1AB4}"/>
-    <hyperlink ref="D19" r:id="rId4" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{7180FDCF-619A-0647-A045-E37DA8813888}"/>
-    <hyperlink ref="D20" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=EekmuNvCT" xr:uid="{D1E28D24-1ABA-CB4B-998F-D3C343BDCAF1}"/>
-    <hyperlink ref="D21" r:id="rId6" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{B3EC027A-E804-BC48-9268-DFE8AEC10637}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{60BECFF1-8FEE-194C-8B5E-AAAB962FA842}"/>
+    <hyperlink ref="D23" r:id="rId1" xr:uid="{BD8E136F-5889-4906-BE41-A6C80CF6BDD8}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{60BECFF1-8FEE-194C-8B5E-AAAB962FA842}"/>
+    <hyperlink ref="D21" r:id="rId3" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{B3EC027A-E804-BC48-9268-DFE8AEC10637}"/>
+    <hyperlink ref="D20" r:id="rId4" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=EekmuNvCT" xr:uid="{D1E28D24-1ABA-CB4B-998F-D3C343BDCAF1}"/>
+    <hyperlink ref="D19" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{7180FDCF-619A-0647-A045-E37DA8813888}"/>
+    <hyperlink ref="D18" r:id="rId6" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=inv@l1d!" xr:uid="{18533D33-B490-4845-BF5D-24BBE6FE1AB4}"/>
+    <hyperlink ref="D17" r:id="rId7" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_barcode.html?barcode=rkeOwEgCN" xr:uid="{69D59F96-DC1D-2042-ACF3-843EE6A4EBA7}"/>
+    <hyperlink ref="D16" r:id="rId8" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_barcode.html" xr:uid="{06AFEFC9-E1E0-724D-9588-E5C8FB0CBA2C}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23006,11 +23076,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075245DD-0B21-42AF-837E-557C93B33EF5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
+++ b/scripts/codemagic-ci/testing/PR-Test-Plan-Template-Android-QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="13_ncr:1_{24687699-AA8E-BD41-9C89-3AB04E7A76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB1044C-09D4-41E5-B425-F39A029B6F11}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{24687699-AA8E-BD41-9C89-3AB04E7A76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A914F4D-91D7-4752-874A-5C8AE6FD8718}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -540,12 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1025,7 +1019,7 @@
   <dimension ref="A1:U947"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="128" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="18" customHeight="1"/>
@@ -1418,8 +1412,8 @@
         <v>32</v>
       </c>
       <c r="B15" s="26"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="4"/>
@@ -1472,8 +1466,8 @@
         <v>36</v>
       </c>
       <c r="B17" s="25"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="19"/>
@@ -1511,8 +1505,8 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="1:21" ht="18" customHeight="1">
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="11"/>
@@ -1557,8 +1551,8 @@
       <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1">
-      <c r="C21" s="31"/>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="11"/>
@@ -1607,8 +1601,8 @@
         <v>43</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="11"/>
@@ -1629,7 +1623,7 @@
       <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="31" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="17"/>
@@ -1657,7 +1651,7 @@
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -22896,21 +22890,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5D778AC6A79A84EAA5B25C5A2BFF7B6" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4061397ea8fd8f272d8b26ba942e61d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cd0eaed-44fe-4f97-8632-c05a782ebbb7" xmlns:ns3="75164c79-2692-43d6-94a7-34b44bf80abd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b13378bff9c1c8ba474ff50185c4976f" ns2:_="" ns3:_="">
     <xsd:import namespace="3cd0eaed-44fe-4f97-8632-c05a782ebbb7"/>
@@ -23075,8 +23054,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55915E3D-8D32-4904-AE11-02FF4B35B651}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23084,5 +23078,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55915E3D-8D32-4904-AE11-02FF4B35B651}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F9D8340-318B-43DD-BE9C-C876AB21B0D8}"/>
 </file>